--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\InappExp\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anj Lasala\Documents\GitHub\InappExp\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="No. sentences tally" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -168,12 +169,675 @@
   </si>
   <si>
     <t>Total FN:</t>
+  </si>
+  <si>
+    <t>The main reason I don't want children is because I don't want to go through pregnancy. Morning sickness, loss of bladder control, you have to pee constantly, weird cravings, your mental ability decreases, you gain weight, your figure goes to shit....If someone showed up at my door with a newborn and handed it to me, I would raise that fucker like a champ. But if one month my period is late, and it turns out I'm pregnant, I would freak the fuck out.</t>
+  </si>
+  <si>
+    <t>I cant imagine how women can deal with the pain when they pull this shit out of their juju , oh god . :O</t>
+  </si>
+  <si>
+    <t>They are high as fuck when they give birth. Helps a lot.</t>
+  </si>
+  <si>
+    <t>And they still won't let us fuck them in the ass because it hurts. Bullshit.</t>
+  </si>
+  <si>
+    <t>Scumbag baby</t>
+  </si>
+  <si>
+    <t>Where the fuck goes the all the intestines?</t>
+  </si>
+  <si>
+    <t>Female human got infected via sex and the parasite grow in their body until they hatch out.</t>
+  </si>
+  <si>
+    <t>Nice...boobs gets bigger</t>
+  </si>
+  <si>
+    <t>Boobs will definitely grow more than that</t>
+  </si>
+  <si>
+    <t>Fuck humanity, I would never wish that pain on anybody. Don't worry, future imaginary wifey, we can adopt</t>
+  </si>
+  <si>
+    <t>All i can look at are the boobs</t>
+  </si>
+  <si>
+    <t>I love the boob growing</t>
+  </si>
+  <si>
+    <t>I may sound like an asshole, but I would be kind of relieved if my future wife couldn't have kids. I would love to be a dad someday, but the thought of my wife going through something like that and possibly dying while giving birth really terrifies me</t>
+  </si>
+  <si>
+    <t>that some scary shit dude</t>
+  </si>
+  <si>
+    <t>Poor intestine, it is just like, "hey what's going on, uterus plz, uterus stahp, guys some space please, well fuck"</t>
+  </si>
+  <si>
+    <t>I'm a simple man, I see a drawing of a baby growing inside naked woman, I fap</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vy-TE4OiaHg</t>
+  </si>
+  <si>
+    <t>He's fucking 21 and she's 30 something cmon﻿</t>
+  </si>
+  <si>
+    <t>Miranda is also older but shit happened and now she is not married anymore...﻿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milf bro﻿ </t>
+  </si>
+  <si>
+    <t>Yeah but she got kids and Justin can fuck anybody else lol﻿</t>
+  </si>
+  <si>
+    <t>she fucking fine. if he want to fuck her, that's all the reason he needs﻿</t>
+  </si>
+  <si>
+    <t>Well think about this way he fucks one of them why would he pick kourtney now he can't fuck any of the sisters. I would have gone with Kendall or khole on some real shit﻿</t>
+  </si>
+  <si>
+    <t>So that pussy is is still tight﻿</t>
+  </si>
+  <si>
+    <t>I'll take that back that pussy is lose﻿</t>
+  </si>
+  <si>
+    <t>her anus probably not tight anymore either﻿</t>
+  </si>
+  <si>
+    <t>Still fucking hot lol﻿</t>
+  </si>
+  <si>
+    <t>Lol you're a dumbass. Why would he even photoshop that. It's not like he was trying to make himself skinnier or some shit. Use common sense﻿</t>
+  </si>
+  <si>
+    <t>And his arms aren't through his sleeves in his jacket retards﻿</t>
+  </si>
+  <si>
+    <t>I bet you got a fat juicy butt﻿</t>
+  </si>
+  <si>
+    <t>well i like milfs because I can actually go balls deep, and the skin is softer rather than firm like a 20 yr old.﻿</t>
+  </si>
+  <si>
+    <t>are u fucking gay? Lol﻿</t>
+  </si>
+  <si>
+    <t>your a faggot﻿</t>
+  </si>
+  <si>
+    <t>Each year I hate Justin a little less. If he smashed her I'll never say nothing bad about him again.﻿</t>
+  </si>
+  <si>
+    <t>this is the stupidest shit ive seen today , i even went to school and there is a lot of stupid shit there.﻿</t>
+  </si>
+  <si>
+    <t>I agree - this was pathetic, desperate and sad...﻿</t>
+  </si>
+  <si>
+    <t>Every time she has sex she brings home the evidence. We will know in 9 months.﻿</t>
+  </si>
+  <si>
+    <t>Besides that wasnt he fucking kendel a while back? Lord knows they a bunch of dirty hoes﻿</t>
+  </si>
+  <si>
+    <t>That's so nasty she has 3 kids and she's 36 obviously she's the easiest to smash lol﻿</t>
+  </si>
+  <si>
+    <t>I'd fuck her any day . She a MILF﻿</t>
+  </si>
+  <si>
+    <t>how is Kourtney the easiest to smash ?﻿</t>
+  </si>
+  <si>
+    <t>sometimes i wonder why i even check back here once a month, like a dont really care and it just enrages me that people care so much.﻿</t>
+  </si>
+  <si>
+    <t>So besides her leaving a hotel that she very well could have stayed at, where is the evidence that they are hooking up? Clearly that picture is now irrelevant... TMZ is literally such bullshit﻿</t>
+  </si>
+  <si>
+    <t>Then why tf did u fucking say "but it's true" you fucking fucks﻿</t>
+  </si>
+  <si>
+    <t>his people say he started hitting on her... this video is bullshit﻿</t>
+  </si>
+  <si>
+    <t>maybe he's tired of basic generic hot bitches and wants to go milf﻿</t>
+  </si>
+  <si>
+    <t>so they hooked up..okay. congrats to the Canadian kid who fucked a milf.﻿</t>
+  </si>
+  <si>
+    <t>She's denying it so she won't look like a hypocrite.﻿</t>
+  </si>
+  <si>
+    <t>who cares if they are fucking god damn TMZ you on the Kardashians dick﻿</t>
+  </si>
+  <si>
+    <t>he smashin﻿</t>
+  </si>
+  <si>
+    <t>We all know if Kim can still lie saying her ass is real and kylie about them lips, Khloe increasing her ass and saying its due to squats, this i can also believe, The End﻿</t>
+  </si>
+  <si>
+    <t>ikr she's still quite bangin for someone with 3 kids. damn ;)﻿</t>
+  </si>
+  <si>
+    <t>This is so stupid. Get a life of your own tmz.</t>
+  </si>
+  <si>
+    <t>I blame faggot media outlets like TMZ for keeping this no talent midget relevant for this long.  Back in the day Vanilla Ice was gone in a couple of months, nowadays that douche would have a ten year run, he at least he had a hit record.﻿</t>
+  </si>
+  <si>
+    <t>If he can bone the tightest pussies in the world, why in the world would he want a worn out stretched pussy like KK's?﻿</t>
+  </si>
+  <si>
+    <t>This is fucking ridiculous. then again, Kourtney  was stupid enough to be with "lord" disick for so long. Why not.﻿</t>
+  </si>
+  <si>
+    <t>So because they were in the same hotel and a stupid Instagram and your "sources", they're hooking up. Outstanding logic TMZ﻿</t>
+  </si>
+  <si>
+    <t>why would she sleep with this pussy, what a downgrade from scott. This kid is a punk wannabe.﻿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin hooked up with Kendall and kourteny  </t>
+  </si>
+  <si>
+    <t>Milf chaser,lol﻿</t>
+  </si>
+  <si>
+    <t>out of all people why would she date Justin bebber, if she did so must have been high﻿</t>
+  </si>
+  <si>
+    <t>Man I swear tmz is just like a high school rumour club﻿</t>
+  </si>
+  <si>
+    <t>It's photoshop. I mean I don't like Bieber, but he sure did fool you guys, hard.﻿</t>
+  </si>
+  <si>
+    <t>This is stupider than the love triangle happening at my high school right now.﻿</t>
+  </si>
+  <si>
+    <t>Fuck outta here with tht boolshit don't report this shit﻿</t>
+  </si>
+  <si>
+    <t>bitch hooking up bitch</t>
+  </si>
+  <si>
+    <t>Yummy Mummy!﻿</t>
+  </si>
+  <si>
+    <t>I hate jasmin this motherfucker BITCH</t>
+  </si>
+  <si>
+    <t>Ever since Biebers nudes leaked, she hopped on that shit.﻿</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CdcnJtCW6ng</t>
+  </si>
+  <si>
+    <t>You're the same nigga who'd eat her cigarette filled shit if she said you could email her. lmfao﻿</t>
+  </si>
+  <si>
+    <t>WELL? did he ever get that DATE? UGHH I HATE CLIFFHANGERS﻿</t>
+  </si>
+  <si>
+    <t>Lana is fine as shit, idk why I always assumed she was like a 40+ year old lady﻿</t>
+  </si>
+  <si>
+    <t>if you wear socks with sandals, you deserve to be run the fuck over.﻿</t>
+  </si>
+  <si>
+    <t>number 2, deserved asshole.﻿</t>
+  </si>
+  <si>
+    <t>Like someone else said in the comments, Lana is fine, but for whatever reason one would assume she's 40. Not saying 40 year old women are not attractive, but clearly Lana is not 40, she just somehow gives of that vibe and I don't know why.﻿</t>
+  </si>
+  <si>
+    <t>I FUCKING LOVE LANA DEL REYEY﻿</t>
+  </si>
+  <si>
+    <t>this guy tryna blame her for driving there.. don't be a fucking creep and follow her everywhere then, hope it broke tbh﻿</t>
+  </si>
+  <si>
+    <t>he's weird. he's here. and he's queer. Lol jk﻿</t>
+  </si>
+  <si>
+    <t>That last one wasn't awkward, that was fucking badass. The camera guy is living the dream man.﻿</t>
+  </si>
+  <si>
+    <t>Lana's mine screw your Camera Guy﻿</t>
+  </si>
+  <si>
+    <t>lucky mother fucker﻿</t>
+  </si>
+  <si>
+    <t>Why are  white guys  so obsesesed with the size of a black mans dick and curious to know how he showers?...﻿</t>
+  </si>
+  <si>
+    <t>start banging out more videos like this, rather watch a 5min video then a 1min new celeb video, i want bloopers and funny shit lol﻿</t>
+  </si>
+  <si>
+    <t>DAMN BRO give me her email man SHES GORGEOUS!!!﻿</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=apUYsFDjJeY</t>
+  </si>
+  <si>
+    <t>having a ass plus money. well money for an ass lol﻿</t>
+  </si>
+  <si>
+    <t>Kris didn't mind when he was giving her the big black dick when she was 17 why would she care now﻿</t>
+  </si>
+  <si>
+    <t>Holy fuck... It just hit me.. Kim is 30+ &amp; was more my older brothers generation &amp; this bitch (Kylie) is taking her place so when I get 23 or some shit. The world will be all up Kylie's ass like they were up Kim's</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SuR3TMim5Oo</t>
+  </si>
+  <si>
+    <t>Kim got ass shots and lazer work. Shit looks like a diaper booty﻿</t>
+  </si>
+  <si>
+    <t>Her ass is real she just wears padded underwear sometimes﻿</t>
+  </si>
+  <si>
+    <t>just jealous  you don't have an ass.﻿</t>
+  </si>
+  <si>
+    <t>Ikr she was fat.﻿</t>
+  </si>
+  <si>
+    <t>Fuck now im horny! Back to pornhub﻿</t>
+  </si>
+  <si>
+    <t>Amber rose is a hoe﻿</t>
+  </si>
+  <si>
+    <t>just like her big bald head﻿</t>
+  </si>
+  <si>
+    <t>you stupid if you think that , her tits saggy asf only natural tits can. Her ass has cellulite﻿</t>
+  </si>
+  <si>
+    <t>she was a stripper at 14,15 all kind of men have been sicking them and she had a child so they are going to a bit floppy. AND TO BE HONEST ALL I SEE IS PERFECTLY MELLONS﻿</t>
+  </si>
+  <si>
+    <t>Kims ass is fake like the rest of her body and life. Amber 100% natural. Anybody that says Kim, ya must like fake better smh﻿</t>
+  </si>
+  <si>
+    <t>Amber wins because hers is real!!! These Kardashian dicks riders knows its true</t>
+  </si>
+  <si>
+    <t>u fuckin nerd Amber and Kim are better skinny bitches are boring﻿</t>
+  </si>
+  <si>
+    <t>Where's the black ladies at??? I know a list of famous black women who beat most of these girls. Smh. So disappointed</t>
+  </si>
+  <si>
+    <t>I notice the only guys who are into huge butts are blacks and hispanics. White men usually prefer their women slim and petite.﻿</t>
+  </si>
+  <si>
+    <t>both these chicks are fat and have celulite!!! ass is DISGUSTING!!!﻿</t>
+  </si>
+  <si>
+    <t>Hard to say. I have zero respect for Kim so it's hard to give her credit for anything... Gotta be Amber.﻿</t>
+  </si>
+  <si>
+    <t>Where is Kip Force ?? she has an amazing ass !!  As far as this list goes Jen Seltzer wins hands down just because she is fit and her ass looks amazing all the time ...Amber just has a fat ass not that I would kick her out of bed .﻿</t>
+  </si>
+  <si>
+    <t>I like big butts and I cannot lie﻿</t>
+  </si>
+  <si>
+    <t>So sad seing all these white girls being praised for their (often even fake) asses while black girls have always been shamed for it. I havent seen one black girl in this entire list while theyre the ones with big &amp; beautiful curves, always have been.﻿</t>
+  </si>
+  <si>
+    <t>I fuck both them hoes but I'd wanna fuck Amber more</t>
+  </si>
+  <si>
+    <t>Where nikki at tho . her ass bigger then all them besides that UGLY bitch﻿</t>
+  </si>
+  <si>
+    <t>Please Get Sophia Vegara off this list cos she doesn't belong there AT ALL. IF it were about boobs, yes but not Butt! She cannot even be compared to JLO!﻿</t>
+  </si>
+  <si>
+    <t>it cums down to which booty smells the  best I would fuck both of them tho﻿</t>
+  </si>
+  <si>
+    <t>bro this bitches was ugly.﻿</t>
+  </si>
+  <si>
+    <t>Who gives a fuck.﻿</t>
+  </si>
+  <si>
+    <t>there's definitely more girls with better asses then these one.  tmzaa﻿</t>
+  </si>
+  <si>
+    <t>To the people hating on Kim ya'll just mad cause she's got a better butt then you and its not fake.﻿</t>
+  </si>
+  <si>
+    <t>kim doesnt outright promote being a slut like amber so kim gets my vote﻿</t>
+  </si>
+  <si>
+    <t>I prefer boobs. Just Saying.﻿</t>
+  </si>
+  <si>
+    <t>both are filthy whores!﻿</t>
+  </si>
+  <si>
+    <t>&amp; they say white girls have no booty﻿</t>
+  </si>
+  <si>
+    <t>This list is racist.﻿</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/a97M88o#comment</t>
+  </si>
+  <si>
+    <t>Pg-13 means they can be fucked legally</t>
+  </si>
+  <si>
+    <t>you can't fuck animations weirdo</t>
+  </si>
+  <si>
+    <t>Any good hentai faptain?</t>
+  </si>
+  <si>
+    <t>Why do anime characters always yell like morons about everything?</t>
+  </si>
+  <si>
+    <t>This bitch won't stop falling over</t>
+  </si>
+  <si>
+    <t>I wonder what do guys think when they checkout a girl's ass or boobs..</t>
+  </si>
+  <si>
+    <t>They can fuck at 13 in japan (as far as i know) but they cant see panty shots in anime? I would say that is weird but it is japan, everything there is weird.</t>
+  </si>
+  <si>
+    <t>in the seikon no qwaser anime the guy has to suck boobs to gain power but in the pg13 THERE IS ALWAYS A RAY OF LIGHT A MADAFAKIN SUNBEAM HIDING THEM THIS IS JUST HORRIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://9gag.com/gag/aBYQnBZ </t>
+  </si>
+  <si>
+    <t>Wait, I can't see John Cen... Ohhh you sneaky bastard, I see what you did there</t>
+  </si>
+  <si>
+    <t>I'm not really sucked in those things but it's what defines this generation because it's a bunch of stupid trends. It just makes me sad how popular these ridiculous things are and that they define today's youth.</t>
+  </si>
+  <si>
+    <t>don't be sucked in by Facebook and other shit then. That's just the rubbish that the dumber part of generations bring along. It's always happened in history, always will. Avoid it and this can be one of the best generations out.</t>
+  </si>
+  <si>
+    <t>I do agree on that. Because social media is so big now and that is how these stupid trends are spread, it seems that everyone catches onto them and either follows them or joins them.</t>
+  </si>
+  <si>
+    <t>Yes, but that doesn't make this generation any worse than previous ones or future ones. The internet has changed a lot, but people aren't magically getting dumber because of it. People older than you think that this generation is shit, when this is actually due to something known as Juvenoia... They're not right, because people have been thinking that since the beginning of time.</t>
+  </si>
+  <si>
+    <t>so gay rights and a way of sending support to terrorism victims are stupid trends?</t>
+  </si>
+  <si>
+    <t>these things only happen in america... you selfish motherfuckers</t>
+  </si>
+  <si>
+    <t>The don't judge me challenge is a "challenge" for pussies. There is nothing difficult in doing that, so are most challenges teens find enjoyable to do.</t>
+  </si>
+  <si>
+    <t>It's probably the most idiotic challenge: pretty white girls making fun of people with features that aren't considered to be attractive by the society at large.</t>
+  </si>
+  <si>
+    <t>Stupid shit. Stupid shit everywhere.</t>
+  </si>
+  <si>
+    <t>It's a joke, not a dick. Don't take it so hard.</t>
+  </si>
+  <si>
+    <t>get lost little retarded snowflake,</t>
+  </si>
+  <si>
+    <t>What the stupid world</t>
+  </si>
+  <si>
+    <t>What's the weird painted face girl one?</t>
+  </si>
+  <si>
+    <t>Fuck I saw it blue and black then I looked again and it was white and golden</t>
+  </si>
+  <si>
+    <t>And it sucked....</t>
+  </si>
+  <si>
+    <t>Humanity has become pretty dumb...</t>
+  </si>
+  <si>
+    <t>Those lip suckers are so dumb</t>
+  </si>
+  <si>
+    <t>And more facts about our pathetic society...</t>
+  </si>
+  <si>
+    <t>We did some stupid shit, aren't we ...</t>
+  </si>
+  <si>
+    <t>So part of the world just lost some IQ points.And what about gay marriage</t>
+  </si>
+  <si>
+    <t>Just leave this shit in 2015</t>
+  </si>
+  <si>
+    <t>stupid gay ass year</t>
+  </si>
+  <si>
+    <t>To much stupidity in one pack</t>
+  </si>
+  <si>
+    <t>That fucking don't judge challenge really rattled my fucking cage</t>
+  </si>
+  <si>
+    <t>What a stupid year</t>
+  </si>
+  <si>
+    <t>2015 was a stupid year. Except for the bill that was passed</t>
+  </si>
+  <si>
+    <t>Omg the Kylie Jenner girl looks like she just had an orgasm</t>
+  </si>
+  <si>
+    <t>See how dumb "we" are getting? @v@</t>
+  </si>
+  <si>
+    <t>Oh come on, we've all become little sensitive bitches that whatever is said to us, we fall to the ground and cry. My grandfather who served in the war, would be rolling in his grave by how much we've all become pussies.</t>
+  </si>
+  <si>
+    <t>Damn 2015 was a shitty year</t>
+  </si>
+  <si>
+    <t>People are so fucking retarded...</t>
+  </si>
+  <si>
+    <t>I don't understand half this shit</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/azjLdGz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People always bitch about this scene. </t>
+  </si>
+  <si>
+    <t>and grievious was cool as fuck</t>
+  </si>
+  <si>
+    <t>I would just be that one guy who says fuck it and shoots a rocket.</t>
+  </si>
+  <si>
+    <t>before that imma have to smash everything to pieces</t>
+  </si>
+  <si>
+    <t>No wtf it looks cool that's why. Not every viewer is a sword fighting analyst. Fighting in movies are never correct. Ever seen kungfu movies? I'm a Muay Thai fighter and I don't bitch about the unnecessary moves. It's just for entertainment.</t>
+  </si>
+  <si>
+    <t>But looks badass</t>
+  </si>
+  <si>
+    <t>It looks fucking sick though</t>
+  </si>
+  <si>
+    <t>Still super badass</t>
+  </si>
+  <si>
+    <t>Flashlight swords are gay.</t>
+  </si>
+  <si>
+    <t>Your mom being fucked by your dad was useless.</t>
+  </si>
+  <si>
+    <t>Its called parrying numbnuts, it's a defensive maneuver used to safeguard oncoming attacks, they just happened to use it at the same time, plus obi wan taught anikin, so their forms are quite similar</t>
+  </si>
+  <si>
+    <t>To everyone trying to explain this: It still looks bloody stupid. Sword fights are supposed to be exciting, not make people laugh (unless it's a comedy). If any of you are directing something like this, just read up a little on sword choreography.</t>
+  </si>
+  <si>
+    <t>Still beter than the shit saber fights in The Force Awakens</t>
+  </si>
+  <si>
+    <t>Maybe useless but fucking cool to watch</t>
+  </si>
+  <si>
+    <t>Oh, would you stop whining you fuckin' babies?</t>
+  </si>
+  <si>
+    <t>I'm sick of people trying to justify this nonsense. It's been ten years and it just looks fucking dumb. Get over yourselves.</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/a8j9jpe#comment</t>
+  </si>
+  <si>
+    <t>I was just waiting for it to fuck up.</t>
+  </si>
+  <si>
+    <t>Fuck you and your gay snake.</t>
+  </si>
+  <si>
+    <t>This Gif is actually annoying as fuck.</t>
+  </si>
+  <si>
+    <t>I have ocdc it's like ocd but it fucking rocks.</t>
+  </si>
+  <si>
+    <t>I looked to the GIF hoping that at some point this will get fucked up.</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/aGRrvjw#comment</t>
+  </si>
+  <si>
+    <t>ISIS COULD HAVE FUCKED THAT GOAT YOU BASTARD!</t>
+  </si>
+  <si>
+    <t>Fuck hell dont spoil.</t>
+  </si>
+  <si>
+    <t>Fucking morgan.</t>
+  </si>
+  <si>
+    <t>Fucking spoiler.</t>
+  </si>
+  <si>
+    <t>Who will he fuck now?</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/aPG0B3q#comment</t>
+  </si>
+  <si>
+    <t>Why does it look like its fucking the hand?</t>
+  </si>
+  <si>
+    <t>And WHY THE FUCK do i need to see that?</t>
+  </si>
+  <si>
+    <t>Horsefly bites fucking hurt and they swell up to be huge!</t>
+  </si>
+  <si>
+    <t>Fuck those things.</t>
+  </si>
+  <si>
+    <t>I will kill those fuckers.</t>
+  </si>
+  <si>
+    <t>I hate those fucking things.</t>
+  </si>
+  <si>
+    <t>I hate these fuckers they're just as annoying as wasps.</t>
+  </si>
+  <si>
+    <t>Ewwwwww, I hate these filthy fuckers more than hornets.</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/aKByVVN#comment</t>
+  </si>
+  <si>
+    <t>finally a good idea to fuck those fuckers</t>
+  </si>
+  <si>
+    <t>Fucking idiots.</t>
+  </si>
+  <si>
+    <t>What the shit does this have to do with ocd?</t>
+  </si>
+  <si>
+    <t>smash this shit idiot.</t>
+  </si>
+  <si>
+    <t>Fuck that shit.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gflPTj0GxTc</t>
+  </si>
+  <si>
+    <t>You're pathetic if you follow this kind of shit.</t>
+  </si>
+  <si>
+    <t>Good shit fam</t>
+  </si>
+  <si>
+    <t>"Shit" dress</t>
+  </si>
+  <si>
+    <t>Literally looks like shit but still cool lol</t>
+  </si>
+  <si>
+    <t>No she's just wiping shit on herself, then rewinding the footage</t>
+  </si>
+  <si>
+    <t>1 sentence</t>
+  </si>
+  <si>
+    <t>2 sentences</t>
+  </si>
+  <si>
+    <t>3 sentences</t>
+  </si>
+  <si>
+    <t>4 sentences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 sentences </t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +863,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +872,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,17 +919,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,230 +1267,1458 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
+    <row r="3" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
+      <c r="A5" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
+      <c r="A7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
+      <c r="A8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
+      <c r="A10" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="5"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="5"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="5"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="5"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="5"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="251" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="252" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="253" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="5"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="255" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="256" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="257" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="5"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="259" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="260" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="262" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="263" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="5"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="265" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="266" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="267" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="268" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="269" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="270" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="5"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="272" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="273" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="275" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="276" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="277" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="278" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="279" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="280" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="5"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="282" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="283" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="284" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM(A2:E2)</f>
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="No. sentences tally" sheetId="2" r:id="rId2"/>
+    <sheet name="Testing" sheetId="3" r:id="rId2"/>
+    <sheet name="No. sentences tally" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="634">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -832,6 +833,1102 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Collected Comments</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/agVyWwn</t>
+  </si>
+  <si>
+    <t>( pee  constantly  ,  weird  cravings  ,  your  mental ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( figure  goes  to  shit  ...  If  someone  showed ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( would  raise  that  fucker  like  a  champ ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( would  freak  the  fuck  out ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( they  pull  this  shit  out  of  their  juju ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( :  O ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( are  high  as  fuck  when  they  give  birth ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( a  lot ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( n't  let  us  fuck  them  in  the  ass  because  it  hurts ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Bullshit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Scumbag  baby ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Where  the  fuck  goes  the  all  the  intestines ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( got  infected  via  sex  and  the  parasite  grow  in  their  body ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>() is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Nice  ...  boobs  gets  bigger ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Boobs  will  definitely  grow  more  than  that ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  humanity  ,  I  would ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( we  can  adopt ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( at  are  the  boobs ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  love  the  boob  growing ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( sound  like  an  asshole  ,  but  I  would ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( be  a  dad  someday  ,  but ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( birth  really  terrifies  me ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( that  some  scary  shit  dude ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Poor  intestine  ,  it  is ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( what  's  going  on  ,  uterus  plz  ,  uterus  stahp  ,  guys ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( please  ,  well  fuck  '' ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( baby  growing  inside  naked  woman  ,  I  fap ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( He  's  fucking  21  and  she  's  30  something  cmon ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( also  older  but  shit  happened  and  now  she ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ... ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( and  Justin  can  fuck  anybody  else  lol ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( she  fucking  fine ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( if  he  want  to  fuck  her  ,  that  's ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( reason  he  needs ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( this  way  he  fucks  one  of  them  why ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( he  ca  n't  fuck  any  of  the  sisters ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( on  some  real  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( So  that  pussy  is  is  still  tight ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( that  back  that  pussy  is  lose ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( her  anus  probably  not  tight  anymore  either ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Still  fucking  hot  lol ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( you  're  a  dumbass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Why  would  he ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( skinnier  or  some  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Use  common  sense ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( in  his  jacket  retards ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( a  fat  juicy  butt ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( well  i  like  milfs  because  I  can  actually  go  balls  deep  ,  and  the ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( are  u  fucking  gay ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( your  a  faggot ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Each  year  I  hate  Justin  a  little  less ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( If  he  smashed  her  I  'll  never  say  nothing  bad  about  him  again ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( this  is  the  stupidest  shit  ive  seen  today  , ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( a  lot  of  stupid  shit  there ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( -  this  was  pathetic  ,  desperate  and  sad  ... ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( time  she  has  sex  she  brings  home  the ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 9  months ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( that  wasnt  he  fucking  kendel  a  while  back ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( a  bunch  of  dirty  hoes ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( That  's  so  nasty  she  has  3  kids  and  she  's  36 ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( she  's  the  easiest  to  smash  lol ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  'd  fuck  her  any  day ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( She  a  MILF ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( the  easiest  to  smash ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( picture  is  now  irrelevant  ...  TMZ  is  literally  such  bullshit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( tf  did  u  fucking  say  ``  but  it  's  true  ''  you  fucking  fucks ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( this  video  is  bullshit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( he  's  tired  of  basic  generic  hot  bitches  and  wants  to  go  milf ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Canadian  kid  who  fucked  a  milf ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( She  's  denying  it ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( look  like  a  hypocrite ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( if  they  are  fucking  god  damn  TMZ  you  on  the  Kardashians  dick ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( he  smashin ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( lie  saying  her  ass  is  real  and  kylie ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Khloe  increasing  her  ass  and  saying  its  due ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( The  End ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ikr  she  's  still  quite ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 3  kids ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( This  is  so  stupid ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Get  a  life ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( tmz ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  blame  faggot  media  outlets  like  TMZ ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ,  nowadays  that  douche  would  have  a  ten ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( hit  record ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( the  tightest  pussies  in  the  world ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( stretched  pussy  like  KK ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( This  is  fucking  ridiculous ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( then  again  ,  Kourtney  was  stupid  enough  to  be  with ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( hotel  and  a  stupid  Instagram  and  your  `` ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( logic  TMZ ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( sleep  with  this  pussy  ,  what  a  downgrade  from  scott ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( This  kid  is  a  punk  wannabe ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( and  kourteny ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Milf  chaser  ,  lol ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( have  been  high ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( rumour  club ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  's  photoshop ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( he  sure  did  fool  you  guys  ,  hard ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( This  is  stupider  than  the  love  triangle ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  outta  here  with  tht  boolshit  do  n't  report  this  shit ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( bitch  hooking  up  bitch ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Mummy ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  hate  jasmin  this  motherfucker  BITCH ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Ever  since  Biebers  nudes  leaked ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( hopped  on  that  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 're  the  same  nigga  who  'd  eat  her  cigarette  filled  shit  if  she  said  you ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  fine  as  shit  ,  idk  why  I ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( old  lady ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( be  run  the  fuck  over ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 2  ,  deserved  asshole ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( assume  she  's  40 ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  FUCKING  LOVE  LANA  DEL  REYEY ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( n't  be  a  fucking  creep  and  follow  her ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( broke  tbh ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( he  's  weird ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( he  's  here ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( and  he  's  queer ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Lol  jk ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( ,  that  was  fucking  badass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( The  camera  guy ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( dream  man ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Lana  's  mine  screw  your  Camera  Guy ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( lucky  mother  fucker ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( a  black  mans  dick  and  curious  to  know ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( showers ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( start  banging  out  more  videos  like ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( bloopers  and  funny  shit  lol ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( DAMN  BRO  give  me  her ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( GORGEOUS  !!! ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( having  a  ass  plus  money ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( well  money  for  an  ass  lol ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( the  big  black  dick  when  she  was  17 ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( she  care  now ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Holy  fuck  ...  It  just  hit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( generation  &amp;  this  bitch  -LRB-  Kylie  -RRB-  is ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 23  or  some  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( The  world  will ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( up  Kylie  's  ass  like  they  were  up  Kim  's ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Kim  got  ass  shots  and  lazer  work ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Shit  looks  like  a  diaper  booty ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Her  ass  is  real  she  just ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( underwear  sometimes ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( n't  have  an  ass ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  now  im  horny ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Back  to  pornhub ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( rose  is  a  hoe ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( bald  head ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( you  stupid  if  you  think ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( her  tits  saggy  asf  only  natural  tits  can ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Her  ass  has  cellulite ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( she  was  a  stripper  at  14,15  all  kind ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( PERFECTLY  MELLONS ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Kims  ass  is  fake  like  the  rest  of ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ya  must  like  fake  better  smh ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( !!!  These  Kardashian  dicks  riders  knows  its  true ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( u  fuckin  nerd  Amber  and  Kim  are  better  skinny  bitches  are  boring ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Where  's  the ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( into  huge  butts  are  blacks  and  hispanics ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( have  celulite  !!!  ass  is  DISGUSTING  !!! ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Kim  so  it  's  hard  to  give ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Amber ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  Kip  Force  ??  she  has  an  amazing  ass  !!  As ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( fit  and  her  ass  looks  amazing  all  the ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( has  a  fat  ass  not  that  I  would ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( bed ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( like  big  butts  and  I  can  not  lie ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( -LRB-  often  even  fake  -RRB-  asses  while  black  girls  have  always  been  shamed  for  it ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  fuck  both  them  hoes  but  I  'd  wan  na  fuck  Amber  more ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( tho ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( it  were  about  boobs  , ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( but  not  Butt ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( JLO ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( it  cums  down  to  which  booty  smells  the  best  I  would  fuck  both  of  them  tho ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( bro  this  bitches  was  ugly ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Who  gives  a  fuck ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( To  the  people  hating  on  Kim  ya  'll ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( cause  she  's  got  a  better  butt  then  you  and  its  not  fake ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( promote  being  a  slut  like  amber  so  kim ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( my  vote ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  prefer  boobs ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Just  Saying ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( both  are  filthy  whores ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( girls  have  no  booty ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( This  list  is  racist ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( they  can  be  fucked  legally ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( you  ca  n't  fuck  animations  weirdo ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Any  good  hentai  faptain ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( always  yell  like  morons  about  everything ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( This  bitch  wo  n't  stop  falling  over ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( a  girl  's  ass  or  boobs ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( They  can  fuck  at  13  in  japan ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( say  that  is  weird  but  it  is  japan ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( everything  there  is  weird ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( guy  has  to  suck  boobs  to  gain  power  but ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( IS  JUST  HORRIBLE ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( you  sneaky  bastard  ,  I  see  what ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( there ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( not  really  sucked  in  those  things  but  it  's  what ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( generation  because  it  's  a  bunch  of  stupid  trends ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  just ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( how  popular  these  ridiculous  things  are  and  that ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( youth ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( do  n't  be  sucked  in  by  Facebook  and  other  shit  then ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( that  the  dumber  part  of ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  how  these  stupid  trends  are  spread  ,  it  seems  that  everyone ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( magically  getting  dumber  because  of  it ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( this  generation  is  shit  ,  when  this  is ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( time ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( so  gay  rights  and  a  way ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( support  to  terrorism  victims  are  stupid  trends ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( only  happen  in  america  ...  you  selfish  motherfuckers ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( The  do  n't  judge  me  challenge ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( challenge  ''  for  pussies ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( There  is  nothing ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( challenges  teens  find  enjoyable ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  's  probably  the  most  idiotic  challenge ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Stupid  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Stupid  shit  everywhere ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  's  a  joke  ,  not  a  dick ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( get  lost  little  retarded  snowflake  , ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( What  the  stupid  world ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( What  's  the  weird  painted ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  I  saw  it  blue ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( and  golden ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( And  it  sucked  ... ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( has  become  pretty  dumb  ... ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Those  lip  suckers  are  so  dumb ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( facts  about  our  pathetic  society  ... ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( We  did  some  stupid  shit  ,  are  n't  we  ... ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( points.And  what  about  gay  marriage ) is Inappropriate </t>
+  </si>
+  <si>
+    <t>( Just  leave  this  shit  in  2015 ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( stupid  gay  ass  year ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( much  stupidity  in  one  pack ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( That  fucking  do  n't  judge  challenge  really  rattled  my  fucking  cage ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( What  a  stupid  year ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 2015  was  a  stupid  year ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Except  for ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( was  passed ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( just  had  an  orgasm ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( See  how  dumb  ``  we  ''  are ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( become  little  sensitive  bitches  that  whatever  is  said ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( 've  all  become  pussies ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Damn  2015  was  a  shitty  year ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( People  are  so  fucking  retarded  ... ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( understand  half  this  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( People  always  bitch  about  this  scene ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( was  cool  as  fuck ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( guy  who  says  fuck  it  and  shoots  a  rocket ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( before  that  imma  have  to  smash  everything  to  pieces ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( No  wtf  it  looks  cool  that  's  why ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( viewer  is  a  sword  fighting ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Ever  seen  kungfu  movies ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  'm  a  Muay  Thai  fighter  and  I  do  n't  bitch  about  the  unnecessary  moves ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( looks  badass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  looks  fucking  sick  though ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Still  super  badass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Flashlight  swords  are  gay ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Your  mom  being  fucked  by  your  dad  was  useless ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( parrying  numbnuts  ,  it  's  a ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( maneuver  used  to  safeguard  oncoming  attacks ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( are  quite  similar ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  still  looks  bloody  stupid ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Sword  fights  are  supposed ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( unless  it  's  a  comedy ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( little  on  sword  choreography ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( beter  than  the  shit  saber  fights  in  The  Force  Awakens ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Maybe  useless  but  fucking  cool  to  watch ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( you  stop  whining  you  fuckin  '  babies ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( justify  this  nonsense ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It  's  been ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( it  just  looks  fucking  dumb ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Get  over  yourselves ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( for  it  to  fuck  up ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  you  and  your  gay  snake ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Gif  is  actually  annoying  as  fuck ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ocdc  it  's  like  ocd  but  it  fucking  rocks ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( this  will  get  fucked  up ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ISIS  COULD  HAVE  FUCKED  THAT  GOAT  YOU  BASTARD ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  hell  dont  spoil ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fucking  morgan ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fucking  spoiler ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Who  will  he  fuck  now ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( look  like  its  fucking  the  hand ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( And  WHY  THE  FUCK  do  i  need  to ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Horsefly  bites  fucking  hurt  and  they  swell ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  those  things ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  will  kill  those  fuckers ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  hate  those  fucking  things ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  hate  these  fuckers  they  're  just  as  annoying  as  wasps ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  hate  these  filthy  fuckers  more  than  hornets ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( good  idea  to  fuck  those  fuckers ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fucking  idiots ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( What  the  shit  does  this  have  to  do  with  ocd ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( smash  this  shit  idiot ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Fuck  that  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( You  're  pathetic  if  you  follow  this  kind  of  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Good  shit  fam ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( ``  Shit  ''  dress ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Literally  looks  like  shit  but  still  cool  lol ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( she  's  just  wiping  shit  on  herself  ,  then ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( the  footage ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( hands  covered  in  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Too  bad  that  the  magic  color  literally  looks  like  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Looks  like  shit  to  me ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Holy  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Holy  shit  his  fucking  hat  and  so  fell ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Holy  shit  thats  fucking  hard ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( did  n't  say  shit ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Oh  shit  it  's  chuckles ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  full  of  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  the  real  Shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Damn  that  shit  looks  comfortable ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  going  to  shit  a  brick ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( to  wimps  with  pussy  hands ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( pussy  hands  are  perfect  for  fapping  bro ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Comparing  dick  with  pussy ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( stop  being  a  pussy  about  it ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Guitarists  a  pussys ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( print  on  her  ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( You  stupid  ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( tight  ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Have  an  Ass  Full  of  Noodles ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( sucked  ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( is  an  aids-filled  cum  bubble  dripping  off  a  faggots  ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( it  out  your  ass  you  loose-cunted  whore ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( and  Dave  really  screw  last  night ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Screw  you ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  want  to  screw  your  ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>1st attempt</t>
+  </si>
+  <si>
+    <t>2nd attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( Screw  you ) is Inappropriate
+&lt;Inapp&gt;Screw&lt;/Inapp&gt; you ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to &lt;Inapp&gt;screw&lt;/Inapp&gt; your &lt;Inapp&gt;ass&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t>( and  Dave  really  screw  last  night ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did Jane and Dave really screw last night ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blow it out your &lt;Inapp&gt;ass&lt;/Inapp&gt; you loose-cunted &lt;Inapp&gt;whore&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this pictures is an aids-filled &lt;Inapp&gt;cum&lt;/Inapp&gt; bubble dripping off a &lt;Inapp&gt;faggots&lt;/Inapp&gt; &lt;Inapp&gt;ass&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;sucked&lt;/Inapp&gt; &lt;Inapp&gt;ass&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have an &lt;Inapp&gt;Ass&lt;/Inapp&gt; Full of Noodles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tight &lt;Inapp&gt;ass&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to make a face print on her &lt;Inapp&gt;ass&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You &lt;Inapp&gt;stupid&lt;/Inapp&gt; &lt;Inapp&gt;ass&lt;/Inapp&gt; ! </t>
+  </si>
+  <si>
+    <t>( Guitarists  a  pussys ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitarists a &lt;Inapp&gt;pussys&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>( stop  being  a  pussy  about  it ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You choose to facking play guitar or climb walls so stop being a pussy about it . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing &lt;Inapp&gt;dick&lt;/Inapp&gt; with &lt;Inapp&gt;pussy&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pussy hands are perfect for fapping bro </t>
+  </si>
+  <si>
+    <t>( to  wimps  with  pussy  hands ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ah we 're back to wimps with pussy hands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My computer is going to &lt;Inapp&gt;shit&lt;/Inapp&gt; a brick . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Damn&lt;/Inapp&gt; that &lt;Inapp&gt;shit&lt;/Inapp&gt; looks comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crack climbing is the real &lt;Inapp&gt;Shit&lt;/Inapp&gt; ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i play the cello and i can confirm that this only guitar stuff is full of &lt;Inapp&gt;shit&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh &lt;Inapp&gt;shit&lt;/Inapp&gt; it 's chuckles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy &lt;Inapp&gt;shit&lt;/Inapp&gt; thats &lt;Inapp&gt;fucking&lt;/Inapp&gt; hard </t>
+  </si>
+  <si>
+    <t>( did  n't  say  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>The fox did n't say &lt;Inapp&gt;shit&lt;/Inapp&gt; .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy &lt;Inapp&gt;shit&lt;/Inapp&gt; his &lt;Inapp&gt;fucking&lt;/Inapp&gt; hat and so fell off . </t>
+  </si>
+  <si>
+    <t>Holy &lt;Inapp&gt;shit&lt;/Inapp&gt; !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like &lt;Inapp&gt;shit&lt;/Inapp&gt; to me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too &lt;Inapp&gt;bad&lt;/Inapp&gt; that the magic color literally looks like &lt;Inapp&gt;shit&lt;/Inapp&gt; . </t>
   </si>
 </sst>
 </file>
@@ -883,7 +1980,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -934,11 +2031,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -948,6 +2071,59 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,7 +3787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>11</v>
       </c>
@@ -2651,6 +3827,3271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C431"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C368" sqref="C368"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+      <c r="B163" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="11"/>
+      <c r="B189" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="11"/>
+      <c r="B192" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="11"/>
+      <c r="B194" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="11"/>
+      <c r="B195" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="11"/>
+      <c r="B204" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="11"/>
+      <c r="B205" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="11"/>
+      <c r="B211" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="11"/>
+      <c r="B214" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="11"/>
+      <c r="B216" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B221" s="9"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="11"/>
+      <c r="B228" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="11"/>
+      <c r="B230" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="11"/>
+      <c r="B231" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="11"/>
+      <c r="B233" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+      <c r="B235" s="9"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B236" s="9"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="11"/>
+      <c r="B238" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="11"/>
+      <c r="B240" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="11"/>
+      <c r="B241" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="11"/>
+      <c r="B242" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="11"/>
+      <c r="B243" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="11"/>
+      <c r="B245" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="11"/>
+      <c r="B246" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="11"/>
+      <c r="B249" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="11"/>
+      <c r="B251" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="11"/>
+      <c r="B252" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="11"/>
+      <c r="B254" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="11"/>
+      <c r="B257" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="11"/>
+      <c r="B258" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="11"/>
+      <c r="B259" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="11"/>
+      <c r="B260" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="11"/>
+      <c r="B262" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="11"/>
+      <c r="B264" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="11"/>
+      <c r="B266" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="11"/>
+      <c r="B270" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="11"/>
+      <c r="B272" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="11"/>
+      <c r="B285" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="11"/>
+      <c r="B286" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="11"/>
+      <c r="B290" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="7"/>
+      <c r="B294" s="9"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B295" s="9"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="11"/>
+      <c r="B301" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="11"/>
+      <c r="B302" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="11"/>
+      <c r="B303" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="11"/>
+      <c r="B310" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="11"/>
+      <c r="B311" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="11"/>
+      <c r="B313" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="11"/>
+      <c r="B314" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="11"/>
+      <c r="B315" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="11"/>
+      <c r="B320" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="11"/>
+      <c r="B321" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="11"/>
+      <c r="B322" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="7"/>
+      <c r="B323" s="9"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B324" s="9"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="7"/>
+      <c r="B330" s="9"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B331" s="9"/>
+    </row>
+    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B337" s="9"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="11"/>
+      <c r="B340" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="11"/>
+      <c r="B342" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B348" s="9"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="7"/>
+      <c r="B351" s="9"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B352" s="9"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="7"/>
+      <c r="B354" s="9"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B355" s="9"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="7"/>
+      <c r="B358" s="9"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B359" s="9"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="7"/>
+      <c r="B361" s="9"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B362" s="9"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="7"/>
+      <c r="B364" s="9"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B365" s="9"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B368" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="11"/>
+      <c r="B369" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="C371" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="15"/>
+      <c r="B372" s="17"/>
+      <c r="C372" s="24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C373" s="18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="15"/>
+      <c r="B374" s="17"/>
+      <c r="C374" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375" s="9"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="15"/>
+      <c r="B377" s="17"/>
+      <c r="C377" s="21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C378" s="18" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="15"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C380" s="18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="15"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" s="9"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C383" s="18" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="15"/>
+      <c r="B384" s="17"/>
+      <c r="C384" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B385" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C385" s="18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="15"/>
+      <c r="B386" s="17"/>
+      <c r="C386" s="19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B387" s="9"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C388" s="18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="15"/>
+      <c r="B389" s="17"/>
+      <c r="C389" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C390" s="18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="15"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="9"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C393" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="15"/>
+      <c r="B394" s="17"/>
+      <c r="C394" s="19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B395" s="9"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B396" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C396" s="18" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="15"/>
+      <c r="B397" s="17"/>
+      <c r="C397" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B398" s="9"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C399" s="18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="15"/>
+      <c r="B400" s="17"/>
+      <c r="C400" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B401" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C401" s="18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="15"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C403" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="15"/>
+      <c r="B404" s="17"/>
+      <c r="C404" s="19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C405" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="15"/>
+      <c r="B406" s="17"/>
+      <c r="C406" s="19" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C407" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="15"/>
+      <c r="B408" s="17"/>
+      <c r="C408" s="19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B409" s="9"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C410" s="18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="15"/>
+      <c r="B411" s="17"/>
+      <c r="C411" s="19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B412" s="9"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C413" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="15"/>
+      <c r="B414" s="17"/>
+      <c r="C414" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C415" s="18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="15"/>
+      <c r="B416" s="17"/>
+      <c r="C416" s="19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C417" s="18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="15"/>
+      <c r="B418" s="17"/>
+      <c r="C418" s="19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C419" s="18" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="15"/>
+      <c r="B420" s="17"/>
+      <c r="C420" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B421" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C421" s="23" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A422" s="15"/>
+      <c r="B422" s="17"/>
+      <c r="C422" s="22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C423" s="18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="15"/>
+      <c r="B424" s="17"/>
+      <c r="C424" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B425" s="9"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B426" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C426" s="18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="15"/>
+      <c r="B427" s="17"/>
+      <c r="C427" s="19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="15"/>
+      <c r="B429" s="17"/>
+      <c r="C429" s="12"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B430" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C430" s="18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="15"/>
+      <c r="B431" s="17"/>
+      <c r="C431" s="19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="A371:A372"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="B405:B406"/>
+    <mergeCell ref="A405:A406"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B413:B414"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B423:B424"/>
+    <mergeCell ref="A423:A424"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B419:B420"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="A428:A429"/>
+    <mergeCell ref="B428:B429"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="A312:A315"/>
+    <mergeCell ref="A319:A322"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A300:A303"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="702">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -1929,13 +1929,217 @@
   </si>
   <si>
     <t xml:space="preserve">Too &lt;Inapp&gt;bad&lt;/Inapp&gt; that the magic color literally looks like &lt;Inapp&gt;shit&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are her hands covered in &lt;Inapp&gt;shit&lt;/Inapp&gt; ? </t>
+  </si>
+  <si>
+    <t>( 's  just  wiping  shit  on  herself  ,  then ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literally looks like &lt;Inapp&gt;shit&lt;/Inapp&gt; but still cool lol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`` &lt;Inapp&gt;Shit&lt;/Inapp&gt; '' dress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good &lt;Inapp&gt;shit&lt;/Inapp&gt; fam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You 're &lt;Inapp&gt;pathetic&lt;/Inapp&gt; if you follow this kind of &lt;Inapp&gt;shit&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Fuck&lt;/Inapp&gt; that &lt;Inapp&gt;shit&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;smash&lt;/Inapp&gt; this &lt;Inapp&gt;shit&lt;/Inapp&gt; &lt;Inapp&gt;idiot&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What the &lt;Inapp&gt;shit&lt;/Inapp&gt; does this have to do with &lt;Inapp&gt;ocd&lt;/Inapp&gt; ? </t>
+  </si>
+  <si>
+    <t>( Fucking  idiots ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Fucking&lt;/Inapp&gt; &lt;Inapp&gt;idiots&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t>finally a good idea to &lt;Inapp&gt;fuck&lt;/Inapp&gt; those &lt;Inapp&gt;fuckers&lt;/Inapp&gt;</t>
+  </si>
+  <si>
+    <t>Ewwwwww , I &lt;Inapp&gt;hate&lt;/Inapp&gt; these &lt;Inapp&gt;filthy&lt;/Inapp&gt; &lt;Inapp&gt;fuckers&lt;/Inapp&gt; more than hornets .</t>
+  </si>
+  <si>
+    <t>I &lt;Inapp&gt;hate&lt;/Inapp&gt; those &lt;Inapp&gt;fucking&lt;/Inapp&gt; things .</t>
+  </si>
+  <si>
+    <t>I will &lt;Inapp&gt;kill&lt;/Inapp&gt; those &lt;Inapp&gt;fuckers&lt;/Inapp&gt; .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Fuck&lt;/Inapp&gt; those things . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horsefly bites &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;hurt&lt;/Inapp&gt; and they swell up to be huge ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And WHY THE &lt;Inapp&gt;FUCK&lt;/Inapp&gt; do i need to see that ? </t>
+  </si>
+  <si>
+    <t>( look  like  its  fucking  the  hand ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does it look like its fucking the hand ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who will he &lt;Inapp&gt;fuck&lt;/Inapp&gt; now ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Fucking&lt;/Inapp&gt; spoiler . </t>
+  </si>
+  <si>
+    <t>( Fucking  morgan ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Fucking&lt;/Inapp&gt; morgan . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Fuck&lt;/Inapp&gt; &lt;Inapp&gt;hell&lt;/Inapp&gt; dont spoil . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISIS COULD HAVE &lt;Inapp&gt;FUCKED&lt;/Inapp&gt; THAT GOAT YOU &lt;Inapp&gt;BASTARD&lt;/Inapp&gt; ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I looked to the GIF hoping that at some point this will get &lt;Inapp&gt;fucked&lt;/Inapp&gt; up . </t>
+  </si>
+  <si>
+    <t>( it  's  like  ocd  but  it  fucking  rocks ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have ocdc it 's like &lt;Inapp&gt;ocd&lt;/Inapp&gt; but it &lt;Inapp&gt;fucking&lt;/Inapp&gt; rocks . </t>
+  </si>
+  <si>
+    <t>&lt;Inapp&gt;Fuck&lt;/Inapp&gt; you and your &lt;Inapp&gt;gay&lt;/Inapp&gt; snake .</t>
+  </si>
+  <si>
+    <t>( actually  annoying  as  fuck ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Gif is actually annoying as &lt;Inapp&gt;fuck&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t>I was just waiting for it to &lt;Inapp&gt;fuck&lt;/Inapp&gt; up .</t>
+  </si>
+  <si>
+    <t>( It  's ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I 'm sick of people trying to justify this &lt;Inapp&gt;nonsense&lt;/Inapp&gt; . It 's been ten years and it just looks &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;dumb&lt;/Inapp&gt; . Get over yourselves . </t>
+  </si>
+  <si>
+    <t>( stop  whining  you  fuckin  '  babies ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh , would you stop whining you fuckin ' babies ? </t>
+  </si>
+  <si>
+    <t>Maybe &lt;Inapp&gt;useless&lt;/Inapp&gt; but &lt;Inapp&gt;fucking&lt;/Inapp&gt; cool to watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still beter than the &lt;Inapp&gt;shit&lt;/Inapp&gt; saber fights in The Force Awakens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your mom being &lt;Inapp&gt;fucked&lt;/Inapp&gt; by your &lt;Inapp&gt;dad&lt;/Inapp&gt; was &lt;Inapp&gt;useless&lt;/Inapp&gt; . </t>
+  </si>
+  <si>
+    <t>Flashlight &lt;Inapp&gt;swords&lt;/Inapp&gt; are &lt;Inapp&gt;gay&lt;/Inapp&gt; .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still super &lt;Inapp&gt;badass&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>( It  looks  fucking  sick  though ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks fucking sick though </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But looks &lt;Inapp&gt;badass&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">before that &lt;Inapp&gt;imma&lt;/Inapp&gt; have to &lt;Inapp&gt;smash&lt;/Inapp&gt; everything to pieces </t>
+  </si>
+  <si>
+    <t>I would just be that one guy who says &lt;Inapp&gt;fuck&lt;/Inapp&gt; it and shoots a rocket .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and grievious was cool as &lt;Inapp&gt;fuck&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>People always &lt;Inapp&gt;bitch&lt;/Inapp&gt; about this &lt;Inapp&gt;scene&lt;/Inapp&gt; .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do n't understand half this &lt;Inapp&gt;shit&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>( People  are  so  fucking  retarded  ... ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>People are so &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;retarded&lt;/Inapp&gt; ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Damn&lt;/Inapp&gt; 2015 was a &lt;Inapp&gt;shitty&lt;/Inapp&gt; year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See how dumb `` we '' are getting ? @v @ </t>
+  </si>
+  <si>
+    <t>Omg the Kylie Jenner girl looks like she just had an &lt;Inapp&gt;orgasm&lt;/Inapp&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a &lt;Inapp&gt;stupid&lt;/Inapp&gt; year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 was a &lt;Inapp&gt;stupid&lt;/Inapp&gt; year . Except for the bill that was passed </t>
+  </si>
+  <si>
+    <t>That &lt;Inapp&gt;fucking&lt;/Inapp&gt; do n't &lt;Inapp&gt;judge&lt;/Inapp&gt; challenge really &lt;Inapp&gt;rattled&lt;/Inapp&gt; my &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;cage&lt;/Inapp&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To much &lt;Inapp&gt;stupidity&lt;/Inapp&gt; in one pack </t>
+  </si>
+  <si>
+    <t>&lt;Inapp&gt;stupid&lt;/Inapp&gt; &lt;Inapp&gt;gay&lt;/Inapp&gt; &lt;Inapp&gt;ass&lt;/Inapp&gt; year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just leave this &lt;Inapp&gt;shit&lt;/Inapp&gt; in 2015 </t>
+  </si>
+  <si>
+    <t>( points.And  what  about  gay  marriage ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So part of the world just lost some IQ points.And what about &lt;Inapp&gt;gay&lt;/Inapp&gt; marriage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We did some &lt;Inapp&gt;stupid&lt;/Inapp&gt; &lt;Inapp&gt;shit&lt;/Inapp&gt; , are n't we ... </t>
+  </si>
+  <si>
+    <t>We did some stupid shit, aren't we …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And more facts about our &lt;Inapp&gt;pathetic&lt;/Inapp&gt; &lt;Inapp&gt;society&lt;/Inapp&gt; ... </t>
+  </si>
+  <si>
+    <t>( Those  lip  suckers  are  so  dumb ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those lip &lt;Inapp&gt;suckers&lt;/Inapp&gt; are so &lt;Inapp&gt;dumb&lt;/Inapp&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,6 +2159,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1980,7 +2191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2057,11 +2268,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2085,25 +2540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2124,6 +2560,141 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3828,10 +4399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C431"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C368" sqref="C368"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C275" sqref="C275:C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,9 +4410,10 @@
     <col min="1" max="1" width="60.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="64.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>269</v>
       </c>
@@ -3852,85 +4424,85 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:3" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
       <c r="B6" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:3" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
@@ -3938,7 +4510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -3946,21 +4518,21 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
@@ -3968,7 +4540,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
@@ -3976,21 +4548,21 @@
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
       <c r="B21" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -3998,7 +4570,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -4006,27 +4578,27 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
       <c r="B25" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
       <c r="B26" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -4034,27 +4606,27 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
       <c r="B29" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
       <c r="B30" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
@@ -4062,23 +4634,23 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -4086,26 +4658,26 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
       <c r="B37" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
@@ -4113,47 +4685,47 @@
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
       <c r="B41" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
       <c r="B42" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
       <c r="B44" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
       <c r="B45" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>71</v>
       </c>
@@ -4161,7 +4733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>72</v>
       </c>
@@ -4169,7 +4741,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>73</v>
       </c>
@@ -4177,7 +4749,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
@@ -4185,39 +4757,39 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
       <c r="B51" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
       <c r="B52" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
       <c r="B53" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
       <c r="B54" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>76</v>
       </c>
@@ -4225,7 +4797,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>77</v>
       </c>
@@ -4233,21 +4805,21 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
       <c r="B58" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>79</v>
       </c>
@@ -4255,7 +4827,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>80</v>
       </c>
@@ -4263,35 +4835,35 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
       <c r="B62" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
       <c r="B64" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>83</v>
       </c>
@@ -4299,63 +4871,63 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
       <c r="B67" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
       <c r="B69" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
       <c r="B71" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
       <c r="B73" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>88</v>
       </c>
@@ -4363,7 +4935,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>89</v>
       </c>
@@ -4371,7 +4943,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>90</v>
       </c>
@@ -4379,7 +4951,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>91</v>
       </c>
@@ -4387,7 +4959,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>92</v>
       </c>
@@ -4395,7 +4967,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>93</v>
       </c>
@@ -4403,7 +4975,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>94</v>
       </c>
@@ -4411,21 +4983,21 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
       <c r="B82" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>96</v>
       </c>
@@ -4433,7 +5005,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>97</v>
       </c>
@@ -4441,149 +5013,149 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
       <c r="B86" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
       <c r="B87" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
       <c r="B89" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
       <c r="B91" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
       <c r="B92" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
       <c r="B94" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
       <c r="B95" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
       <c r="B97" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
       <c r="B98" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+    <row r="100" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
       <c r="B100" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
       <c r="B101" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
       <c r="B103" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+    <row r="104" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
       <c r="B105" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>106</v>
       </c>
@@ -4591,7 +5163,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>107</v>
       </c>
@@ -4599,19 +5171,19 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
       <c r="B109" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>109</v>
       </c>
@@ -4619,41 +5191,41 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
       <c r="B112" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
       <c r="B113" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
       <c r="B115" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>112</v>
       </c>
@@ -4661,7 +5233,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>113</v>
       </c>
@@ -4669,7 +5241,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>114</v>
       </c>
@@ -4677,7 +5249,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>115</v>
       </c>
@@ -4685,49 +5257,49 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="24" t="s">
         <v>116</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
       <c r="B121" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+    <row r="125" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
       <c r="B126" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>119</v>
       </c>
@@ -4735,21 +5307,21 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
       <c r="B129" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>121</v>
       </c>
@@ -4757,7 +5329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -4765,21 +5337,21 @@
         <v>382</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="24" t="s">
         <v>123</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="24"/>
       <c r="B133" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>124</v>
       </c>
@@ -4787,67 +5359,67 @@
         <v>384</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
       <c r="B136" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
         <v>126</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
       <c r="B138" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="24"/>
       <c r="B139" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="24"/>
       <c r="B140" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="24"/>
       <c r="B142" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="24"/>
       <c r="B143" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>128</v>
       </c>
@@ -4855,7 +5427,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>129</v>
       </c>
@@ -4863,165 +5435,165 @@
         <v>395</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="24"/>
       <c r="B147" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
       <c r="B149" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="24"/>
       <c r="B151" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="9"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B153" s="9"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="9"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="24" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="24"/>
       <c r="B156" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="24"/>
       <c r="B158" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="24"/>
       <c r="B160" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="24"/>
       <c r="B161" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="24"/>
       <c r="B162" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
       <c r="B163" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="9"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B165" s="9"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="9"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="24"/>
       <c r="B168" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="24" t="s">
         <v>139</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="24"/>
       <c r="B170" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>140</v>
       </c>
@@ -5029,7 +5601,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>141</v>
       </c>
@@ -5037,21 +5609,21 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="24"/>
       <c r="B174" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>143</v>
       </c>
@@ -5059,7 +5631,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>144</v>
       </c>
@@ -5067,55 +5639,55 @@
         <v>419</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="11" t="s">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="24"/>
       <c r="B178" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="24"/>
       <c r="B179" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="24"/>
       <c r="B181" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="24" t="s">
         <v>147</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="24"/>
       <c r="B183" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>148</v>
       </c>
@@ -5123,7 +5695,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>149</v>
       </c>
@@ -5131,35 +5703,35 @@
         <v>428</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="24" t="s">
         <v>150</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="24"/>
       <c r="B187" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="24" t="s">
         <v>151</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="24"/>
       <c r="B189" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>152</v>
       </c>
@@ -5167,47 +5739,47 @@
         <v>431</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="24" t="s">
         <v>153</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="24"/>
       <c r="B192" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="11" t="s">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="24" t="s">
         <v>154</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="24"/>
       <c r="B194" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="24"/>
       <c r="B195" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="24"/>
       <c r="B196" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>155</v>
       </c>
@@ -5215,27 +5787,27 @@
         <v>438</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
+    <row r="198" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="24"/>
       <c r="B199" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="24"/>
       <c r="B200" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>157</v>
       </c>
@@ -5243,7 +5815,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>158</v>
       </c>
@@ -5251,27 +5823,27 @@
         <v>441</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="24" t="s">
         <v>159</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="24"/>
       <c r="B204" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="24"/>
       <c r="B205" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>160</v>
       </c>
@@ -5279,11 +5851,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="9"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>161</v>
       </c>
@@ -5291,7 +5863,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>162</v>
       </c>
@@ -5299,55 +5871,55 @@
         <v>447</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="24" t="s">
         <v>163</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
+    <row r="211" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="24"/>
       <c r="B211" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B212" s="9"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="24"/>
       <c r="B214" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="11" t="s">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="24"/>
       <c r="B216" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>167</v>
       </c>
@@ -5355,7 +5927,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>168</v>
       </c>
@@ -5363,7 +5935,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>169</v>
       </c>
@@ -5371,17 +5943,17 @@
         <v>456</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="9"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B221" s="9"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>171</v>
       </c>
@@ -5389,7 +5961,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>172</v>
       </c>
@@ -5397,7 +5969,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>173</v>
       </c>
@@ -5405,7 +5977,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>174</v>
       </c>
@@ -5413,7 +5985,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>175</v>
       </c>
@@ -5421,189 +5993,191 @@
         <v>461</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="11" t="s">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="24" t="s">
         <v>176</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="24"/>
       <c r="B228" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="24" t="s">
         <v>177</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="24"/>
       <c r="B230" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="24"/>
       <c r="B231" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="11" t="s">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="24" t="s">
         <v>178</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="24"/>
       <c r="B233" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="9"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="9"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B236" s="9"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="24" t="s">
         <v>180</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="24"/>
       <c r="B238" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="11" t="s">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="24" t="s">
         <v>181</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
+    <row r="240" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="24"/>
       <c r="B240" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="24"/>
       <c r="B241" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
+    <row r="242" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="24"/>
       <c r="B242" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="24"/>
       <c r="B243" s="9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="11" t="s">
+    <row r="244" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="24" t="s">
         <v>182</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="24"/>
       <c r="B245" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="24"/>
       <c r="B246" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="24"/>
       <c r="B247" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="11" t="s">
+    <row r="248" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="26" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
-      <c r="B249" s="9" t="s">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="25"/>
+      <c r="B249" s="26" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="11" t="s">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="24" t="s">
         <v>184</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="24"/>
       <c r="B251" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="24"/>
       <c r="B252" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="11" t="s">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="24" t="s">
         <v>185</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="24"/>
       <c r="B254" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>186</v>
       </c>
@@ -5611,81 +6185,81 @@
         <v>483</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="11" t="s">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="24" t="s">
         <v>187</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="24"/>
       <c r="B257" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="24"/>
       <c r="B258" s="9" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="24"/>
       <c r="B259" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="24"/>
       <c r="B260" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="11" t="s">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="24" t="s">
         <v>188</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="24"/>
       <c r="B262" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="11" t="s">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="24" t="s">
         <v>189</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="24"/>
       <c r="B264" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="11" t="s">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="24"/>
       <c r="B266" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>191</v>
       </c>
@@ -5693,7 +6267,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>192</v>
       </c>
@@ -5701,35 +6275,35 @@
         <v>493</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="11" t="s">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="24" t="s">
         <v>193</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="24"/>
       <c r="B270" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="11" t="s">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="24" t="s">
         <v>194</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="24"/>
       <c r="B272" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>195</v>
       </c>
@@ -5737,7 +6311,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>196</v>
       </c>
@@ -5745,1280 +6319,2241 @@
         <v>498</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="7" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="18" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="7" t="s">
+      <c r="C275" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="21"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="12" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B277" s="18" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B277" s="9" t="s">
+      <c r="C277" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="21"/>
+      <c r="B278" s="19"/>
+      <c r="C278" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B279" s="18" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="7" t="s">
+      <c r="C279" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="21"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B281" s="18" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="7" t="s">
+      <c r="C281" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="21"/>
+      <c r="B282" s="19"/>
+      <c r="C282" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B283" s="18" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="7" t="s">
+      <c r="C283" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="21"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B285" s="18" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
+      <c r="C285" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="21"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B287" s="18" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="7" t="s">
+      <c r="C287" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="21"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B289" s="18" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="7" t="s">
+      <c r="C289" s="58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="21"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B291" s="46" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="11" t="s">
+      <c r="C291" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="32"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="42" t="s">
+        <v>689</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B293" s="36" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
-      <c r="B285" s="9" t="s">
+      <c r="C293" s="40" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="56"/>
+      <c r="B294" s="37" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
-      <c r="B286" s="9" t="s">
+      <c r="C294" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="56"/>
+      <c r="B295" s="37" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
+      <c r="C295" s="41" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="57"/>
+      <c r="B296" s="50"/>
+      <c r="C296" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B297" s="49" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="7" t="s">
+      <c r="C297" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="21"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B299" s="18" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="11" t="s">
+      <c r="C299" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="21"/>
+      <c r="B300" s="49"/>
+      <c r="C300" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B301" s="36" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
-      <c r="B290" s="9" t="s">
+      <c r="C301" s="33"/>
+    </row>
+    <row r="302" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="48"/>
+      <c r="B302" s="50" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
+      <c r="C302" s="34"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B303" s="49" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
+      <c r="C303" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="21"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B305" s="18" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+      <c r="C305" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="21"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="12" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B307" s="18" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="7"/>
-      <c r="B294" s="9"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+      <c r="C307" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="21"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B295" s="9"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="7" t="s">
+      <c r="B309" s="9"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B310" s="18" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="7" t="s">
+      <c r="C310" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="21"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B312" s="18" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="7" t="s">
+      <c r="C312" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="21"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B314" s="18" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A299" s="7" t="s">
+      <c r="C314" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="21"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B316" s="18" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="11" t="s">
+      <c r="C316" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="21"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B318" s="9" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
-      <c r="B301" s="9" t="s">
+      <c r="C318" s="27"/>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="24"/>
+      <c r="B319" s="9" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
-      <c r="B302" s="9" t="s">
+      <c r="C319" s="29"/>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="24"/>
+      <c r="B320" s="9" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
-      <c r="B303" s="9" t="s">
+      <c r="C320" s="29"/>
+    </row>
+    <row r="321" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="24"/>
+      <c r="B321" s="9" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="7" t="s">
+      <c r="C321" s="28"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B322" s="18" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="7" t="s">
+      <c r="C322" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="21"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B324" s="18" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="7" t="s">
+      <c r="C324" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="21"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="12" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B326" s="18" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="7" t="s">
+      <c r="C326" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="21"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="12" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B328" s="18" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
+      <c r="C328" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="21"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B330" s="46" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="11" t="s">
+      <c r="C330" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="32"/>
+      <c r="B331" s="46"/>
+      <c r="C331" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B332" s="47" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="11"/>
-      <c r="B310" s="9" t="s">
+      <c r="C332" s="44"/>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="48"/>
+      <c r="B333" s="37" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
-      <c r="B311" s="9" t="s">
+      <c r="C333" s="54"/>
+    </row>
+    <row r="334" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="48"/>
+      <c r="B334" s="50" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="11" t="s">
+      <c r="C334" s="45"/>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B335" s="36" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
-      <c r="B313" s="9" t="s">
+      <c r="C335" s="51"/>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="48"/>
+      <c r="B336" s="37" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="11"/>
-      <c r="B314" s="9" t="s">
+      <c r="C336" s="52"/>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="48"/>
+      <c r="B337" s="37" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="11"/>
-      <c r="B315" s="9" t="s">
+      <c r="C337" s="52"/>
+    </row>
+    <row r="338" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="48"/>
+      <c r="B338" s="50" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="7" t="s">
+      <c r="C338" s="53"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B339" s="49" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+      <c r="C339" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="21"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B341" s="46" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="7" t="s">
+      <c r="C341" s="40" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="32"/>
+      <c r="B342" s="46"/>
+      <c r="C342" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B343" s="46" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="11" t="s">
+      <c r="C343" s="40" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="32"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="42" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B345" s="47" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
-      <c r="B320" s="9" t="s">
+      <c r="C345" s="40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="31"/>
+      <c r="B346" s="37" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
-      <c r="B321" s="9" t="s">
+      <c r="C346" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="31"/>
+      <c r="B347" s="37" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
-      <c r="B322" s="9" t="s">
+      <c r="C347" s="41" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="31"/>
+      <c r="B348" s="38" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="7"/>
-      <c r="B323" s="9"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
+      <c r="C348" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="32"/>
+      <c r="B349" s="39"/>
+      <c r="C349" s="43" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B324" s="9"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
+      <c r="B350" s="35"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B351" s="18" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
+      <c r="C351" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="21"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B353" s="18" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
+      <c r="C353" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="21"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B355" s="18" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="7" t="s">
+      <c r="C355" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="21"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B357" s="18" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="7" t="s">
+      <c r="C357" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="21"/>
+      <c r="B358" s="19"/>
+      <c r="C358" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B359" s="18" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="7"/>
-      <c r="B330" s="9"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="7" t="s">
+      <c r="C359" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="21"/>
+      <c r="B360" s="19"/>
+      <c r="C360" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B331" s="9"/>
-    </row>
-    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
+      <c r="B361" s="9"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B362" s="18" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="7" t="s">
+      <c r="C362" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" s="21"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B364" s="18" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="7" t="s">
+      <c r="C364" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="21"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B366" s="18" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="7" t="s">
+      <c r="C366" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="21"/>
+      <c r="B367" s="19"/>
+      <c r="C367" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B368" s="18" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="7" t="s">
+      <c r="C368" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="21"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B370" s="18" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
+      <c r="C370" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="21"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B337" s="9"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
+      <c r="B372" s="9"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B373" s="18" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="11" t="s">
+      <c r="C373" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="21"/>
+      <c r="B374" s="19"/>
+      <c r="C374" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B375" s="9" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="11"/>
-      <c r="B340" s="9" t="s">
+      <c r="C375" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="24"/>
+      <c r="B376" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="11" t="s">
+      <c r="C376" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B377" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="11"/>
-      <c r="B342" s="9" t="s">
+      <c r="C377" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="21"/>
+      <c r="B378" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="7" t="s">
+      <c r="C378" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B379" s="18" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="7" t="s">
+      <c r="C379" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="21"/>
+      <c r="B380" s="19"/>
+      <c r="C380" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B381" s="18" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="7" t="s">
+      <c r="C381" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="21"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B383" s="18" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
+      <c r="C383" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="21"/>
+      <c r="B384" s="19"/>
+      <c r="C384" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B385" s="18" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
+      <c r="C385" s="27"/>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="21"/>
+      <c r="B386" s="19"/>
+      <c r="C386" s="28"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B387" s="18" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="7" t="s">
+      <c r="C387" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A388" s="21"/>
+      <c r="B388" s="19"/>
+      <c r="C388" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B348" s="9"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="7" t="s">
+      <c r="B389" s="9"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B390" s="18" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="7" t="s">
+      <c r="C390" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="21"/>
+      <c r="B391" s="19"/>
+      <c r="C391" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B392" s="18" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="7"/>
-      <c r="B351" s="9"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
+      <c r="C392" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="21"/>
+      <c r="B393" s="19"/>
+      <c r="C393" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B352" s="9"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="7" t="s">
+      <c r="B394" s="9"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B395" s="18" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="7"/>
-      <c r="B354" s="9"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="7" t="s">
+      <c r="C395" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="21"/>
+      <c r="B396" s="19"/>
+      <c r="C396" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B355" s="9"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
+      <c r="B397" s="9"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B398" s="18" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
+      <c r="C398" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="21"/>
+      <c r="B399" s="19"/>
+      <c r="C399" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B400" s="18" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="7"/>
-      <c r="B358" s="9"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="7" t="s">
+      <c r="C400" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="21"/>
+      <c r="B401" s="19"/>
+      <c r="C401" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B359" s="9"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="7" t="s">
+      <c r="B402" s="9"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B403" s="18" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="7"/>
-      <c r="B361" s="9"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="7" t="s">
+      <c r="C403" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="21"/>
+      <c r="B404" s="19"/>
+      <c r="C404" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B362" s="9"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="7" t="s">
+      <c r="B405" s="9"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B406" s="18" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="7"/>
-      <c r="B364" s="9"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="7" t="s">
+      <c r="C406" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="21"/>
+      <c r="B407" s="19"/>
+      <c r="C407" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B365" s="9"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="7" t="s">
+      <c r="B408" s="9"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B409" s="18" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="7" t="s">
+      <c r="C409" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="21"/>
+      <c r="B410" s="19"/>
+      <c r="C410" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B411" s="18" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="11" t="s">
+      <c r="C411" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="21"/>
+      <c r="B412" s="19"/>
+      <c r="C412" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B413" s="9" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="11"/>
-      <c r="B369" s="9" t="s">
+      <c r="C413" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="24"/>
+      <c r="B414" s="9" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="7" t="s">
+      <c r="C414" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B415" s="18" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="14" t="s">
+      <c r="C415" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="21"/>
+      <c r="B416" s="19"/>
+      <c r="C416" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B371" s="16" t="s">
+      <c r="B417" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="C371" s="18" t="s">
+      <c r="C417" s="11" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A372" s="15"/>
-      <c r="B372" s="17"/>
-      <c r="C372" s="24" t="s">
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="21"/>
+      <c r="B418" s="19"/>
+      <c r="C418" s="17" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="14" t="s">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B373" s="16" t="s">
+      <c r="B419" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="C373" s="18" t="s">
+      <c r="C419" s="11" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="15"/>
-      <c r="B374" s="17"/>
-      <c r="C374" s="19" t="s">
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="21"/>
+      <c r="B420" s="19"/>
+      <c r="C420" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="7" t="s">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B375" s="9"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="14" t="s">
+      <c r="B421" s="9"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B376" s="16" t="s">
+      <c r="B422" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="C376" s="20" t="s">
+      <c r="C422" s="13" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="15"/>
-      <c r="B377" s="17"/>
-      <c r="C377" s="21" t="s">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="21"/>
+      <c r="B423" s="19"/>
+      <c r="C423" s="14" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="14" t="s">
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B378" s="16" t="s">
+      <c r="B424" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="C378" s="18" t="s">
+      <c r="C424" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="15"/>
-      <c r="B379" s="17"/>
-      <c r="C379" s="19" t="s">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="21"/>
+      <c r="B425" s="19"/>
+      <c r="C425" s="12" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="14" t="s">
+      <c r="D425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B380" s="16" t="s">
+      <c r="B426" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="C380" s="18" t="s">
+      <c r="C426" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="15"/>
-      <c r="B381" s="17"/>
-      <c r="C381" s="19" t="s">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="21"/>
+      <c r="B427" s="19"/>
+      <c r="C427" s="12" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="7" t="s">
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B382" s="9"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="14" t="s">
+      <c r="B428" s="9"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B383" s="16" t="s">
+      <c r="B429" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="C383" s="18" t="s">
+      <c r="C429" s="11" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="15"/>
-      <c r="B384" s="17"/>
-      <c r="C384" s="19" t="s">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="21"/>
+      <c r="B430" s="19"/>
+      <c r="C430" s="12" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="14" t="s">
+      <c r="D430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B385" s="16" t="s">
+      <c r="B431" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="C385" s="18" t="s">
+      <c r="C431" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="15"/>
-      <c r="B386" s="17"/>
-      <c r="C386" s="19" t="s">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="21"/>
+      <c r="B432" s="19"/>
+      <c r="C432" s="12" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="7" t="s">
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B387" s="9"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="14" t="s">
+      <c r="B433" s="9"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B388" s="16" t="s">
+      <c r="B434" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="C388" s="18" t="s">
+      <c r="C434" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A389" s="15"/>
-      <c r="B389" s="17"/>
-      <c r="C389" s="24" t="s">
+    <row r="435" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A435" s="21"/>
+      <c r="B435" s="19"/>
+      <c r="C435" s="17" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="14" t="s">
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B390" s="16" t="s">
+      <c r="B436" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="C390" s="18" t="s">
+      <c r="C436" s="11" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="15"/>
-      <c r="B391" s="17"/>
-      <c r="C391" s="19" t="s">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="21"/>
+      <c r="B437" s="19"/>
+      <c r="C437" s="12" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="7" t="s">
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B392" s="9"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="14" t="s">
+      <c r="B438" s="9"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B393" s="16" t="s">
+      <c r="B439" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="C393" s="18" t="s">
+      <c r="C439" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="15"/>
-      <c r="B394" s="17"/>
-      <c r="C394" s="19" t="s">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="21"/>
+      <c r="B440" s="19"/>
+      <c r="C440" s="12" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="7" t="s">
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B395" s="9"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="14" t="s">
+      <c r="B441" s="9"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B396" s="16" t="s">
+      <c r="B442" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="C396" s="18" t="s">
+      <c r="C442" s="11" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="15"/>
-      <c r="B397" s="17"/>
-      <c r="C397" s="19" t="s">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="21"/>
+      <c r="B443" s="19"/>
+      <c r="C443" s="12" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="7" t="s">
+      <c r="D443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B398" s="9"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="14" t="s">
+      <c r="B444" s="9"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B399" s="16" t="s">
+      <c r="B445" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="C399" s="18" t="s">
+      <c r="C445" s="11" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
-      <c r="B400" s="17"/>
-      <c r="C400" s="19" t="s">
+      <c r="D445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="21"/>
+      <c r="B446" s="19"/>
+      <c r="C446" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="14" t="s">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B401" s="16" t="s">
+      <c r="B447" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="C401" s="18" t="s">
+      <c r="C447" s="11" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="15"/>
-      <c r="B402" s="17"/>
-      <c r="C402" s="19" t="s">
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="21"/>
+      <c r="B448" s="19"/>
+      <c r="C448" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="14" t="s">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B403" s="16" t="s">
+      <c r="B449" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="C403" s="18" t="s">
+      <c r="C449" s="11" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
-      <c r="B404" s="17"/>
-      <c r="C404" s="19" t="s">
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="21"/>
+      <c r="B450" s="19"/>
+      <c r="C450" s="12" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="14" t="s">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B405" s="16" t="s">
+      <c r="B451" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="C405" s="18" t="s">
+      <c r="C451" s="11" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="15"/>
-      <c r="B406" s="17"/>
-      <c r="C406" s="19" t="s">
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="21"/>
+      <c r="B452" s="19"/>
+      <c r="C452" s="12" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="14" t="s">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B407" s="16" t="s">
+      <c r="B453" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="C407" s="18" t="s">
+      <c r="C453" s="11" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="15"/>
-      <c r="B408" s="17"/>
-      <c r="C408" s="19" t="s">
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="21"/>
+      <c r="B454" s="19"/>
+      <c r="C454" s="12" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="7" t="s">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B409" s="9"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="14" t="s">
+      <c r="B455" s="9"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B410" s="16" t="s">
+      <c r="B456" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="C410" s="18" t="s">
+      <c r="C456" s="11" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="15"/>
-      <c r="B411" s="17"/>
-      <c r="C411" s="19" t="s">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="21"/>
+      <c r="B457" s="19"/>
+      <c r="C457" s="12" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
+      <c r="D457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B412" s="9"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="14" t="s">
+      <c r="B458" s="9"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B413" s="16" t="s">
+      <c r="B459" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="C413" s="18" t="s">
+      <c r="C459" s="11" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="15"/>
-      <c r="B414" s="17"/>
-      <c r="C414" s="19" t="s">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="21"/>
+      <c r="B460" s="19"/>
+      <c r="C460" s="12" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="14" t="s">
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B415" s="16" t="s">
+      <c r="B461" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="C415" s="18" t="s">
+      <c r="C461" s="11" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="15"/>
-      <c r="B416" s="17"/>
-      <c r="C416" s="19" t="s">
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="21"/>
+      <c r="B462" s="19"/>
+      <c r="C462" s="12" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="14" t="s">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B417" s="16" t="s">
+      <c r="B463" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="C417" s="18" t="s">
+      <c r="C463" s="11" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="15"/>
-      <c r="B418" s="17"/>
-      <c r="C418" s="19" t="s">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="21"/>
+      <c r="B464" s="19"/>
+      <c r="C464" s="12" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="14" t="s">
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B419" s="16" t="s">
+      <c r="B465" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="C419" s="18" t="s">
+      <c r="C465" s="11" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="15"/>
-      <c r="B420" s="17"/>
-      <c r="C420" s="19" t="s">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="21"/>
+      <c r="B466" s="19"/>
+      <c r="C466" s="12" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14" t="s">
+      <c r="D466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B421" s="16" t="s">
+      <c r="B467" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="C421" s="23" t="s">
+      <c r="C467" s="16" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A422" s="15"/>
-      <c r="B422" s="17"/>
-      <c r="C422" s="22" t="s">
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A468" s="21"/>
+      <c r="B468" s="19"/>
+      <c r="C468" s="15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="14" t="s">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B423" s="16" t="s">
+      <c r="B469" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="C423" s="18" t="s">
+      <c r="C469" s="11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="15"/>
-      <c r="B424" s="17"/>
-      <c r="C424" s="19" t="s">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="21"/>
+      <c r="B470" s="19"/>
+      <c r="C470" s="12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="7" t="s">
+      <c r="D470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B425" s="9"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="14" t="s">
+      <c r="B471" s="9"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B426" s="16" t="s">
+      <c r="B472" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="C426" s="18" t="s">
+      <c r="C472" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="15"/>
-      <c r="B427" s="17"/>
-      <c r="C427" s="19" t="s">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="21"/>
+      <c r="B473" s="19"/>
+      <c r="C473" s="12" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="14" t="s">
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B428" s="16" t="s">
+      <c r="B474" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="C428" s="13" t="s">
+      <c r="C474" s="22" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="15"/>
-      <c r="B429" s="17"/>
-      <c r="C429" s="12"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="14" t="s">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="21"/>
+      <c r="B475" s="19"/>
+      <c r="C475" s="23"/>
+      <c r="D475">
         <v>1</v>
       </c>
-      <c r="B430" s="16" t="s">
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B476" s="62" t="s">
         <v>600</v>
       </c>
-      <c r="C430" s="18" t="s">
+      <c r="C476" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="15"/>
-      <c r="B431" s="17"/>
-      <c r="C431" s="19" t="s">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="61"/>
+      <c r="B477" s="46"/>
+      <c r="C477" s="12" t="s">
         <v>604</v>
       </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="59"/>
+      <c r="B478" s="59"/>
+      <c r="C478" s="60"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="59"/>
+      <c r="B479" s="59"/>
+      <c r="C479" s="60"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="59"/>
+      <c r="B480" s="59"/>
+      <c r="C480" s="60"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="59"/>
+      <c r="B481" s="59"/>
+      <c r="C481" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="D481" s="64">
+        <f>SUM(D248:D477)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="59"/>
+      <c r="B482" s="59"/>
+      <c r="C482" s="63"/>
+      <c r="D482" s="64"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="59"/>
+      <c r="B483" s="59"/>
+      <c r="C483" s="63"/>
+      <c r="D483" s="64"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="59"/>
+      <c r="B484" s="59"/>
+      <c r="C484" s="60"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="59"/>
+      <c r="B485" s="59"/>
+      <c r="C485" s="60"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="59"/>
+      <c r="B486" s="59"/>
+      <c r="C486" s="60"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="59"/>
+      <c r="B487" s="59"/>
+      <c r="C487" s="60"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="59"/>
+      <c r="B488" s="59"/>
+      <c r="C488" s="60"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="59"/>
+      <c r="B489" s="59"/>
+      <c r="C489" s="60"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="59"/>
+      <c r="B490" s="59"/>
+      <c r="C490" s="60"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="59"/>
+      <c r="B491" s="59"/>
+      <c r="C491" s="60"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="59"/>
+      <c r="B492" s="59"/>
+      <c r="C492" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="248">
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C481:C483"/>
+    <mergeCell ref="D481:D483"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="C335:C338"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="A345:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="A373:A374"/>
     <mergeCell ref="B373:B374"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="A371:A372"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="A387:A388"/>
     <mergeCell ref="A385:A386"/>
     <mergeCell ref="B385:B386"/>
-    <mergeCell ref="A380:A381"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="B405:B406"/>
-    <mergeCell ref="A405:A406"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B413:B414"/>
-    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B415:B416"/>
     <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="B423:B424"/>
-    <mergeCell ref="A423:A424"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B419:B420"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="A428:A429"/>
-    <mergeCell ref="B428:B429"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="A312:A315"/>
-    <mergeCell ref="A319:A322"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A256:A260"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A300:A303"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A191:A192"/>
     <mergeCell ref="A248:A249"/>
     <mergeCell ref="A198:A200"/>
     <mergeCell ref="A203:A205"/>
@@ -7031,60 +8566,84 @@
     <mergeCell ref="A237:A238"/>
     <mergeCell ref="A239:A243"/>
     <mergeCell ref="A244:A247"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="C474:C475"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="B474:B475"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="A335:A338"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="A456:A457"/>
+    <mergeCell ref="B459:B460"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="B461:B462"/>
+    <mergeCell ref="A461:A462"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B447:B448"/>
+    <mergeCell ref="A447:A448"/>
+    <mergeCell ref="B453:B454"/>
+    <mergeCell ref="A453:A454"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B449:B450"/>
+    <mergeCell ref="A449:A450"/>
+    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="B431:B432"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="A434:A435"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="B419:B420"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B429:B430"/>
+    <mergeCell ref="A429:A430"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="B422:B423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anj Lasala\Documents\GitHub\InappExp\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\InappExp\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Testing" sheetId="3" r:id="rId2"/>
     <sheet name="No. sentences tally" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="704">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -2133,13 +2133,19 @@
   </si>
   <si>
     <t xml:space="preserve">Those lip &lt;Inapp&gt;suckers&lt;/Inapp&gt; are so &lt;Inapp&gt;dumb&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>Precision:</t>
+  </si>
+  <si>
+    <t>Recall:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2166,6 +2172,14 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2513,10 +2527,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2561,54 +2576,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2618,12 +2587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2637,26 +2600,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2667,37 +2674,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2976,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,12 +3008,12 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3014,93 +3033,135 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f>SUM(B1:B284)</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f>SUM(C1:C284)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f>SUM(D1:D284)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f>SUM(E1:E284)</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f>SUM(F1:F284)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>702</v>
+      </c>
+      <c r="I8">
+        <f>I4/(I4+I5)</f>
+        <v>0.52336448598130836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="I9">
+        <f>I4/(I4+I7)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <f>2*I8*I9/(I8+I9)</f>
+        <v>0.62569832402234637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <f>I6/(I6+I7)</f>
+        <v>0.95402298850574707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -3723,677 +3784,1685 @@
     <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>11</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191">
+        <v>6</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>11</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>22</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>19</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>6</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>8</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>14</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>9</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>7</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>10</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>8</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>9</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>6</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>8</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>10</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>8</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>9</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>7</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
+    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>9</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>5</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>4</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>17</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>14</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>8</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>7</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>8</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>7</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>7</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>16</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>15</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>9</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>6</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>12</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>9</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>9</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>7</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>8</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>7</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>4</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A238" r:id="rId1" location="comment"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4401,15 +5470,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C275" sqref="C275:C276"/>
+    <sheetView topLeftCell="B445" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4435,7 +5504,7 @@
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -4443,25 +5512,25 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4469,13 +5538,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -4483,13 +5552,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -4497,7 +5566,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="9" t="s">
         <v>280</v>
       </c>
@@ -4519,7 +5588,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -4527,7 +5596,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="9" t="s">
         <v>284</v>
       </c>
@@ -4549,7 +5618,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="58" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4557,7 +5626,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="9" t="s">
         <v>288</v>
       </c>
@@ -4579,7 +5648,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -4587,13 +5656,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="9" t="s">
         <v>293</v>
       </c>
@@ -4607,7 +5676,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="58" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -4615,13 +5684,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="9" t="s">
         <v>297</v>
       </c>
@@ -4659,7 +5728,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -4667,7 +5736,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="9" t="s">
         <v>301</v>
       </c>
@@ -4686,7 +5755,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="58" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -4694,19 +5763,19 @@
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="58" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -4714,13 +5783,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="9" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="9" t="s">
         <v>308</v>
       </c>
@@ -4758,7 +5827,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="58" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -4766,25 +5835,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="9" t="s">
         <v>316</v>
       </c>
@@ -4806,7 +5875,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -4814,7 +5883,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="9" t="s">
         <v>284</v>
       </c>
@@ -4836,7 +5905,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="58" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -4844,13 +5913,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="58" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -4858,7 +5927,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="9" t="s">
         <v>325</v>
       </c>
@@ -4872,7 +5941,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="58" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -4880,13 +5949,13 @@
       </c>
     </row>
     <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="9" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -4894,13 +5963,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="9" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -4908,13 +5977,13 @@
       </c>
     </row>
     <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="9" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -4922,7 +5991,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="9" t="s">
         <v>334</v>
       </c>
@@ -4984,7 +6053,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -4992,7 +6061,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="9" t="s">
         <v>342</v>
       </c>
@@ -5014,7 +6083,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="58" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -5022,19 +6091,19 @@
       </c>
     </row>
     <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -5042,13 +6111,13 @@
       </c>
     </row>
     <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="9" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="58" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -5056,19 +6125,19 @@
       </c>
     </row>
     <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="9" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="9" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="58" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -5076,19 +6145,19 @@
       </c>
     </row>
     <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="58" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -5096,19 +6165,19 @@
       </c>
     </row>
     <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="58" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -5116,19 +6185,19 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="24"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="58" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -5136,13 +6205,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="9" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="58" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -5150,7 +6219,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="9" t="s">
         <v>363</v>
       </c>
@@ -5172,13 +6241,13 @@
       </c>
     </row>
     <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="58" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="9"/>
     </row>
     <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="9" t="s">
         <v>366</v>
       </c>
@@ -5192,7 +6261,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="58" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -5200,19 +6269,19 @@
       </c>
     </row>
     <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="58" t="s">
         <v>111</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -5220,7 +6289,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="9" t="s">
         <v>284</v>
       </c>
@@ -5258,7 +6327,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="58" t="s">
         <v>116</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -5266,7 +6335,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="9" t="s">
         <v>377</v>
       </c>
@@ -5286,7 +6355,7 @@
       <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="58" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -5294,7 +6363,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="9" t="s">
         <v>284</v>
       </c>
@@ -5308,7 +6377,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="24" t="s">
+      <c r="A128" s="58" t="s">
         <v>120</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -5316,7 +6385,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="9" t="s">
         <v>380</v>
       </c>
@@ -5338,7 +6407,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="24" t="s">
+      <c r="A132" s="58" t="s">
         <v>123</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -5346,7 +6415,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="9" t="s">
         <v>284</v>
       </c>
@@ -5360,7 +6429,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="58" t="s">
         <v>125</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -5368,13 +6437,13 @@
       </c>
     </row>
     <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="58" t="s">
         <v>126</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -5382,25 +6451,25 @@
       </c>
     </row>
     <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="9" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="58" t="s">
         <v>127</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -5408,13 +6477,13 @@
       </c>
     </row>
     <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="9" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
+      <c r="A143" s="58"/>
       <c r="B143" s="9" t="s">
         <v>393</v>
       </c>
@@ -5436,7 +6505,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="58" t="s">
         <v>130</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -5444,13 +6513,13 @@
       </c>
     </row>
     <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="9" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="58" t="s">
         <v>131</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -5458,13 +6527,13 @@
       </c>
     </row>
     <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="9" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="58" t="s">
         <v>132</v>
       </c>
       <c r="B150" s="9" t="s">
@@ -5472,7 +6541,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="9" t="s">
         <v>401</v>
       </c>
@@ -5492,7 +6561,7 @@
       <c r="B154" s="9"/>
     </row>
     <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -5500,13 +6569,13 @@
       </c>
     </row>
     <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="24"/>
+      <c r="A156" s="58"/>
       <c r="B156" s="9" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="58" t="s">
         <v>135</v>
       </c>
       <c r="B157" s="9" t="s">
@@ -5514,13 +6583,13 @@
       </c>
     </row>
     <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="24"/>
+      <c r="A158" s="58"/>
       <c r="B158" s="9" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="58" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -5528,25 +6597,25 @@
       </c>
     </row>
     <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="9" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="24"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="24"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="9" t="s">
         <v>410</v>
       </c>
@@ -5566,7 +6635,7 @@
       <c r="B166" s="9"/>
     </row>
     <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="58" t="s">
         <v>138</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -5574,13 +6643,13 @@
       </c>
     </row>
     <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="24"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="58" t="s">
         <v>139</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -5588,7 +6657,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="24"/>
+      <c r="A170" s="58"/>
       <c r="B170" s="9" t="s">
         <v>414</v>
       </c>
@@ -5610,7 +6679,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="24" t="s">
+      <c r="A173" s="58" t="s">
         <v>142</v>
       </c>
       <c r="B173" s="9" t="s">
@@ -5618,7 +6687,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="24"/>
+      <c r="A174" s="58"/>
       <c r="B174" s="9" t="s">
         <v>417</v>
       </c>
@@ -5640,7 +6709,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="24" t="s">
+      <c r="A177" s="58" t="s">
         <v>145</v>
       </c>
       <c r="B177" s="9" t="s">
@@ -5648,19 +6717,19 @@
       </c>
     </row>
     <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="24"/>
+      <c r="A178" s="58"/>
       <c r="B178" s="9" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="24"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="9" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="24" t="s">
+      <c r="A180" s="58" t="s">
         <v>146</v>
       </c>
       <c r="B180" s="9" t="s">
@@ -5668,13 +6737,13 @@
       </c>
     </row>
     <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="24"/>
+      <c r="A181" s="58"/>
       <c r="B181" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="24" t="s">
+      <c r="A182" s="58" t="s">
         <v>147</v>
       </c>
       <c r="B182" s="9" t="s">
@@ -5682,7 +6751,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="24"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="9" t="s">
         <v>426</v>
       </c>
@@ -5704,7 +6773,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="58" t="s">
         <v>150</v>
       </c>
       <c r="B186" s="9" t="s">
@@ -5712,13 +6781,13 @@
       </c>
     </row>
     <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="24"/>
+      <c r="A187" s="58"/>
       <c r="B187" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="24" t="s">
+      <c r="A188" s="58" t="s">
         <v>151</v>
       </c>
       <c r="B188" s="9" t="s">
@@ -5726,7 +6795,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="24"/>
+      <c r="A189" s="58"/>
       <c r="B189" s="9" t="s">
         <v>284</v>
       </c>
@@ -5740,7 +6809,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="24" t="s">
+      <c r="A191" s="58" t="s">
         <v>153</v>
       </c>
       <c r="B191" s="9" t="s">
@@ -5748,13 +6817,13 @@
       </c>
     </row>
     <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
+      <c r="A192" s="58"/>
       <c r="B192" s="9" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="24" t="s">
+      <c r="A193" s="58" t="s">
         <v>154</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -5762,19 +6831,19 @@
       </c>
     </row>
     <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
+      <c r="A194" s="58"/>
       <c r="B194" s="9" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
+      <c r="A195" s="58"/>
       <c r="B195" s="9" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="24"/>
+      <c r="A196" s="58"/>
       <c r="B196" s="9" t="s">
         <v>437</v>
       </c>
@@ -5788,7 +6857,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="24" t="s">
+      <c r="A198" s="58" t="s">
         <v>156</v>
       </c>
       <c r="B198" s="9" t="s">
@@ -5796,13 +6865,13 @@
       </c>
     </row>
     <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="24"/>
+      <c r="A199" s="58"/>
       <c r="B199" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="24"/>
+      <c r="A200" s="58"/>
       <c r="B200" s="9" t="s">
         <v>284</v>
       </c>
@@ -5824,7 +6893,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="58" t="s">
         <v>159</v>
       </c>
       <c r="B203" s="9" t="s">
@@ -5832,13 +6901,13 @@
       </c>
     </row>
     <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
+      <c r="A204" s="58"/>
       <c r="B204" s="9" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
+      <c r="A205" s="58"/>
       <c r="B205" s="9" t="s">
         <v>444</v>
       </c>
@@ -5872,7 +6941,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="24" t="s">
+      <c r="A210" s="58" t="s">
         <v>163</v>
       </c>
       <c r="B210" s="9" t="s">
@@ -5880,7 +6949,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="24"/>
+      <c r="A211" s="58"/>
       <c r="B211" s="9" t="s">
         <v>449</v>
       </c>
@@ -5892,7 +6961,7 @@
       <c r="B212" s="9"/>
     </row>
     <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="24" t="s">
+      <c r="A213" s="58" t="s">
         <v>165</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -5900,13 +6969,13 @@
       </c>
     </row>
     <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="24"/>
+      <c r="A214" s="58"/>
       <c r="B214" s="9" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="24" t="s">
+      <c r="A215" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -5914,7 +6983,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="24"/>
+      <c r="A216" s="58"/>
       <c r="B216" s="9" t="s">
         <v>453</v>
       </c>
@@ -5994,7 +7063,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="24" t="s">
+      <c r="A227" s="58" t="s">
         <v>176</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -6002,13 +7071,13 @@
       </c>
     </row>
     <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="24"/>
+      <c r="A228" s="58"/>
       <c r="B228" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="24" t="s">
+      <c r="A229" s="58" t="s">
         <v>177</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -6016,19 +7085,19 @@
       </c>
     </row>
     <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="24"/>
+      <c r="A230" s="58"/>
       <c r="B230" s="9" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="24"/>
+      <c r="A231" s="58"/>
       <c r="B231" s="9" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="24" t="s">
+      <c r="A232" s="58" t="s">
         <v>178</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -6036,7 +7105,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="24"/>
+      <c r="A233" s="58"/>
       <c r="B233" s="9" t="s">
         <v>467</v>
       </c>
@@ -6056,7 +7125,7 @@
       <c r="B236" s="9"/>
     </row>
     <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="24" t="s">
+      <c r="A237" s="58" t="s">
         <v>180</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -6064,13 +7133,13 @@
       </c>
     </row>
     <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="24"/>
+      <c r="A238" s="58"/>
       <c r="B238" s="9" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="24" t="s">
+      <c r="A239" s="58" t="s">
         <v>181</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -6078,31 +7147,31 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="24"/>
+      <c r="A240" s="58"/>
       <c r="B240" s="9" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="24"/>
+      <c r="A241" s="58"/>
       <c r="B241" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="24"/>
+      <c r="A242" s="58"/>
       <c r="B242" s="9" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="24"/>
+      <c r="A243" s="58"/>
       <c r="B243" s="9" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="24" t="s">
+      <c r="A244" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -6110,41 +7179,41 @@
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="24"/>
+      <c r="A245" s="58"/>
       <c r="B245" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="24"/>
+      <c r="A246" s="58"/>
       <c r="B246" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="24"/>
+      <c r="A247" s="58"/>
       <c r="B247" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="25" t="s">
+      <c r="A248" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="B248" s="26" t="s">
+      <c r="B248" s="18" t="s">
         <v>477</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="25"/>
-      <c r="B249" s="26" t="s">
+      <c r="A249" s="59"/>
+      <c r="B249" s="18" t="s">
         <v>284</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="24" t="s">
+      <c r="A250" s="58" t="s">
         <v>184</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -6152,19 +7221,19 @@
       </c>
     </row>
     <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="24"/>
+      <c r="A251" s="58"/>
       <c r="B251" s="9" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="24"/>
+      <c r="A252" s="58"/>
       <c r="B252" s="9" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="24" t="s">
+      <c r="A253" s="58" t="s">
         <v>185</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -6172,7 +7241,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="24"/>
+      <c r="A254" s="58"/>
       <c r="B254" s="9" t="s">
         <v>482</v>
       </c>
@@ -6186,7 +7255,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="24" t="s">
+      <c r="A256" s="58" t="s">
         <v>187</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -6194,72 +7263,72 @@
       </c>
     </row>
     <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="24"/>
+      <c r="A257" s="58"/>
       <c r="B257" s="9" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="24"/>
+      <c r="A258" s="58"/>
       <c r="B258" s="9" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="24"/>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="58"/>
       <c r="B259" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="24"/>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="58"/>
       <c r="B260" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="24" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="58" t="s">
         <v>188</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="24"/>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="58"/>
       <c r="B262" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="24" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="58" t="s">
         <v>189</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="24"/>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="58"/>
       <c r="B264" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="24" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="24"/>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="58"/>
       <c r="B266" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>191</v>
       </c>
@@ -6267,7 +7336,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>192</v>
       </c>
@@ -6275,35 +7344,35 @@
         <v>493</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="24" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="58" t="s">
         <v>193</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="24"/>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="58"/>
       <c r="B270" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="24" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="24"/>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="58"/>
       <c r="B272" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>195</v>
       </c>
@@ -6311,7 +7380,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>196</v>
       </c>
@@ -6320,10 +7389,10 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="33" t="s">
         <v>499</v>
       </c>
       <c r="C275" s="11" t="s">
@@ -6334,17 +7403,17 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="21"/>
-      <c r="B276" s="19"/>
+      <c r="A276" s="32"/>
+      <c r="B276" s="34"/>
       <c r="C276" s="12" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="20" t="s">
+      <c r="A277" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B277" s="18" t="s">
+      <c r="B277" s="33" t="s">
         <v>500</v>
       </c>
       <c r="C277" s="11" t="s">
@@ -6352,8 +7421,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="21"/>
-      <c r="B278" s="19"/>
+      <c r="A278" s="32"/>
+      <c r="B278" s="34"/>
       <c r="C278" s="12" t="s">
         <v>699</v>
       </c>
@@ -6362,10 +7431,10 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="20" t="s">
+      <c r="A279" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="B279" s="18" t="s">
+      <c r="B279" s="33" t="s">
         <v>501</v>
       </c>
       <c r="C279" s="11" t="s">
@@ -6373,8 +7442,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="21"/>
-      <c r="B280" s="19"/>
+      <c r="A280" s="32"/>
+      <c r="B280" s="34"/>
       <c r="C280" s="12" t="s">
         <v>697</v>
       </c>
@@ -6383,10 +7452,10 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="20" t="s">
+      <c r="A281" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B281" s="33" t="s">
         <v>502</v>
       </c>
       <c r="C281" s="11" t="s">
@@ -6394,8 +7463,8 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="21"/>
-      <c r="B282" s="19"/>
+      <c r="A282" s="32"/>
+      <c r="B282" s="34"/>
       <c r="C282" s="17" t="s">
         <v>696</v>
       </c>
@@ -6404,10 +7473,10 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="20" t="s">
+      <c r="A283" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="33" t="s">
         <v>503</v>
       </c>
       <c r="C283" s="11" t="s">
@@ -6415,8 +7484,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="21"/>
-      <c r="B284" s="19"/>
+      <c r="A284" s="32"/>
+      <c r="B284" s="34"/>
       <c r="C284" s="12" t="s">
         <v>694</v>
       </c>
@@ -6425,10 +7494,10 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="20" t="s">
+      <c r="A285" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="33" t="s">
         <v>504</v>
       </c>
       <c r="C285" s="11" t="s">
@@ -6439,17 +7508,17 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="21"/>
-      <c r="B286" s="19"/>
+      <c r="A286" s="32"/>
+      <c r="B286" s="34"/>
       <c r="C286" s="12" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="20" t="s">
+      <c r="A287" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B287" s="18" t="s">
+      <c r="B287" s="33" t="s">
         <v>505</v>
       </c>
       <c r="C287" s="11" t="s">
@@ -6457,8 +7526,8 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="21"/>
-      <c r="B288" s="19"/>
+      <c r="A288" s="32"/>
+      <c r="B288" s="34"/>
       <c r="C288" s="12" t="s">
         <v>692</v>
       </c>
@@ -6467,19 +7536,19 @@
       </c>
     </row>
     <row r="289" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="20" t="s">
+      <c r="A289" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B289" s="18" t="s">
+      <c r="B289" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="C289" s="58" t="s">
+      <c r="C289" s="28" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="21"/>
-      <c r="B290" s="19"/>
+      <c r="A290" s="32"/>
+      <c r="B290" s="34"/>
       <c r="C290" s="17" t="s">
         <v>691</v>
       </c>
@@ -6488,20 +7557,20 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="30" t="s">
+      <c r="A291" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="B291" s="46" t="s">
+      <c r="B291" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="C291" s="40" t="s">
+      <c r="C291" s="22" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="32"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="42" t="s">
+      <c r="A292" s="44"/>
+      <c r="B292" s="33"/>
+      <c r="C292" s="24" t="s">
         <v>689</v>
       </c>
       <c r="D292">
@@ -6509,22 +7578,22 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="55" t="s">
+      <c r="A293" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B293" s="36" t="s">
+      <c r="B293" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C293" s="40" t="s">
+      <c r="C293" s="22" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="56"/>
-      <c r="B294" s="37" t="s">
+      <c r="A294" s="36"/>
+      <c r="B294" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="C294" s="41" t="s">
+      <c r="C294" s="23" t="s">
         <v>509</v>
       </c>
       <c r="D294">
@@ -6532,26 +7601,26 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="56"/>
-      <c r="B295" s="37" t="s">
+      <c r="A295" s="36"/>
+      <c r="B295" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C295" s="41" t="s">
+      <c r="C295" s="23" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="57"/>
-      <c r="B296" s="50"/>
-      <c r="C296" s="42" t="s">
+      <c r="A296" s="37"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="24" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="20" t="s">
+      <c r="A297" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B297" s="49" t="s">
+      <c r="B297" s="40" t="s">
         <v>511</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -6562,17 +7631,17 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="21"/>
-      <c r="B298" s="19"/>
+      <c r="A298" s="32"/>
+      <c r="B298" s="34"/>
       <c r="C298" s="12" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="20" t="s">
+      <c r="A299" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="33" t="s">
         <v>512</v>
       </c>
       <c r="C299" s="11" t="s">
@@ -6580,8 +7649,8 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="21"/>
-      <c r="B300" s="49"/>
+      <c r="A300" s="32"/>
+      <c r="B300" s="40"/>
       <c r="C300" s="12" t="s">
         <v>687</v>
       </c>
@@ -6590,26 +7659,26 @@
       </c>
     </row>
     <row r="301" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="48" t="s">
+      <c r="A301" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="B301" s="36" t="s">
+      <c r="B301" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="C301" s="33"/>
+      <c r="C301" s="41"/>
     </row>
     <row r="302" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="48"/>
-      <c r="B302" s="50" t="s">
+      <c r="A302" s="60"/>
+      <c r="B302" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="C302" s="34"/>
+      <c r="C302" s="42"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="20" t="s">
+      <c r="A303" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="B303" s="49" t="s">
+      <c r="B303" s="40" t="s">
         <v>515</v>
       </c>
       <c r="C303" s="11" t="s">
@@ -6620,17 +7689,17 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="21"/>
-      <c r="B304" s="19"/>
+      <c r="A304" s="32"/>
+      <c r="B304" s="34"/>
       <c r="C304" s="12" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="20" t="s">
+      <c r="A305" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="33" t="s">
         <v>516</v>
       </c>
       <c r="C305" s="11" t="s">
@@ -6641,17 +7710,17 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="21"/>
-      <c r="B306" s="19"/>
+      <c r="A306" s="32"/>
+      <c r="B306" s="34"/>
       <c r="C306" s="12" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="20" t="s">
+      <c r="A307" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="B307" s="18" t="s">
+      <c r="B307" s="33" t="s">
         <v>517</v>
       </c>
       <c r="C307" s="11" t="s">
@@ -6662,8 +7731,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="21"/>
-      <c r="B308" s="19"/>
+      <c r="A308" s="32"/>
+      <c r="B308" s="34"/>
       <c r="C308" s="12" t="s">
         <v>683</v>
       </c>
@@ -6675,10 +7744,10 @@
       <c r="B309" s="9"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="20" t="s">
+      <c r="A310" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="B310" s="18" t="s">
+      <c r="B310" s="33" t="s">
         <v>518</v>
       </c>
       <c r="C310" s="11" t="s">
@@ -6689,17 +7758,17 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="21"/>
-      <c r="B311" s="19"/>
+      <c r="A311" s="32"/>
+      <c r="B311" s="34"/>
       <c r="C311" s="12" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="20" t="s">
+      <c r="A312" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B312" s="18" t="s">
+      <c r="B312" s="33" t="s">
         <v>519</v>
       </c>
       <c r="C312" s="11" t="s">
@@ -6707,8 +7776,8 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="21"/>
-      <c r="B313" s="19"/>
+      <c r="A313" s="32"/>
+      <c r="B313" s="34"/>
       <c r="C313" s="12" t="s">
         <v>681</v>
       </c>
@@ -6717,10 +7786,10 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="20" t="s">
+      <c r="A314" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B314" s="18" t="s">
+      <c r="B314" s="33" t="s">
         <v>520</v>
       </c>
       <c r="C314" s="11" t="s">
@@ -6728,8 +7797,8 @@
       </c>
     </row>
     <row r="315" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="21"/>
-      <c r="B315" s="19"/>
+      <c r="A315" s="32"/>
+      <c r="B315" s="34"/>
       <c r="C315" s="17" t="s">
         <v>680</v>
       </c>
@@ -6738,19 +7807,19 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="20" t="s">
+      <c r="A316" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B316" s="18" t="s">
+      <c r="B316" s="33" t="s">
         <v>521</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="21"/>
-      <c r="B317" s="19"/>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="32"/>
+      <c r="B317" s="34"/>
       <c r="C317" s="17" t="s">
         <v>679</v>
       </c>
@@ -6759,40 +7828,40 @@
       </c>
     </row>
     <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="24" t="s">
+      <c r="A318" s="58" t="s">
         <v>218</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C318" s="27"/>
+      <c r="C318" s="46"/>
     </row>
     <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="24"/>
+      <c r="A319" s="58"/>
       <c r="B319" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C319" s="29"/>
+      <c r="C319" s="47"/>
     </row>
     <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="24"/>
+      <c r="A320" s="58"/>
       <c r="B320" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C320" s="29"/>
-    </row>
-    <row r="321" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="24"/>
+      <c r="C320" s="47"/>
+    </row>
+    <row r="321" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="58"/>
       <c r="B321" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C321" s="28"/>
+      <c r="C321" s="48"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="20" t="s">
+      <c r="A322" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B322" s="18" t="s">
+      <c r="B322" s="33" t="s">
         <v>526</v>
       </c>
       <c r="C322" s="11" t="s">
@@ -6800,8 +7869,8 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="21"/>
-      <c r="B323" s="19"/>
+      <c r="A323" s="32"/>
+      <c r="B323" s="34"/>
       <c r="C323" s="12" t="s">
         <v>678</v>
       </c>
@@ -6810,10 +7879,10 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="20" t="s">
+      <c r="A324" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B324" s="18" t="s">
+      <c r="B324" s="33" t="s">
         <v>527</v>
       </c>
       <c r="C324" s="11" t="s">
@@ -6824,17 +7893,17 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="21"/>
-      <c r="B325" s="19"/>
+      <c r="A325" s="32"/>
+      <c r="B325" s="34"/>
       <c r="C325" s="12" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="20" t="s">
+      <c r="A326" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B326" s="18" t="s">
+      <c r="B326" s="33" t="s">
         <v>528</v>
       </c>
       <c r="C326" s="11" t="s">
@@ -6845,17 +7914,17 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="21"/>
-      <c r="B327" s="19"/>
+      <c r="A327" s="32"/>
+      <c r="B327" s="34"/>
       <c r="C327" s="12" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="20" t="s">
+      <c r="A328" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="B328" s="33" t="s">
         <v>529</v>
       </c>
       <c r="C328" s="11" t="s">
@@ -6866,17 +7935,17 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="21"/>
-      <c r="B329" s="19"/>
+      <c r="A329" s="32"/>
+      <c r="B329" s="34"/>
       <c r="C329" s="12" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="30" t="s">
+      <c r="A330" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="B330" s="46" t="s">
+      <c r="B330" s="45" t="s">
         <v>530</v>
       </c>
       <c r="C330" s="11" t="s">
@@ -6886,71 +7955,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A331" s="32"/>
-      <c r="B331" s="46"/>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="44"/>
+      <c r="B331" s="45"/>
       <c r="C331" s="17" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="48" t="s">
+      <c r="A332" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="B332" s="47" t="s">
+      <c r="B332" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="C332" s="44"/>
+      <c r="C332" s="52"/>
     </row>
     <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="48"/>
-      <c r="B333" s="37" t="s">
+      <c r="A333" s="60"/>
+      <c r="B333" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C333" s="54"/>
+      <c r="C333" s="53"/>
     </row>
     <row r="334" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="48"/>
-      <c r="B334" s="50" t="s">
+      <c r="A334" s="60"/>
+      <c r="B334" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="C334" s="45"/>
+      <c r="C334" s="54"/>
     </row>
     <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="48" t="s">
+      <c r="A335" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="B335" s="36" t="s">
+      <c r="B335" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="C335" s="51"/>
+      <c r="C335" s="49"/>
     </row>
     <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="48"/>
-      <c r="B336" s="37" t="s">
+      <c r="A336" s="60"/>
+      <c r="B336" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C336" s="52"/>
+      <c r="C336" s="50"/>
     </row>
     <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="48"/>
-      <c r="B337" s="37" t="s">
+      <c r="A337" s="60"/>
+      <c r="B337" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C337" s="52"/>
-    </row>
-    <row r="338" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="48"/>
-      <c r="B338" s="50" t="s">
+      <c r="C337" s="50"/>
+    </row>
+    <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="60"/>
+      <c r="B338" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="C338" s="53"/>
+      <c r="C338" s="51"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="20" t="s">
+      <c r="A339" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B339" s="49" t="s">
+      <c r="B339" s="40" t="s">
         <v>538</v>
       </c>
       <c r="C339" s="11" t="s">
@@ -6958,8 +8027,8 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="21"/>
-      <c r="B340" s="19"/>
+      <c r="A340" s="32"/>
+      <c r="B340" s="34"/>
       <c r="C340" s="12" t="s">
         <v>672</v>
       </c>
@@ -6968,76 +8037,76 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="30" t="s">
+      <c r="A341" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="B341" s="46" t="s">
+      <c r="B341" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C341" s="40" t="s">
+      <c r="C341" s="22" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="32"/>
-      <c r="B342" s="46"/>
-      <c r="C342" s="42" t="s">
+      <c r="A342" s="44"/>
+      <c r="B342" s="45"/>
+      <c r="C342" s="24" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="30" t="s">
+      <c r="A343" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="B343" s="46" t="s">
+      <c r="B343" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C343" s="40" t="s">
+      <c r="C343" s="22" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="32"/>
-      <c r="B344" s="46"/>
-      <c r="C344" s="42" t="s">
+      <c r="A344" s="44"/>
+      <c r="B344" s="45"/>
+      <c r="C344" s="24" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="30" t="s">
+      <c r="A345" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="B345" s="47" t="s">
+      <c r="B345" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="C345" s="40" t="s">
+      <c r="C345" s="22" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="31"/>
-      <c r="B346" s="37" t="s">
+      <c r="A346" s="55"/>
+      <c r="B346" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C346" s="41" t="s">
+      <c r="C346" s="23" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="31"/>
-      <c r="B347" s="37" t="s">
+      <c r="A347" s="55"/>
+      <c r="B347" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="C347" s="41" t="s">
+      <c r="C347" s="23" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="31"/>
-      <c r="B348" s="38" t="s">
+      <c r="A348" s="55"/>
+      <c r="B348" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="C348" s="41" t="s">
+      <c r="C348" s="23" t="s">
         <v>544</v>
       </c>
       <c r="D348">
@@ -7045,9 +8114,9 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="32"/>
-      <c r="B349" s="39"/>
-      <c r="C349" s="43" t="s">
+      <c r="A349" s="44"/>
+      <c r="B349" s="57"/>
+      <c r="C349" s="25" t="s">
         <v>668</v>
       </c>
     </row>
@@ -7055,13 +8124,13 @@
       <c r="A350" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B350" s="35"/>
+      <c r="B350" s="19"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="20" t="s">
+      <c r="A351" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B351" s="18" t="s">
+      <c r="B351" s="33" t="s">
         <v>545</v>
       </c>
       <c r="C351" s="11" t="s">
@@ -7069,8 +8138,8 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="21"/>
-      <c r="B352" s="19"/>
+      <c r="A352" s="32"/>
+      <c r="B352" s="34"/>
       <c r="C352" s="12" t="s">
         <v>666</v>
       </c>
@@ -7079,10 +8148,10 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="20" t="s">
+      <c r="A353" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B353" s="18" t="s">
+      <c r="B353" s="33" t="s">
         <v>546</v>
       </c>
       <c r="C353" s="11" t="s">
@@ -7090,8 +8159,8 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="21"/>
-      <c r="B354" s="19"/>
+      <c r="A354" s="32"/>
+      <c r="B354" s="34"/>
       <c r="C354" s="12" t="s">
         <v>663</v>
       </c>
@@ -7100,10 +8169,10 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="20" t="s">
+      <c r="A355" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="B355" s="18" t="s">
+      <c r="B355" s="33" t="s">
         <v>547</v>
       </c>
       <c r="C355" s="11" t="s">
@@ -7111,8 +8180,8 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="21"/>
-      <c r="B356" s="19"/>
+      <c r="A356" s="32"/>
+      <c r="B356" s="34"/>
       <c r="C356" s="12" t="s">
         <v>665</v>
       </c>
@@ -7121,10 +8190,10 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="20" t="s">
+      <c r="A357" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B357" s="18" t="s">
+      <c r="B357" s="33" t="s">
         <v>548</v>
       </c>
       <c r="C357" s="11" t="s">
@@ -7132,8 +8201,8 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="21"/>
-      <c r="B358" s="19"/>
+      <c r="A358" s="32"/>
+      <c r="B358" s="34"/>
       <c r="C358" s="12" t="s">
         <v>662</v>
       </c>
@@ -7142,10 +8211,10 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="20" t="s">
+      <c r="A359" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B359" s="18" t="s">
+      <c r="B359" s="33" t="s">
         <v>549</v>
       </c>
       <c r="C359" s="11" t="s">
@@ -7153,8 +8222,8 @@
       </c>
     </row>
     <row r="360" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="21"/>
-      <c r="B360" s="19"/>
+      <c r="A360" s="32"/>
+      <c r="B360" s="34"/>
       <c r="C360" s="17" t="s">
         <v>660</v>
       </c>
@@ -7169,10 +8238,10 @@
       <c r="B361" s="9"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="20" t="s">
+      <c r="A362" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B362" s="18" t="s">
+      <c r="B362" s="33" t="s">
         <v>550</v>
       </c>
       <c r="C362" s="11" t="s">
@@ -7183,17 +8252,17 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A363" s="21"/>
-      <c r="B363" s="19"/>
+      <c r="A363" s="32"/>
+      <c r="B363" s="34"/>
       <c r="C363" s="17" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="20" t="s">
+      <c r="A364" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B364" s="18" t="s">
+      <c r="B364" s="33" t="s">
         <v>551</v>
       </c>
       <c r="C364" s="11" t="s">
@@ -7201,8 +8270,8 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="21"/>
-      <c r="B365" s="19"/>
+      <c r="A365" s="32"/>
+      <c r="B365" s="34"/>
       <c r="C365" s="12" t="s">
         <v>658</v>
       </c>
@@ -7211,10 +8280,10 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="20" t="s">
+      <c r="A366" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="B366" s="18" t="s">
+      <c r="B366" s="33" t="s">
         <v>552</v>
       </c>
       <c r="C366" s="11" t="s">
@@ -7222,8 +8291,8 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="21"/>
-      <c r="B367" s="19"/>
+      <c r="A367" s="32"/>
+      <c r="B367" s="34"/>
       <c r="C367" s="12" t="s">
         <v>657</v>
       </c>
@@ -7232,10 +8301,10 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="20" t="s">
+      <c r="A368" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B368" s="18" t="s">
+      <c r="B368" s="33" t="s">
         <v>553</v>
       </c>
       <c r="C368" s="11" t="s">
@@ -7243,8 +8312,8 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="21"/>
-      <c r="B369" s="19"/>
+      <c r="A369" s="32"/>
+      <c r="B369" s="34"/>
       <c r="C369" s="12" t="s">
         <v>655</v>
       </c>
@@ -7253,10 +8322,10 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="20" t="s">
+      <c r="A370" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B370" s="18" t="s">
+      <c r="B370" s="33" t="s">
         <v>554</v>
       </c>
       <c r="C370" s="11" t="s">
@@ -7264,8 +8333,8 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="21"/>
-      <c r="B371" s="19"/>
+      <c r="A371" s="32"/>
+      <c r="B371" s="34"/>
       <c r="C371" s="12" t="s">
         <v>654</v>
       </c>
@@ -7280,10 +8349,10 @@
       <c r="B372" s="9"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="20" t="s">
+      <c r="A373" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B373" s="18" t="s">
+      <c r="B373" s="33" t="s">
         <v>555</v>
       </c>
       <c r="C373" s="11" t="s">
@@ -7291,8 +8360,8 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="21"/>
-      <c r="B374" s="19"/>
+      <c r="A374" s="32"/>
+      <c r="B374" s="34"/>
       <c r="C374" s="12" t="s">
         <v>653</v>
       </c>
@@ -7301,7 +8370,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="24" t="s">
+      <c r="A375" s="58" t="s">
         <v>244</v>
       </c>
       <c r="B375" s="9" t="s">
@@ -7312,7 +8381,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="24"/>
+      <c r="A376" s="58"/>
       <c r="B376" s="9" t="s">
         <v>284</v>
       </c>
@@ -7324,7 +8393,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="20" t="s">
+      <c r="A377" s="31" t="s">
         <v>245</v>
       </c>
       <c r="B377" s="9" t="s">
@@ -7335,7 +8404,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="21"/>
+      <c r="A378" s="32"/>
       <c r="B378" s="9" t="s">
         <v>284</v>
       </c>
@@ -7347,10 +8416,10 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="20" t="s">
+      <c r="A379" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B379" s="18" t="s">
+      <c r="B379" s="33" t="s">
         <v>558</v>
       </c>
       <c r="C379" s="11" t="s">
@@ -7358,8 +8427,8 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="21"/>
-      <c r="B380" s="19"/>
+      <c r="A380" s="32"/>
+      <c r="B380" s="34"/>
       <c r="C380" s="12" t="s">
         <v>649</v>
       </c>
@@ -7368,10 +8437,10 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="20" t="s">
+      <c r="A381" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B381" s="18" t="s">
+      <c r="B381" s="33" t="s">
         <v>559</v>
       </c>
       <c r="C381" s="11" t="s">
@@ -7379,8 +8448,8 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="21"/>
-      <c r="B382" s="19"/>
+      <c r="A382" s="32"/>
+      <c r="B382" s="34"/>
       <c r="C382" s="12" t="s">
         <v>648</v>
       </c>
@@ -7389,10 +8458,10 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="20" t="s">
+      <c r="A383" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B383" s="18" t="s">
+      <c r="B383" s="33" t="s">
         <v>560</v>
       </c>
       <c r="C383" s="11" t="s">
@@ -7400,8 +8469,8 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="21"/>
-      <c r="B384" s="19"/>
+      <c r="A384" s="32"/>
+      <c r="B384" s="34"/>
       <c r="C384" s="12" t="s">
         <v>647</v>
       </c>
@@ -7410,24 +8479,24 @@
       </c>
     </row>
     <row r="385" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="20" t="s">
+      <c r="A385" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B385" s="18" t="s">
+      <c r="B385" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="C385" s="27"/>
-    </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="21"/>
-      <c r="B386" s="19"/>
-      <c r="C386" s="28"/>
+      <c r="C385" s="46"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="32"/>
+      <c r="B386" s="34"/>
+      <c r="C386" s="48"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="20" t="s">
+      <c r="A387" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B387" s="18" t="s">
+      <c r="B387" s="33" t="s">
         <v>562</v>
       </c>
       <c r="C387" s="11" t="s">
@@ -7435,8 +8504,8 @@
       </c>
     </row>
     <row r="388" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A388" s="21"/>
-      <c r="B388" s="19"/>
+      <c r="A388" s="32"/>
+      <c r="B388" s="34"/>
       <c r="C388" s="17" t="s">
         <v>646</v>
       </c>
@@ -7451,10 +8520,10 @@
       <c r="B389" s="9"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="20" t="s">
+      <c r="A390" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="18" t="s">
+      <c r="B390" s="33" t="s">
         <v>563</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -7462,8 +8531,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="21"/>
-      <c r="B391" s="19"/>
+      <c r="A391" s="32"/>
+      <c r="B391" s="34"/>
       <c r="C391" s="12" t="s">
         <v>645</v>
       </c>
@@ -7472,10 +8541,10 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="20" t="s">
+      <c r="A392" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B392" s="18" t="s">
+      <c r="B392" s="33" t="s">
         <v>564</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -7483,8 +8552,8 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="21"/>
-      <c r="B393" s="19"/>
+      <c r="A393" s="32"/>
+      <c r="B393" s="34"/>
       <c r="C393" s="12" t="s">
         <v>644</v>
       </c>
@@ -7499,10 +8568,10 @@
       <c r="B394" s="9"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="20" t="s">
+      <c r="A395" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="B395" s="18" t="s">
+      <c r="B395" s="33" t="s">
         <v>565</v>
       </c>
       <c r="C395" s="11" t="s">
@@ -7510,8 +8579,8 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="21"/>
-      <c r="B396" s="19"/>
+      <c r="A396" s="32"/>
+      <c r="B396" s="34"/>
       <c r="C396" s="12" t="s">
         <v>642</v>
       </c>
@@ -7526,10 +8595,10 @@
       <c r="B397" s="9"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="20" t="s">
+      <c r="A398" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B398" s="18" t="s">
+      <c r="B398" s="33" t="s">
         <v>566</v>
       </c>
       <c r="C398" s="11" t="s">
@@ -7537,8 +8606,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="21"/>
-      <c r="B399" s="19"/>
+      <c r="A399" s="32"/>
+      <c r="B399" s="34"/>
       <c r="C399" s="12" t="s">
         <v>641</v>
       </c>
@@ -7547,10 +8616,10 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="20" t="s">
+      <c r="A400" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B400" s="18" t="s">
+      <c r="B400" s="33" t="s">
         <v>567</v>
       </c>
       <c r="C400" s="11" t="s">
@@ -7558,8 +8627,8 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="21"/>
-      <c r="B401" s="19"/>
+      <c r="A401" s="32"/>
+      <c r="B401" s="34"/>
       <c r="C401" s="12" t="s">
         <v>640</v>
       </c>
@@ -7574,10 +8643,10 @@
       <c r="B402" s="9"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="20" t="s">
+      <c r="A403" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B403" s="18" t="s">
+      <c r="B403" s="33" t="s">
         <v>568</v>
       </c>
       <c r="C403" s="11" t="s">
@@ -7585,8 +8654,8 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="21"/>
-      <c r="B404" s="19"/>
+      <c r="A404" s="32"/>
+      <c r="B404" s="34"/>
       <c r="C404" s="12" t="s">
         <v>639</v>
       </c>
@@ -7601,10 +8670,10 @@
       <c r="B405" s="9"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="20" t="s">
+      <c r="A406" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="B406" s="18" t="s">
+      <c r="B406" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C406" s="11" t="s">
@@ -7612,8 +8681,8 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="21"/>
-      <c r="B407" s="19"/>
+      <c r="A407" s="32"/>
+      <c r="B407" s="34"/>
       <c r="C407" s="12" t="s">
         <v>638</v>
       </c>
@@ -7628,10 +8697,10 @@
       <c r="B408" s="9"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="20" t="s">
+      <c r="A409" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="B409" s="18" t="s">
+      <c r="B409" s="33" t="s">
         <v>570</v>
       </c>
       <c r="C409" s="11" t="s">
@@ -7639,8 +8708,8 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="21"/>
-      <c r="B410" s="19"/>
+      <c r="A410" s="32"/>
+      <c r="B410" s="34"/>
       <c r="C410" s="12" t="s">
         <v>637</v>
       </c>
@@ -7649,10 +8718,10 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="20" t="s">
+      <c r="A411" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B411" s="18" t="s">
+      <c r="B411" s="33" t="s">
         <v>571</v>
       </c>
       <c r="C411" s="11" t="s">
@@ -7660,8 +8729,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="21"/>
-      <c r="B412" s="19"/>
+      <c r="A412" s="32"/>
+      <c r="B412" s="34"/>
       <c r="C412" s="12" t="s">
         <v>636</v>
       </c>
@@ -7670,7 +8739,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="24" t="s">
+      <c r="A413" s="58" t="s">
         <v>262</v>
       </c>
       <c r="B413" s="9" t="s">
@@ -7681,7 +8750,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="24"/>
+      <c r="A414" s="58"/>
       <c r="B414" s="9" t="s">
         <v>573</v>
       </c>
@@ -7693,10 +8762,10 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="20" t="s">
+      <c r="A415" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B415" s="18" t="s">
+      <c r="B415" s="33" t="s">
         <v>574</v>
       </c>
       <c r="C415" s="11" t="s">
@@ -7704,8 +8773,8 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="21"/>
-      <c r="B416" s="19"/>
+      <c r="A416" s="32"/>
+      <c r="B416" s="34"/>
       <c r="C416" s="12" t="s">
         <v>634</v>
       </c>
@@ -7714,10 +8783,10 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="20" t="s">
+      <c r="A417" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B417" s="18" t="s">
+      <c r="B417" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C417" s="11" t="s">
@@ -7728,17 +8797,17 @@
       </c>
     </row>
     <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="21"/>
-      <c r="B418" s="19"/>
+      <c r="A418" s="32"/>
+      <c r="B418" s="34"/>
       <c r="C418" s="17" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="20" t="s">
+      <c r="A419" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B419" s="18" t="s">
+      <c r="B419" s="33" t="s">
         <v>576</v>
       </c>
       <c r="C419" s="11" t="s">
@@ -7749,8 +8818,8 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="21"/>
-      <c r="B420" s="19"/>
+      <c r="A420" s="32"/>
+      <c r="B420" s="34"/>
       <c r="C420" s="12" t="s">
         <v>632</v>
       </c>
@@ -7762,10 +8831,10 @@
       <c r="B421" s="9"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="20" t="s">
+      <c r="A422" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B422" s="18" t="s">
+      <c r="B422" s="33" t="s">
         <v>577</v>
       </c>
       <c r="C422" s="13" t="s">
@@ -7773,8 +8842,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="21"/>
-      <c r="B423" s="19"/>
+      <c r="A423" s="32"/>
+      <c r="B423" s="34"/>
       <c r="C423" s="14" t="s">
         <v>631</v>
       </c>
@@ -7783,10 +8852,10 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="20" t="s">
+      <c r="A424" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B424" s="18" t="s">
+      <c r="B424" s="33" t="s">
         <v>578</v>
       </c>
       <c r="C424" s="11" t="s">
@@ -7794,8 +8863,8 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="21"/>
-      <c r="B425" s="19"/>
+      <c r="A425" s="32"/>
+      <c r="B425" s="34"/>
       <c r="C425" s="12" t="s">
         <v>630</v>
       </c>
@@ -7804,10 +8873,10 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="20" t="s">
+      <c r="A426" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B426" s="18" t="s">
+      <c r="B426" s="33" t="s">
         <v>579</v>
       </c>
       <c r="C426" s="11" t="s">
@@ -7815,8 +8884,8 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="21"/>
-      <c r="B427" s="19"/>
+      <c r="A427" s="32"/>
+      <c r="B427" s="34"/>
       <c r="C427" s="12" t="s">
         <v>627</v>
       </c>
@@ -7831,10 +8900,10 @@
       <c r="B428" s="9"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="20" t="s">
+      <c r="A429" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B429" s="18" t="s">
+      <c r="B429" s="33" t="s">
         <v>580</v>
       </c>
       <c r="C429" s="11" t="s">
@@ -7842,8 +8911,8 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="21"/>
-      <c r="B430" s="19"/>
+      <c r="A430" s="32"/>
+      <c r="B430" s="34"/>
       <c r="C430" s="12" t="s">
         <v>629</v>
       </c>
@@ -7852,10 +8921,10 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="20" t="s">
+      <c r="A431" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B431" s="18" t="s">
+      <c r="B431" s="33" t="s">
         <v>581</v>
       </c>
       <c r="C431" s="11" t="s">
@@ -7863,8 +8932,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="21"/>
-      <c r="B432" s="19"/>
+      <c r="A432" s="32"/>
+      <c r="B432" s="34"/>
       <c r="C432" s="12" t="s">
         <v>626</v>
       </c>
@@ -7879,10 +8948,10 @@
       <c r="B433" s="9"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="20" t="s">
+      <c r="A434" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B434" s="18" t="s">
+      <c r="B434" s="33" t="s">
         <v>582</v>
       </c>
       <c r="C434" s="11" t="s">
@@ -7890,8 +8959,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A435" s="21"/>
-      <c r="B435" s="19"/>
+      <c r="A435" s="32"/>
+      <c r="B435" s="34"/>
       <c r="C435" s="17" t="s">
         <v>625</v>
       </c>
@@ -7900,10 +8969,10 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="20" t="s">
+      <c r="A436" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B436" s="18" t="s">
+      <c r="B436" s="33" t="s">
         <v>583</v>
       </c>
       <c r="C436" s="11" t="s">
@@ -7911,8 +8980,8 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="21"/>
-      <c r="B437" s="19"/>
+      <c r="A437" s="32"/>
+      <c r="B437" s="34"/>
       <c r="C437" s="12" t="s">
         <v>624</v>
       </c>
@@ -7927,10 +8996,10 @@
       <c r="B438" s="9"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="20" t="s">
+      <c r="A439" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B439" s="18" t="s">
+      <c r="B439" s="33" t="s">
         <v>584</v>
       </c>
       <c r="C439" s="11" t="s">
@@ -7938,8 +9007,8 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="21"/>
-      <c r="B440" s="19"/>
+      <c r="A440" s="32"/>
+      <c r="B440" s="34"/>
       <c r="C440" s="12" t="s">
         <v>623</v>
       </c>
@@ -7954,10 +9023,10 @@
       <c r="B441" s="9"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="20" t="s">
+      <c r="A442" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B442" s="18" t="s">
+      <c r="B442" s="33" t="s">
         <v>585</v>
       </c>
       <c r="C442" s="11" t="s">
@@ -7965,8 +9034,8 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="21"/>
-      <c r="B443" s="19"/>
+      <c r="A443" s="32"/>
+      <c r="B443" s="34"/>
       <c r="C443" s="12" t="s">
         <v>622</v>
       </c>
@@ -7981,10 +9050,10 @@
       <c r="B444" s="9"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="20" t="s">
+      <c r="A445" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B445" s="18" t="s">
+      <c r="B445" s="33" t="s">
         <v>586</v>
       </c>
       <c r="C445" s="11" t="s">
@@ -7995,17 +9064,17 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="21"/>
-      <c r="B446" s="19"/>
+      <c r="A446" s="32"/>
+      <c r="B446" s="34"/>
       <c r="C446" s="12" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="20" t="s">
+      <c r="A447" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B447" s="18" t="s">
+      <c r="B447" s="33" t="s">
         <v>587</v>
       </c>
       <c r="C447" s="11" t="s">
@@ -8016,17 +9085,17 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="21"/>
-      <c r="B448" s="19"/>
+      <c r="A448" s="32"/>
+      <c r="B448" s="34"/>
       <c r="C448" s="12" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="20" t="s">
+      <c r="A449" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B449" s="18" t="s">
+      <c r="B449" s="33" t="s">
         <v>588</v>
       </c>
       <c r="C449" s="11" t="s">
@@ -8037,17 +9106,17 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="21"/>
-      <c r="B450" s="19"/>
+      <c r="A450" s="32"/>
+      <c r="B450" s="34"/>
       <c r="C450" s="12" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="20" t="s">
+      <c r="A451" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B451" s="18" t="s">
+      <c r="B451" s="33" t="s">
         <v>589</v>
       </c>
       <c r="C451" s="11" t="s">
@@ -8058,17 +9127,17 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="21"/>
-      <c r="B452" s="19"/>
+      <c r="A452" s="32"/>
+      <c r="B452" s="34"/>
       <c r="C452" s="12" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="20" t="s">
+      <c r="A453" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B453" s="18" t="s">
+      <c r="B453" s="33" t="s">
         <v>590</v>
       </c>
       <c r="C453" s="11" t="s">
@@ -8079,8 +9148,8 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="21"/>
-      <c r="B454" s="19"/>
+      <c r="A454" s="32"/>
+      <c r="B454" s="34"/>
       <c r="C454" s="12" t="s">
         <v>615</v>
       </c>
@@ -8092,10 +9161,10 @@
       <c r="B455" s="9"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="20" t="s">
+      <c r="A456" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B456" s="18" t="s">
+      <c r="B456" s="33" t="s">
         <v>591</v>
       </c>
       <c r="C456" s="11" t="s">
@@ -8103,8 +9172,8 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="21"/>
-      <c r="B457" s="19"/>
+      <c r="A457" s="32"/>
+      <c r="B457" s="34"/>
       <c r="C457" s="12" t="s">
         <v>612</v>
       </c>
@@ -8119,10 +9188,10 @@
       <c r="B458" s="9"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="20" t="s">
+      <c r="A459" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B459" s="18" t="s">
+      <c r="B459" s="33" t="s">
         <v>592</v>
       </c>
       <c r="C459" s="11" t="s">
@@ -8130,8 +9199,8 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="21"/>
-      <c r="B460" s="19"/>
+      <c r="A460" s="32"/>
+      <c r="B460" s="34"/>
       <c r="C460" s="12" t="s">
         <v>613</v>
       </c>
@@ -8140,10 +9209,10 @@
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="20" t="s">
+      <c r="A461" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B461" s="18" t="s">
+      <c r="B461" s="33" t="s">
         <v>593</v>
       </c>
       <c r="C461" s="11" t="s">
@@ -8154,17 +9223,17 @@
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="21"/>
-      <c r="B462" s="19"/>
+      <c r="A462" s="32"/>
+      <c r="B462" s="34"/>
       <c r="C462" s="12" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="20" t="s">
+      <c r="A463" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B463" s="18" t="s">
+      <c r="B463" s="33" t="s">
         <v>594</v>
       </c>
       <c r="C463" s="11" t="s">
@@ -8172,8 +9241,8 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="21"/>
-      <c r="B464" s="19"/>
+      <c r="A464" s="32"/>
+      <c r="B464" s="34"/>
       <c r="C464" s="12" t="s">
         <v>610</v>
       </c>
@@ -8182,10 +9251,10 @@
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="20" t="s">
+      <c r="A465" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B465" s="18" t="s">
+      <c r="B465" s="33" t="s">
         <v>595</v>
       </c>
       <c r="C465" s="11" t="s">
@@ -8193,8 +9262,8 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="21"/>
-      <c r="B466" s="19"/>
+      <c r="A466" s="32"/>
+      <c r="B466" s="34"/>
       <c r="C466" s="12" t="s">
         <v>609</v>
       </c>
@@ -8203,10 +9272,10 @@
       </c>
     </row>
     <row r="467" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="20" t="s">
+      <c r="A467" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B467" s="18" t="s">
+      <c r="B467" s="33" t="s">
         <v>596</v>
       </c>
       <c r="C467" s="16" t="s">
@@ -8217,17 +9286,17 @@
       </c>
     </row>
     <row r="468" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A468" s="21"/>
-      <c r="B468" s="19"/>
+      <c r="A468" s="32"/>
+      <c r="B468" s="34"/>
       <c r="C468" s="15" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="20" t="s">
+      <c r="A469" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B469" s="18" t="s">
+      <c r="B469" s="33" t="s">
         <v>597</v>
       </c>
       <c r="C469" s="11" t="s">
@@ -8235,8 +9304,8 @@
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="21"/>
-      <c r="B470" s="19"/>
+      <c r="A470" s="32"/>
+      <c r="B470" s="34"/>
       <c r="C470" s="12" t="s">
         <v>607</v>
       </c>
@@ -8251,10 +9320,10 @@
       <c r="B471" s="9"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B472" s="18" t="s">
+      <c r="B472" s="33" t="s">
         <v>598</v>
       </c>
       <c r="C472" s="11" t="s">
@@ -8262,8 +9331,8 @@
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="21"/>
-      <c r="B473" s="19"/>
+      <c r="A473" s="32"/>
+      <c r="B473" s="34"/>
       <c r="C473" s="12" t="s">
         <v>606</v>
       </c>
@@ -8272,29 +9341,29 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="20" t="s">
+      <c r="A474" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B474" s="18" t="s">
+      <c r="B474" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="C474" s="22" t="s">
+      <c r="C474" s="61" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="21"/>
-      <c r="B475" s="19"/>
-      <c r="C475" s="23"/>
+      <c r="A475" s="32"/>
+      <c r="B475" s="34"/>
+      <c r="C475" s="62"/>
       <c r="D475">
         <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B476" s="62" t="s">
+      <c r="A476" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B476" s="63" t="s">
         <v>600</v>
       </c>
       <c r="C476" s="11" t="s">
@@ -8302,8 +9371,8 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="61"/>
-      <c r="B477" s="46"/>
+      <c r="A477" s="64"/>
+      <c r="B477" s="45"/>
       <c r="C477" s="12" t="s">
         <v>604</v>
       </c>
@@ -8312,101 +9381,303 @@
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="59"/>
-      <c r="B478" s="59"/>
-      <c r="C478" s="60"/>
+      <c r="A478" s="29"/>
+      <c r="B478" s="29"/>
+      <c r="C478" s="30"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="59"/>
-      <c r="B479" s="59"/>
-      <c r="C479" s="60"/>
+      <c r="A479" s="29"/>
+      <c r="B479" s="29"/>
+      <c r="C479" s="30"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="59"/>
-      <c r="B480" s="59"/>
-      <c r="C480" s="60"/>
+      <c r="A480" s="29"/>
+      <c r="B480" s="29"/>
+      <c r="C480" s="30"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="59"/>
-      <c r="B481" s="59"/>
-      <c r="C481" s="63" t="s">
+      <c r="A481" s="29"/>
+      <c r="B481" s="29"/>
+      <c r="C481" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="D481" s="64">
+      <c r="D481" s="39">
         <f>SUM(D248:D477)</f>
         <v>80</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="59"/>
-      <c r="B482" s="59"/>
-      <c r="C482" s="63"/>
-      <c r="D482" s="64"/>
+      <c r="A482" s="29"/>
+      <c r="B482" s="29"/>
+      <c r="C482" s="38"/>
+      <c r="D482" s="39"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="59"/>
-      <c r="B483" s="59"/>
-      <c r="C483" s="63"/>
-      <c r="D483" s="64"/>
+      <c r="A483" s="29"/>
+      <c r="B483" s="29"/>
+      <c r="C483" s="38"/>
+      <c r="D483" s="39"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="59"/>
-      <c r="B484" s="59"/>
-      <c r="C484" s="60"/>
+      <c r="A484" s="29"/>
+      <c r="B484" s="29"/>
+      <c r="C484" s="30"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="59"/>
-      <c r="B485" s="59"/>
-      <c r="C485" s="60"/>
+      <c r="A485" s="29"/>
+      <c r="B485" s="29"/>
+      <c r="C485" s="30"/>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="59"/>
-      <c r="B486" s="59"/>
-      <c r="C486" s="60"/>
+      <c r="A486" s="29"/>
+      <c r="B486" s="29"/>
+      <c r="C486" s="30"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="59"/>
-      <c r="B487" s="59"/>
-      <c r="C487" s="60"/>
+      <c r="A487" s="29"/>
+      <c r="B487" s="29"/>
+      <c r="C487" s="30"/>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="59"/>
-      <c r="B488" s="59"/>
-      <c r="C488" s="60"/>
+      <c r="A488" s="29"/>
+      <c r="B488" s="29"/>
+      <c r="C488" s="30"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="59"/>
-      <c r="B489" s="59"/>
-      <c r="C489" s="60"/>
+      <c r="A489" s="29"/>
+      <c r="B489" s="29"/>
+      <c r="C489" s="30"/>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="59"/>
-      <c r="B490" s="59"/>
-      <c r="C490" s="60"/>
+      <c r="A490" s="29"/>
+      <c r="B490" s="29"/>
+      <c r="C490" s="30"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="59"/>
-      <c r="B491" s="59"/>
-      <c r="C491" s="60"/>
+      <c r="A491" s="29"/>
+      <c r="B491" s="29"/>
+      <c r="C491" s="30"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="59"/>
-      <c r="B492" s="59"/>
-      <c r="C492" s="60"/>
+      <c r="A492" s="29"/>
+      <c r="B492" s="29"/>
+      <c r="C492" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="B419:B420"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B429:B430"/>
+    <mergeCell ref="A429:A430"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="B431:B432"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="A434:A435"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B447:B448"/>
+    <mergeCell ref="A447:A448"/>
+    <mergeCell ref="B453:B454"/>
+    <mergeCell ref="A453:A454"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B449:B450"/>
+    <mergeCell ref="A449:A450"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="C474:C475"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="B474:B475"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="A335:A338"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="A456:A457"/>
+    <mergeCell ref="B459:B460"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="B461:B462"/>
+    <mergeCell ref="A461:A462"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="A387:A388"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="C335:C338"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="A345:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="A316:A317"/>
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="A293:A296"/>
     <mergeCell ref="A287:A288"/>
@@ -8431,219 +9702,17 @@
     <mergeCell ref="B314:B315"/>
     <mergeCell ref="C318:C321"/>
     <mergeCell ref="A312:A313"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="B339:B340"/>
-    <mergeCell ref="C335:C338"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="A345:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="A387:A388"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="A411:A412"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A243"/>
-    <mergeCell ref="A244:A247"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A256:A260"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="C474:C475"/>
-    <mergeCell ref="A474:A475"/>
-    <mergeCell ref="B474:B475"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="A335:A338"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="B456:B457"/>
-    <mergeCell ref="A456:A457"/>
-    <mergeCell ref="B459:B460"/>
-    <mergeCell ref="A459:A460"/>
-    <mergeCell ref="B461:B462"/>
-    <mergeCell ref="A461:A462"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B467:B468"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="B465:B466"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B447:B448"/>
-    <mergeCell ref="A447:A448"/>
-    <mergeCell ref="B453:B454"/>
-    <mergeCell ref="A453:A454"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B449:B450"/>
-    <mergeCell ref="A449:A450"/>
-    <mergeCell ref="A431:A432"/>
-    <mergeCell ref="B431:B432"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="B434:B435"/>
-    <mergeCell ref="A434:A435"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="B419:B420"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B429:B430"/>
-    <mergeCell ref="A429:A430"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\InappExp\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anj Lasala\Documents\GitHub\InappExp\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Testing" sheetId="3" r:id="rId2"/>
     <sheet name="No. sentences tally" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="723">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -2139,13 +2139,70 @@
   </si>
   <si>
     <t>Recall:</t>
+  </si>
+  <si>
+    <t>Horse dick. Just imagine the possibilities.</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/ab0ZNPb</t>
+  </si>
+  <si>
+    <t>No ones dick is that long</t>
+  </si>
+  <si>
+    <t>Women like this... I don't understand them.. why the fuck would you do this on camera.</t>
+  </si>
+  <si>
+    <t>Thats fake as fuck</t>
+  </si>
+  <si>
+    <t>the throat did not move. fake ass</t>
+  </si>
+  <si>
+    <t>so fucking fake that is gave me tumours</t>
+  </si>
+  <si>
+    <t>It's bullshit.. that is certainly long enough to get to her stomach acids which would pop it and suffocate her</t>
+  </si>
+  <si>
+    <t>What the fuck. How</t>
+  </si>
+  <si>
+    <t>When she'll take it out, it's going to taste like shit</t>
+  </si>
+  <si>
+    <t>It used to be real fucking sharp swords</t>
+  </si>
+  <si>
+    <t>http://9gag.com/gag/a57ZpAO#comment</t>
+  </si>
+  <si>
+    <t>we masturbate in a room together with our neighboor too... oh god why</t>
+  </si>
+  <si>
+    <t>u know what . im just gonna go to sleep now fuck this shit</t>
+  </si>
+  <si>
+    <t>Today in bullshit town</t>
+  </si>
+  <si>
+    <t>you filthy bastard!</t>
+  </si>
+  <si>
+    <t>I think this shit should be illegal! She could crash against the tower killing herself and other innocent people!</t>
+  </si>
+  <si>
+    <t>I SO want to try that shit</t>
+  </si>
+  <si>
+    <t>seriously, who pays it if something goes wrong or sb dies? she is an asshole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2183,6 +2240,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2531,7 +2594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2611,11 +2674,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2623,28 +2683,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,17 +2723,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2692,27 +2753,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2997,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4862,7 +4929,7 @@
       <c r="A237" s="5"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="65" t="s">
+      <c r="A238" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5468,21 +5535,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView topLeftCell="B445" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C478" sqref="C478"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G496" sqref="G496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" style="8" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="97.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>269</v>
       </c>
@@ -5493,1544 +5560,1901 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:3" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
       <c r="B5" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
       <c r="B6" s="9" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
       <c r="B25" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="9" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
       <c r="B54" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
       <c r="B69" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58" t="s">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
         <v>95</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
       <c r="B82" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="58" t="s">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
       <c r="B86" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
       <c r="B87" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="58" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
       <c r="B89" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="42"/>
       <c r="B91" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
       <c r="B92" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="58" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="42"/>
       <c r="B94" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="42"/>
       <c r="B95" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="58" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="42"/>
       <c r="B97" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
       <c r="B98" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="42" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="42"/>
       <c r="B100" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="42"/>
       <c r="B101" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="42"/>
       <c r="B103" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="42"/>
       <c r="B105" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="58" t="s">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="9"/>
-    </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="42"/>
       <c r="B109" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58" t="s">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="42"/>
       <c r="B112" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="42"/>
       <c r="B113" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="58" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
         <v>111</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="42"/>
       <c r="B115" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="58" t="s">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
         <v>116</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="42"/>
       <c r="B121" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="58" t="s">
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="42"/>
       <c r="B126" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="58" t="s">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
         <v>120</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="42"/>
       <c r="B129" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="58" t="s">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="42" t="s">
         <v>123</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="58"/>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="42"/>
       <c r="B133" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="58" t="s">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="42" t="s">
         <v>125</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="42"/>
       <c r="B136" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="58" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="42" t="s">
         <v>126</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="58"/>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="42"/>
       <c r="B138" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="58"/>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="42"/>
       <c r="B139" s="9" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="58"/>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="42"/>
       <c r="B140" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="58" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
         <v>127</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="58"/>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="42"/>
       <c r="B142" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="58"/>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="42"/>
       <c r="B143" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="58" t="s">
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="42" t="s">
         <v>130</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="58"/>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="42"/>
       <c r="B147" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="58" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="42" t="s">
         <v>131</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="42"/>
       <c r="B149" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="58" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="42" t="s">
         <v>132</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="58"/>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="42"/>
       <c r="B151" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="9"/>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B153" s="9"/>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="9"/>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="58" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="42" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="58"/>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="42"/>
       <c r="B156" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="58" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="42" t="s">
         <v>135</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="58"/>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="42"/>
       <c r="B158" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="58" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="58"/>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="42"/>
       <c r="B160" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="58"/>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="42"/>
       <c r="B161" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="58"/>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="42"/>
       <c r="B162" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="58"/>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="42"/>
       <c r="B163" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="9"/>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B165" s="9"/>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="9"/>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="58" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="58"/>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="42"/>
       <c r="B168" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="58" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="42" t="s">
         <v>139</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="58"/>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="42"/>
       <c r="B170" s="9" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="58" t="s">
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="42" t="s">
         <v>142</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="58"/>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="42"/>
       <c r="B174" s="9" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="58" t="s">
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="42" t="s">
         <v>145</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="58"/>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="42"/>
       <c r="B178" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="58"/>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="42"/>
       <c r="B179" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="58" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="58"/>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="42"/>
       <c r="B181" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="58" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="58"/>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="42"/>
       <c r="B183" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="58" t="s">
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="42" t="s">
         <v>150</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="58"/>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="42"/>
       <c r="B187" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="58" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="58"/>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="42"/>
       <c r="B189" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="58" t="s">
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="42" t="s">
         <v>153</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="58"/>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="42"/>
       <c r="B192" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="58" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="42" t="s">
         <v>154</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="58"/>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="42"/>
       <c r="B194" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="58"/>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="42"/>
       <c r="B195" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="58"/>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="42"/>
       <c r="B196" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="58" t="s">
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="42" t="s">
         <v>156</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="58"/>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="42"/>
       <c r="B199" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="58"/>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="42"/>
       <c r="B200" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="58" t="s">
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="42" t="s">
         <v>159</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="58"/>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="42"/>
       <c r="B204" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="58"/>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="42"/>
       <c r="B205" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="9"/>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="58" t="s">
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="42" t="s">
         <v>163</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="58"/>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="42"/>
       <c r="B211" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B212" s="9"/>
-    </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="58" t="s">
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="42" t="s">
         <v>165</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="58"/>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="42"/>
       <c r="B214" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="58" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="42" t="s">
         <v>166</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="58"/>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="42"/>
       <c r="B216" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="9"/>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B221" s="9"/>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>172</v>
       </c>
@@ -7038,338 +7462,401 @@
         <v>458</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="58" t="s">
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="42" t="s">
         <v>176</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="58"/>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="42"/>
       <c r="B228" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="58" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="42" t="s">
         <v>177</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="58"/>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="42"/>
       <c r="B230" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="58"/>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="42"/>
       <c r="B231" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="58" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="42" t="s">
         <v>178</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="58"/>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="42"/>
       <c r="B233" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="9"/>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="9"/>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B236" s="9"/>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="58" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="58"/>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="42"/>
       <c r="B238" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="58" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="42" t="s">
         <v>181</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="58"/>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="42"/>
       <c r="B240" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="58"/>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="42"/>
       <c r="B241" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="58"/>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="42"/>
       <c r="B242" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="58"/>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="42"/>
       <c r="B243" s="9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="58" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="42" t="s">
         <v>182</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="58"/>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="42"/>
       <c r="B245" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="58"/>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="42"/>
       <c r="B246" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="58"/>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="42"/>
       <c r="B247" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="59" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="43" t="s">
         <v>183</v>
       </c>
       <c r="B248" s="18" t="s">
         <v>477</v>
       </c>
       <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="59"/>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="43"/>
       <c r="B249" s="18" t="s">
         <v>284</v>
       </c>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="58" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="42" t="s">
         <v>184</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="58"/>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="42"/>
       <c r="B251" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="58"/>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="42"/>
       <c r="B252" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="58" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="42" t="s">
         <v>185</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="58"/>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="42"/>
       <c r="B254" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="58" t="s">
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="42" t="s">
         <v>187</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="58"/>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="42"/>
       <c r="B257" s="9" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="58"/>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="42"/>
       <c r="B258" s="9" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="58"/>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="42"/>
       <c r="B259" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="58"/>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="42"/>
       <c r="B260" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="58" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="42" t="s">
         <v>188</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="58"/>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="42"/>
       <c r="B262" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="58" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="42" t="s">
         <v>189</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="58"/>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="42"/>
       <c r="B264" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="58" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="42" t="s">
         <v>190</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="58"/>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="42"/>
       <c r="B266" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>192</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="58" t="s">
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="42" t="s">
         <v>193</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="58"/>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="42"/>
       <c r="B270" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="58" t="s">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="42" t="s">
         <v>194</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="58"/>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="42"/>
       <c r="B272" s="9" t="s">
         <v>496</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7379,6 +7866,9 @@
       <c r="B273" s="9" t="s">
         <v>497</v>
       </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
@@ -7387,12 +7877,15 @@
       <c r="B274" s="9" t="s">
         <v>498</v>
       </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="31" t="s">
+      <c r="A275" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B275" s="33" t="s">
+      <c r="B275" s="32" t="s">
         <v>499</v>
       </c>
       <c r="C275" s="11" t="s">
@@ -7403,17 +7896,20 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="32"/>
-      <c r="B276" s="34"/>
+      <c r="A276" s="35"/>
+      <c r="B276" s="33"/>
       <c r="C276" s="12" t="s">
         <v>701</v>
       </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="31" t="s">
+      <c r="A277" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B277" s="33" t="s">
+      <c r="B277" s="32" t="s">
         <v>500</v>
       </c>
       <c r="C277" s="11" t="s">
@@ -7421,8 +7917,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="32"/>
-      <c r="B278" s="34"/>
+      <c r="A278" s="35"/>
+      <c r="B278" s="33"/>
       <c r="C278" s="12" t="s">
         <v>699</v>
       </c>
@@ -7431,10 +7927,10 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="31" t="s">
+      <c r="A279" s="34" t="s">
         <v>698</v>
       </c>
-      <c r="B279" s="33" t="s">
+      <c r="B279" s="32" t="s">
         <v>501</v>
       </c>
       <c r="C279" s="11" t="s">
@@ -7442,8 +7938,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="32"/>
-      <c r="B280" s="34"/>
+      <c r="A280" s="35"/>
+      <c r="B280" s="33"/>
       <c r="C280" s="12" t="s">
         <v>697</v>
       </c>
@@ -7452,19 +7948,19 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="31" t="s">
+      <c r="A281" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B281" s="33" t="s">
+      <c r="B281" s="32" t="s">
         <v>502</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="32"/>
-      <c r="B282" s="34"/>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="35"/>
+      <c r="B282" s="33"/>
       <c r="C282" s="17" t="s">
         <v>696</v>
       </c>
@@ -7473,10 +7969,10 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="31" t="s">
+      <c r="A283" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B283" s="33" t="s">
+      <c r="B283" s="32" t="s">
         <v>503</v>
       </c>
       <c r="C283" s="11" t="s">
@@ -7484,8 +7980,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="32"/>
-      <c r="B284" s="34"/>
+      <c r="A284" s="35"/>
+      <c r="B284" s="33"/>
       <c r="C284" s="12" t="s">
         <v>694</v>
       </c>
@@ -7494,10 +7990,10 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="31" t="s">
+      <c r="A285" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B285" s="33" t="s">
+      <c r="B285" s="32" t="s">
         <v>504</v>
       </c>
       <c r="C285" s="11" t="s">
@@ -7508,26 +8004,29 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="32"/>
-      <c r="B286" s="34"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="33"/>
       <c r="C286" s="12" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="31" t="s">
+      <c r="A287" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B287" s="33" t="s">
+      <c r="B287" s="32" t="s">
         <v>505</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>505</v>
       </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="32"/>
-      <c r="B288" s="34"/>
+      <c r="A288" s="35"/>
+      <c r="B288" s="33"/>
       <c r="C288" s="12" t="s">
         <v>692</v>
       </c>
@@ -7535,11 +8034,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="31" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B289" s="33" t="s">
+      <c r="B289" s="32" t="s">
         <v>506</v>
       </c>
       <c r="C289" s="28" t="s">
@@ -7547,8 +8046,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="32"/>
-      <c r="B290" s="34"/>
+      <c r="A290" s="35"/>
+      <c r="B290" s="33"/>
       <c r="C290" s="17" t="s">
         <v>691</v>
       </c>
@@ -7557,10 +8056,10 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="43" t="s">
+      <c r="A291" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B291" s="45" t="s">
+      <c r="B291" s="39" t="s">
         <v>507</v>
       </c>
       <c r="C291" s="22" t="s">
@@ -7568,8 +8067,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="44"/>
-      <c r="B292" s="33"/>
+      <c r="A292" s="47"/>
+      <c r="B292" s="32"/>
       <c r="C292" s="24" t="s">
         <v>689</v>
       </c>
@@ -7578,7 +8077,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="35" t="s">
+      <c r="A293" s="58" t="s">
         <v>206</v>
       </c>
       <c r="B293" s="20" t="s">
@@ -7589,7 +8088,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="36"/>
+      <c r="A294" s="59"/>
       <c r="B294" s="21" t="s">
         <v>509</v>
       </c>
@@ -7601,26 +8100,29 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
+      <c r="A295" s="59"/>
       <c r="B295" s="21" t="s">
         <v>510</v>
       </c>
       <c r="C295" s="23" t="s">
         <v>510</v>
       </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="37"/>
+      <c r="A296" s="60"/>
       <c r="B296" s="27"/>
       <c r="C296" s="24" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="31" t="s">
+      <c r="A297" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B297" s="40" t="s">
+      <c r="B297" s="48" t="s">
         <v>511</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -7631,26 +8133,29 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="32"/>
-      <c r="B298" s="34"/>
+      <c r="A298" s="35"/>
+      <c r="B298" s="33"/>
       <c r="C298" s="12" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="31" t="s">
+      <c r="A299" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B299" s="33" t="s">
+      <c r="B299" s="32" t="s">
         <v>512</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="32"/>
-      <c r="B300" s="40"/>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="35"/>
+      <c r="B300" s="48"/>
       <c r="C300" s="12" t="s">
         <v>687</v>
       </c>
@@ -7658,27 +8163,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="60" t="s">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="41" t="s">
         <v>209</v>
       </c>
       <c r="B301" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="C301" s="41"/>
-    </row>
-    <row r="302" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="60"/>
+      <c r="C301" s="63"/>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="41"/>
       <c r="B302" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="C302" s="42"/>
+      <c r="C302" s="64"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="31" t="s">
+      <c r="A303" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B303" s="40" t="s">
+      <c r="B303" s="48" t="s">
         <v>515</v>
       </c>
       <c r="C303" s="11" t="s">
@@ -7689,17 +8197,17 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="32"/>
-      <c r="B304" s="34"/>
+      <c r="A304" s="35"/>
+      <c r="B304" s="33"/>
       <c r="C304" s="12" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="31" t="s">
+      <c r="A305" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B305" s="32" t="s">
         <v>516</v>
       </c>
       <c r="C305" s="11" t="s">
@@ -7710,17 +8218,17 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="32"/>
-      <c r="B306" s="34"/>
+      <c r="A306" s="35"/>
+      <c r="B306" s="33"/>
       <c r="C306" s="12" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="31" t="s">
+      <c r="A307" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B307" s="33" t="s">
+      <c r="B307" s="32" t="s">
         <v>517</v>
       </c>
       <c r="C307" s="11" t="s">
@@ -7731,8 +8239,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="32"/>
-      <c r="B308" s="34"/>
+      <c r="A308" s="35"/>
+      <c r="B308" s="33"/>
       <c r="C308" s="12" t="s">
         <v>683</v>
       </c>
@@ -7744,10 +8252,10 @@
       <c r="B309" s="9"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="31" t="s">
+      <c r="A310" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="32" t="s">
         <v>518</v>
       </c>
       <c r="C310" s="11" t="s">
@@ -7758,17 +8266,17 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="32"/>
-      <c r="B311" s="34"/>
+      <c r="A311" s="35"/>
+      <c r="B311" s="33"/>
       <c r="C311" s="12" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="31" t="s">
+      <c r="A312" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B312" s="33" t="s">
+      <c r="B312" s="32" t="s">
         <v>519</v>
       </c>
       <c r="C312" s="11" t="s">
@@ -7776,8 +8284,8 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="32"/>
-      <c r="B313" s="34"/>
+      <c r="A313" s="35"/>
+      <c r="B313" s="33"/>
       <c r="C313" s="12" t="s">
         <v>681</v>
       </c>
@@ -7786,10 +8294,10 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="31" t="s">
+      <c r="A314" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B314" s="33" t="s">
+      <c r="B314" s="32" t="s">
         <v>520</v>
       </c>
       <c r="C314" s="11" t="s">
@@ -7797,8 +8305,8 @@
       </c>
     </row>
     <row r="315" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="32"/>
-      <c r="B315" s="34"/>
+      <c r="A315" s="35"/>
+      <c r="B315" s="33"/>
       <c r="C315" s="17" t="s">
         <v>680</v>
       </c>
@@ -7807,10 +8315,10 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="31" t="s">
+      <c r="A316" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B316" s="33" t="s">
+      <c r="B316" s="32" t="s">
         <v>521</v>
       </c>
       <c r="C316" s="11" t="s">
@@ -7818,8 +8326,8 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="32"/>
-      <c r="B317" s="34"/>
+      <c r="A317" s="35"/>
+      <c r="B317" s="33"/>
       <c r="C317" s="17" t="s">
         <v>679</v>
       </c>
@@ -7827,41 +8335,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="58" t="s">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="42" t="s">
         <v>218</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C318" s="46"/>
-    </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="58"/>
+      <c r="C318" s="44"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="42"/>
       <c r="B319" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C319" s="47"/>
-    </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="58"/>
+      <c r="C319" s="65"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="42"/>
       <c r="B320" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C320" s="47"/>
+      <c r="C320" s="65"/>
+      <c r="D320">
+        <v>1</v>
+      </c>
     </row>
     <row r="321" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A321" s="58"/>
+      <c r="A321" s="42"/>
       <c r="B321" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C321" s="48"/>
+      <c r="C321" s="45"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="31" t="s">
+      <c r="A322" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B322" s="33" t="s">
+      <c r="B322" s="32" t="s">
         <v>526</v>
       </c>
       <c r="C322" s="11" t="s">
@@ -7869,8 +8380,8 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="32"/>
-      <c r="B323" s="34"/>
+      <c r="A323" s="35"/>
+      <c r="B323" s="33"/>
       <c r="C323" s="12" t="s">
         <v>678</v>
       </c>
@@ -7879,10 +8390,10 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="31" t="s">
+      <c r="A324" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B324" s="33" t="s">
+      <c r="B324" s="32" t="s">
         <v>527</v>
       </c>
       <c r="C324" s="11" t="s">
@@ -7893,17 +8404,17 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="32"/>
-      <c r="B325" s="34"/>
+      <c r="A325" s="35"/>
+      <c r="B325" s="33"/>
       <c r="C325" s="12" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="31" t="s">
+      <c r="A326" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B326" s="33" t="s">
+      <c r="B326" s="32" t="s">
         <v>528</v>
       </c>
       <c r="C326" s="11" t="s">
@@ -7914,17 +8425,17 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="32"/>
-      <c r="B327" s="34"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="33"/>
       <c r="C327" s="12" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="31" t="s">
+      <c r="A328" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B328" s="33" t="s">
+      <c r="B328" s="32" t="s">
         <v>529</v>
       </c>
       <c r="C328" s="11" t="s">
@@ -7935,17 +8446,17 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="32"/>
-      <c r="B329" s="34"/>
+      <c r="A329" s="35"/>
+      <c r="B329" s="33"/>
       <c r="C329" s="12" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="43" t="s">
+      <c r="A330" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B330" s="45" t="s">
+      <c r="B330" s="39" t="s">
         <v>530</v>
       </c>
       <c r="C330" s="11" t="s">
@@ -7956,14 +8467,14 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="44"/>
-      <c r="B331" s="45"/>
+      <c r="A331" s="47"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="17" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="60" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="41" t="s">
         <v>224</v>
       </c>
       <c r="B332" s="26" t="s">
@@ -7971,22 +8482,25 @@
       </c>
       <c r="C332" s="52"/>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="60"/>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="41"/>
       <c r="B333" s="21" t="s">
         <v>532</v>
       </c>
       <c r="C333" s="53"/>
-    </row>
-    <row r="334" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="60"/>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="41"/>
       <c r="B334" s="27" t="s">
         <v>533</v>
       </c>
       <c r="C334" s="54"/>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="60" t="s">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="41" t="s">
         <v>225</v>
       </c>
       <c r="B335" s="20" t="s">
@@ -7994,32 +8508,35 @@
       </c>
       <c r="C335" s="49"/>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="60"/>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="41"/>
       <c r="B336" s="21" t="s">
         <v>535</v>
       </c>
       <c r="C336" s="50"/>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="60"/>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="41"/>
       <c r="B337" s="21" t="s">
         <v>536</v>
       </c>
       <c r="C337" s="50"/>
+      <c r="D337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="60"/>
+      <c r="A338" s="41"/>
       <c r="B338" s="27" t="s">
         <v>537</v>
       </c>
       <c r="C338" s="51"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="31" t="s">
+      <c r="A339" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B339" s="40" t="s">
+      <c r="B339" s="48" t="s">
         <v>538</v>
       </c>
       <c r="C339" s="11" t="s">
@@ -8027,8 +8544,8 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="32"/>
-      <c r="B340" s="34"/>
+      <c r="A340" s="35"/>
+      <c r="B340" s="33"/>
       <c r="C340" s="12" t="s">
         <v>672</v>
       </c>
@@ -8037,10 +8554,10 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="43" t="s">
+      <c r="A341" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="B341" s="45" t="s">
+      <c r="B341" s="39" t="s">
         <v>539</v>
       </c>
       <c r="C341" s="22" t="s">
@@ -8048,17 +8565,17 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="44"/>
-      <c r="B342" s="45"/>
+      <c r="A342" s="47"/>
+      <c r="B342" s="39"/>
       <c r="C342" s="24" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="43" t="s">
+      <c r="A343" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="B343" s="45" t="s">
+      <c r="B343" s="39" t="s">
         <v>540</v>
       </c>
       <c r="C343" s="22" t="s">
@@ -8066,14 +8583,14 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="44"/>
-      <c r="B344" s="45"/>
+      <c r="A344" s="47"/>
+      <c r="B344" s="39"/>
       <c r="C344" s="24" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="43" t="s">
+      <c r="A345" s="46" t="s">
         <v>229</v>
       </c>
       <c r="B345" s="26" t="s">
@@ -8113,8 +8630,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="44"/>
+    <row r="349" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="47"/>
       <c r="B349" s="57"/>
       <c r="C349" s="25" t="s">
         <v>668</v>
@@ -8127,10 +8644,10 @@
       <c r="B350" s="19"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="31" t="s">
+      <c r="A351" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B351" s="33" t="s">
+      <c r="B351" s="32" t="s">
         <v>545</v>
       </c>
       <c r="C351" s="11" t="s">
@@ -8138,8 +8655,8 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="32"/>
-      <c r="B352" s="34"/>
+      <c r="A352" s="35"/>
+      <c r="B352" s="33"/>
       <c r="C352" s="12" t="s">
         <v>666</v>
       </c>
@@ -8148,10 +8665,10 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="31" t="s">
+      <c r="A353" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B353" s="33" t="s">
+      <c r="B353" s="32" t="s">
         <v>546</v>
       </c>
       <c r="C353" s="11" t="s">
@@ -8159,8 +8676,8 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="32"/>
-      <c r="B354" s="34"/>
+      <c r="A354" s="35"/>
+      <c r="B354" s="33"/>
       <c r="C354" s="12" t="s">
         <v>663</v>
       </c>
@@ -8169,10 +8686,10 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="31" t="s">
+      <c r="A355" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="B355" s="33" t="s">
+      <c r="B355" s="32" t="s">
         <v>547</v>
       </c>
       <c r="C355" s="11" t="s">
@@ -8180,8 +8697,8 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="32"/>
-      <c r="B356" s="34"/>
+      <c r="A356" s="35"/>
+      <c r="B356" s="33"/>
       <c r="C356" s="12" t="s">
         <v>665</v>
       </c>
@@ -8190,10 +8707,10 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="31" t="s">
+      <c r="A357" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B357" s="33" t="s">
+      <c r="B357" s="32" t="s">
         <v>548</v>
       </c>
       <c r="C357" s="11" t="s">
@@ -8201,8 +8718,8 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="32"/>
-      <c r="B358" s="34"/>
+      <c r="A358" s="35"/>
+      <c r="B358" s="33"/>
       <c r="C358" s="12" t="s">
         <v>662</v>
       </c>
@@ -8211,10 +8728,10 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="31" t="s">
+      <c r="A359" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="B359" s="33" t="s">
+      <c r="B359" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C359" s="11" t="s">
@@ -8222,8 +8739,8 @@
       </c>
     </row>
     <row r="360" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="32"/>
-      <c r="B360" s="34"/>
+      <c r="A360" s="35"/>
+      <c r="B360" s="33"/>
       <c r="C360" s="17" t="s">
         <v>660</v>
       </c>
@@ -8238,10 +8755,10 @@
       <c r="B361" s="9"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="31" t="s">
+      <c r="A362" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B362" s="33" t="s">
+      <c r="B362" s="32" t="s">
         <v>550</v>
       </c>
       <c r="C362" s="11" t="s">
@@ -8251,18 +8768,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A363" s="32"/>
-      <c r="B363" s="34"/>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="35"/>
+      <c r="B363" s="33"/>
       <c r="C363" s="17" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="31" t="s">
+      <c r="A364" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B364" s="33" t="s">
+      <c r="B364" s="32" t="s">
         <v>551</v>
       </c>
       <c r="C364" s="11" t="s">
@@ -8270,8 +8787,8 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="32"/>
-      <c r="B365" s="34"/>
+      <c r="A365" s="35"/>
+      <c r="B365" s="33"/>
       <c r="C365" s="12" t="s">
         <v>658</v>
       </c>
@@ -8280,10 +8797,10 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="31" t="s">
+      <c r="A366" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B366" s="33" t="s">
+      <c r="B366" s="32" t="s">
         <v>552</v>
       </c>
       <c r="C366" s="11" t="s">
@@ -8291,8 +8808,8 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="32"/>
-      <c r="B367" s="34"/>
+      <c r="A367" s="35"/>
+      <c r="B367" s="33"/>
       <c r="C367" s="12" t="s">
         <v>657</v>
       </c>
@@ -8301,10 +8818,10 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="31" t="s">
+      <c r="A368" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="B368" s="33" t="s">
+      <c r="B368" s="32" t="s">
         <v>553</v>
       </c>
       <c r="C368" s="11" t="s">
@@ -8312,8 +8829,8 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="32"/>
-      <c r="B369" s="34"/>
+      <c r="A369" s="35"/>
+      <c r="B369" s="33"/>
       <c r="C369" s="12" t="s">
         <v>655</v>
       </c>
@@ -8322,10 +8839,10 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="31" t="s">
+      <c r="A370" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B370" s="33" t="s">
+      <c r="B370" s="32" t="s">
         <v>554</v>
       </c>
       <c r="C370" s="11" t="s">
@@ -8333,8 +8850,8 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="32"/>
-      <c r="B371" s="34"/>
+      <c r="A371" s="35"/>
+      <c r="B371" s="33"/>
       <c r="C371" s="12" t="s">
         <v>654</v>
       </c>
@@ -8349,10 +8866,10 @@
       <c r="B372" s="9"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="31" t="s">
+      <c r="A373" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B373" s="33" t="s">
+      <c r="B373" s="32" t="s">
         <v>555</v>
       </c>
       <c r="C373" s="11" t="s">
@@ -8360,8 +8877,8 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="32"/>
-      <c r="B374" s="34"/>
+      <c r="A374" s="35"/>
+      <c r="B374" s="33"/>
       <c r="C374" s="12" t="s">
         <v>653</v>
       </c>
@@ -8370,7 +8887,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="58" t="s">
+      <c r="A375" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B375" s="9" t="s">
@@ -8381,7 +8898,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="58"/>
+      <c r="A376" s="42"/>
       <c r="B376" s="9" t="s">
         <v>284</v>
       </c>
@@ -8393,7 +8910,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="31" t="s">
+      <c r="A377" s="34" t="s">
         <v>245</v>
       </c>
       <c r="B377" s="9" t="s">
@@ -8403,8 +8920,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="32"/>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="35"/>
       <c r="B378" s="9" t="s">
         <v>284</v>
       </c>
@@ -8416,10 +8933,10 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="31" t="s">
+      <c r="A379" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B379" s="33" t="s">
+      <c r="B379" s="32" t="s">
         <v>558</v>
       </c>
       <c r="C379" s="11" t="s">
@@ -8427,8 +8944,8 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="32"/>
-      <c r="B380" s="34"/>
+      <c r="A380" s="35"/>
+      <c r="B380" s="33"/>
       <c r="C380" s="12" t="s">
         <v>649</v>
       </c>
@@ -8437,10 +8954,10 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="31" t="s">
+      <c r="A381" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B381" s="33" t="s">
+      <c r="B381" s="32" t="s">
         <v>559</v>
       </c>
       <c r="C381" s="11" t="s">
@@ -8448,8 +8965,8 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="32"/>
-      <c r="B382" s="34"/>
+      <c r="A382" s="35"/>
+      <c r="B382" s="33"/>
       <c r="C382" s="12" t="s">
         <v>648</v>
       </c>
@@ -8458,10 +8975,10 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="31" t="s">
+      <c r="A383" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B383" s="33" t="s">
+      <c r="B383" s="32" t="s">
         <v>560</v>
       </c>
       <c r="C383" s="11" t="s">
@@ -8469,8 +8986,8 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="32"/>
-      <c r="B384" s="34"/>
+      <c r="A384" s="35"/>
+      <c r="B384" s="33"/>
       <c r="C384" s="12" t="s">
         <v>647</v>
       </c>
@@ -8478,25 +8995,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="31" t="s">
+    <row r="385" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B385" s="33" t="s">
+      <c r="B385" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="C385" s="46"/>
+      <c r="C385" s="44"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="32"/>
-      <c r="B386" s="34"/>
-      <c r="C386" s="48"/>
+      <c r="A386" s="35"/>
+      <c r="B386" s="33"/>
+      <c r="C386" s="45"/>
+      <c r="D386">
+        <v>1</v>
+      </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="31" t="s">
+      <c r="A387" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B387" s="33" t="s">
+      <c r="B387" s="32" t="s">
         <v>562</v>
       </c>
       <c r="C387" s="11" t="s">
@@ -8504,8 +9024,8 @@
       </c>
     </row>
     <row r="388" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A388" s="32"/>
-      <c r="B388" s="34"/>
+      <c r="A388" s="35"/>
+      <c r="B388" s="33"/>
       <c r="C388" s="17" t="s">
         <v>646</v>
       </c>
@@ -8520,10 +9040,10 @@
       <c r="B389" s="9"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="31" t="s">
+      <c r="A390" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="33" t="s">
+      <c r="B390" s="32" t="s">
         <v>563</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -8531,8 +9051,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="32"/>
-      <c r="B391" s="34"/>
+      <c r="A391" s="35"/>
+      <c r="B391" s="33"/>
       <c r="C391" s="12" t="s">
         <v>645</v>
       </c>
@@ -8541,10 +9061,10 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="31" t="s">
+      <c r="A392" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B392" s="33" t="s">
+      <c r="B392" s="32" t="s">
         <v>564</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -8552,8 +9072,8 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="32"/>
-      <c r="B393" s="34"/>
+      <c r="A393" s="35"/>
+      <c r="B393" s="33"/>
       <c r="C393" s="12" t="s">
         <v>644</v>
       </c>
@@ -8568,10 +9088,10 @@
       <c r="B394" s="9"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="31" t="s">
+      <c r="A395" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B395" s="33" t="s">
+      <c r="B395" s="32" t="s">
         <v>565</v>
       </c>
       <c r="C395" s="11" t="s">
@@ -8579,8 +9099,8 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="32"/>
-      <c r="B396" s="34"/>
+      <c r="A396" s="35"/>
+      <c r="B396" s="33"/>
       <c r="C396" s="12" t="s">
         <v>642</v>
       </c>
@@ -8595,10 +9115,10 @@
       <c r="B397" s="9"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="31" t="s">
+      <c r="A398" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="B398" s="33" t="s">
+      <c r="B398" s="32" t="s">
         <v>566</v>
       </c>
       <c r="C398" s="11" t="s">
@@ -8606,8 +9126,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="32"/>
-      <c r="B399" s="34"/>
+      <c r="A399" s="35"/>
+      <c r="B399" s="33"/>
       <c r="C399" s="12" t="s">
         <v>641</v>
       </c>
@@ -8616,10 +9136,10 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="31" t="s">
+      <c r="A400" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="B400" s="33" t="s">
+      <c r="B400" s="32" t="s">
         <v>567</v>
       </c>
       <c r="C400" s="11" t="s">
@@ -8627,8 +9147,8 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="32"/>
-      <c r="B401" s="34"/>
+      <c r="A401" s="35"/>
+      <c r="B401" s="33"/>
       <c r="C401" s="12" t="s">
         <v>640</v>
       </c>
@@ -8643,10 +9163,10 @@
       <c r="B402" s="9"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="31" t="s">
+      <c r="A403" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B403" s="33" t="s">
+      <c r="B403" s="32" t="s">
         <v>568</v>
       </c>
       <c r="C403" s="11" t="s">
@@ -8654,8 +9174,8 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="32"/>
-      <c r="B404" s="34"/>
+      <c r="A404" s="35"/>
+      <c r="B404" s="33"/>
       <c r="C404" s="12" t="s">
         <v>639</v>
       </c>
@@ -8670,10 +9190,10 @@
       <c r="B405" s="9"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="31" t="s">
+      <c r="A406" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B406" s="33" t="s">
+      <c r="B406" s="32" t="s">
         <v>569</v>
       </c>
       <c r="C406" s="11" t="s">
@@ -8681,8 +9201,8 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="32"/>
-      <c r="B407" s="34"/>
+      <c r="A407" s="35"/>
+      <c r="B407" s="33"/>
       <c r="C407" s="12" t="s">
         <v>638</v>
       </c>
@@ -8697,10 +9217,10 @@
       <c r="B408" s="9"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="31" t="s">
+      <c r="A409" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B409" s="33" t="s">
+      <c r="B409" s="32" t="s">
         <v>570</v>
       </c>
       <c r="C409" s="11" t="s">
@@ -8708,8 +9228,8 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="32"/>
-      <c r="B410" s="34"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="33"/>
       <c r="C410" s="12" t="s">
         <v>637</v>
       </c>
@@ -8718,10 +9238,10 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="31" t="s">
+      <c r="A411" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B411" s="33" t="s">
+      <c r="B411" s="32" t="s">
         <v>571</v>
       </c>
       <c r="C411" s="11" t="s">
@@ -8729,8 +9249,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="32"/>
-      <c r="B412" s="34"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="33"/>
       <c r="C412" s="12" t="s">
         <v>636</v>
       </c>
@@ -8739,7 +9259,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="58" t="s">
+      <c r="A413" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B413" s="9" t="s">
@@ -8750,7 +9270,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="58"/>
+      <c r="A414" s="42"/>
       <c r="B414" s="9" t="s">
         <v>573</v>
       </c>
@@ -8762,10 +9282,10 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="31" t="s">
+      <c r="A415" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B415" s="33" t="s">
+      <c r="B415" s="32" t="s">
         <v>574</v>
       </c>
       <c r="C415" s="11" t="s">
@@ -8773,8 +9293,8 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="32"/>
-      <c r="B416" s="34"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="33"/>
       <c r="C416" s="12" t="s">
         <v>634</v>
       </c>
@@ -8783,10 +9303,10 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="31" t="s">
+      <c r="A417" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B417" s="33" t="s">
+      <c r="B417" s="32" t="s">
         <v>575</v>
       </c>
       <c r="C417" s="11" t="s">
@@ -8796,18 +9316,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="32"/>
-      <c r="B418" s="34"/>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="35"/>
+      <c r="B418" s="33"/>
       <c r="C418" s="17" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="31" t="s">
+      <c r="A419" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B419" s="33" t="s">
+      <c r="B419" s="32" t="s">
         <v>576</v>
       </c>
       <c r="C419" s="11" t="s">
@@ -8818,8 +9338,8 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="32"/>
-      <c r="B420" s="34"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="33"/>
       <c r="C420" s="12" t="s">
         <v>632</v>
       </c>
@@ -8831,10 +9351,10 @@
       <c r="B421" s="9"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="31" t="s">
+      <c r="A422" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B422" s="33" t="s">
+      <c r="B422" s="32" t="s">
         <v>577</v>
       </c>
       <c r="C422" s="13" t="s">
@@ -8842,8 +9362,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="32"/>
-      <c r="B423" s="34"/>
+      <c r="A423" s="35"/>
+      <c r="B423" s="33"/>
       <c r="C423" s="14" t="s">
         <v>631</v>
       </c>
@@ -8852,10 +9372,10 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="31" t="s">
+      <c r="A424" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B424" s="33" t="s">
+      <c r="B424" s="32" t="s">
         <v>578</v>
       </c>
       <c r="C424" s="11" t="s">
@@ -8863,8 +9383,8 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="32"/>
-      <c r="B425" s="34"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="33"/>
       <c r="C425" s="12" t="s">
         <v>630</v>
       </c>
@@ -8873,10 +9393,10 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="31" t="s">
+      <c r="A426" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B426" s="33" t="s">
+      <c r="B426" s="32" t="s">
         <v>579</v>
       </c>
       <c r="C426" s="11" t="s">
@@ -8884,8 +9404,8 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="32"/>
-      <c r="B427" s="34"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="33"/>
       <c r="C427" s="12" t="s">
         <v>627</v>
       </c>
@@ -8900,10 +9420,10 @@
       <c r="B428" s="9"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="31" t="s">
+      <c r="A429" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B429" s="33" t="s">
+      <c r="B429" s="32" t="s">
         <v>580</v>
       </c>
       <c r="C429" s="11" t="s">
@@ -8911,8 +9431,8 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="32"/>
-      <c r="B430" s="34"/>
+      <c r="A430" s="35"/>
+      <c r="B430" s="33"/>
       <c r="C430" s="12" t="s">
         <v>629</v>
       </c>
@@ -8921,10 +9441,10 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="31" t="s">
+      <c r="A431" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B431" s="33" t="s">
+      <c r="B431" s="32" t="s">
         <v>581</v>
       </c>
       <c r="C431" s="11" t="s">
@@ -8932,8 +9452,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="32"/>
-      <c r="B432" s="34"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="33"/>
       <c r="C432" s="12" t="s">
         <v>626</v>
       </c>
@@ -8948,19 +9468,19 @@
       <c r="B433" s="9"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="31" t="s">
+      <c r="A434" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B434" s="33" t="s">
+      <c r="B434" s="32" t="s">
         <v>582</v>
       </c>
       <c r="C434" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A435" s="32"/>
-      <c r="B435" s="34"/>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="35"/>
+      <c r="B435" s="33"/>
       <c r="C435" s="17" t="s">
         <v>625</v>
       </c>
@@ -8969,10 +9489,10 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="31" t="s">
+      <c r="A436" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B436" s="33" t="s">
+      <c r="B436" s="32" t="s">
         <v>583</v>
       </c>
       <c r="C436" s="11" t="s">
@@ -8980,8 +9500,8 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="32"/>
-      <c r="B437" s="34"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="33"/>
       <c r="C437" s="12" t="s">
         <v>624</v>
       </c>
@@ -8996,10 +9516,10 @@
       <c r="B438" s="9"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="31" t="s">
+      <c r="A439" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B439" s="33" t="s">
+      <c r="B439" s="32" t="s">
         <v>584</v>
       </c>
       <c r="C439" s="11" t="s">
@@ -9007,8 +9527,8 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="32"/>
-      <c r="B440" s="34"/>
+      <c r="A440" s="35"/>
+      <c r="B440" s="33"/>
       <c r="C440" s="12" t="s">
         <v>623</v>
       </c>
@@ -9023,10 +9543,10 @@
       <c r="B441" s="9"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="31" t="s">
+      <c r="A442" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B442" s="33" t="s">
+      <c r="B442" s="32" t="s">
         <v>585</v>
       </c>
       <c r="C442" s="11" t="s">
@@ -9034,8 +9554,8 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="32"/>
-      <c r="B443" s="34"/>
+      <c r="A443" s="35"/>
+      <c r="B443" s="33"/>
       <c r="C443" s="12" t="s">
         <v>622</v>
       </c>
@@ -9050,10 +9570,10 @@
       <c r="B444" s="9"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="31" t="s">
+      <c r="A445" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B445" s="33" t="s">
+      <c r="B445" s="32" t="s">
         <v>586</v>
       </c>
       <c r="C445" s="11" t="s">
@@ -9064,17 +9584,17 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="32"/>
-      <c r="B446" s="34"/>
+      <c r="A446" s="35"/>
+      <c r="B446" s="33"/>
       <c r="C446" s="12" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="31" t="s">
+      <c r="A447" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B447" s="33" t="s">
+      <c r="B447" s="32" t="s">
         <v>587</v>
       </c>
       <c r="C447" s="11" t="s">
@@ -9085,17 +9605,17 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="32"/>
-      <c r="B448" s="34"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="33"/>
       <c r="C448" s="12" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="31" t="s">
+      <c r="A449" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B449" s="33" t="s">
+      <c r="B449" s="32" t="s">
         <v>588</v>
       </c>
       <c r="C449" s="11" t="s">
@@ -9106,17 +9626,17 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="32"/>
-      <c r="B450" s="34"/>
+      <c r="A450" s="35"/>
+      <c r="B450" s="33"/>
       <c r="C450" s="12" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="31" t="s">
+      <c r="A451" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B451" s="33" t="s">
+      <c r="B451" s="32" t="s">
         <v>589</v>
       </c>
       <c r="C451" s="11" t="s">
@@ -9127,17 +9647,17 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="32"/>
-      <c r="B452" s="34"/>
+      <c r="A452" s="35"/>
+      <c r="B452" s="33"/>
       <c r="C452" s="12" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="31" t="s">
+      <c r="A453" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B453" s="33" t="s">
+      <c r="B453" s="32" t="s">
         <v>590</v>
       </c>
       <c r="C453" s="11" t="s">
@@ -9148,8 +9668,8 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="32"/>
-      <c r="B454" s="34"/>
+      <c r="A454" s="35"/>
+      <c r="B454" s="33"/>
       <c r="C454" s="12" t="s">
         <v>615</v>
       </c>
@@ -9161,10 +9681,10 @@
       <c r="B455" s="9"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="31" t="s">
+      <c r="A456" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B456" s="33" t="s">
+      <c r="B456" s="32" t="s">
         <v>591</v>
       </c>
       <c r="C456" s="11" t="s">
@@ -9172,8 +9692,8 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="32"/>
-      <c r="B457" s="34"/>
+      <c r="A457" s="35"/>
+      <c r="B457" s="33"/>
       <c r="C457" s="12" t="s">
         <v>612</v>
       </c>
@@ -9188,10 +9708,10 @@
       <c r="B458" s="9"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="31" t="s">
+      <c r="A459" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B459" s="33" t="s">
+      <c r="B459" s="32" t="s">
         <v>592</v>
       </c>
       <c r="C459" s="11" t="s">
@@ -9199,8 +9719,8 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="32"/>
-      <c r="B460" s="34"/>
+      <c r="A460" s="35"/>
+      <c r="B460" s="33"/>
       <c r="C460" s="12" t="s">
         <v>613</v>
       </c>
@@ -9209,10 +9729,10 @@
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="31" t="s">
+      <c r="A461" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B461" s="33" t="s">
+      <c r="B461" s="32" t="s">
         <v>593</v>
       </c>
       <c r="C461" s="11" t="s">
@@ -9223,17 +9743,17 @@
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="32"/>
-      <c r="B462" s="34"/>
+      <c r="A462" s="35"/>
+      <c r="B462" s="33"/>
       <c r="C462" s="12" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="31" t="s">
+      <c r="A463" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B463" s="33" t="s">
+      <c r="B463" s="32" t="s">
         <v>594</v>
       </c>
       <c r="C463" s="11" t="s">
@@ -9241,8 +9761,8 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="32"/>
-      <c r="B464" s="34"/>
+      <c r="A464" s="35"/>
+      <c r="B464" s="33"/>
       <c r="C464" s="12" t="s">
         <v>610</v>
       </c>
@@ -9251,10 +9771,10 @@
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="31" t="s">
+      <c r="A465" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B465" s="33" t="s">
+      <c r="B465" s="32" t="s">
         <v>595</v>
       </c>
       <c r="C465" s="11" t="s">
@@ -9262,8 +9782,8 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="32"/>
-      <c r="B466" s="34"/>
+      <c r="A466" s="35"/>
+      <c r="B466" s="33"/>
       <c r="C466" s="12" t="s">
         <v>609</v>
       </c>
@@ -9272,10 +9792,10 @@
       </c>
     </row>
     <row r="467" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="31" t="s">
+      <c r="A467" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B467" s="33" t="s">
+      <c r="B467" s="32" t="s">
         <v>596</v>
       </c>
       <c r="C467" s="16" t="s">
@@ -9286,17 +9806,17 @@
       </c>
     </row>
     <row r="468" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A468" s="32"/>
-      <c r="B468" s="34"/>
+      <c r="A468" s="35"/>
+      <c r="B468" s="33"/>
       <c r="C468" s="15" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="31" t="s">
+      <c r="A469" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B469" s="33" t="s">
+      <c r="B469" s="32" t="s">
         <v>597</v>
       </c>
       <c r="C469" s="11" t="s">
@@ -9304,8 +9824,8 @@
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="32"/>
-      <c r="B470" s="34"/>
+      <c r="A470" s="35"/>
+      <c r="B470" s="33"/>
       <c r="C470" s="12" t="s">
         <v>607</v>
       </c>
@@ -9320,10 +9840,10 @@
       <c r="B471" s="9"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="31" t="s">
+      <c r="A472" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B472" s="33" t="s">
+      <c r="B472" s="32" t="s">
         <v>598</v>
       </c>
       <c r="C472" s="11" t="s">
@@ -9331,8 +9851,8 @@
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="32"/>
-      <c r="B473" s="34"/>
+      <c r="A473" s="35"/>
+      <c r="B473" s="33"/>
       <c r="C473" s="12" t="s">
         <v>606</v>
       </c>
@@ -9341,29 +9861,29 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="31" t="s">
+      <c r="A474" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B474" s="33" t="s">
+      <c r="B474" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="C474" s="61" t="s">
+      <c r="C474" s="36" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="32"/>
-      <c r="B475" s="34"/>
-      <c r="C475" s="62"/>
+      <c r="A475" s="35"/>
+      <c r="B475" s="33"/>
+      <c r="C475" s="37"/>
       <c r="D475">
         <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B476" s="63" t="s">
+      <c r="A476" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B476" s="38" t="s">
         <v>600</v>
       </c>
       <c r="C476" s="11" t="s">
@@ -9371,8 +9891,8 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="64"/>
-      <c r="B477" s="45"/>
+      <c r="A477" s="40"/>
+      <c r="B477" s="39"/>
       <c r="C477" s="12" t="s">
         <v>604</v>
       </c>
@@ -9398,115 +9918,305 @@
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
-      <c r="C481" s="38" t="s">
+      <c r="C481" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D481" s="39">
-        <f>SUM(D248:D477)</f>
-        <v>80</v>
+      <c r="D481" s="62">
+        <f>SUM(D2:D477)</f>
+        <v>231</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
-      <c r="C482" s="38"/>
-      <c r="D482" s="39"/>
+      <c r="C482" s="61"/>
+      <c r="D482" s="62"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
-      <c r="C483" s="38"/>
-      <c r="D483" s="39"/>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="29"/>
-      <c r="B484" s="29"/>
-      <c r="C484" s="30"/>
+      <c r="C483" s="61"/>
+      <c r="D483" s="62"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="29"/>
-      <c r="B485" s="29"/>
-      <c r="C485" s="30"/>
+      <c r="A485" s="8" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="29"/>
-      <c r="B486" s="29"/>
-      <c r="C486" s="30"/>
+      <c r="A486" s="66" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="29"/>
-      <c r="B487" s="29"/>
-      <c r="C487" s="30"/>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="29"/>
-      <c r="B488" s="29"/>
-      <c r="C488" s="30"/>
+      <c r="A487" s="66" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A488" s="67" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="29"/>
-      <c r="B489" s="29"/>
-      <c r="C489" s="30"/>
+      <c r="A489" s="66" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="29"/>
-      <c r="B490" s="29"/>
-      <c r="C490" s="30"/>
+      <c r="A490" s="66" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="29"/>
-      <c r="B491" s="29"/>
-      <c r="C491" s="30"/>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="29"/>
-      <c r="B492" s="29"/>
-      <c r="C492" s="30"/>
+      <c r="A491" s="66" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A492" s="67" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="66" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="66" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="66" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A498" s="67" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="66" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="66" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="66" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A502" s="67" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="66" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A504" s="67" t="s">
+        <v>722</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B419:B420"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B429:B430"/>
-    <mergeCell ref="A429:A430"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="A431:A432"/>
-    <mergeCell ref="B431:B432"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="B434:B435"/>
-    <mergeCell ref="A434:A435"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B447:B448"/>
-    <mergeCell ref="A447:A448"/>
-    <mergeCell ref="B453:B454"/>
-    <mergeCell ref="A453:A454"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B449:B450"/>
-    <mergeCell ref="A449:A450"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B467:B468"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="B465:B466"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C481:C483"/>
+    <mergeCell ref="D481:D483"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="C335:C338"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="A345:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="A387:A388"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="A277:A278"/>
     <mergeCell ref="A310:A311"/>
     <mergeCell ref="A299:A300"/>
     <mergeCell ref="A289:A290"/>
@@ -9531,188 +10241,48 @@
     <mergeCell ref="A459:A460"/>
     <mergeCell ref="B461:B462"/>
     <mergeCell ref="A461:A462"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A256:A260"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A243"/>
-    <mergeCell ref="A244:A247"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="A411:A412"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="A387:A388"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="B339:B340"/>
-    <mergeCell ref="C335:C338"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="A345:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C481:C483"/>
-    <mergeCell ref="D481:D483"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B447:B448"/>
+    <mergeCell ref="A447:A448"/>
+    <mergeCell ref="B453:B454"/>
+    <mergeCell ref="A453:A454"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B449:B450"/>
+    <mergeCell ref="A449:A450"/>
+    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="B431:B432"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="A434:A435"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="B419:B420"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B429:B430"/>
+    <mergeCell ref="A429:A430"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="B422:B423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1043">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -3021,6 +3021,141 @@
   </si>
   <si>
     <t xml:space="preserve">just like her big bald head </t>
+  </si>
+  <si>
+    <t>( taste like shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Horse dick ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( Just imagine the possibilities ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( No ones dick is that long ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( why the fuck would ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( camera ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( Thats fake as fuck ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( so fucking fake that ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( me tumours ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( fake ass ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( It's bullshit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( her stomach acids which ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( suffocate her ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( what the fuck) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Horse&lt;/Inapp&gt; &lt;Inapp&gt;dick&lt;/Inapp&gt; . Just imagine the possibilities . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ones &lt;Inapp&gt;dick&lt;/Inapp&gt; is that long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women like this ... I do n't understand them . . why the &lt;Inapp&gt;fuck&lt;/Inapp&gt; would you do this on camera . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thats &lt;Inapp&gt;fake&lt;/Inapp&gt; as &lt;Inapp&gt;fuck&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the throat did not move . &lt;Inapp&gt;fake&lt;/Inapp&gt; &lt;Inapp&gt;ass&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;fake&lt;/Inapp&gt; that is gave me tumours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It 's &lt;Inapp&gt;bullshit&lt;/Inapp&gt; . . that is certainly long enough to get to her &lt;Inapp&gt;stomach&lt;/Inapp&gt; &lt;Inapp&gt;acids&lt;/Inapp&gt; which would pop it and suffocate her </t>
+  </si>
+  <si>
+    <t>What the &lt;Inapp&gt;fuck&lt;/Inapp&gt; . How</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When she 'll take it out , it 's going to taste like &lt;Inapp&gt;shit&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>( be  real  fucking  sharp  swords ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It used to be real fucking sharp swords </t>
+  </si>
+  <si>
+    <t>( Today  in  bullshit  town ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today in &lt;Inapp&gt;bullshit&lt;/Inapp&gt; town </t>
+  </si>
+  <si>
+    <t>( you  filthy  bastard ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you filthy &lt;Inapp&gt;bastard&lt;/Inapp&gt; ! </t>
+  </si>
+  <si>
+    <t>( try  that  shit ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I SO want to try that &lt;Inapp&gt;shit&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>( any  woman  's  vagina ) is Inappropriate</t>
+  </si>
+  <si>
+    <t>( I  'm  gay  I ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So if I say I 'm &lt;Inapp&gt;gay&lt;/Inapp&gt; I can touch any woman 's &lt;Inapp&gt;vagina&lt;/Inapp&gt; ? </t>
+  </si>
+  <si>
+    <t>( Homosexuals  getting  more  pussy  than  us  ... ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Inapp&gt;Homosexuals&lt;/Inapp&gt; getting more &lt;Inapp&gt;pussy&lt;/Inapp&gt; than us ... </t>
+  </si>
+  <si>
+    <t>( get  to  touch  pussies ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also kids , thats how u get to touch pussies </t>
+  </si>
+  <si>
+    <t>( this  is  so  fucking  stupid ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is so &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;stupid&lt;/Inapp&gt; </t>
+  </si>
+  <si>
+    <t>( Hope  her  vagina  is  nice ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope her &lt;Inapp&gt;vagina&lt;/Inapp&gt; is nice . </t>
+  </si>
+  <si>
+    <t>( touch  urs ) is not Inappropriate</t>
+  </si>
+  <si>
+    <t>( i  am  gay  can ) is Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am &lt;Inapp&gt;gay&lt;/Inapp&gt; can i touch urs </t>
   </si>
 </sst>
 </file>
@@ -3093,7 +3228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3345,12 +3480,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3425,67 +3631,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3506,15 +3652,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3524,23 +3661,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3551,6 +3676,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6305,16 +6552,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E735"/>
+  <dimension ref="A1:E760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D503" sqref="D503"/>
+    <sheetView tabSelected="1" topLeftCell="A609" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C616" sqref="C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" style="57" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" style="37" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="97.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -6323,7 +6570,7 @@
       <c r="A1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="35" t="s">
         <v>601</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6334,29 +6581,29 @@
       <c r="A2" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="56"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="36" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="36" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="36" t="s">
         <v>273</v>
       </c>
       <c r="D6">
@@ -6364,16 +6611,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="36" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="36" t="s">
         <v>275</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6384,8 +6631,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="36" t="s">
         <v>276</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -6393,17 +6640,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6414,8 +6661,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="36" t="s">
         <v>278</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -6423,17 +6670,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="26" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="36" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -6444,8 +6691,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="36" t="s">
         <v>280</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -6453,17 +6700,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="26" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="36" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -6474,17 +6721,17 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="26" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -6495,17 +6742,17 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="26" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="36" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -6516,19 +6763,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="32" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -6539,17 +6786,17 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="36" t="s">
         <v>286</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -6560,17 +6807,17 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="26" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="36" t="s">
         <v>287</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -6581,8 +6828,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="36" t="s">
         <v>288</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -6590,17 +6837,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="15" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="36" t="s">
         <v>289</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6611,17 +6858,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="26" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="36" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -6632,17 +6879,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="26" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="36" t="s">
         <v>291</v>
       </c>
       <c r="D34">
@@ -6650,22 +6897,22 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="36" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="36" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="36" t="s">
         <v>294</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -6676,17 +6923,17 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="26" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="D39">
@@ -6694,22 +6941,22 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="36" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="36" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="36" t="s">
         <v>298</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -6720,33 +6967,33 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="31" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="56"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="56"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="36" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="36" t="s">
         <v>299</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -6757,24 +7004,24 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="27" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="26" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -6785,8 +7032,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="36" t="s">
         <v>301</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -6794,14 +7041,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="26" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="25" t="s">
@@ -6812,16 +7059,16 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="50"/>
       <c r="C54" s="26" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="36" t="s">
         <v>302</v>
       </c>
       <c r="C55" s="25" t="s">
@@ -6832,17 +7079,17 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="56"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="26" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="36" t="s">
         <v>303</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -6853,8 +7100,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="36" t="s">
         <v>304</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -6862,8 +7109,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="56" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="36" t="s">
         <v>305</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -6871,17 +7118,17 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="56"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="26" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="36" t="s">
         <v>306</v>
       </c>
       <c r="D61">
@@ -6889,22 +7136,22 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="57"/>
+      <c r="B62" s="36" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="56" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="36" t="s">
         <v>309</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -6915,17 +7162,17 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="56"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="26" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="36" t="s">
         <v>310</v>
       </c>
       <c r="C66" s="25" t="s">
@@ -6936,17 +7183,17 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="56"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="26" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="36" t="s">
         <v>311</v>
       </c>
       <c r="C68" s="25" t="s">
@@ -6957,17 +7204,17 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="56"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="26" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="36" t="s">
         <v>312</v>
       </c>
       <c r="C70" s="25" t="s">
@@ -6978,23 +7225,23 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="56"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="26" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="36" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="56" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="36" t="s">
         <v>314</v>
       </c>
       <c r="D73">
@@ -7002,28 +7249,28 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="56" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="56" t="s">
+      <c r="A75" s="57"/>
+      <c r="B75" s="36" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="57"/>
+      <c r="B76" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="36" t="s">
         <v>317</v>
       </c>
       <c r="C77" s="25" t="s">
@@ -7034,17 +7281,17 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="56"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="26" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="36" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -7055,17 +7302,17 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="56"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="26" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="36" t="s">
         <v>319</v>
       </c>
       <c r="C81" s="25" t="s">
@@ -7076,8 +7323,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="50"/>
+      <c r="B82" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -7085,10 +7332,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="36" t="s">
         <v>320</v>
       </c>
       <c r="C83" s="25" t="s">
@@ -7099,17 +7346,17 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="56"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="26" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="36" t="s">
         <v>321</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -7120,17 +7367,17 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="26" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="36" t="s">
         <v>322</v>
       </c>
       <c r="C87" s="25" t="s">
@@ -7141,8 +7388,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="56" t="s">
+      <c r="A88" s="50"/>
+      <c r="B88" s="36" t="s">
         <v>323</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -7150,10 +7397,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="36" t="s">
         <v>324</v>
       </c>
       <c r="C89" s="25" t="s">
@@ -7164,8 +7411,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="56" t="s">
+      <c r="A90" s="50"/>
+      <c r="B90" s="36" t="s">
         <v>325</v>
       </c>
       <c r="C90" s="27" t="s">
@@ -7173,17 +7420,17 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="56"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="15" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="36" t="s">
         <v>326</v>
       </c>
       <c r="C92" s="25" t="s">
@@ -7194,17 +7441,17 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
-      <c r="B93" s="56"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="26" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -7215,8 +7462,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="56" t="s">
+      <c r="A95" s="50"/>
+      <c r="B95" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -7224,17 +7471,17 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="26" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C97" s="25" t="s">
@@ -7245,8 +7492,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="56" t="s">
+      <c r="A98" s="50"/>
+      <c r="B98" s="36" t="s">
         <v>330</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -7254,17 +7501,17 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="B99" s="56"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="15" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="36" t="s">
         <v>331</v>
       </c>
       <c r="C100" s="25" t="s">
@@ -7275,8 +7522,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
-      <c r="B101" s="56" t="s">
+      <c r="A101" s="50"/>
+      <c r="B101" s="36" t="s">
         <v>332</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -7284,17 +7531,17 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
-      <c r="B102" s="56"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="36" t="s">
         <v>333</v>
       </c>
       <c r="C103" s="25" t="s">
@@ -7305,8 +7552,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="56" t="s">
+      <c r="A104" s="50"/>
+      <c r="B104" s="36" t="s">
         <v>334</v>
       </c>
       <c r="C104" s="27" t="s">
@@ -7314,17 +7561,17 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
-      <c r="B105" s="56"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="26" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="36" t="s">
         <v>335</v>
       </c>
       <c r="D106">
@@ -7332,8 +7579,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="56"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="2" t="s">
         <v>765</v>
       </c>
@@ -7342,7 +7589,7 @@
       <c r="A108" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D108">
@@ -7353,7 +7600,7 @@
       <c r="A109" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="36" t="s">
         <v>336</v>
       </c>
       <c r="D109">
@@ -7361,10 +7608,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="49" t="s">
+      <c r="A110" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="36" t="s">
         <v>337</v>
       </c>
       <c r="C110" s="25" t="s">
@@ -7375,24 +7622,24 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
-      <c r="B111" s="56"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="27" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="56"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="26" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="36" t="s">
         <v>338</v>
       </c>
       <c r="C113" s="25" t="s">
@@ -7403,17 +7650,17 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="56"/>
+      <c r="A114" s="50"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="26" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="36" t="s">
         <v>339</v>
       </c>
       <c r="C115" s="25" t="s">
@@ -7424,17 +7671,17 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-      <c r="B116" s="56"/>
+      <c r="A116" s="50"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="15" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="36" t="s">
         <v>340</v>
       </c>
       <c r="C117" s="25" t="s">
@@ -7445,17 +7692,17 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="B118" s="56"/>
+      <c r="A118" s="50"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="15" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="56" t="s">
+      <c r="B119" s="36" t="s">
         <v>341</v>
       </c>
       <c r="C119" s="25" t="s">
@@ -7466,8 +7713,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="56" t="s">
+      <c r="A120" s="57"/>
+      <c r="B120" s="36" t="s">
         <v>342</v>
       </c>
       <c r="C120" s="26" t="s">
@@ -7475,10 +7722,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="49" t="s">
+      <c r="A121" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="56" t="s">
+      <c r="B121" s="36" t="s">
         <v>343</v>
       </c>
       <c r="C121" s="25" t="s">
@@ -7489,17 +7736,17 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-      <c r="B122" s="56"/>
+      <c r="A122" s="50"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="49" t="s">
+      <c r="A123" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="56" t="s">
+      <c r="B123" s="36" t="s">
         <v>344</v>
       </c>
       <c r="C123" s="25" t="s">
@@ -7510,17 +7757,17 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
-      <c r="B124" s="56"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="26" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="56" t="s">
+      <c r="B125" s="36" t="s">
         <v>345</v>
       </c>
       <c r="D125">
@@ -7528,22 +7775,22 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="56" t="s">
+      <c r="A126" s="57"/>
+      <c r="B126" s="36" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="56" t="s">
+      <c r="A127" s="57"/>
+      <c r="B127" s="36" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="49" t="s">
+      <c r="A128" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="56" t="s">
+      <c r="B128" s="36" t="s">
         <v>348</v>
       </c>
       <c r="C128" s="25" t="s">
@@ -7554,8 +7801,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
-      <c r="B129" s="56" t="s">
+      <c r="A129" s="50"/>
+      <c r="B129" s="36" t="s">
         <v>349</v>
       </c>
       <c r="C129" s="27" t="s">
@@ -7563,17 +7810,17 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
-      <c r="B130" s="56"/>
+      <c r="A130" s="50"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="26" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="49" t="s">
+      <c r="A131" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="36" t="s">
         <v>350</v>
       </c>
       <c r="C131" s="25" t="s">
@@ -7584,8 +7831,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
-      <c r="B132" s="56" t="s">
+      <c r="A132" s="50"/>
+      <c r="B132" s="36" t="s">
         <v>351</v>
       </c>
       <c r="C132" s="27" t="s">
@@ -7593,8 +7840,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
-      <c r="B133" s="56" t="s">
+      <c r="A133" s="50"/>
+      <c r="B133" s="36" t="s">
         <v>352</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -7602,17 +7849,17 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
-      <c r="B134" s="56"/>
+      <c r="A134" s="50"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="26" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="36" t="s">
         <v>353</v>
       </c>
       <c r="D135">
@@ -7620,22 +7867,22 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="56" t="s">
+      <c r="A136" s="57"/>
+      <c r="B136" s="36" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="56" t="s">
+      <c r="A137" s="57"/>
+      <c r="B137" s="36" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B138" s="56" t="s">
+      <c r="B138" s="36" t="s">
         <v>356</v>
       </c>
       <c r="C138" s="25" t="s">
@@ -7646,8 +7893,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="56" t="s">
+      <c r="A139" s="57"/>
+      <c r="B139" s="36" t="s">
         <v>357</v>
       </c>
       <c r="C139" s="27" t="s">
@@ -7655,8 +7902,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="56" t="s">
+      <c r="A140" s="57"/>
+      <c r="B140" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C140" s="15" t="s">
@@ -7664,10 +7911,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="39" t="s">
+      <c r="A141" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="36" t="s">
         <v>358</v>
       </c>
       <c r="C141" s="25" t="s">
@@ -7678,8 +7925,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="56" t="s">
+      <c r="A142" s="57"/>
+      <c r="B142" s="36" t="s">
         <v>359</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -7687,8 +7934,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="56" t="s">
+      <c r="A143" s="57"/>
+      <c r="B143" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -7696,10 +7943,10 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B144" s="56" t="s">
+      <c r="B144" s="36" t="s">
         <v>360</v>
       </c>
       <c r="C144" s="25" t="s">
@@ -7710,8 +7957,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
-      <c r="B145" s="56" t="s">
+      <c r="A145" s="50"/>
+      <c r="B145" s="36" t="s">
         <v>361</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -7719,17 +7966,17 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
-      <c r="B146" s="56"/>
+      <c r="A146" s="50"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="49" t="s">
+      <c r="A147" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B147" s="36" t="s">
         <v>362</v>
       </c>
       <c r="C147" s="25" t="s">
@@ -7740,8 +7987,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
-      <c r="B148" s="56" t="s">
+      <c r="A148" s="50"/>
+      <c r="B148" s="36" t="s">
         <v>363</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -7749,17 +7996,17 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
-      <c r="B149" s="56"/>
+      <c r="A149" s="50"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="15" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="49" t="s">
+      <c r="A150" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="36" t="s">
         <v>364</v>
       </c>
       <c r="C150" s="25" t="s">
@@ -7770,17 +8017,17 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
-      <c r="B151" s="56"/>
+      <c r="A151" s="50"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="26" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="56" t="s">
+      <c r="B152" s="36" t="s">
         <v>365</v>
       </c>
       <c r="C152" s="25" t="s">
@@ -7791,17 +8038,17 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
-      <c r="B153" s="56"/>
+      <c r="A153" s="50"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="26" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="39" t="s">
+      <c r="A154" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B154" s="56"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="25" t="s">
         <v>366</v>
       </c>
@@ -7810,8 +8057,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="56" t="s">
+      <c r="A155" s="57"/>
+      <c r="B155" s="36" t="s">
         <v>366</v>
       </c>
       <c r="C155" s="26" t="s">
@@ -7819,10 +8066,10 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="49" t="s">
+      <c r="A156" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B156" s="56" t="s">
+      <c r="B156" s="36" t="s">
         <v>367</v>
       </c>
       <c r="C156" s="25" t="s">
@@ -7833,17 +8080,17 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
-      <c r="B157" s="56"/>
+      <c r="A157" s="50"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="26" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="49" t="s">
+      <c r="A158" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B158" s="56" t="s">
+      <c r="B158" s="36" t="s">
         <v>368</v>
       </c>
       <c r="C158" s="25" t="s">
@@ -7854,8 +8101,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
-      <c r="B159" s="56" t="s">
+      <c r="A159" s="50"/>
+      <c r="B159" s="36" t="s">
         <v>369</v>
       </c>
       <c r="C159" s="26" t="s">
@@ -7863,10 +8110,10 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="39" t="s">
+      <c r="A160" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="B160" s="36" t="s">
         <v>371</v>
       </c>
       <c r="C160" s="25" t="s">
@@ -7877,8 +8124,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="56" t="s">
+      <c r="A161" s="57"/>
+      <c r="B161" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C161" s="26" t="s">
@@ -7886,10 +8133,10 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="56" t="s">
+      <c r="B162" s="36" t="s">
         <v>372</v>
       </c>
       <c r="C162" s="25" t="s">
@@ -7900,17 +8147,17 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
-      <c r="B163" s="56"/>
+      <c r="A163" s="50"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="15" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B164" s="56" t="s">
+      <c r="B164" s="36" t="s">
         <v>373</v>
       </c>
       <c r="C164" s="25" t="s">
@@ -7921,17 +8168,17 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="49"/>
-      <c r="B165" s="56"/>
+      <c r="A165" s="50"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="26" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="49" t="s">
+      <c r="A166" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B166" s="56" t="s">
+      <c r="B166" s="36" t="s">
         <v>374</v>
       </c>
       <c r="C166" s="25" t="s">
@@ -7942,17 +8189,17 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
-      <c r="B167" s="56"/>
+      <c r="A167" s="50"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="26" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B168" s="56" t="s">
+      <c r="B168" s="36" t="s">
         <v>375</v>
       </c>
       <c r="C168" s="25" t="s">
@@ -7963,17 +8210,17 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="49"/>
-      <c r="B169" s="56"/>
+      <c r="A169" s="50"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="26" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="49" t="s">
+      <c r="A170" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B170" s="56" t="s">
+      <c r="B170" s="36" t="s">
         <v>376</v>
       </c>
       <c r="C170" s="25" t="s">
@@ -7984,8 +8231,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="56" t="s">
+      <c r="A171" s="50"/>
+      <c r="B171" s="36" t="s">
         <v>377</v>
       </c>
       <c r="C171" s="27" t="s">
@@ -7993,8 +8240,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="56"/>
+      <c r="A172" s="50"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="26" t="s">
         <v>922</v>
       </c>
@@ -8003,17 +8250,17 @@
       <c r="A173" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B173" s="56"/>
+      <c r="B173" s="36"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="24"/>
-      <c r="B174" s="56"/>
+      <c r="B174" s="36"/>
     </row>
     <row r="175" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="39" t="s">
+      <c r="A175" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B175" s="56" t="s">
+      <c r="B175" s="36" t="s">
         <v>378</v>
       </c>
       <c r="C175" s="25" t="s">
@@ -8024,8 +8271,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
-      <c r="B176" s="56" t="s">
+      <c r="A176" s="57"/>
+      <c r="B176" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C176" s="15" t="s">
@@ -8033,10 +8280,10 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B177" s="56" t="s">
+      <c r="B177" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C177" s="25" t="s">
@@ -8047,17 +8294,17 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="49"/>
-      <c r="B178" s="56"/>
+      <c r="A178" s="50"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="26" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="30" t="s">
+      <c r="A179" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B179" s="56" t="s">
+      <c r="B179" s="36" t="s">
         <v>379</v>
       </c>
       <c r="C179" s="25" t="s">
@@ -8068,8 +8315,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="50"/>
-      <c r="B180" s="56" t="s">
+      <c r="A180" s="49"/>
+      <c r="B180" s="36" t="s">
         <v>380</v>
       </c>
       <c r="C180" s="27" t="s">
@@ -8077,17 +8324,17 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="31"/>
-      <c r="B181" s="56"/>
+      <c r="A181" s="48"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="26" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="30" t="s">
+      <c r="A182" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B182" s="56" t="s">
+      <c r="B182" s="36" t="s">
         <v>381</v>
       </c>
       <c r="C182" s="25" t="s">
@@ -8098,17 +8345,17 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="31"/>
-      <c r="B183" s="56"/>
+      <c r="A183" s="48"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="26" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B184" s="56" t="s">
+      <c r="B184" s="36" t="s">
         <v>382</v>
       </c>
       <c r="C184" s="25" t="s">
@@ -8119,17 +8366,17 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="31"/>
-      <c r="B185" s="56"/>
+      <c r="A185" s="48"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="26" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="39" t="s">
+      <c r="A186" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B186" s="56" t="s">
+      <c r="B186" s="36" t="s">
         <v>383</v>
       </c>
       <c r="D186">
@@ -8137,19 +8384,19 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
-      <c r="B187" s="56" t="s">
+      <c r="A187" s="57"/>
+      <c r="B187" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C187" s="73" t="s">
+      <c r="C187" s="46" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="30" t="s">
+      <c r="A188" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B188" s="56" t="s">
+      <c r="B188" s="36" t="s">
         <v>384</v>
       </c>
       <c r="C188" s="25" t="s">
@@ -8160,17 +8407,17 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="31"/>
-      <c r="B189" s="56"/>
+      <c r="A189" s="48"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="26" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B190" s="56" t="s">
+      <c r="B190" s="36" t="s">
         <v>385</v>
       </c>
       <c r="C190" s="25" t="s">
@@ -8181,8 +8428,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="50"/>
-      <c r="B191" s="56" t="s">
+      <c r="A191" s="49"/>
+      <c r="B191" s="36" t="s">
         <v>386</v>
       </c>
       <c r="C191" s="27" t="s">
@@ -8190,17 +8437,17 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="31"/>
-      <c r="B192" s="56"/>
+      <c r="A192" s="48"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="15" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B193" s="56" t="s">
+      <c r="B193" s="36" t="s">
         <v>387</v>
       </c>
       <c r="C193" s="25" t="s">
@@ -8208,8 +8455,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="50"/>
-      <c r="B194" s="56" t="s">
+      <c r="A194" s="49"/>
+      <c r="B194" s="36" t="s">
         <v>388</v>
       </c>
       <c r="C194" s="27" t="s">
@@ -8217,8 +8464,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="50"/>
-      <c r="B195" s="56" t="s">
+      <c r="A195" s="49"/>
+      <c r="B195" s="36" t="s">
         <v>389</v>
       </c>
       <c r="C195" s="27" t="s">
@@ -8229,8 +8476,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="50"/>
-      <c r="B196" s="56" t="s">
+      <c r="A196" s="49"/>
+      <c r="B196" s="36" t="s">
         <v>390</v>
       </c>
       <c r="C196" s="27" t="s">
@@ -8238,17 +8485,17 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="31"/>
-      <c r="B197" s="56"/>
+      <c r="A197" s="48"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="26" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="39" t="s">
+      <c r="A198" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B198" s="56" t="s">
+      <c r="B198" s="36" t="s">
         <v>391</v>
       </c>
       <c r="C198" s="25" t="s">
@@ -8259,8 +8506,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
-      <c r="B199" s="56" t="s">
+      <c r="A199" s="57"/>
+      <c r="B199" s="36" t="s">
         <v>392</v>
       </c>
       <c r="C199" s="27" t="s">
@@ -8268,8 +8515,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
-      <c r="B200" s="56" t="s">
+      <c r="A200" s="57"/>
+      <c r="B200" s="36" t="s">
         <v>393</v>
       </c>
       <c r="C200" s="26" t="s">
@@ -8277,10 +8524,10 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="30" t="s">
+      <c r="A201" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B201" s="56" t="s">
+      <c r="B201" s="36" t="s">
         <v>394</v>
       </c>
       <c r="C201" s="25" t="s">
@@ -8291,17 +8538,17 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="31"/>
-      <c r="B202" s="56"/>
+      <c r="A202" s="48"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="26" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="30" t="s">
+      <c r="A203" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B203" s="56" t="s">
+      <c r="B203" s="36" t="s">
         <v>395</v>
       </c>
       <c r="C203" s="25" t="s">
@@ -8312,17 +8559,17 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="31"/>
-      <c r="B204" s="56"/>
+      <c r="A204" s="48"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="26" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="30" t="s">
+      <c r="A205" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B205" s="56" t="s">
+      <c r="B205" s="36" t="s">
         <v>396</v>
       </c>
       <c r="C205" s="25" t="s">
@@ -8333,8 +8580,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="50"/>
-      <c r="B206" s="56" t="s">
+      <c r="A206" s="49"/>
+      <c r="B206" s="36" t="s">
         <v>397</v>
       </c>
       <c r="C206" s="27" t="s">
@@ -8342,8 +8589,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="31"/>
-      <c r="B207" s="56"/>
+      <c r="A207" s="48"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="15" t="s">
         <v>986</v>
       </c>
@@ -8352,10 +8599,10 @@
       </c>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="30" t="s">
+      <c r="A208" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B208" s="56" t="s">
+      <c r="B208" s="36" t="s">
         <v>398</v>
       </c>
       <c r="C208" s="25" t="s">
@@ -8366,8 +8613,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
-      <c r="B209" s="56" t="s">
+      <c r="A209" s="49"/>
+      <c r="B209" s="36" t="s">
         <v>399</v>
       </c>
       <c r="C209" s="27" t="s">
@@ -8375,17 +8622,17 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="31"/>
-      <c r="B210" s="56"/>
+      <c r="A210" s="48"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="15" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="30" t="s">
+      <c r="A211" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B211" s="56" t="s">
+      <c r="B211" s="36" t="s">
         <v>400</v>
       </c>
       <c r="C211" s="25" t="s">
@@ -8396,8 +8643,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="50"/>
-      <c r="B212" s="56" t="s">
+      <c r="A212" s="49"/>
+      <c r="B212" s="36" t="s">
         <v>401</v>
       </c>
       <c r="C212" s="27" t="s">
@@ -8405,8 +8652,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="31"/>
-      <c r="B213" s="56"/>
+      <c r="A213" s="48"/>
+      <c r="B213" s="36"/>
       <c r="C213" s="26" t="s">
         <v>989</v>
       </c>
@@ -8415,17 +8662,17 @@
       <c r="A214" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B214" s="56"/>
+      <c r="B214" s="36"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="24"/>
-      <c r="B215" s="56"/>
+      <c r="B215" s="36"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="30" t="s">
+      <c r="A216" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B216" s="56" t="s">
+      <c r="B216" s="36" t="s">
         <v>402</v>
       </c>
       <c r="C216" s="25" t="s">
@@ -8436,8 +8683,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="50"/>
-      <c r="B217" s="56" t="s">
+      <c r="A217" s="49"/>
+      <c r="B217" s="36" t="s">
         <v>403</v>
       </c>
       <c r="C217" s="27" t="s">
@@ -8445,17 +8692,17 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="31"/>
-      <c r="B218" s="56"/>
+      <c r="A218" s="48"/>
+      <c r="B218" s="36"/>
       <c r="C218" s="26" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="30" t="s">
+      <c r="A219" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B219" s="56" t="s">
+      <c r="B219" s="36" t="s">
         <v>404</v>
       </c>
       <c r="C219" s="25" t="s">
@@ -8466,8 +8713,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
-      <c r="B220" s="56" t="s">
+      <c r="A220" s="49"/>
+      <c r="B220" s="36" t="s">
         <v>405</v>
       </c>
       <c r="C220" s="27" t="s">
@@ -8475,17 +8722,17 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="31"/>
-      <c r="B221" s="56"/>
+      <c r="A221" s="48"/>
+      <c r="B221" s="36"/>
       <c r="C221" s="15" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="39" t="s">
+      <c r="A222" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B222" s="56" t="s">
+      <c r="B222" s="36" t="s">
         <v>406</v>
       </c>
       <c r="D222">
@@ -8493,48 +8740,48 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="39"/>
-      <c r="B223" s="56" t="s">
+      <c r="A223" s="57"/>
+      <c r="B223" s="36" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
-      <c r="B224" s="56" t="s">
+      <c r="A224" s="57"/>
+      <c r="B224" s="36" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
-      <c r="B225" s="56" t="s">
+      <c r="A225" s="57"/>
+      <c r="B225" s="36" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
-      <c r="B226" s="56" t="s">
+      <c r="A226" s="57"/>
+      <c r="B226" s="36" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="24"/>
-      <c r="B227" s="56"/>
+      <c r="B227" s="36"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B228" s="56"/>
+      <c r="B228" s="36"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="24"/>
-      <c r="B229" s="56"/>
+      <c r="B229" s="36"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="39" t="s">
+      <c r="A230" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B230" s="56" t="s">
+      <c r="B230" s="36" t="s">
         <v>411</v>
       </c>
       <c r="D230">
@@ -8542,22 +8789,22 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
-      <c r="B231" s="56" t="s">
+      <c r="A231" s="57"/>
+      <c r="B231" s="36" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="39" t="s">
+      <c r="A232" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B232" s="56" t="s">
+      <c r="B232" s="36" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
-      <c r="B233" s="56" t="s">
+      <c r="A233" s="57"/>
+      <c r="B233" s="36" t="s">
         <v>414</v>
       </c>
       <c r="D233">
@@ -8565,10 +8812,10 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="30" t="s">
+      <c r="A234" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B234" s="56" t="s">
+      <c r="B234" s="36" t="s">
         <v>415</v>
       </c>
       <c r="C234" s="25" t="s">
@@ -8579,17 +8826,17 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="31"/>
-      <c r="B235" s="56"/>
+      <c r="A235" s="48"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="26" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="30" t="s">
+      <c r="A236" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B236" s="56" t="s">
+      <c r="B236" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D236">
@@ -8597,23 +8844,23 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="31"/>
-      <c r="B237" s="56"/>
+      <c r="A237" s="48"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="2" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="39" t="s">
+      <c r="A238" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B238" s="56" t="s">
+      <c r="B238" s="36" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
-      <c r="B239" s="56" t="s">
+      <c r="A239" s="57"/>
+      <c r="B239" s="36" t="s">
         <v>417</v>
       </c>
       <c r="D239">
@@ -8621,10 +8868,10 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="30" t="s">
+      <c r="A240" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B240" s="56" t="s">
+      <c r="B240" s="36" t="s">
         <v>418</v>
       </c>
       <c r="C240" s="25" t="s">
@@ -8635,17 +8882,17 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="31"/>
-      <c r="B241" s="56"/>
+      <c r="A241" s="48"/>
+      <c r="B241" s="36"/>
       <c r="C241" s="26" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="30" t="s">
+      <c r="A242" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B242" s="56" t="s">
+      <c r="B242" s="36" t="s">
         <v>419</v>
       </c>
       <c r="C242" s="25" t="s">
@@ -8656,8 +8903,8 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="31"/>
-      <c r="B243" s="56"/>
+      <c r="A243" s="48"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="26" t="s">
         <v>997</v>
       </c>
@@ -8666,10 +8913,10 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="39" t="s">
+      <c r="A244" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B244" s="56" t="s">
+      <c r="B244" s="36" t="s">
         <v>420</v>
       </c>
       <c r="D244">
@@ -8677,22 +8924,22 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
-      <c r="B245" s="56" t="s">
+      <c r="A245" s="57"/>
+      <c r="B245" s="36" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
-      <c r="B246" s="56" t="s">
+      <c r="A246" s="57"/>
+      <c r="B246" s="36" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="39" t="s">
+      <c r="A247" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B247" s="56" t="s">
+      <c r="B247" s="36" t="s">
         <v>423</v>
       </c>
       <c r="D247">
@@ -8700,16 +8947,16 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="39"/>
-      <c r="B248" s="56" t="s">
+      <c r="A248" s="57"/>
+      <c r="B248" s="36" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="39" t="s">
+      <c r="A249" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B249" s="56" t="s">
+      <c r="B249" s="36" t="s">
         <v>425</v>
       </c>
       <c r="D249">
@@ -8717,8 +8964,8 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
-      <c r="B250" s="56" t="s">
+      <c r="A250" s="57"/>
+      <c r="B250" s="36" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8726,7 +8973,7 @@
       <c r="A251" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B251" s="56" t="s">
+      <c r="B251" s="36" t="s">
         <v>427</v>
       </c>
       <c r="D251">
@@ -8737,7 +8984,7 @@
       <c r="A252" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B252" s="56" t="s">
+      <c r="B252" s="36" t="s">
         <v>428</v>
       </c>
       <c r="D252">
@@ -8745,10 +8992,10 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="39" t="s">
+      <c r="A253" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="B253" s="56" t="s">
+      <c r="B253" s="36" t="s">
         <v>429</v>
       </c>
       <c r="D253">
@@ -8756,16 +9003,16 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
-      <c r="B254" s="56" t="s">
+      <c r="A254" s="57"/>
+      <c r="B254" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="39" t="s">
+      <c r="A255" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B255" s="56" t="s">
+      <c r="B255" s="36" t="s">
         <v>430</v>
       </c>
       <c r="D255">
@@ -8773,8 +9020,8 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
-      <c r="B256" s="56" t="s">
+      <c r="A256" s="57"/>
+      <c r="B256" s="36" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8782,7 +9029,7 @@
       <c r="A257" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B257" s="56" t="s">
+      <c r="B257" s="36" t="s">
         <v>431</v>
       </c>
       <c r="D257">
@@ -8790,10 +9037,10 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="39" t="s">
+      <c r="A258" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B258" s="56" t="s">
+      <c r="B258" s="36" t="s">
         <v>432</v>
       </c>
       <c r="D258">
@@ -8801,16 +9048,16 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
-      <c r="B259" s="56" t="s">
+      <c r="A259" s="57"/>
+      <c r="B259" s="36" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="39" t="s">
+      <c r="A260" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B260" s="56" t="s">
+      <c r="B260" s="36" t="s">
         <v>434</v>
       </c>
       <c r="D260">
@@ -8818,20 +9065,20 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
-      <c r="B261" s="56" t="s">
+      <c r="A261" s="57"/>
+      <c r="B261" s="36" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="39"/>
-      <c r="B262" s="56" t="s">
+      <c r="A262" s="57"/>
+      <c r="B262" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="39"/>
-      <c r="B263" s="56" t="s">
+      <c r="A263" s="57"/>
+      <c r="B263" s="36" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8839,7 +9086,7 @@
       <c r="A264" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B264" s="56" t="s">
+      <c r="B264" s="36" t="s">
         <v>438</v>
       </c>
       <c r="D264">
@@ -8847,10 +9094,10 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="39" t="s">
+      <c r="A265" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B265" s="56" t="s">
+      <c r="B265" s="36" t="s">
         <v>439</v>
       </c>
       <c r="D265">
@@ -8858,14 +9105,14 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
-      <c r="B266" s="56" t="s">
+      <c r="A266" s="57"/>
+      <c r="B266" s="36" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
-      <c r="B267" s="56" t="s">
+      <c r="A267" s="57"/>
+      <c r="B267" s="36" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8873,7 +9120,7 @@
       <c r="A268" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B268" s="56" t="s">
+      <c r="B268" s="36" t="s">
         <v>440</v>
       </c>
       <c r="D268">
@@ -8884,7 +9131,7 @@
       <c r="A269" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B269" s="56" t="s">
+      <c r="B269" s="36" t="s">
         <v>441</v>
       </c>
       <c r="D269">
@@ -8892,10 +9139,10 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="39" t="s">
+      <c r="A270" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B270" s="56" t="s">
+      <c r="B270" s="36" t="s">
         <v>442</v>
       </c>
       <c r="D270">
@@ -8903,14 +9150,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
-      <c r="B271" s="56" t="s">
+      <c r="A271" s="57"/>
+      <c r="B271" s="36" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="39"/>
-      <c r="B272" s="56" t="s">
+      <c r="A272" s="57"/>
+      <c r="B272" s="36" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8918,7 +9165,7 @@
       <c r="A273" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B273" s="56" t="s">
+      <c r="B273" s="36" t="s">
         <v>445</v>
       </c>
       <c r="D273">
@@ -8927,13 +9174,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="24"/>
-      <c r="B274" s="56"/>
+      <c r="B274" s="36"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B275" s="56" t="s">
+      <c r="B275" s="36" t="s">
         <v>446</v>
       </c>
       <c r="D275">
@@ -8944,7 +9191,7 @@
       <c r="A276" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B276" s="56" t="s">
+      <c r="B276" s="36" t="s">
         <v>447</v>
       </c>
       <c r="D276">
@@ -8952,10 +9199,10 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="39" t="s">
+      <c r="A277" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B277" s="56" t="s">
+      <c r="B277" s="36" t="s">
         <v>448</v>
       </c>
       <c r="D277">
@@ -8963,8 +9210,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="39"/>
-      <c r="B278" s="56" t="s">
+      <c r="A278" s="57"/>
+      <c r="B278" s="36" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8972,16 +9219,16 @@
       <c r="A279" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B279" s="56"/>
+      <c r="B279" s="36"/>
       <c r="D279">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="39" t="s">
+      <c r="A280" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B280" s="56" t="s">
+      <c r="B280" s="36" t="s">
         <v>450</v>
       </c>
       <c r="D280">
@@ -8989,16 +9236,16 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="39"/>
-      <c r="B281" s="56" t="s">
+      <c r="A281" s="57"/>
+      <c r="B281" s="36" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="39" t="s">
+      <c r="A282" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B282" s="56" t="s">
+      <c r="B282" s="36" t="s">
         <v>452</v>
       </c>
       <c r="D282">
@@ -9006,8 +9253,8 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="39"/>
-      <c r="B283" s="56" t="s">
+      <c r="A283" s="57"/>
+      <c r="B283" s="36" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9015,7 +9262,7 @@
       <c r="A284" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B284" s="56" t="s">
+      <c r="B284" s="36" t="s">
         <v>454</v>
       </c>
       <c r="D284">
@@ -9026,7 +9273,7 @@
       <c r="A285" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B285" s="56" t="s">
+      <c r="B285" s="36" t="s">
         <v>455</v>
       </c>
       <c r="D285">
@@ -9037,7 +9284,7 @@
       <c r="A286" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B286" s="56" t="s">
+      <c r="B286" s="36" t="s">
         <v>456</v>
       </c>
       <c r="D286">
@@ -9046,19 +9293,19 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="24"/>
-      <c r="B287" s="56"/>
+      <c r="B287" s="36"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B288" s="56"/>
+      <c r="B288" s="36"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B289" s="56" t="s">
+      <c r="B289" s="36" t="s">
         <v>457</v>
       </c>
       <c r="D289">
@@ -9069,7 +9316,7 @@
       <c r="A290" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B290" s="56" t="s">
+      <c r="B290" s="36" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9077,7 +9324,7 @@
       <c r="A291" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B291" s="56" t="s">
+      <c r="B291" s="36" t="s">
         <v>459</v>
       </c>
       <c r="D291">
@@ -9088,7 +9335,7 @@
       <c r="A292" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B292" s="56" t="s">
+      <c r="B292" s="36" t="s">
         <v>460</v>
       </c>
       <c r="D292">
@@ -9099,7 +9346,7 @@
       <c r="A293" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B293" s="56" t="s">
+      <c r="B293" s="36" t="s">
         <v>461</v>
       </c>
       <c r="D293">
@@ -9107,10 +9354,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="39" t="s">
+      <c r="A294" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B294" s="56" t="s">
+      <c r="B294" s="36" t="s">
         <v>462</v>
       </c>
       <c r="D294">
@@ -9118,16 +9365,16 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="39"/>
-      <c r="B295" s="56" t="s">
+      <c r="A295" s="57"/>
+      <c r="B295" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="39" t="s">
+      <c r="A296" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B296" s="56" t="s">
+      <c r="B296" s="36" t="s">
         <v>463</v>
       </c>
       <c r="D296">
@@ -9135,22 +9382,22 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="39"/>
-      <c r="B297" s="56" t="s">
+      <c r="A297" s="57"/>
+      <c r="B297" s="36" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="39"/>
-      <c r="B298" s="56" t="s">
+      <c r="A298" s="57"/>
+      <c r="B298" s="36" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="39" t="s">
+      <c r="A299" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="B299" s="56" t="s">
+      <c r="B299" s="36" t="s">
         <v>466</v>
       </c>
       <c r="D299">
@@ -9158,30 +9405,30 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="39"/>
-      <c r="B300" s="56" t="s">
+      <c r="A300" s="57"/>
+      <c r="B300" s="36" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="24"/>
-      <c r="B301" s="56"/>
+      <c r="B301" s="36"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="24"/>
-      <c r="B302" s="56"/>
+      <c r="B302" s="36"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B303" s="56"/>
+      <c r="B303" s="36"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="39" t="s">
+      <c r="A304" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="B304" s="56" t="s">
+      <c r="B304" s="36" t="s">
         <v>468</v>
       </c>
       <c r="D304">
@@ -9189,16 +9436,16 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="39"/>
-      <c r="B305" s="56" t="s">
+      <c r="A305" s="57"/>
+      <c r="B305" s="36" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="39" t="s">
+      <c r="A306" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B306" s="56" t="s">
+      <c r="B306" s="36" t="s">
         <v>470</v>
       </c>
       <c r="D306">
@@ -9206,34 +9453,34 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="39"/>
-      <c r="B307" s="56" t="s">
+      <c r="A307" s="57"/>
+      <c r="B307" s="36" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="39"/>
-      <c r="B308" s="56" t="s">
+      <c r="A308" s="57"/>
+      <c r="B308" s="36" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="39"/>
-      <c r="B309" s="56" t="s">
+      <c r="A309" s="57"/>
+      <c r="B309" s="36" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="39"/>
-      <c r="B310" s="56" t="s">
+      <c r="A310" s="57"/>
+      <c r="B310" s="36" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="39" t="s">
+      <c r="A311" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B311" s="56" t="s">
+      <c r="B311" s="36" t="s">
         <v>475</v>
       </c>
       <c r="D311">
@@ -9241,28 +9488,28 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="39"/>
-      <c r="B312" s="56" t="s">
+      <c r="A312" s="57"/>
+      <c r="B312" s="36" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="39"/>
-      <c r="B313" s="56" t="s">
+      <c r="A313" s="57"/>
+      <c r="B313" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="39"/>
-      <c r="B314" s="56" t="s">
+      <c r="A314" s="57"/>
+      <c r="B314" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="46" t="s">
+      <c r="A315" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B315" s="58" t="s">
+      <c r="B315" s="38" t="s">
         <v>477</v>
       </c>
       <c r="C315" s="3"/>
@@ -9271,17 +9518,17 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="46"/>
-      <c r="B316" s="58" t="s">
+      <c r="A316" s="58"/>
+      <c r="B316" s="38" t="s">
         <v>284</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="39" t="s">
+      <c r="A317" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="B317" s="56" t="s">
+      <c r="B317" s="36" t="s">
         <v>478</v>
       </c>
       <c r="D317">
@@ -9289,22 +9536,22 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="39"/>
-      <c r="B318" s="56" t="s">
+      <c r="A318" s="57"/>
+      <c r="B318" s="36" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="39"/>
-      <c r="B319" s="56" t="s">
+      <c r="A319" s="57"/>
+      <c r="B319" s="36" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="39" t="s">
+      <c r="A320" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B320" s="56" t="s">
+      <c r="B320" s="36" t="s">
         <v>481</v>
       </c>
       <c r="D320">
@@ -9312,8 +9559,8 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="39"/>
-      <c r="B321" s="56" t="s">
+      <c r="A321" s="57"/>
+      <c r="B321" s="36" t="s">
         <v>482</v>
       </c>
     </row>
@@ -9321,7 +9568,7 @@
       <c r="A322" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B322" s="56" t="s">
+      <c r="B322" s="36" t="s">
         <v>483</v>
       </c>
       <c r="D322">
@@ -9329,16 +9576,16 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="39" t="s">
+      <c r="A323" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B323" s="56" t="s">
+      <c r="B323" s="36" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="39"/>
-      <c r="B324" s="56" t="s">
+      <c r="A324" s="57"/>
+      <c r="B324" s="36" t="s">
         <v>485</v>
       </c>
       <c r="D324">
@@ -9346,28 +9593,28 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="39"/>
-      <c r="B325" s="56" t="s">
+      <c r="A325" s="57"/>
+      <c r="B325" s="36" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="39"/>
-      <c r="B326" s="56" t="s">
+      <c r="A326" s="57"/>
+      <c r="B326" s="36" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="39"/>
-      <c r="B327" s="56" t="s">
+      <c r="A327" s="57"/>
+      <c r="B327" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="39" t="s">
+      <c r="A328" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="B328" s="56" t="s">
+      <c r="B328" s="36" t="s">
         <v>488</v>
       </c>
       <c r="D328">
@@ -9375,16 +9622,16 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="39"/>
-      <c r="B329" s="56" t="s">
+      <c r="A329" s="57"/>
+      <c r="B329" s="36" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="39" t="s">
+      <c r="A330" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="B330" s="56" t="s">
+      <c r="B330" s="36" t="s">
         <v>489</v>
       </c>
       <c r="D330">
@@ -9392,16 +9639,16 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="39"/>
-      <c r="B331" s="56" t="s">
+      <c r="A331" s="57"/>
+      <c r="B331" s="36" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="39" t="s">
+      <c r="A332" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B332" s="56" t="s">
+      <c r="B332" s="36" t="s">
         <v>491</v>
       </c>
       <c r="D332">
@@ -9409,8 +9656,8 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="39"/>
-      <c r="B333" s="56" t="s">
+      <c r="A333" s="57"/>
+      <c r="B333" s="36" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9418,7 +9665,7 @@
       <c r="A334" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B334" s="56" t="s">
+      <c r="B334" s="36" t="s">
         <v>492</v>
       </c>
       <c r="D334">
@@ -9429,7 +9676,7 @@
       <c r="A335" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B335" s="56" t="s">
+      <c r="B335" s="36" t="s">
         <v>493</v>
       </c>
       <c r="D335">
@@ -9437,16 +9684,16 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="39" t="s">
+      <c r="A336" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B336" s="56" t="s">
+      <c r="B336" s="36" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="39"/>
-      <c r="B337" s="56" t="s">
+      <c r="A337" s="57"/>
+      <c r="B337" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D337">
@@ -9454,16 +9701,16 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="39" t="s">
+      <c r="A338" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="B338" s="56" t="s">
+      <c r="B338" s="36" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="39"/>
-      <c r="B339" s="56" t="s">
+      <c r="A339" s="57"/>
+      <c r="B339" s="36" t="s">
         <v>496</v>
       </c>
       <c r="D339">
@@ -9474,7 +9721,7 @@
       <c r="A340" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B340" s="56" t="s">
+      <c r="B340" s="36" t="s">
         <v>497</v>
       </c>
       <c r="D340">
@@ -9485,7 +9732,7 @@
       <c r="A341" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B341" s="56" t="s">
+      <c r="B341" s="36" t="s">
         <v>498</v>
       </c>
       <c r="D341">
@@ -9493,10 +9740,10 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="49" t="s">
+      <c r="A342" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B342" s="59" t="s">
+      <c r="B342" s="51" t="s">
         <v>499</v>
       </c>
       <c r="C342" s="9" t="s">
@@ -9507,8 +9754,8 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="49"/>
-      <c r="B343" s="60"/>
+      <c r="A343" s="50"/>
+      <c r="B343" s="52"/>
       <c r="C343" s="10" t="s">
         <v>701</v>
       </c>
@@ -9517,10 +9764,10 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="49" t="s">
+      <c r="A344" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="B344" s="59" t="s">
+      <c r="B344" s="51" t="s">
         <v>500</v>
       </c>
       <c r="C344" s="9" t="s">
@@ -9528,8 +9775,8 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="49"/>
-      <c r="B345" s="60"/>
+      <c r="A345" s="50"/>
+      <c r="B345" s="52"/>
       <c r="C345" s="10" t="s">
         <v>699</v>
       </c>
@@ -9538,10 +9785,10 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="49" t="s">
+      <c r="A346" s="50" t="s">
         <v>698</v>
       </c>
-      <c r="B346" s="59" t="s">
+      <c r="B346" s="51" t="s">
         <v>501</v>
       </c>
       <c r="C346" s="9" t="s">
@@ -9549,8 +9796,8 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="49"/>
-      <c r="B347" s="60"/>
+      <c r="A347" s="50"/>
+      <c r="B347" s="52"/>
       <c r="C347" s="10" t="s">
         <v>697</v>
       </c>
@@ -9559,10 +9806,10 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="49" t="s">
+      <c r="A348" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B348" s="59" t="s">
+      <c r="B348" s="51" t="s">
         <v>502</v>
       </c>
       <c r="C348" s="9" t="s">
@@ -9570,8 +9817,8 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="49"/>
-      <c r="B349" s="60"/>
+      <c r="A349" s="50"/>
+      <c r="B349" s="52"/>
       <c r="C349" s="15" t="s">
         <v>696</v>
       </c>
@@ -9580,10 +9827,10 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="49" t="s">
+      <c r="A350" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B350" s="59" t="s">
+      <c r="B350" s="51" t="s">
         <v>503</v>
       </c>
       <c r="C350" s="9" t="s">
@@ -9591,8 +9838,8 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="49"/>
-      <c r="B351" s="60"/>
+      <c r="A351" s="50"/>
+      <c r="B351" s="52"/>
       <c r="C351" s="10" t="s">
         <v>694</v>
       </c>
@@ -9601,10 +9848,10 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="49" t="s">
+      <c r="A352" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B352" s="59" t="s">
+      <c r="B352" s="51" t="s">
         <v>504</v>
       </c>
       <c r="C352" s="9" t="s">
@@ -9615,17 +9862,17 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="49"/>
-      <c r="B353" s="60"/>
+      <c r="A353" s="50"/>
+      <c r="B353" s="52"/>
       <c r="C353" s="10" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="49" t="s">
+      <c r="A354" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="B354" s="59" t="s">
+      <c r="B354" s="51" t="s">
         <v>505</v>
       </c>
       <c r="C354" s="9" t="s">
@@ -9636,8 +9883,8 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="49"/>
-      <c r="B355" s="60"/>
+      <c r="A355" s="50"/>
+      <c r="B355" s="52"/>
       <c r="C355" s="10" t="s">
         <v>692</v>
       </c>
@@ -9646,10 +9893,10 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="49" t="s">
+      <c r="A356" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B356" s="59" t="s">
+      <c r="B356" s="51" t="s">
         <v>506</v>
       </c>
       <c r="C356" s="20" t="s">
@@ -9657,8 +9904,8 @@
       </c>
     </row>
     <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="49"/>
-      <c r="B357" s="60"/>
+      <c r="A357" s="50"/>
+      <c r="B357" s="52"/>
       <c r="C357" s="15" t="s">
         <v>691</v>
       </c>
@@ -9667,10 +9914,10 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="49" t="s">
+      <c r="A358" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B358" s="61" t="s">
+      <c r="B358" s="56" t="s">
         <v>507</v>
       </c>
       <c r="C358" s="16" t="s">
@@ -9678,8 +9925,8 @@
       </c>
     </row>
     <row r="359" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="49"/>
-      <c r="B359" s="59"/>
+      <c r="A359" s="50"/>
+      <c r="B359" s="51"/>
       <c r="C359" s="18" t="s">
         <v>689</v>
       </c>
@@ -9688,10 +9935,10 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="49" t="s">
+      <c r="A360" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B360" s="62" t="s">
+      <c r="B360" s="39" t="s">
         <v>508</v>
       </c>
       <c r="C360" s="16" t="s">
@@ -9699,8 +9946,8 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="49"/>
-      <c r="B361" s="63" t="s">
+      <c r="A361" s="50"/>
+      <c r="B361" s="40" t="s">
         <v>509</v>
       </c>
       <c r="C361" s="17" t="s">
@@ -9711,8 +9958,8 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="49"/>
-      <c r="B362" s="63" t="s">
+      <c r="A362" s="50"/>
+      <c r="B362" s="40" t="s">
         <v>510</v>
       </c>
       <c r="C362" s="17" t="s">
@@ -9723,17 +9970,17 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="49"/>
-      <c r="B363" s="64"/>
+      <c r="A363" s="50"/>
+      <c r="B363" s="41"/>
       <c r="C363" s="18" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="49" t="s">
+      <c r="A364" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B364" s="65" t="s">
+      <c r="B364" s="61" t="s">
         <v>511</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -9744,17 +9991,17 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="49"/>
-      <c r="B365" s="60"/>
+      <c r="A365" s="50"/>
+      <c r="B365" s="52"/>
       <c r="C365" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="49" t="s">
+      <c r="A366" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B366" s="59" t="s">
+      <c r="B366" s="51" t="s">
         <v>512</v>
       </c>
       <c r="C366" s="9" t="s">
@@ -9765,8 +10012,8 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="49"/>
-      <c r="B367" s="65"/>
+      <c r="A367" s="50"/>
+      <c r="B367" s="61"/>
       <c r="C367" s="10" t="s">
         <v>687</v>
       </c>
@@ -9775,29 +10022,29 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="39" t="s">
+      <c r="A368" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="B368" s="62" t="s">
+      <c r="B368" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="C368" s="34"/>
+      <c r="C368" s="72"/>
       <c r="D368">
         <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="39"/>
-      <c r="B369" s="64" t="s">
+      <c r="A369" s="57"/>
+      <c r="B369" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="C369" s="35"/>
+      <c r="C369" s="73"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="49" t="s">
+      <c r="A370" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B370" s="65" t="s">
+      <c r="B370" s="61" t="s">
         <v>515</v>
       </c>
       <c r="C370" s="9" t="s">
@@ -9808,17 +10055,17 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="49"/>
-      <c r="B371" s="60"/>
+      <c r="A371" s="50"/>
+      <c r="B371" s="52"/>
       <c r="C371" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="49" t="s">
+      <c r="A372" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B372" s="59" t="s">
+      <c r="B372" s="51" t="s">
         <v>516</v>
       </c>
       <c r="C372" s="9" t="s">
@@ -9829,17 +10076,17 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="49"/>
-      <c r="B373" s="60"/>
+      <c r="A373" s="50"/>
+      <c r="B373" s="52"/>
       <c r="C373" s="10" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="49" t="s">
+      <c r="A374" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B374" s="59" t="s">
+      <c r="B374" s="51" t="s">
         <v>517</v>
       </c>
       <c r="C374" s="9" t="s">
@@ -9850,8 +10097,8 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="49"/>
-      <c r="B375" s="60"/>
+      <c r="A375" s="50"/>
+      <c r="B375" s="52"/>
       <c r="C375" s="10" t="s">
         <v>683</v>
       </c>
@@ -9860,13 +10107,13 @@
       <c r="A376" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B376" s="56"/>
+      <c r="B376" s="36"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="49" t="s">
+      <c r="A377" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B377" s="59" t="s">
+      <c r="B377" s="51" t="s">
         <v>518</v>
       </c>
       <c r="C377" s="9" t="s">
@@ -9877,17 +10124,17 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="49"/>
-      <c r="B378" s="60"/>
+      <c r="A378" s="50"/>
+      <c r="B378" s="52"/>
       <c r="C378" s="10" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="49" t="s">
+      <c r="A379" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B379" s="59" t="s">
+      <c r="B379" s="51" t="s">
         <v>519</v>
       </c>
       <c r="C379" s="9" t="s">
@@ -9895,8 +10142,8 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="49"/>
-      <c r="B380" s="60"/>
+      <c r="A380" s="50"/>
+      <c r="B380" s="52"/>
       <c r="C380" s="10" t="s">
         <v>681</v>
       </c>
@@ -9905,10 +10152,10 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="49" t="s">
+      <c r="A381" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B381" s="59" t="s">
+      <c r="B381" s="51" t="s">
         <v>520</v>
       </c>
       <c r="C381" s="9" t="s">
@@ -9916,8 +10163,8 @@
       </c>
     </row>
     <row r="382" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="49"/>
-      <c r="B382" s="60"/>
+      <c r="A382" s="50"/>
+      <c r="B382" s="52"/>
       <c r="C382" s="15" t="s">
         <v>680</v>
       </c>
@@ -9926,10 +10173,10 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="49" t="s">
+      <c r="A383" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B383" s="59" t="s">
+      <c r="B383" s="51" t="s">
         <v>521</v>
       </c>
       <c r="C383" s="9" t="s">
@@ -9937,8 +10184,8 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="49"/>
-      <c r="B384" s="60"/>
+      <c r="A384" s="50"/>
+      <c r="B384" s="52"/>
       <c r="C384" s="15" t="s">
         <v>679</v>
       </c>
@@ -9947,43 +10194,43 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="39" t="s">
+      <c r="A385" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B385" s="56" t="s">
+      <c r="B385" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="C385" s="36"/>
+      <c r="C385" s="59"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="39"/>
-      <c r="B386" s="56" t="s">
+      <c r="A386" s="57"/>
+      <c r="B386" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="C386" s="37"/>
+      <c r="C386" s="74"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="39"/>
-      <c r="B387" s="56" t="s">
+      <c r="A387" s="57"/>
+      <c r="B387" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="C387" s="37"/>
+      <c r="C387" s="74"/>
       <c r="D387">
         <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A388" s="39"/>
-      <c r="B388" s="56" t="s">
+      <c r="A388" s="57"/>
+      <c r="B388" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="C388" s="38"/>
+      <c r="C388" s="60"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="49" t="s">
+      <c r="A389" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B389" s="59" t="s">
+      <c r="B389" s="51" t="s">
         <v>526</v>
       </c>
       <c r="C389" s="9" t="s">
@@ -9991,8 +10238,8 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="49"/>
-      <c r="B390" s="60"/>
+      <c r="A390" s="50"/>
+      <c r="B390" s="52"/>
       <c r="C390" s="10" t="s">
         <v>678</v>
       </c>
@@ -10001,10 +10248,10 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="49" t="s">
+      <c r="A391" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B391" s="59" t="s">
+      <c r="B391" s="51" t="s">
         <v>527</v>
       </c>
       <c r="C391" s="9" t="s">
@@ -10015,17 +10262,17 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="49"/>
-      <c r="B392" s="60"/>
+      <c r="A392" s="50"/>
+      <c r="B392" s="52"/>
       <c r="C392" s="10" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="49" t="s">
+      <c r="A393" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B393" s="59" t="s">
+      <c r="B393" s="51" t="s">
         <v>528</v>
       </c>
       <c r="C393" s="9" t="s">
@@ -10036,17 +10283,17 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="49"/>
-      <c r="B394" s="60"/>
+      <c r="A394" s="50"/>
+      <c r="B394" s="52"/>
       <c r="C394" s="10" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="49" t="s">
+      <c r="A395" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="B395" s="59" t="s">
+      <c r="B395" s="51" t="s">
         <v>529</v>
       </c>
       <c r="C395" s="9" t="s">
@@ -10057,17 +10304,17 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="49"/>
-      <c r="B396" s="60"/>
+      <c r="A396" s="50"/>
+      <c r="B396" s="52"/>
       <c r="C396" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="49" t="s">
+      <c r="A397" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="B397" s="61" t="s">
+      <c r="B397" s="56" t="s">
         <v>530</v>
       </c>
       <c r="C397" s="9" t="s">
@@ -10078,76 +10325,76 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="49"/>
-      <c r="B398" s="61"/>
+      <c r="A398" s="50"/>
+      <c r="B398" s="56"/>
       <c r="C398" s="15" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="39" t="s">
+      <c r="A399" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="B399" s="66" t="s">
+      <c r="B399" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="C399" s="43"/>
+      <c r="C399" s="65"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="39"/>
-      <c r="B400" s="63" t="s">
+      <c r="A400" s="57"/>
+      <c r="B400" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="C400" s="44"/>
+      <c r="C400" s="66"/>
       <c r="D400">
         <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="39"/>
-      <c r="B401" s="64" t="s">
+      <c r="A401" s="57"/>
+      <c r="B401" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="C401" s="45"/>
+      <c r="C401" s="67"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="39" t="s">
+      <c r="A402" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="B402" s="62" t="s">
+      <c r="B402" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="C402" s="40"/>
+      <c r="C402" s="62"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="39"/>
-      <c r="B403" s="63" t="s">
+      <c r="A403" s="57"/>
+      <c r="B403" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="C403" s="41"/>
+      <c r="C403" s="63"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="39"/>
-      <c r="B404" s="63" t="s">
+      <c r="A404" s="57"/>
+      <c r="B404" s="40" t="s">
         <v>536</v>
       </c>
-      <c r="C404" s="41"/>
+      <c r="C404" s="63"/>
       <c r="D404">
         <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="39"/>
-      <c r="B405" s="64" t="s">
+      <c r="A405" s="57"/>
+      <c r="B405" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="C405" s="42"/>
+      <c r="C405" s="64"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="49" t="s">
+      <c r="A406" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="B406" s="65" t="s">
+      <c r="B406" s="61" t="s">
         <v>538</v>
       </c>
       <c r="C406" s="9" t="s">
@@ -10155,8 +10402,8 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="49"/>
-      <c r="B407" s="60"/>
+      <c r="A407" s="50"/>
+      <c r="B407" s="52"/>
       <c r="C407" s="10" t="s">
         <v>672</v>
       </c>
@@ -10165,10 +10412,10 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="49" t="s">
+      <c r="A408" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B408" s="61" t="s">
+      <c r="B408" s="56" t="s">
         <v>539</v>
       </c>
       <c r="C408" s="16" t="s">
@@ -10176,17 +10423,17 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="49"/>
-      <c r="B409" s="61"/>
+      <c r="A409" s="50"/>
+      <c r="B409" s="56"/>
       <c r="C409" s="18" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="49" t="s">
+      <c r="A410" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B410" s="61" t="s">
+      <c r="B410" s="56" t="s">
         <v>540</v>
       </c>
       <c r="C410" s="16" t="s">
@@ -10194,17 +10441,17 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="49"/>
-      <c r="B411" s="61"/>
+      <c r="A411" s="50"/>
+      <c r="B411" s="56"/>
       <c r="C411" s="18" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="49" t="s">
+      <c r="A412" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="B412" s="66" t="s">
+      <c r="B412" s="42" t="s">
         <v>541</v>
       </c>
       <c r="C412" s="16" t="s">
@@ -10212,8 +10459,8 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="49"/>
-      <c r="B413" s="63" t="s">
+      <c r="A413" s="50"/>
+      <c r="B413" s="40" t="s">
         <v>542</v>
       </c>
       <c r="C413" s="17" t="s">
@@ -10221,8 +10468,8 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="49"/>
-      <c r="B414" s="63" t="s">
+      <c r="A414" s="50"/>
+      <c r="B414" s="40" t="s">
         <v>543</v>
       </c>
       <c r="C414" s="17" t="s">
@@ -10230,8 +10477,8 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="49"/>
-      <c r="B415" s="67" t="s">
+      <c r="A415" s="50"/>
+      <c r="B415" s="68" t="s">
         <v>544</v>
       </c>
       <c r="C415" s="17" t="s">
@@ -10242,8 +10489,8 @@
       </c>
     </row>
     <row r="416" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="49"/>
-      <c r="B416" s="68"/>
+      <c r="A416" s="50"/>
+      <c r="B416" s="69"/>
       <c r="C416" s="19" t="s">
         <v>668</v>
       </c>
@@ -10252,13 +10499,13 @@
       <c r="A417" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B417" s="69"/>
+      <c r="B417" s="43"/>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="49" t="s">
+      <c r="A418" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B418" s="59" t="s">
+      <c r="B418" s="51" t="s">
         <v>545</v>
       </c>
       <c r="C418" s="9" t="s">
@@ -10266,8 +10513,8 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="49"/>
-      <c r="B419" s="60"/>
+      <c r="A419" s="50"/>
+      <c r="B419" s="52"/>
       <c r="C419" s="10" t="s">
         <v>666</v>
       </c>
@@ -10276,10 +10523,10 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="49" t="s">
+      <c r="A420" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B420" s="59" t="s">
+      <c r="B420" s="51" t="s">
         <v>546</v>
       </c>
       <c r="C420" s="9" t="s">
@@ -10287,8 +10534,8 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="49"/>
-      <c r="B421" s="60"/>
+      <c r="A421" s="50"/>
+      <c r="B421" s="52"/>
       <c r="C421" s="10" t="s">
         <v>663</v>
       </c>
@@ -10297,10 +10544,10 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="49" t="s">
+      <c r="A422" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="B422" s="59" t="s">
+      <c r="B422" s="51" t="s">
         <v>547</v>
       </c>
       <c r="C422" s="9" t="s">
@@ -10308,8 +10555,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="49"/>
-      <c r="B423" s="60"/>
+      <c r="A423" s="50"/>
+      <c r="B423" s="52"/>
       <c r="C423" s="10" t="s">
         <v>665</v>
       </c>
@@ -10318,10 +10565,10 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="49" t="s">
+      <c r="A424" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B424" s="59" t="s">
+      <c r="B424" s="51" t="s">
         <v>548</v>
       </c>
       <c r="C424" s="9" t="s">
@@ -10329,8 +10576,8 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="49"/>
-      <c r="B425" s="60"/>
+      <c r="A425" s="50"/>
+      <c r="B425" s="52"/>
       <c r="C425" s="10" t="s">
         <v>662</v>
       </c>
@@ -10339,10 +10586,10 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="49" t="s">
+      <c r="A426" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="B426" s="59" t="s">
+      <c r="B426" s="51" t="s">
         <v>549</v>
       </c>
       <c r="C426" s="9" t="s">
@@ -10350,8 +10597,8 @@
       </c>
     </row>
     <row r="427" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="49"/>
-      <c r="B427" s="60"/>
+      <c r="A427" s="50"/>
+      <c r="B427" s="52"/>
       <c r="C427" s="15" t="s">
         <v>660</v>
       </c>
@@ -10363,13 +10610,13 @@
       <c r="A428" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B428" s="56"/>
+      <c r="B428" s="36"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="49" t="s">
+      <c r="A429" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B429" s="59" t="s">
+      <c r="B429" s="51" t="s">
         <v>550</v>
       </c>
       <c r="C429" s="9" t="s">
@@ -10380,17 +10627,17 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="49"/>
-      <c r="B430" s="60"/>
+      <c r="A430" s="50"/>
+      <c r="B430" s="52"/>
       <c r="C430" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="49" t="s">
+      <c r="A431" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B431" s="59" t="s">
+      <c r="B431" s="51" t="s">
         <v>551</v>
       </c>
       <c r="C431" s="9" t="s">
@@ -10398,8 +10645,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="49"/>
-      <c r="B432" s="60"/>
+      <c r="A432" s="50"/>
+      <c r="B432" s="52"/>
       <c r="C432" s="10" t="s">
         <v>658</v>
       </c>
@@ -10408,10 +10655,10 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="49" t="s">
+      <c r="A433" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="B433" s="59" t="s">
+      <c r="B433" s="51" t="s">
         <v>552</v>
       </c>
       <c r="C433" s="9" t="s">
@@ -10419,8 +10666,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="49"/>
-      <c r="B434" s="60"/>
+      <c r="A434" s="50"/>
+      <c r="B434" s="52"/>
       <c r="C434" s="10" t="s">
         <v>657</v>
       </c>
@@ -10429,10 +10676,10 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="49" t="s">
+      <c r="A435" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B435" s="59" t="s">
+      <c r="B435" s="51" t="s">
         <v>553</v>
       </c>
       <c r="C435" s="9" t="s">
@@ -10440,8 +10687,8 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="49"/>
-      <c r="B436" s="60"/>
+      <c r="A436" s="50"/>
+      <c r="B436" s="52"/>
       <c r="C436" s="10" t="s">
         <v>655</v>
       </c>
@@ -10450,10 +10697,10 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="49" t="s">
+      <c r="A437" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="B437" s="59" t="s">
+      <c r="B437" s="51" t="s">
         <v>554</v>
       </c>
       <c r="C437" s="9" t="s">
@@ -10461,8 +10708,8 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="49"/>
-      <c r="B438" s="60"/>
+      <c r="A438" s="50"/>
+      <c r="B438" s="52"/>
       <c r="C438" s="10" t="s">
         <v>654</v>
       </c>
@@ -10474,13 +10721,13 @@
       <c r="A439" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B439" s="56"/>
+      <c r="B439" s="36"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="49" t="s">
+      <c r="A440" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="B440" s="59" t="s">
+      <c r="B440" s="51" t="s">
         <v>555</v>
       </c>
       <c r="C440" s="9" t="s">
@@ -10488,8 +10735,8 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="49"/>
-      <c r="B441" s="60"/>
+      <c r="A441" s="50"/>
+      <c r="B441" s="52"/>
       <c r="C441" s="10" t="s">
         <v>653</v>
       </c>
@@ -10498,10 +10745,10 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="39" t="s">
+      <c r="A442" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="B442" s="56" t="s">
+      <c r="B442" s="36" t="s">
         <v>556</v>
       </c>
       <c r="C442" s="9" t="s">
@@ -10509,8 +10756,8 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="39"/>
-      <c r="B443" s="56" t="s">
+      <c r="A443" s="57"/>
+      <c r="B443" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C443" s="10" t="s">
@@ -10521,10 +10768,10 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="49" t="s">
+      <c r="A444" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B444" s="56" t="s">
+      <c r="B444" s="36" t="s">
         <v>557</v>
       </c>
       <c r="C444" s="9" t="s">
@@ -10532,8 +10779,8 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="49"/>
-      <c r="B445" s="56" t="s">
+      <c r="A445" s="50"/>
+      <c r="B445" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C445" s="15" t="s">
@@ -10544,10 +10791,10 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="49" t="s">
+      <c r="A446" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B446" s="59" t="s">
+      <c r="B446" s="51" t="s">
         <v>558</v>
       </c>
       <c r="C446" s="9" t="s">
@@ -10555,8 +10802,8 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="49"/>
-      <c r="B447" s="60"/>
+      <c r="A447" s="50"/>
+      <c r="B447" s="52"/>
       <c r="C447" s="10" t="s">
         <v>649</v>
       </c>
@@ -10565,10 +10812,10 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="49" t="s">
+      <c r="A448" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="B448" s="59" t="s">
+      <c r="B448" s="51" t="s">
         <v>559</v>
       </c>
       <c r="C448" s="9" t="s">
@@ -10576,8 +10823,8 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="49"/>
-      <c r="B449" s="60"/>
+      <c r="A449" s="50"/>
+      <c r="B449" s="52"/>
       <c r="C449" s="10" t="s">
         <v>648</v>
       </c>
@@ -10586,10 +10833,10 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="49" t="s">
+      <c r="A450" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B450" s="59" t="s">
+      <c r="B450" s="51" t="s">
         <v>560</v>
       </c>
       <c r="C450" s="9" t="s">
@@ -10597,8 +10844,8 @@
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="49"/>
-      <c r="B451" s="60"/>
+      <c r="A451" s="50"/>
+      <c r="B451" s="52"/>
       <c r="C451" s="10" t="s">
         <v>647</v>
       </c>
@@ -10607,27 +10854,27 @@
       </c>
     </row>
     <row r="452" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="49" t="s">
+      <c r="A452" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B452" s="59" t="s">
+      <c r="B452" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="C452" s="36"/>
+      <c r="C452" s="59"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="49"/>
-      <c r="B453" s="60"/>
-      <c r="C453" s="38"/>
+      <c r="A453" s="50"/>
+      <c r="B453" s="52"/>
+      <c r="C453" s="60"/>
       <c r="D453">
         <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="49" t="s">
+      <c r="A454" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B454" s="59" t="s">
+      <c r="B454" s="51" t="s">
         <v>562</v>
       </c>
       <c r="C454" s="9" t="s">
@@ -10635,8 +10882,8 @@
       </c>
     </row>
     <row r="455" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A455" s="49"/>
-      <c r="B455" s="60"/>
+      <c r="A455" s="50"/>
+      <c r="B455" s="52"/>
       <c r="C455" s="15" t="s">
         <v>646</v>
       </c>
@@ -10648,13 +10895,13 @@
       <c r="A456" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B456" s="56"/>
+      <c r="B456" s="36"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="49" t="s">
+      <c r="A457" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="B457" s="59" t="s">
+      <c r="B457" s="51" t="s">
         <v>563</v>
       </c>
       <c r="C457" s="9" t="s">
@@ -10662,8 +10909,8 @@
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="49"/>
-      <c r="B458" s="60"/>
+      <c r="A458" s="50"/>
+      <c r="B458" s="52"/>
       <c r="C458" s="10" t="s">
         <v>645</v>
       </c>
@@ -10672,10 +10919,10 @@
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="49" t="s">
+      <c r="A459" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B459" s="59" t="s">
+      <c r="B459" s="51" t="s">
         <v>564</v>
       </c>
       <c r="C459" s="9" t="s">
@@ -10683,8 +10930,8 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="49"/>
-      <c r="B460" s="60"/>
+      <c r="A460" s="50"/>
+      <c r="B460" s="52"/>
       <c r="C460" s="10" t="s">
         <v>644</v>
       </c>
@@ -10696,13 +10943,13 @@
       <c r="A461" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B461" s="56"/>
+      <c r="B461" s="36"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="49" t="s">
+      <c r="A462" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B462" s="59" t="s">
+      <c r="B462" s="51" t="s">
         <v>565</v>
       </c>
       <c r="C462" s="9" t="s">
@@ -10710,8 +10957,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="49"/>
-      <c r="B463" s="60"/>
+      <c r="A463" s="50"/>
+      <c r="B463" s="52"/>
       <c r="C463" s="10" t="s">
         <v>642</v>
       </c>
@@ -10723,13 +10970,13 @@
       <c r="A464" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B464" s="56"/>
+      <c r="B464" s="36"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="49" t="s">
+      <c r="A465" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="B465" s="59" t="s">
+      <c r="B465" s="51" t="s">
         <v>566</v>
       </c>
       <c r="C465" s="9" t="s">
@@ -10737,8 +10984,8 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="49"/>
-      <c r="B466" s="60"/>
+      <c r="A466" s="50"/>
+      <c r="B466" s="52"/>
       <c r="C466" s="10" t="s">
         <v>641</v>
       </c>
@@ -10747,10 +10994,10 @@
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="49" t="s">
+      <c r="A467" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="B467" s="59" t="s">
+      <c r="B467" s="51" t="s">
         <v>567</v>
       </c>
       <c r="C467" s="9" t="s">
@@ -10758,8 +11005,8 @@
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="49"/>
-      <c r="B468" s="60"/>
+      <c r="A468" s="50"/>
+      <c r="B468" s="52"/>
       <c r="C468" s="10" t="s">
         <v>640</v>
       </c>
@@ -10771,13 +11018,13 @@
       <c r="A469" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B469" s="56"/>
+      <c r="B469" s="36"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="49" t="s">
+      <c r="A470" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B470" s="59" t="s">
+      <c r="B470" s="51" t="s">
         <v>568</v>
       </c>
       <c r="C470" s="9" t="s">
@@ -10785,8 +11032,8 @@
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="49"/>
-      <c r="B471" s="60"/>
+      <c r="A471" s="50"/>
+      <c r="B471" s="52"/>
       <c r="C471" s="10" t="s">
         <v>639</v>
       </c>
@@ -10798,13 +11045,13 @@
       <c r="A472" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B472" s="56"/>
+      <c r="B472" s="36"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="49" t="s">
+      <c r="A473" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="B473" s="59" t="s">
+      <c r="B473" s="51" t="s">
         <v>569</v>
       </c>
       <c r="C473" s="9" t="s">
@@ -10812,8 +11059,8 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="49"/>
-      <c r="B474" s="60"/>
+      <c r="A474" s="50"/>
+      <c r="B474" s="52"/>
       <c r="C474" s="10" t="s">
         <v>638</v>
       </c>
@@ -10825,13 +11072,13 @@
       <c r="A475" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B475" s="56"/>
+      <c r="B475" s="36"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="49" t="s">
+      <c r="A476" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B476" s="59" t="s">
+      <c r="B476" s="51" t="s">
         <v>570</v>
       </c>
       <c r="C476" s="9" t="s">
@@ -10839,8 +11086,8 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="49"/>
-      <c r="B477" s="60"/>
+      <c r="A477" s="50"/>
+      <c r="B477" s="52"/>
       <c r="C477" s="10" t="s">
         <v>637</v>
       </c>
@@ -10849,10 +11096,10 @@
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="49" t="s">
+      <c r="A478" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="B478" s="59" t="s">
+      <c r="B478" s="51" t="s">
         <v>571</v>
       </c>
       <c r="C478" s="9" t="s">
@@ -10860,8 +11107,8 @@
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="49"/>
-      <c r="B479" s="60"/>
+      <c r="A479" s="50"/>
+      <c r="B479" s="52"/>
       <c r="C479" s="10" t="s">
         <v>636</v>
       </c>
@@ -10870,10 +11117,10 @@
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="39" t="s">
+      <c r="A480" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="B480" s="56" t="s">
+      <c r="B480" s="36" t="s">
         <v>572</v>
       </c>
       <c r="C480" s="9" t="s">
@@ -10881,8 +11128,8 @@
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="39"/>
-      <c r="B481" s="56" t="s">
+      <c r="A481" s="57"/>
+      <c r="B481" s="36" t="s">
         <v>573</v>
       </c>
       <c r="C481" s="10" t="s">
@@ -10893,10 +11140,10 @@
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="49" t="s">
+      <c r="A482" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B482" s="59" t="s">
+      <c r="B482" s="51" t="s">
         <v>574</v>
       </c>
       <c r="C482" s="9" t="s">
@@ -10904,8 +11151,8 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="49"/>
-      <c r="B483" s="60"/>
+      <c r="A483" s="50"/>
+      <c r="B483" s="52"/>
       <c r="C483" s="10" t="s">
         <v>634</v>
       </c>
@@ -10914,10 +11161,10 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="49" t="s">
+      <c r="A484" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B484" s="59" t="s">
+      <c r="B484" s="51" t="s">
         <v>575</v>
       </c>
       <c r="C484" s="9" t="s">
@@ -10928,17 +11175,17 @@
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="49"/>
-      <c r="B485" s="60"/>
+      <c r="A485" s="50"/>
+      <c r="B485" s="52"/>
       <c r="C485" s="15" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="49" t="s">
+      <c r="A486" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B486" s="59" t="s">
+      <c r="B486" s="51" t="s">
         <v>576</v>
       </c>
       <c r="C486" s="9" t="s">
@@ -10949,8 +11196,8 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="49"/>
-      <c r="B487" s="60"/>
+      <c r="A487" s="50"/>
+      <c r="B487" s="52"/>
       <c r="C487" s="10" t="s">
         <v>632</v>
       </c>
@@ -10959,13 +11206,13 @@
       <c r="A488" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B488" s="56"/>
+      <c r="B488" s="36"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="49" t="s">
+      <c r="A489" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B489" s="59" t="s">
+      <c r="B489" s="51" t="s">
         <v>577</v>
       </c>
       <c r="C489" s="11" t="s">
@@ -10973,8 +11220,8 @@
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="49"/>
-      <c r="B490" s="60"/>
+      <c r="A490" s="50"/>
+      <c r="B490" s="52"/>
       <c r="C490" s="12" t="s">
         <v>631</v>
       </c>
@@ -10983,10 +11230,10 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="49" t="s">
+      <c r="A491" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B491" s="59" t="s">
+      <c r="B491" s="51" t="s">
         <v>578</v>
       </c>
       <c r="C491" s="9" t="s">
@@ -10994,8 +11241,8 @@
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="49"/>
-      <c r="B492" s="60"/>
+      <c r="A492" s="50"/>
+      <c r="B492" s="52"/>
       <c r="C492" s="10" t="s">
         <v>630</v>
       </c>
@@ -11004,10 +11251,10 @@
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="49" t="s">
+      <c r="A493" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B493" s="59" t="s">
+      <c r="B493" s="51" t="s">
         <v>579</v>
       </c>
       <c r="C493" s="9" t="s">
@@ -11015,8 +11262,8 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="49"/>
-      <c r="B494" s="60"/>
+      <c r="A494" s="50"/>
+      <c r="B494" s="52"/>
       <c r="C494" s="10" t="s">
         <v>627</v>
       </c>
@@ -11028,13 +11275,13 @@
       <c r="A495" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B495" s="56"/>
+      <c r="B495" s="36"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="49" t="s">
+      <c r="A496" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B496" s="59" t="s">
+      <c r="B496" s="51" t="s">
         <v>580</v>
       </c>
       <c r="C496" s="9" t="s">
@@ -11042,8 +11289,8 @@
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="49"/>
-      <c r="B497" s="60"/>
+      <c r="A497" s="50"/>
+      <c r="B497" s="52"/>
       <c r="C497" s="10" t="s">
         <v>629</v>
       </c>
@@ -11052,10 +11299,10 @@
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="49" t="s">
+      <c r="A498" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B498" s="59" t="s">
+      <c r="B498" s="51" t="s">
         <v>581</v>
       </c>
       <c r="C498" s="9" t="s">
@@ -11063,8 +11310,8 @@
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="49"/>
-      <c r="B499" s="60"/>
+      <c r="A499" s="50"/>
+      <c r="B499" s="52"/>
       <c r="C499" s="10" t="s">
         <v>626</v>
       </c>
@@ -11076,13 +11323,13 @@
       <c r="A500" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B500" s="56"/>
+      <c r="B500" s="36"/>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="49" t="s">
+      <c r="A501" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B501" s="59" t="s">
+      <c r="B501" s="51" t="s">
         <v>582</v>
       </c>
       <c r="C501" s="9" t="s">
@@ -11090,8 +11337,8 @@
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="49"/>
-      <c r="B502" s="60"/>
+      <c r="A502" s="50"/>
+      <c r="B502" s="52"/>
       <c r="C502" s="15" t="s">
         <v>625</v>
       </c>
@@ -11100,10 +11347,10 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="49" t="s">
+      <c r="A503" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B503" s="59" t="s">
+      <c r="B503" s="51" t="s">
         <v>583</v>
       </c>
       <c r="C503" s="9" t="s">
@@ -11111,8 +11358,8 @@
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="49"/>
-      <c r="B504" s="60"/>
+      <c r="A504" s="50"/>
+      <c r="B504" s="52"/>
       <c r="C504" s="10" t="s">
         <v>624</v>
       </c>
@@ -11124,13 +11371,13 @@
       <c r="A505" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B505" s="56"/>
+      <c r="B505" s="36"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="49" t="s">
+      <c r="A506" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B506" s="59" t="s">
+      <c r="B506" s="51" t="s">
         <v>584</v>
       </c>
       <c r="C506" s="9" t="s">
@@ -11138,8 +11385,8 @@
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="49"/>
-      <c r="B507" s="60"/>
+      <c r="A507" s="50"/>
+      <c r="B507" s="52"/>
       <c r="C507" s="10" t="s">
         <v>623</v>
       </c>
@@ -11151,13 +11398,13 @@
       <c r="A508" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B508" s="56"/>
+      <c r="B508" s="36"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="49" t="s">
+      <c r="A509" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B509" s="59" t="s">
+      <c r="B509" s="51" t="s">
         <v>585</v>
       </c>
       <c r="C509" s="9" t="s">
@@ -11165,8 +11412,8 @@
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="49"/>
-      <c r="B510" s="60"/>
+      <c r="A510" s="50"/>
+      <c r="B510" s="52"/>
       <c r="C510" s="10" t="s">
         <v>622</v>
       </c>
@@ -11178,13 +11425,13 @@
       <c r="A511" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B511" s="56"/>
+      <c r="B511" s="36"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="49" t="s">
+      <c r="A512" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B512" s="59" t="s">
+      <c r="B512" s="51" t="s">
         <v>586</v>
       </c>
       <c r="C512" s="9" t="s">
@@ -11195,17 +11442,17 @@
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="49"/>
-      <c r="B513" s="60"/>
+      <c r="A513" s="50"/>
+      <c r="B513" s="52"/>
       <c r="C513" s="10" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="49" t="s">
+      <c r="A514" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B514" s="59" t="s">
+      <c r="B514" s="51" t="s">
         <v>587</v>
       </c>
       <c r="C514" s="9" t="s">
@@ -11216,17 +11463,17 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="49"/>
-      <c r="B515" s="60"/>
+      <c r="A515" s="50"/>
+      <c r="B515" s="52"/>
       <c r="C515" s="10" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="49" t="s">
+      <c r="A516" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B516" s="59" t="s">
+      <c r="B516" s="51" t="s">
         <v>588</v>
       </c>
       <c r="C516" s="9" t="s">
@@ -11237,17 +11484,17 @@
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="49"/>
-      <c r="B517" s="60"/>
+      <c r="A517" s="50"/>
+      <c r="B517" s="52"/>
       <c r="C517" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="49" t="s">
+      <c r="A518" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B518" s="59" t="s">
+      <c r="B518" s="51" t="s">
         <v>589</v>
       </c>
       <c r="C518" s="9" t="s">
@@ -11258,17 +11505,17 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="49"/>
-      <c r="B519" s="60"/>
+      <c r="A519" s="50"/>
+      <c r="B519" s="52"/>
       <c r="C519" s="10" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="49" t="s">
+      <c r="A520" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B520" s="59" t="s">
+      <c r="B520" s="51" t="s">
         <v>590</v>
       </c>
       <c r="C520" s="9" t="s">
@@ -11279,8 +11526,8 @@
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="49"/>
-      <c r="B521" s="60"/>
+      <c r="A521" s="50"/>
+      <c r="B521" s="52"/>
       <c r="C521" s="10" t="s">
         <v>615</v>
       </c>
@@ -11289,13 +11536,13 @@
       <c r="A522" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B522" s="56"/>
+      <c r="B522" s="36"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="49" t="s">
+      <c r="A523" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B523" s="59" t="s">
+      <c r="B523" s="51" t="s">
         <v>591</v>
       </c>
       <c r="C523" s="9" t="s">
@@ -11303,8 +11550,8 @@
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="49"/>
-      <c r="B524" s="60"/>
+      <c r="A524" s="50"/>
+      <c r="B524" s="52"/>
       <c r="C524" s="10" t="s">
         <v>612</v>
       </c>
@@ -11316,13 +11563,13 @@
       <c r="A525" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B525" s="56"/>
+      <c r="B525" s="36"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="49" t="s">
+      <c r="A526" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B526" s="59" t="s">
+      <c r="B526" s="51" t="s">
         <v>592</v>
       </c>
       <c r="C526" s="9" t="s">
@@ -11330,8 +11577,8 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="49"/>
-      <c r="B527" s="60"/>
+      <c r="A527" s="50"/>
+      <c r="B527" s="52"/>
       <c r="C527" s="10" t="s">
         <v>613</v>
       </c>
@@ -11340,10 +11587,10 @@
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="49" t="s">
+      <c r="A528" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B528" s="59" t="s">
+      <c r="B528" s="51" t="s">
         <v>593</v>
       </c>
       <c r="C528" s="9" t="s">
@@ -11354,17 +11601,17 @@
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529" s="49"/>
-      <c r="B529" s="60"/>
+      <c r="A529" s="50"/>
+      <c r="B529" s="52"/>
       <c r="C529" s="10" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="49" t="s">
+      <c r="A530" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B530" s="59" t="s">
+      <c r="B530" s="51" t="s">
         <v>594</v>
       </c>
       <c r="C530" s="9" t="s">
@@ -11372,8 +11619,8 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" s="49"/>
-      <c r="B531" s="60"/>
+      <c r="A531" s="50"/>
+      <c r="B531" s="52"/>
       <c r="C531" s="10" t="s">
         <v>610</v>
       </c>
@@ -11382,10 +11629,10 @@
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="49" t="s">
+      <c r="A532" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B532" s="59" t="s">
+      <c r="B532" s="51" t="s">
         <v>595</v>
       </c>
       <c r="C532" s="9" t="s">
@@ -11393,8 +11640,8 @@
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="49"/>
-      <c r="B533" s="60"/>
+      <c r="A533" s="50"/>
+      <c r="B533" s="52"/>
       <c r="C533" s="10" t="s">
         <v>609</v>
       </c>
@@ -11403,10 +11650,10 @@
       </c>
     </row>
     <row r="534" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="49" t="s">
+      <c r="A534" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B534" s="59" t="s">
+      <c r="B534" s="51" t="s">
         <v>596</v>
       </c>
       <c r="C534" s="14" t="s">
@@ -11417,17 +11664,17 @@
       </c>
     </row>
     <row r="535" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A535" s="49"/>
-      <c r="B535" s="60"/>
+      <c r="A535" s="50"/>
+      <c r="B535" s="52"/>
       <c r="C535" s="13" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="49" t="s">
+      <c r="A536" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B536" s="59" t="s">
+      <c r="B536" s="51" t="s">
         <v>597</v>
       </c>
       <c r="C536" s="9" t="s">
@@ -11435,8 +11682,8 @@
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="49"/>
-      <c r="B537" s="60"/>
+      <c r="A537" s="50"/>
+      <c r="B537" s="52"/>
       <c r="C537" s="10" t="s">
         <v>607</v>
       </c>
@@ -11448,13 +11695,13 @@
       <c r="A538" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B538" s="56"/>
+      <c r="B538" s="36"/>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="49" t="s">
+      <c r="A539" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B539" s="59" t="s">
+      <c r="B539" s="51" t="s">
         <v>598</v>
       </c>
       <c r="C539" s="9" t="s">
@@ -11462,8 +11709,8 @@
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="49"/>
-      <c r="B540" s="60"/>
+      <c r="A540" s="50"/>
+      <c r="B540" s="52"/>
       <c r="C540" s="10" t="s">
         <v>606</v>
       </c>
@@ -11472,29 +11719,29 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="49" t="s">
+      <c r="A541" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B541" s="59" t="s">
+      <c r="B541" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="C541" s="47" t="s">
+      <c r="C541" s="53" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="49"/>
-      <c r="B542" s="60"/>
-      <c r="C542" s="48"/>
+      <c r="A542" s="50"/>
+      <c r="B542" s="52"/>
+      <c r="C542" s="54"/>
       <c r="D542">
         <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B543" s="70" t="s">
+      <c r="A543" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B543" s="55" t="s">
         <v>600</v>
       </c>
       <c r="C543" s="9" t="s">
@@ -11502,8 +11749,8 @@
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="49"/>
-      <c r="B544" s="61"/>
+      <c r="A544" s="50"/>
+      <c r="B544" s="56"/>
       <c r="C544" s="10" t="s">
         <v>604</v>
       </c>
@@ -11525,428 +11772,493 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B548" s="21"/>
-      <c r="C548" s="32" t="s">
+      <c r="C548" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="D548" s="33">
+      <c r="D548" s="71">
         <f>SUM(D2:D544)</f>
         <v>231</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B549" s="21"/>
-      <c r="C549" s="32"/>
-      <c r="D549" s="33"/>
+      <c r="C549" s="70"/>
+      <c r="D549" s="71"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B550" s="21"/>
-      <c r="C550" s="32"/>
-      <c r="D550" s="33"/>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C550" s="70"/>
+      <c r="D550" s="71"/>
+    </row>
+    <row r="552" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="7" t="s">
         <v>705</v>
       </c>
+      <c r="C552" s="82"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="28" t="s">
+      <c r="A553" s="75" t="s">
         <v>704</v>
       </c>
+      <c r="B553" s="81"/>
+      <c r="C553" s="83" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="28" t="s">
+      <c r="A554" s="79"/>
+      <c r="B554" s="81"/>
+      <c r="C554" s="85" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="76"/>
+      <c r="B555" s="81"/>
+      <c r="C555" s="84" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="75" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A555" s="29" t="s">
+      <c r="B556" s="81"/>
+      <c r="C556" s="87" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="76"/>
+      <c r="B557" s="81"/>
+      <c r="C557" s="88" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="77" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="28" t="s">
+      <c r="B558" s="81"/>
+      <c r="C558" s="83" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="80"/>
+      <c r="B559" s="81"/>
+      <c r="C559" s="85" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="78"/>
+      <c r="B560" s="81"/>
+      <c r="C560" s="86" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="75" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" s="28" t="s">
+      <c r="B561" s="81"/>
+      <c r="C561" s="87" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="76"/>
+      <c r="B562" s="81"/>
+      <c r="C562" s="88" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="75" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="28" t="s">
+      <c r="B563" s="81"/>
+      <c r="C563" s="83" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="76"/>
+      <c r="B564" s="81"/>
+      <c r="C564" s="84" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="75" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A559" s="29" t="s">
+      <c r="B565" s="81"/>
+      <c r="C565" s="83" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="79"/>
+      <c r="B566" s="81"/>
+      <c r="C566" s="85" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="76"/>
+      <c r="B567" s="81"/>
+      <c r="C567" s="84" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="77" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A560" s="28" t="s">
+      <c r="B568" s="81"/>
+      <c r="C568" s="83" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="80"/>
+      <c r="B569" s="81"/>
+      <c r="C569" s="85" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="80"/>
+      <c r="B570" s="81"/>
+      <c r="C570" s="85" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="78"/>
+      <c r="B571" s="81"/>
+      <c r="C571" s="86" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="75" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A561" s="28" t="s">
+      <c r="B572" s="81"/>
+      <c r="C572" s="83" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="76"/>
+      <c r="B573" s="81"/>
+      <c r="C573" s="84" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="75" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A562" s="28" t="s">
+      <c r="B574" s="81"/>
+      <c r="C574" s="83" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="76"/>
+      <c r="B575" s="81"/>
+      <c r="C575" s="84" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="75" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="7" t="s">
+      <c r="B576" s="81"/>
+      <c r="C576" s="83" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="76"/>
+      <c r="B577" s="81"/>
+      <c r="C577" s="84" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="7" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A565" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="D565">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" s="28" t="s">
-        <v>717</v>
-      </c>
-      <c r="D566">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="D567">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="D568">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A569" s="29" t="s">
-        <v>720</v>
-      </c>
-      <c r="D569">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A570" s="28" t="s">
-        <v>721</v>
-      </c>
-      <c r="D570">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A571" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="D571">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D572">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="D573">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574" s="28" t="s">
-        <v>796</v>
-      </c>
-      <c r="D574">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A575" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="D575">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A576" s="28" t="s">
-        <v>798</v>
-      </c>
-      <c r="D576">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577" s="71" t="s">
-        <v>799</v>
-      </c>
-      <c r="D577">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="D578">
-        <v>1</v>
-      </c>
+      <c r="C578" s="30"/>
     </row>
     <row r="579" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A579" s="29" t="s">
-        <v>801</v>
+        <v>716</v>
       </c>
       <c r="D579">
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="28" t="s">
-        <v>802</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="C580" s="82"/>
       <c r="D580">
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A581" s="29" t="s">
-        <v>803</v>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="77" t="s">
+        <v>718</v>
+      </c>
+      <c r="B581" s="81"/>
+      <c r="C581" s="83" t="s">
+        <v>1023</v>
       </c>
       <c r="D581">
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A582" s="29" t="s">
-        <v>804</v>
-      </c>
-      <c r="D582">
-        <v>1</v>
+    <row r="582" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="78"/>
+      <c r="B582" s="81"/>
+      <c r="C582" s="84" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="28" t="s">
-        <v>805</v>
+      <c r="A583" s="75" t="s">
+        <v>719</v>
+      </c>
+      <c r="B583" s="81"/>
+      <c r="C583" s="83" t="s">
+        <v>1025</v>
       </c>
       <c r="D583">
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584" s="28" t="s">
-        <v>808</v>
-      </c>
-      <c r="D584">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="76"/>
+      <c r="B584" s="81"/>
+      <c r="C584" s="89" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="29" t="s">
-        <v>809</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C585" s="90"/>
       <c r="D585">
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A586" s="29" t="s">
-        <v>810</v>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="75" t="s">
+        <v>721</v>
+      </c>
+      <c r="B586" s="81"/>
+      <c r="C586" s="83" t="s">
+        <v>1027</v>
       </c>
       <c r="D586">
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A587" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="D587">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="28" t="s">
-        <v>812</v>
-      </c>
+    <row r="587" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="76"/>
+      <c r="B587" s="81"/>
+      <c r="C587" s="84" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A588" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="C588" s="30"/>
       <c r="D588">
         <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" s="28" t="s">
-        <v>813</v>
-      </c>
       <c r="D589">
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A590" s="29" t="s">
-        <v>814</v>
-      </c>
+    <row r="590" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C590" s="82"/>
       <c r="D590">
         <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="28" t="s">
-        <v>815</v>
+      <c r="A591" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="B591" s="81"/>
+      <c r="C591" s="83" t="s">
+        <v>1030</v>
       </c>
       <c r="D591">
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A592" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="D592">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A593" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="D593">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="28" t="s">
-        <v>818</v>
-      </c>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="79"/>
+      <c r="B592" s="81"/>
+      <c r="C592" s="85" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="76"/>
+      <c r="B593" s="81"/>
+      <c r="C593" s="84" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A594" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="C594" s="30"/>
       <c r="D594">
         <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="28" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="D595">
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" s="28" t="s">
-        <v>820</v>
-      </c>
+    <row r="596" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="C596" s="82"/>
       <c r="D596">
         <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" s="28" t="s">
-        <v>821</v>
+      <c r="A597" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="B597" s="81"/>
+      <c r="C597" s="83" t="s">
+        <v>1032</v>
       </c>
       <c r="D597">
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="D598">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" s="28" t="s">
-        <v>823</v>
-      </c>
+    <row r="598" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="76"/>
+      <c r="B598" s="81"/>
+      <c r="C598" s="84" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="C599" s="90"/>
       <c r="D599">
         <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="28" t="s">
-        <v>824</v>
+      <c r="A600" s="75" t="s">
+        <v>802</v>
+      </c>
+      <c r="B600" s="81"/>
+      <c r="C600" s="83" t="s">
+        <v>1034</v>
       </c>
       <c r="D600">
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" s="71" t="s">
-        <v>825</v>
-      </c>
-      <c r="D601">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" s="28" t="s">
-        <v>826</v>
-      </c>
+    <row r="601" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="76"/>
+      <c r="B601" s="81"/>
+      <c r="C601" s="84" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A602" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="C602" s="30"/>
       <c r="D602">
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" s="28" t="s">
-        <v>827</v>
+    <row r="603" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A603" s="29" t="s">
+        <v>804</v>
       </c>
       <c r="D603">
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="28" t="s">
-        <v>828</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="C604" s="82"/>
       <c r="D604">
         <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="28" t="s">
-        <v>829</v>
+      <c r="A605" s="75" t="s">
+        <v>808</v>
+      </c>
+      <c r="B605" s="81"/>
+      <c r="C605" s="83" t="s">
+        <v>1036</v>
       </c>
       <c r="D605">
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="D606">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607" s="28" t="s">
-        <v>831</v>
-      </c>
+    <row r="606" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="76"/>
+      <c r="B606" s="81"/>
+      <c r="C606" s="84" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A607" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="C607" s="30"/>
       <c r="D607">
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A608" s="28" t="s">
-        <v>832</v>
+    <row r="608" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A608" s="29" t="s">
+        <v>810</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -11954,15 +12266,15 @@
     </row>
     <row r="609" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A609" s="29" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="D609">
         <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A610" s="29" t="s">
-        <v>834</v>
+      <c r="A610" s="28" t="s">
+        <v>812</v>
       </c>
       <c r="D610">
         <v>1</v>
@@ -11970,15 +12282,15 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="28" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="D611">
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A612" s="28" t="s">
-        <v>836</v>
+    <row r="612" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A612" s="29" t="s">
+        <v>814</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -11986,15 +12298,15 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="28" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D613">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A614" s="28" t="s">
-        <v>839</v>
+    <row r="614" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A614" s="29" t="s">
+        <v>816</v>
       </c>
       <c r="D614">
         <v>1</v>
@@ -12002,71 +12314,78 @@
     </row>
     <row r="615" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A615" s="29" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="D615">
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A616" s="29" t="s">
-        <v>841</v>
-      </c>
+    <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="C616" s="82"/>
       <c r="D616">
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A617" s="29" t="s">
-        <v>842</v>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="75" t="s">
+        <v>819</v>
+      </c>
+      <c r="B617" s="81"/>
+      <c r="C617" s="83" t="s">
+        <v>1038</v>
       </c>
       <c r="D617">
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D618">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A619" s="29" t="s">
-        <v>844</v>
+    <row r="618" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="76"/>
+      <c r="B618" s="81"/>
+      <c r="C618" s="84" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="91" t="s">
+        <v>820</v>
+      </c>
+      <c r="B619" s="81"/>
+      <c r="C619" s="83" t="s">
+        <v>1041</v>
       </c>
       <c r="D619">
         <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D620">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A621" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="D621">
-        <v>1</v>
+      <c r="A620" s="92"/>
+      <c r="B620" s="81"/>
+      <c r="C620" s="94" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="93"/>
+      <c r="B621" s="81"/>
+      <c r="C621" s="89" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="28" t="s">
-        <v>847</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="C622" s="30"/>
       <c r="D622">
         <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="28" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="D623">
         <v>1</v>
@@ -12074,7 +12393,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="28" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -12082,23 +12401,23 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="28" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="D625">
         <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626" s="28" t="s">
-        <v>851</v>
+      <c r="A626" s="44" t="s">
+        <v>825</v>
       </c>
       <c r="D626">
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A627" s="29" t="s">
-        <v>852</v>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="28" t="s">
+        <v>826</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -12106,7 +12425,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="28" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="D628">
         <v>1</v>
@@ -12114,7 +12433,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="28" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="D629">
         <v>1</v>
@@ -12122,7 +12441,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="28" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="D630">
         <v>1</v>
@@ -12130,7 +12449,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="28" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="D631">
         <v>1</v>
@@ -12138,7 +12457,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="28" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -12146,23 +12465,23 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="28" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="D633">
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634" s="28" t="s">
-        <v>859</v>
+    <row r="634" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A634" s="29" t="s">
+        <v>833</v>
       </c>
       <c r="D634">
         <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A635" s="28" t="s">
-        <v>860</v>
+      <c r="A635" s="29" t="s">
+        <v>834</v>
       </c>
       <c r="D635">
         <v>1</v>
@@ -12170,7 +12489,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="28" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="D636">
         <v>1</v>
@@ -12178,7 +12497,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="28" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -12186,7 +12505,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="28" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="D638">
         <v>1</v>
@@ -12194,31 +12513,31 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="28" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="D639">
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A640" s="28" t="s">
-        <v>865</v>
+    <row r="640" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A640" s="29" t="s">
+        <v>840</v>
       </c>
       <c r="D640">
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A641" s="28" t="s">
-        <v>866</v>
+    <row r="641" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A641" s="29" t="s">
+        <v>841</v>
       </c>
       <c r="D641">
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A642" s="28" t="s">
-        <v>868</v>
+    <row r="642" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A642" s="29" t="s">
+        <v>842</v>
       </c>
       <c r="D642">
         <v>1</v>
@@ -12226,31 +12545,31 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="28" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="D643">
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A644" s="28" t="s">
-        <v>870</v>
+    <row r="644" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A644" s="29" t="s">
+        <v>844</v>
       </c>
       <c r="D644">
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A645" s="29" t="s">
-        <v>871</v>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="28" t="s">
+        <v>845</v>
       </c>
       <c r="D645">
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A646" s="28" t="s">
-        <v>872</v>
+    <row r="646" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A646" s="29" t="s">
+        <v>846</v>
       </c>
       <c r="D646">
         <v>1</v>
@@ -12258,7 +12577,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="28" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="D647">
         <v>1</v>
@@ -12266,7 +12585,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="28" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="D648">
         <v>1</v>
@@ -12274,7 +12593,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="28" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -12282,7 +12601,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="28" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="D650">
         <v>1</v>
@@ -12290,15 +12609,15 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="28" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="D651">
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A652" s="28" t="s">
-        <v>878</v>
+    <row r="652" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A652" s="29" t="s">
+        <v>852</v>
       </c>
       <c r="D652">
         <v>1</v>
@@ -12306,7 +12625,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="28" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -12314,7 +12633,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="28" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -12322,7 +12641,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="28" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="D655">
         <v>1</v>
@@ -12330,15 +12649,15 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="28" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="D656">
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A657" s="29" t="s">
-        <v>883</v>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" s="28" t="s">
+        <v>857</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -12346,7 +12665,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="28" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="D658">
         <v>1</v>
@@ -12354,7 +12673,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="28" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="D659">
         <v>1</v>
@@ -12362,7 +12681,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="28" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -12370,7 +12689,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="28" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="D661">
         <v>1</v>
@@ -12378,7 +12697,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="28" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="D662">
         <v>1</v>
@@ -12386,7 +12705,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="28" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="D663">
         <v>1</v>
@@ -12394,7 +12713,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="28" t="s">
-        <v>892</v>
+        <v>864</v>
       </c>
       <c r="D664">
         <v>1</v>
@@ -12402,7 +12721,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="28" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -12410,15 +12729,15 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="28" t="s">
-        <v>894</v>
+        <v>866</v>
       </c>
       <c r="D666">
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A667" s="29" t="s">
-        <v>895</v>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="28" t="s">
+        <v>868</v>
       </c>
       <c r="D667">
         <v>1</v>
@@ -12426,7 +12745,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="28" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="D668">
         <v>1</v>
@@ -12434,15 +12753,15 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="28" t="s">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="D669">
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A670" s="28" t="s">
-        <v>898</v>
+    <row r="670" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A670" s="29" t="s">
+        <v>871</v>
       </c>
       <c r="D670">
         <v>1</v>
@@ -12450,7 +12769,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="28" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="D671">
         <v>1</v>
@@ -12458,7 +12777,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -12466,15 +12785,15 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="28" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="D673">
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A674" s="29" t="s">
-        <v>905</v>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="28" t="s">
+        <v>875</v>
       </c>
       <c r="D674">
         <v>1</v>
@@ -12482,7 +12801,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="28" t="s">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="D675">
         <v>1</v>
@@ -12490,7 +12809,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="28" t="s">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="D676">
         <v>1</v>
@@ -12498,7 +12817,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="28" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="D677">
         <v>1</v>
@@ -12506,7 +12825,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="28" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="D678">
         <v>1</v>
@@ -12514,7 +12833,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="28" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="D679">
         <v>1</v>
@@ -12522,23 +12841,23 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="28" t="s">
-        <v>911</v>
+        <v>881</v>
       </c>
       <c r="D680">
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A681" s="29" t="s">
-        <v>912</v>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="28" t="s">
+        <v>882</v>
       </c>
       <c r="D681">
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A682" s="28" t="s">
-        <v>913</v>
+    <row r="682" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A682" s="29" t="s">
+        <v>883</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -12546,7 +12865,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="28" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="D683">
         <v>1</v>
@@ -12554,15 +12873,15 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="28" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="D684">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A685" s="29" t="s">
-        <v>916</v>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="28" t="s">
+        <v>886</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -12570,7 +12889,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="28" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -12578,15 +12897,15 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="28" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="D687">
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A688" s="29" t="s">
-        <v>919</v>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" s="28" t="s">
+        <v>889</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -12594,7 +12913,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="28" t="s">
-        <v>920</v>
+        <v>892</v>
       </c>
       <c r="D689">
         <v>1</v>
@@ -12602,23 +12921,23 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="28" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="D690">
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A691" s="29" t="s">
-        <v>923</v>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" s="28" t="s">
+        <v>894</v>
       </c>
       <c r="D691">
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A692" s="28" t="s">
-        <v>924</v>
+    <row r="692" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A692" s="29" t="s">
+        <v>895</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -12626,7 +12945,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="28" t="s">
-        <v>925</v>
+        <v>896</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -12634,7 +12953,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="28" t="s">
-        <v>926</v>
+        <v>897</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -12642,7 +12961,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="28" t="s">
-        <v>927</v>
+        <v>898</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -12650,7 +12969,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="28" t="s">
-        <v>928</v>
+        <v>899</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -12658,7 +12977,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="28" t="s">
-        <v>929</v>
+        <v>872</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -12666,23 +12985,23 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="28" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="D698">
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A699" s="28" t="s">
-        <v>932</v>
+    <row r="699" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A699" s="29" t="s">
+        <v>905</v>
       </c>
       <c r="D699">
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A700" s="29" t="s">
-        <v>933</v>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" s="28" t="s">
+        <v>906</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -12690,7 +13009,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="28" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -12698,7 +13017,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="28" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -12706,7 +13025,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="28" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -12714,7 +13033,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="28" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
       <c r="D704">
         <v>1</v>
@@ -12722,15 +13041,15 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="28" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
       <c r="D705">
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A706" s="28" t="s">
-        <v>939</v>
+    <row r="706" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A706" s="29" t="s">
+        <v>912</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -12738,350 +13057,621 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="D708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A710" s="29" t="s">
+        <v>916</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="D711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A713" s="29" t="s">
+        <v>919</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A716" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="D716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="D720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="28" t="s">
+        <v>929</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A725" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="28" t="s">
+        <v>936</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" s="28" t="s">
+        <v>938</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" s="28" t="s">
         <v>940</v>
       </c>
-      <c r="D707">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A708" s="29" t="s">
+      <c r="D732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A733" s="29" t="s">
         <v>941</v>
       </c>
-      <c r="D708">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A709" s="53" t="s">
+      <c r="D733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="D709">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A710" s="53" t="s">
+      <c r="D734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="D710">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A711" s="53" t="s">
+      <c r="D735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="D711">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A712" s="53" t="s">
+      <c r="D736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="D712">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="72" t="s">
+      <c r="D737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="45" t="s">
         <v>946</v>
       </c>
-      <c r="D713">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A714" s="53" t="s">
+      <c r="D738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="33" t="s">
         <v>947</v>
       </c>
-      <c r="D714">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A715" s="53" t="s">
+      <c r="D739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="33" t="s">
         <v>948</v>
       </c>
-      <c r="D715">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A716" s="54" t="s">
+      <c r="D740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A741" s="34" t="s">
         <v>949</v>
       </c>
-      <c r="D716">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A717" s="53" t="s">
+      <c r="D741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="33" t="s">
         <v>950</v>
       </c>
-      <c r="D717">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A718" s="54" t="s">
+      <c r="D742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A743" s="34" t="s">
         <v>951</v>
       </c>
-      <c r="D718">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A719" s="53" t="s">
+      <c r="D743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="33" t="s">
         <v>954</v>
       </c>
-      <c r="D719">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A720" s="53" t="s">
+      <c r="D744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="33" t="s">
         <v>955</v>
       </c>
-      <c r="D720">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="53" t="s">
+      <c r="D745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="33" t="s">
         <v>956</v>
       </c>
-      <c r="D721">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="53" t="s">
+      <c r="D746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="33" t="s">
         <v>957</v>
       </c>
-      <c r="D722">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="53" t="s">
+      <c r="D747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" s="33" t="s">
         <v>958</v>
       </c>
-      <c r="D723">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="53" t="s">
+      <c r="D748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="D724">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="725" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A725" s="54" t="s">
+      <c r="D749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A750" s="34" t="s">
         <v>960</v>
       </c>
-      <c r="D725">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="726" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A726" s="54" t="s">
+      <c r="D750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A751" s="34" t="s">
         <v>961</v>
       </c>
-      <c r="D726">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="53" t="s">
+      <c r="D751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="33" t="s">
         <v>962</v>
       </c>
-      <c r="D727">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="728" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A728" s="54" t="s">
+      <c r="D752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A753" s="34" t="s">
         <v>963</v>
       </c>
-      <c r="D728">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="53" t="s">
+      <c r="D753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" s="33" t="s">
         <v>964</v>
       </c>
-      <c r="D729">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="53" t="s">
+      <c r="D754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" s="33" t="s">
         <v>965</v>
       </c>
-      <c r="D730">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="53" t="s">
+      <c r="D755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" s="33" t="s">
         <v>966</v>
       </c>
-      <c r="D731">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="53" t="s">
+      <c r="D756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" s="33" t="s">
         <v>967</v>
       </c>
-      <c r="D732">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="53" t="s">
+      <c r="D757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" s="33" t="s">
         <v>968</v>
       </c>
-      <c r="D733">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="53" t="s">
+      <c r="D758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" s="33" t="s">
         <v>969</v>
       </c>
-      <c r="D734">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A735" s="54" t="s">
+      <c r="D759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A760" s="34" t="s">
         <v>970</v>
       </c>
-      <c r="D735">
-        <v>1</v>
-      </c>
-      <c r="E735">
-        <f>COUNT(D565:D735)</f>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <f>COUNT(D579:D760)</f>
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="292">
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B486:B487"/>
-    <mergeCell ref="A486:A487"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B491:B492"/>
-    <mergeCell ref="A491:A492"/>
-    <mergeCell ref="A489:A490"/>
-    <mergeCell ref="B489:B490"/>
-    <mergeCell ref="A498:A499"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="B503:B504"/>
-    <mergeCell ref="B501:B502"/>
-    <mergeCell ref="A501:A502"/>
-    <mergeCell ref="A509:A510"/>
-    <mergeCell ref="B509:B510"/>
-    <mergeCell ref="A506:A507"/>
-    <mergeCell ref="B506:B507"/>
-    <mergeCell ref="B512:B513"/>
-    <mergeCell ref="A512:A513"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B518:B519"/>
-    <mergeCell ref="A518:A519"/>
-    <mergeCell ref="B516:B517"/>
-    <mergeCell ref="A516:A517"/>
-    <mergeCell ref="B539:B540"/>
-    <mergeCell ref="A539:A540"/>
-    <mergeCell ref="B536:B537"/>
-    <mergeCell ref="A536:A537"/>
-    <mergeCell ref="B534:B535"/>
-    <mergeCell ref="A534:A535"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B530:B531"/>
-    <mergeCell ref="A530:A531"/>
+  <mergeCells count="311">
+    <mergeCell ref="A617:A618"/>
+    <mergeCell ref="A619:A621"/>
+    <mergeCell ref="A576:A577"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="A583:A584"/>
+    <mergeCell ref="A586:A587"/>
+    <mergeCell ref="A591:A593"/>
+    <mergeCell ref="A597:A598"/>
+    <mergeCell ref="A600:A601"/>
+    <mergeCell ref="A605:A606"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="A553:A555"/>
+    <mergeCell ref="A561:A562"/>
+    <mergeCell ref="A565:A567"/>
+    <mergeCell ref="A563:A564"/>
+    <mergeCell ref="A558:A560"/>
+    <mergeCell ref="A568:A571"/>
+    <mergeCell ref="A572:A573"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B356:B357"/>
+    <mergeCell ref="A360:A363"/>
+    <mergeCell ref="A354:A355"/>
+    <mergeCell ref="B354:B355"/>
+    <mergeCell ref="C548:C550"/>
+    <mergeCell ref="D548:D550"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="B374:B375"/>
+    <mergeCell ref="A372:A373"/>
+    <mergeCell ref="B372:B373"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C385:C388"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C399:C401"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="A412:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="A399:A401"/>
+    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="B431:B432"/>
+    <mergeCell ref="A429:A430"/>
+    <mergeCell ref="B429:B430"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="A450:A451"/>
+    <mergeCell ref="B450:B451"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="A435:A436"/>
+    <mergeCell ref="B435:B436"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="A446:A447"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B482:B483"/>
+    <mergeCell ref="A482:A483"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="B473:B474"/>
+    <mergeCell ref="A470:A471"/>
+    <mergeCell ref="B470:B471"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A462:A463"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="A452:A453"/>
+    <mergeCell ref="B452:B453"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A298"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A310"/>
+    <mergeCell ref="A311:A314"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A344:A345"/>
     <mergeCell ref="A377:A378"/>
     <mergeCell ref="A366:A367"/>
     <mergeCell ref="A356:A357"/>
@@ -13106,166 +13696,114 @@
     <mergeCell ref="A526:A527"/>
     <mergeCell ref="B528:B529"/>
     <mergeCell ref="A528:A529"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="A320:A321"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="A338:A339"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A298"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A310"/>
-    <mergeCell ref="A311:A314"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A222:A226"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="B467:B468"/>
-    <mergeCell ref="B465:B466"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A462:A463"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B482:B483"/>
-    <mergeCell ref="A482:A483"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="B473:B474"/>
-    <mergeCell ref="A470:A471"/>
-    <mergeCell ref="B470:B471"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="A452:A453"/>
-    <mergeCell ref="B452:B453"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="A450:A451"/>
-    <mergeCell ref="B450:B451"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="A435:A436"/>
-    <mergeCell ref="B435:B436"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="A446:A447"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="A420:A421"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="A431:A432"/>
-    <mergeCell ref="B431:B432"/>
-    <mergeCell ref="A429:A430"/>
-    <mergeCell ref="B429:B430"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="A408:A409"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C399:C401"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="A412:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="A399:A401"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="A360:A363"/>
-    <mergeCell ref="A354:A355"/>
-    <mergeCell ref="B354:B355"/>
-    <mergeCell ref="C548:C550"/>
-    <mergeCell ref="D548:D550"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="B374:B375"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="B372:B373"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="C385:C388"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="A342:A343"/>
-    <mergeCell ref="B342:B343"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B539:B540"/>
+    <mergeCell ref="A539:A540"/>
+    <mergeCell ref="B536:B537"/>
+    <mergeCell ref="A536:A537"/>
+    <mergeCell ref="B534:B535"/>
+    <mergeCell ref="A534:A535"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B530:B531"/>
+    <mergeCell ref="A530:A531"/>
+    <mergeCell ref="B512:B513"/>
+    <mergeCell ref="A512:A513"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B518:B519"/>
+    <mergeCell ref="A518:A519"/>
+    <mergeCell ref="B516:B517"/>
+    <mergeCell ref="A516:A517"/>
+    <mergeCell ref="A498:A499"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="B503:B504"/>
+    <mergeCell ref="B501:B502"/>
+    <mergeCell ref="A501:A502"/>
+    <mergeCell ref="A509:A510"/>
+    <mergeCell ref="B509:B510"/>
+    <mergeCell ref="A506:A507"/>
+    <mergeCell ref="B506:B507"/>
+    <mergeCell ref="B486:B487"/>
+    <mergeCell ref="A486:A487"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B491:B492"/>
+    <mergeCell ref="A491:A492"/>
+    <mergeCell ref="A489:A490"/>
+    <mergeCell ref="B489:B490"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiments/Pre-test before defense.xlsx
+++ b/Experiments/Pre-test before defense.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="998">
   <si>
     <t>InappExp Pre-Test; 2 Pages only</t>
   </si>
@@ -3021,141 +3021,6 @@
   </si>
   <si>
     <t xml:space="preserve">just like her big bald head </t>
-  </si>
-  <si>
-    <t>( taste like shit ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( Horse dick ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( Just imagine the possibilities ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t>( No ones dick is that long ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( why the fuck would ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( camera ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t>( Thats fake as fuck ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( so fucking fake that ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( me tumours ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t>( fake ass ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( It's bullshit ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( her stomach acids which ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( suffocate her ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t>( what the fuck) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Inapp&gt;Horse&lt;/Inapp&gt; &lt;Inapp&gt;dick&lt;/Inapp&gt; . Just imagine the possibilities . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ones &lt;Inapp&gt;dick&lt;/Inapp&gt; is that long </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Women like this ... I do n't understand them . . why the &lt;Inapp&gt;fuck&lt;/Inapp&gt; would you do this on camera . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thats &lt;Inapp&gt;fake&lt;/Inapp&gt; as &lt;Inapp&gt;fuck&lt;/Inapp&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the throat did not move . &lt;Inapp&gt;fake&lt;/Inapp&gt; &lt;Inapp&gt;ass&lt;/Inapp&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">so &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;fake&lt;/Inapp&gt; that is gave me tumours </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It 's &lt;Inapp&gt;bullshit&lt;/Inapp&gt; . . that is certainly long enough to get to her &lt;Inapp&gt;stomach&lt;/Inapp&gt; &lt;Inapp&gt;acids&lt;/Inapp&gt; which would pop it and suffocate her </t>
-  </si>
-  <si>
-    <t>What the &lt;Inapp&gt;fuck&lt;/Inapp&gt; . How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When she 'll take it out , it 's going to taste like &lt;Inapp&gt;shit&lt;/Inapp&gt; </t>
-  </si>
-  <si>
-    <t>( be  real  fucking  sharp  swords ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It used to be real fucking sharp swords </t>
-  </si>
-  <si>
-    <t>( Today  in  bullshit  town ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today in &lt;Inapp&gt;bullshit&lt;/Inapp&gt; town </t>
-  </si>
-  <si>
-    <t>( you  filthy  bastard ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you filthy &lt;Inapp&gt;bastard&lt;/Inapp&gt; ! </t>
-  </si>
-  <si>
-    <t>( try  that  shit ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I SO want to try that &lt;Inapp&gt;shit&lt;/Inapp&gt; </t>
-  </si>
-  <si>
-    <t>( any  woman  's  vagina ) is Inappropriate</t>
-  </si>
-  <si>
-    <t>( I  'm  gay  I ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So if I say I 'm &lt;Inapp&gt;gay&lt;/Inapp&gt; I can touch any woman 's &lt;Inapp&gt;vagina&lt;/Inapp&gt; ? </t>
-  </si>
-  <si>
-    <t>( Homosexuals  getting  more  pussy  than  us  ... ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Inapp&gt;Homosexuals&lt;/Inapp&gt; getting more &lt;Inapp&gt;pussy&lt;/Inapp&gt; than us ... </t>
-  </si>
-  <si>
-    <t>( get  to  touch  pussies ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">also kids , thats how u get to touch pussies </t>
-  </si>
-  <si>
-    <t>( this  is  so  fucking  stupid ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is so &lt;Inapp&gt;fucking&lt;/Inapp&gt; &lt;Inapp&gt;stupid&lt;/Inapp&gt; </t>
-  </si>
-  <si>
-    <t>( Hope  her  vagina  is  nice ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hope her &lt;Inapp&gt;vagina&lt;/Inapp&gt; is nice . </t>
-  </si>
-  <si>
-    <t>( touch  urs ) is not Inappropriate</t>
-  </si>
-  <si>
-    <t>( i  am  gay  can ) is Inappropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i am &lt;Inapp&gt;gay&lt;/Inapp&gt; can i touch urs </t>
   </si>
 </sst>
 </file>
@@ -3228,7 +3093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3480,83 +3345,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3631,7 +3425,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3652,6 +3506,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3661,11 +3524,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3676,128 +3551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6552,16 +6305,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E760"/>
+  <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C616" sqref="C616"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D503" sqref="D503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" style="37" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" style="57" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="97.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -6570,7 +6323,7 @@
       <c r="A1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="55" t="s">
         <v>601</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6581,29 +6334,29 @@
       <c r="A2" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="36"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="56" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="56" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="56" t="s">
         <v>273</v>
       </c>
       <c r="D6">
@@ -6611,16 +6364,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="56" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="56" t="s">
         <v>275</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6631,8 +6384,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="56" t="s">
         <v>276</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -6640,17 +6393,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="15" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="56" t="s">
         <v>277</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6661,8 +6414,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="56" t="s">
         <v>278</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -6670,17 +6423,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="26" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="56" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -6691,8 +6444,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="56" t="s">
         <v>280</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -6700,17 +6453,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="26" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="56" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -6721,17 +6474,17 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="26" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="56" t="s">
         <v>282</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -6742,17 +6495,17 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="26" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="56" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -6763,19 +6516,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="52" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="56" t="s">
         <v>285</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -6786,17 +6539,17 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="26" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="56" t="s">
         <v>286</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -6807,17 +6560,17 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="26" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="56" t="s">
         <v>287</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -6828,8 +6581,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="56" t="s">
         <v>288</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -6837,17 +6590,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="15" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="56" t="s">
         <v>289</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6858,17 +6611,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="26" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="56" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -6879,17 +6632,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="26" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="56" t="s">
         <v>291</v>
       </c>
       <c r="D34">
@@ -6897,22 +6650,22 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="56" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="56" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="56" t="s">
         <v>294</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -6923,17 +6676,17 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="26" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="56" t="s">
         <v>295</v>
       </c>
       <c r="D39">
@@ -6941,22 +6694,22 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="56" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="56" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="56" t="s">
         <v>298</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -6967,33 +6720,33 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="51" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="56"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="56" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="56" t="s">
         <v>299</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -7004,24 +6757,24 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="27" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="26" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="56" t="s">
         <v>300</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -7032,8 +6785,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="36" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="56" t="s">
         <v>301</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -7041,14 +6794,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="26" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="25" t="s">
@@ -7059,16 +6812,16 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
+      <c r="A54" s="49"/>
       <c r="C54" s="26" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="56" t="s">
         <v>302</v>
       </c>
       <c r="C55" s="25" t="s">
@@ -7079,17 +6832,17 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="26" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="56" t="s">
         <v>303</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -7100,8 +6853,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="36" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="56" t="s">
         <v>304</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -7109,8 +6862,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="36" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="56" t="s">
         <v>305</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -7118,17 +6871,17 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="26" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="56" t="s">
         <v>306</v>
       </c>
       <c r="D61">
@@ -7136,22 +6889,22 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="56" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="36" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="56" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="56" t="s">
         <v>309</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -7162,17 +6915,17 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="26" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="56" t="s">
         <v>310</v>
       </c>
       <c r="C66" s="25" t="s">
@@ -7183,17 +6936,17 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="26" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="56" t="s">
         <v>311</v>
       </c>
       <c r="C68" s="25" t="s">
@@ -7204,17 +6957,17 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="26" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="56" t="s">
         <v>312</v>
       </c>
       <c r="C70" s="25" t="s">
@@ -7225,23 +6978,23 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="26" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="56" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="36" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="56" t="s">
         <v>314</v>
       </c>
       <c r="D73">
@@ -7249,28 +7002,28 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="36" t="s">
+      <c r="A74" s="39"/>
+      <c r="B74" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="36" t="s">
+      <c r="A75" s="39"/>
+      <c r="B75" s="56" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="36" t="s">
+      <c r="A76" s="39"/>
+      <c r="B76" s="56" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="56" t="s">
         <v>317</v>
       </c>
       <c r="C77" s="25" t="s">
@@ -7281,17 +7034,17 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="26" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="56" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -7302,17 +7055,17 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="26" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="56" t="s">
         <v>319</v>
       </c>
       <c r="C81" s="25" t="s">
@@ -7323,8 +7076,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="36" t="s">
+      <c r="A82" s="49"/>
+      <c r="B82" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -7332,10 +7085,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="50" t="s">
+      <c r="A83" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="56" t="s">
         <v>320</v>
       </c>
       <c r="C83" s="25" t="s">
@@ -7346,17 +7099,17 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="26" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="56" t="s">
         <v>321</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -7367,17 +7120,17 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="26" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="56" t="s">
         <v>322</v>
       </c>
       <c r="C87" s="25" t="s">
@@ -7388,8 +7141,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="36" t="s">
+      <c r="A88" s="49"/>
+      <c r="B88" s="56" t="s">
         <v>323</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -7397,10 +7150,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="50" t="s">
+      <c r="A89" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="56" t="s">
         <v>324</v>
       </c>
       <c r="C89" s="25" t="s">
@@ -7411,8 +7164,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="36" t="s">
+      <c r="A90" s="49"/>
+      <c r="B90" s="56" t="s">
         <v>325</v>
       </c>
       <c r="C90" s="27" t="s">
@@ -7420,17 +7173,17 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="15" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="50" t="s">
+      <c r="A92" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="56" t="s">
         <v>326</v>
       </c>
       <c r="C92" s="25" t="s">
@@ -7441,17 +7194,17 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="26" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="56" t="s">
         <v>327</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -7462,8 +7215,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="B95" s="36" t="s">
+      <c r="A95" s="49"/>
+      <c r="B95" s="56" t="s">
         <v>328</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -7471,17 +7224,17 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="26" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="56" t="s">
         <v>329</v>
       </c>
       <c r="C97" s="25" t="s">
@@ -7492,8 +7245,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="36" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="56" t="s">
         <v>330</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -7501,17 +7254,17 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="15" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="50" t="s">
+      <c r="A100" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="56" t="s">
         <v>331</v>
       </c>
       <c r="C100" s="25" t="s">
@@ -7522,8 +7275,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
-      <c r="B101" s="36" t="s">
+      <c r="A101" s="49"/>
+      <c r="B101" s="56" t="s">
         <v>332</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -7531,17 +7284,17 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="49"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="56" t="s">
         <v>333</v>
       </c>
       <c r="C103" s="25" t="s">
@@ -7552,8 +7305,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
-      <c r="B104" s="36" t="s">
+      <c r="A104" s="49"/>
+      <c r="B104" s="56" t="s">
         <v>334</v>
       </c>
       <c r="C104" s="27" t="s">
@@ -7561,17 +7314,17 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="26" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="56" t="s">
         <v>335</v>
       </c>
       <c r="D106">
@@ -7579,8 +7332,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
-      <c r="B107" s="36"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="2" t="s">
         <v>765</v>
       </c>
@@ -7589,7 +7342,7 @@
       <c r="A108" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="56" t="s">
         <v>284</v>
       </c>
       <c r="D108">
@@ -7600,7 +7353,7 @@
       <c r="A109" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="56" t="s">
         <v>336</v>
       </c>
       <c r="D109">
@@ -7608,10 +7361,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="56" t="s">
         <v>337</v>
       </c>
       <c r="C110" s="25" t="s">
@@ -7622,24 +7375,24 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="36"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="27" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="36"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="26" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="56" t="s">
         <v>338</v>
       </c>
       <c r="C113" s="25" t="s">
@@ -7650,17 +7403,17 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="50"/>
-      <c r="B114" s="36"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="26" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="56" t="s">
         <v>339</v>
       </c>
       <c r="C115" s="25" t="s">
@@ -7671,17 +7424,17 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="50"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="49"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="15" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="50" t="s">
+      <c r="A117" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="56" t="s">
         <v>340</v>
       </c>
       <c r="C117" s="25" t="s">
@@ -7692,17 +7445,17 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
-      <c r="B118" s="36"/>
+      <c r="A118" s="49"/>
+      <c r="B118" s="56"/>
       <c r="C118" s="15" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="57" t="s">
+      <c r="A119" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="56" t="s">
         <v>341</v>
       </c>
       <c r="C119" s="25" t="s">
@@ -7713,8 +7466,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
-      <c r="B120" s="36" t="s">
+      <c r="A120" s="39"/>
+      <c r="B120" s="56" t="s">
         <v>342</v>
       </c>
       <c r="C120" s="26" t="s">
@@ -7722,10 +7475,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="56" t="s">
         <v>343</v>
       </c>
       <c r="C121" s="25" t="s">
@@ -7736,17 +7489,17 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
-      <c r="B122" s="36"/>
+      <c r="A122" s="49"/>
+      <c r="B122" s="56"/>
       <c r="C122" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="50" t="s">
+      <c r="A123" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="56" t="s">
         <v>344</v>
       </c>
       <c r="C123" s="25" t="s">
@@ -7757,17 +7510,17 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="50"/>
-      <c r="B124" s="36"/>
+      <c r="A124" s="49"/>
+      <c r="B124" s="56"/>
       <c r="C124" s="26" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="56" t="s">
         <v>345</v>
       </c>
       <c r="D125">
@@ -7775,22 +7528,22 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
-      <c r="B126" s="36" t="s">
+      <c r="A126" s="39"/>
+      <c r="B126" s="56" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="57"/>
-      <c r="B127" s="36" t="s">
+      <c r="A127" s="39"/>
+      <c r="B127" s="56" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="50" t="s">
+      <c r="A128" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="56" t="s">
         <v>348</v>
       </c>
       <c r="C128" s="25" t="s">
@@ -7801,8 +7554,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="36" t="s">
+      <c r="A129" s="49"/>
+      <c r="B129" s="56" t="s">
         <v>349</v>
       </c>
       <c r="C129" s="27" t="s">
@@ -7810,17 +7563,17 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="49"/>
+      <c r="B130" s="56"/>
       <c r="C130" s="26" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="56" t="s">
         <v>350</v>
       </c>
       <c r="C131" s="25" t="s">
@@ -7831,8 +7584,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
-      <c r="B132" s="36" t="s">
+      <c r="A132" s="49"/>
+      <c r="B132" s="56" t="s">
         <v>351</v>
       </c>
       <c r="C132" s="27" t="s">
@@ -7840,8 +7593,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
-      <c r="B133" s="36" t="s">
+      <c r="A133" s="49"/>
+      <c r="B133" s="56" t="s">
         <v>352</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -7849,17 +7602,17 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
-      <c r="B134" s="36"/>
+      <c r="A134" s="49"/>
+      <c r="B134" s="56"/>
       <c r="C134" s="26" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="57" t="s">
+      <c r="A135" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="36" t="s">
+      <c r="B135" s="56" t="s">
         <v>353</v>
       </c>
       <c r="D135">
@@ -7867,22 +7620,22 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="57"/>
-      <c r="B136" s="36" t="s">
+      <c r="A136" s="39"/>
+      <c r="B136" s="56" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="57"/>
-      <c r="B137" s="36" t="s">
+      <c r="A137" s="39"/>
+      <c r="B137" s="56" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="57" t="s">
+      <c r="A138" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B138" s="36" t="s">
+      <c r="B138" s="56" t="s">
         <v>356</v>
       </c>
       <c r="C138" s="25" t="s">
@@ -7893,8 +7646,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="57"/>
-      <c r="B139" s="36" t="s">
+      <c r="A139" s="39"/>
+      <c r="B139" s="56" t="s">
         <v>357</v>
       </c>
       <c r="C139" s="27" t="s">
@@ -7902,8 +7655,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="57"/>
-      <c r="B140" s="36" t="s">
+      <c r="A140" s="39"/>
+      <c r="B140" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C140" s="15" t="s">
@@ -7911,10 +7664,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="57" t="s">
+      <c r="A141" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B141" s="36" t="s">
+      <c r="B141" s="56" t="s">
         <v>358</v>
       </c>
       <c r="C141" s="25" t="s">
@@ -7925,8 +7678,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="57"/>
-      <c r="B142" s="36" t="s">
+      <c r="A142" s="39"/>
+      <c r="B142" s="56" t="s">
         <v>359</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -7934,8 +7687,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="57"/>
-      <c r="B143" s="36" t="s">
+      <c r="A143" s="39"/>
+      <c r="B143" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -7943,10 +7696,10 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="50" t="s">
+      <c r="A144" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="56" t="s">
         <v>360</v>
       </c>
       <c r="C144" s="25" t="s">
@@ -7957,8 +7710,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="50"/>
-      <c r="B145" s="36" t="s">
+      <c r="A145" s="49"/>
+      <c r="B145" s="56" t="s">
         <v>361</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -7966,17 +7719,17 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="50"/>
-      <c r="B146" s="36"/>
+      <c r="A146" s="49"/>
+      <c r="B146" s="56"/>
       <c r="C146" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="50" t="s">
+      <c r="A147" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="56" t="s">
         <v>362</v>
       </c>
       <c r="C147" s="25" t="s">
@@ -7987,8 +7740,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="50"/>
-      <c r="B148" s="36" t="s">
+      <c r="A148" s="49"/>
+      <c r="B148" s="56" t="s">
         <v>363</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -7996,17 +7749,17 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="50"/>
-      <c r="B149" s="36"/>
+      <c r="A149" s="49"/>
+      <c r="B149" s="56"/>
       <c r="C149" s="15" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="50" t="s">
+      <c r="A150" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B150" s="36" t="s">
+      <c r="B150" s="56" t="s">
         <v>364</v>
       </c>
       <c r="C150" s="25" t="s">
@@ -8017,17 +7770,17 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="50"/>
-      <c r="B151" s="36"/>
+      <c r="A151" s="49"/>
+      <c r="B151" s="56"/>
       <c r="C151" s="26" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="50" t="s">
+      <c r="A152" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="36" t="s">
+      <c r="B152" s="56" t="s">
         <v>365</v>
       </c>
       <c r="C152" s="25" t="s">
@@ -8038,17 +7791,17 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="50"/>
-      <c r="B153" s="36"/>
+      <c r="A153" s="49"/>
+      <c r="B153" s="56"/>
       <c r="C153" s="26" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="57" t="s">
+      <c r="A154" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B154" s="36"/>
+      <c r="B154" s="56"/>
       <c r="C154" s="25" t="s">
         <v>366</v>
       </c>
@@ -8057,8 +7810,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="57"/>
-      <c r="B155" s="36" t="s">
+      <c r="A155" s="39"/>
+      <c r="B155" s="56" t="s">
         <v>366</v>
       </c>
       <c r="C155" s="26" t="s">
@@ -8066,10 +7819,10 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="50" t="s">
+      <c r="A156" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="56" t="s">
         <v>367</v>
       </c>
       <c r="C156" s="25" t="s">
@@ -8080,17 +7833,17 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="50"/>
-      <c r="B157" s="36"/>
+      <c r="A157" s="49"/>
+      <c r="B157" s="56"/>
       <c r="C157" s="26" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="50" t="s">
+      <c r="A158" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B158" s="56" t="s">
         <v>368</v>
       </c>
       <c r="C158" s="25" t="s">
@@ -8101,8 +7854,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="50"/>
-      <c r="B159" s="36" t="s">
+      <c r="A159" s="49"/>
+      <c r="B159" s="56" t="s">
         <v>369</v>
       </c>
       <c r="C159" s="26" t="s">
@@ -8110,10 +7863,10 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="57" t="s">
+      <c r="A160" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="B160" s="56" t="s">
         <v>371</v>
       </c>
       <c r="C160" s="25" t="s">
@@ -8124,8 +7877,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="57"/>
-      <c r="B161" s="36" t="s">
+      <c r="A161" s="39"/>
+      <c r="B161" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C161" s="26" t="s">
@@ -8133,10 +7886,10 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="50" t="s">
+      <c r="A162" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="36" t="s">
+      <c r="B162" s="56" t="s">
         <v>372</v>
       </c>
       <c r="C162" s="25" t="s">
@@ -8147,17 +7900,17 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="50"/>
-      <c r="B163" s="36"/>
+      <c r="A163" s="49"/>
+      <c r="B163" s="56"/>
       <c r="C163" s="15" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="50" t="s">
+      <c r="A164" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="56" t="s">
         <v>373</v>
       </c>
       <c r="C164" s="25" t="s">
@@ -8168,17 +7921,17 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="50"/>
-      <c r="B165" s="36"/>
+      <c r="A165" s="49"/>
+      <c r="B165" s="56"/>
       <c r="C165" s="26" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="50" t="s">
+      <c r="A166" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B166" s="36" t="s">
+      <c r="B166" s="56" t="s">
         <v>374</v>
       </c>
       <c r="C166" s="25" t="s">
@@ -8189,17 +7942,17 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="50"/>
-      <c r="B167" s="36"/>
+      <c r="A167" s="49"/>
+      <c r="B167" s="56"/>
       <c r="C167" s="26" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="50" t="s">
+      <c r="A168" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="56" t="s">
         <v>375</v>
       </c>
       <c r="C168" s="25" t="s">
@@ -8210,17 +7963,17 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="50"/>
-      <c r="B169" s="36"/>
+      <c r="A169" s="49"/>
+      <c r="B169" s="56"/>
       <c r="C169" s="26" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="50" t="s">
+      <c r="A170" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B170" s="36" t="s">
+      <c r="B170" s="56" t="s">
         <v>376</v>
       </c>
       <c r="C170" s="25" t="s">
@@ -8231,8 +7984,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="50"/>
-      <c r="B171" s="36" t="s">
+      <c r="A171" s="49"/>
+      <c r="B171" s="56" t="s">
         <v>377</v>
       </c>
       <c r="C171" s="27" t="s">
@@ -8240,8 +7993,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="50"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="56"/>
       <c r="C172" s="26" t="s">
         <v>922</v>
       </c>
@@ -8250,17 +8003,17 @@
       <c r="A173" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B173" s="36"/>
+      <c r="B173" s="56"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="24"/>
-      <c r="B174" s="36"/>
+      <c r="B174" s="56"/>
     </row>
     <row r="175" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="57" t="s">
+      <c r="A175" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B175" s="36" t="s">
+      <c r="B175" s="56" t="s">
         <v>378</v>
       </c>
       <c r="C175" s="25" t="s">
@@ -8271,8 +8024,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="57"/>
-      <c r="B176" s="36" t="s">
+      <c r="A176" s="39"/>
+      <c r="B176" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C176" s="15" t="s">
@@ -8280,10 +8033,10 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B177" s="36" t="s">
+      <c r="B177" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C177" s="25" t="s">
@@ -8294,17 +8047,17 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="50"/>
-      <c r="B178" s="36"/>
+      <c r="A178" s="49"/>
+      <c r="B178" s="56"/>
       <c r="C178" s="26" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="47" t="s">
+      <c r="A179" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B179" s="36" t="s">
+      <c r="B179" s="56" t="s">
         <v>379</v>
       </c>
       <c r="C179" s="25" t="s">
@@ -8315,8 +8068,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
-      <c r="B180" s="36" t="s">
+      <c r="A180" s="50"/>
+      <c r="B180" s="56" t="s">
         <v>380</v>
       </c>
       <c r="C180" s="27" t="s">
@@ -8324,17 +8077,17 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="56"/>
       <c r="C181" s="26" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="47" t="s">
+      <c r="A182" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B182" s="36" t="s">
+      <c r="B182" s="56" t="s">
         <v>381</v>
       </c>
       <c r="C182" s="25" t="s">
@@ -8345,17 +8098,17 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
-      <c r="B183" s="36"/>
+      <c r="A183" s="31"/>
+      <c r="B183" s="56"/>
       <c r="C183" s="26" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="47" t="s">
+      <c r="A184" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="56" t="s">
         <v>382</v>
       </c>
       <c r="C184" s="25" t="s">
@@ -8366,17 +8119,17 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="36"/>
+      <c r="A185" s="31"/>
+      <c r="B185" s="56"/>
       <c r="C185" s="26" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="57" t="s">
+      <c r="A186" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B186" s="36" t="s">
+      <c r="B186" s="56" t="s">
         <v>383</v>
       </c>
       <c r="D186">
@@ -8384,19 +8137,19 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="57"/>
-      <c r="B187" s="36" t="s">
+      <c r="A187" s="39"/>
+      <c r="B187" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="C187" s="46" t="s">
+      <c r="C187" s="73" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="47" t="s">
+      <c r="A188" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B188" s="36" t="s">
+      <c r="B188" s="56" t="s">
         <v>384</v>
       </c>
       <c r="C188" s="25" t="s">
@@ -8407,17 +8160,17 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="36"/>
+      <c r="A189" s="31"/>
+      <c r="B189" s="56"/>
       <c r="C189" s="26" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="47" t="s">
+      <c r="A190" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B190" s="36" t="s">
+      <c r="B190" s="56" t="s">
         <v>385</v>
       </c>
       <c r="C190" s="25" t="s">
@@ -8428,8 +8181,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
-      <c r="B191" s="36" t="s">
+      <c r="A191" s="50"/>
+      <c r="B191" s="56" t="s">
         <v>386</v>
       </c>
       <c r="C191" s="27" t="s">
@@ -8437,17 +8190,17 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
-      <c r="B192" s="36"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="56"/>
       <c r="C192" s="15" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="47" t="s">
+      <c r="A193" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B193" s="36" t="s">
+      <c r="B193" s="56" t="s">
         <v>387</v>
       </c>
       <c r="C193" s="25" t="s">
@@ -8455,8 +8208,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
-      <c r="B194" s="36" t="s">
+      <c r="A194" s="50"/>
+      <c r="B194" s="56" t="s">
         <v>388</v>
       </c>
       <c r="C194" s="27" t="s">
@@ -8464,8 +8217,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="49"/>
-      <c r="B195" s="36" t="s">
+      <c r="A195" s="50"/>
+      <c r="B195" s="56" t="s">
         <v>389</v>
       </c>
       <c r="C195" s="27" t="s">
@@ -8476,8 +8229,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="49"/>
-      <c r="B196" s="36" t="s">
+      <c r="A196" s="50"/>
+      <c r="B196" s="56" t="s">
         <v>390</v>
       </c>
       <c r="C196" s="27" t="s">
@@ -8485,17 +8238,17 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
-      <c r="B197" s="36"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="56"/>
       <c r="C197" s="26" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="57" t="s">
+      <c r="A198" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B198" s="36" t="s">
+      <c r="B198" s="56" t="s">
         <v>391</v>
       </c>
       <c r="C198" s="25" t="s">
@@ -8506,8 +8259,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="57"/>
-      <c r="B199" s="36" t="s">
+      <c r="A199" s="39"/>
+      <c r="B199" s="56" t="s">
         <v>392</v>
       </c>
       <c r="C199" s="27" t="s">
@@ -8515,8 +8268,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="57"/>
-      <c r="B200" s="36" t="s">
+      <c r="A200" s="39"/>
+      <c r="B200" s="56" t="s">
         <v>393</v>
       </c>
       <c r="C200" s="26" t="s">
@@ -8524,10 +8277,10 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="47" t="s">
+      <c r="A201" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B201" s="36" t="s">
+      <c r="B201" s="56" t="s">
         <v>394</v>
       </c>
       <c r="C201" s="25" t="s">
@@ -8538,17 +8291,17 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="36"/>
+      <c r="A202" s="31"/>
+      <c r="B202" s="56"/>
       <c r="C202" s="26" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="47" t="s">
+      <c r="A203" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B203" s="36" t="s">
+      <c r="B203" s="56" t="s">
         <v>395</v>
       </c>
       <c r="C203" s="25" t="s">
@@ -8559,17 +8312,17 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
-      <c r="B204" s="36"/>
+      <c r="A204" s="31"/>
+      <c r="B204" s="56"/>
       <c r="C204" s="26" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="47" t="s">
+      <c r="A205" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B205" s="36" t="s">
+      <c r="B205" s="56" t="s">
         <v>396</v>
       </c>
       <c r="C205" s="25" t="s">
@@ -8580,8 +8333,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="49"/>
-      <c r="B206" s="36" t="s">
+      <c r="A206" s="50"/>
+      <c r="B206" s="56" t="s">
         <v>397</v>
       </c>
       <c r="C206" s="27" t="s">
@@ -8589,8 +8342,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="48"/>
-      <c r="B207" s="36"/>
+      <c r="A207" s="31"/>
+      <c r="B207" s="56"/>
       <c r="C207" s="15" t="s">
         <v>986</v>
       </c>
@@ -8599,10 +8352,10 @@
       </c>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="47" t="s">
+      <c r="A208" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B208" s="36" t="s">
+      <c r="B208" s="56" t="s">
         <v>398</v>
       </c>
       <c r="C208" s="25" t="s">
@@ -8613,8 +8366,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="49"/>
-      <c r="B209" s="36" t="s">
+      <c r="A209" s="50"/>
+      <c r="B209" s="56" t="s">
         <v>399</v>
       </c>
       <c r="C209" s="27" t="s">
@@ -8622,17 +8375,17 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="48"/>
-      <c r="B210" s="36"/>
+      <c r="A210" s="31"/>
+      <c r="B210" s="56"/>
       <c r="C210" s="15" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="47" t="s">
+      <c r="A211" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B211" s="36" t="s">
+      <c r="B211" s="56" t="s">
         <v>400</v>
       </c>
       <c r="C211" s="25" t="s">
@@ -8643,8 +8396,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
-      <c r="B212" s="36" t="s">
+      <c r="A212" s="50"/>
+      <c r="B212" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C212" s="27" t="s">
@@ -8652,8 +8405,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="48"/>
-      <c r="B213" s="36"/>
+      <c r="A213" s="31"/>
+      <c r="B213" s="56"/>
       <c r="C213" s="26" t="s">
         <v>989</v>
       </c>
@@ -8662,17 +8415,17 @@
       <c r="A214" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B214" s="36"/>
+      <c r="B214" s="56"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="24"/>
-      <c r="B215" s="36"/>
+      <c r="B215" s="56"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="47" t="s">
+      <c r="A216" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B216" s="36" t="s">
+      <c r="B216" s="56" t="s">
         <v>402</v>
       </c>
       <c r="C216" s="25" t="s">
@@ -8683,8 +8436,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="49"/>
-      <c r="B217" s="36" t="s">
+      <c r="A217" s="50"/>
+      <c r="B217" s="56" t="s">
         <v>403</v>
       </c>
       <c r="C217" s="27" t="s">
@@ -8692,17 +8445,17 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="48"/>
-      <c r="B218" s="36"/>
+      <c r="A218" s="31"/>
+      <c r="B218" s="56"/>
       <c r="C218" s="26" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="47" t="s">
+      <c r="A219" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B219" s="36" t="s">
+      <c r="B219" s="56" t="s">
         <v>404</v>
       </c>
       <c r="C219" s="25" t="s">
@@ -8713,8 +8466,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="49"/>
-      <c r="B220" s="36" t="s">
+      <c r="A220" s="50"/>
+      <c r="B220" s="56" t="s">
         <v>405</v>
       </c>
       <c r="C220" s="27" t="s">
@@ -8722,17 +8475,17 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="48"/>
-      <c r="B221" s="36"/>
+      <c r="A221" s="31"/>
+      <c r="B221" s="56"/>
       <c r="C221" s="15" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="57" t="s">
+      <c r="A222" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B222" s="36" t="s">
+      <c r="B222" s="56" t="s">
         <v>406</v>
       </c>
       <c r="D222">
@@ -8740,48 +8493,48 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="57"/>
-      <c r="B223" s="36" t="s">
+      <c r="A223" s="39"/>
+      <c r="B223" s="56" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="57"/>
-      <c r="B224" s="36" t="s">
+      <c r="A224" s="39"/>
+      <c r="B224" s="56" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
-      <c r="B225" s="36" t="s">
+      <c r="A225" s="39"/>
+      <c r="B225" s="56" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="57"/>
-      <c r="B226" s="36" t="s">
+      <c r="A226" s="39"/>
+      <c r="B226" s="56" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="24"/>
-      <c r="B227" s="36"/>
+      <c r="B227" s="56"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B228" s="36"/>
+      <c r="B228" s="56"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="24"/>
-      <c r="B229" s="36"/>
+      <c r="B229" s="56"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="57" t="s">
+      <c r="A230" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B230" s="36" t="s">
+      <c r="B230" s="56" t="s">
         <v>411</v>
       </c>
       <c r="D230">
@@ -8789,22 +8542,22 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="57"/>
-      <c r="B231" s="36" t="s">
+      <c r="A231" s="39"/>
+      <c r="B231" s="56" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="57" t="s">
+      <c r="A232" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B232" s="36" t="s">
+      <c r="B232" s="56" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="57"/>
-      <c r="B233" s="36" t="s">
+      <c r="A233" s="39"/>
+      <c r="B233" s="56" t="s">
         <v>414</v>
       </c>
       <c r="D233">
@@ -8812,10 +8565,10 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="47" t="s">
+      <c r="A234" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B234" s="36" t="s">
+      <c r="B234" s="56" t="s">
         <v>415</v>
       </c>
       <c r="C234" s="25" t="s">
@@ -8826,17 +8579,17 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="48"/>
-      <c r="B235" s="36"/>
+      <c r="A235" s="31"/>
+      <c r="B235" s="56"/>
       <c r="C235" s="26" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="47" t="s">
+      <c r="A236" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B236" s="36" t="s">
+      <c r="B236" s="56" t="s">
         <v>284</v>
       </c>
       <c r="D236">
@@ -8844,23 +8597,23 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="48"/>
-      <c r="B237" s="36"/>
+      <c r="A237" s="31"/>
+      <c r="B237" s="56"/>
       <c r="C237" s="2" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="57" t="s">
+      <c r="A238" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B238" s="36" t="s">
+      <c r="B238" s="56" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="57"/>
-      <c r="B239" s="36" t="s">
+      <c r="A239" s="39"/>
+      <c r="B239" s="56" t="s">
         <v>417</v>
       </c>
       <c r="D239">
@@ -8868,10 +8621,10 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="47" t="s">
+      <c r="A240" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B240" s="36" t="s">
+      <c r="B240" s="56" t="s">
         <v>418</v>
       </c>
       <c r="C240" s="25" t="s">
@@ -8882,17 +8635,17 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="48"/>
-      <c r="B241" s="36"/>
+      <c r="A241" s="31"/>
+      <c r="B241" s="56"/>
       <c r="C241" s="26" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="47" t="s">
+      <c r="A242" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B242" s="36" t="s">
+      <c r="B242" s="56" t="s">
         <v>419</v>
       </c>
       <c r="C242" s="25" t="s">
@@ -8903,8 +8656,8 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="48"/>
-      <c r="B243" s="36"/>
+      <c r="A243" s="31"/>
+      <c r="B243" s="56"/>
       <c r="C243" s="26" t="s">
         <v>997</v>
       </c>
@@ -8913,10 +8666,10 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="57" t="s">
+      <c r="A244" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B244" s="36" t="s">
+      <c r="B244" s="56" t="s">
         <v>420</v>
       </c>
       <c r="D244">
@@ -8924,22 +8677,22 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="57"/>
-      <c r="B245" s="36" t="s">
+      <c r="A245" s="39"/>
+      <c r="B245" s="56" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="57"/>
-      <c r="B246" s="36" t="s">
+      <c r="A246" s="39"/>
+      <c r="B246" s="56" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="57" t="s">
+      <c r="A247" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B247" s="36" t="s">
+      <c r="B247" s="56" t="s">
         <v>423</v>
       </c>
       <c r="D247">
@@ -8947,16 +8700,16 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="57"/>
-      <c r="B248" s="36" t="s">
+      <c r="A248" s="39"/>
+      <c r="B248" s="56" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="57" t="s">
+      <c r="A249" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B249" s="36" t="s">
+      <c r="B249" s="56" t="s">
         <v>425</v>
       </c>
       <c r="D249">
@@ -8964,8 +8717,8 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="57"/>
-      <c r="B250" s="36" t="s">
+      <c r="A250" s="39"/>
+      <c r="B250" s="56" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8973,7 +8726,7 @@
       <c r="A251" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B251" s="36" t="s">
+      <c r="B251" s="56" t="s">
         <v>427</v>
       </c>
       <c r="D251">
@@ -8984,7 +8737,7 @@
       <c r="A252" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B252" s="36" t="s">
+      <c r="B252" s="56" t="s">
         <v>428</v>
       </c>
       <c r="D252">
@@ -8992,10 +8745,10 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="57" t="s">
+      <c r="A253" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B253" s="36" t="s">
+      <c r="B253" s="56" t="s">
         <v>429</v>
       </c>
       <c r="D253">
@@ -9003,16 +8756,16 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="57"/>
-      <c r="B254" s="36" t="s">
+      <c r="A254" s="39"/>
+      <c r="B254" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="57" t="s">
+      <c r="A255" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B255" s="36" t="s">
+      <c r="B255" s="56" t="s">
         <v>430</v>
       </c>
       <c r="D255">
@@ -9020,8 +8773,8 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="57"/>
-      <c r="B256" s="36" t="s">
+      <c r="A256" s="39"/>
+      <c r="B256" s="56" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9029,7 +8782,7 @@
       <c r="A257" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B257" s="36" t="s">
+      <c r="B257" s="56" t="s">
         <v>431</v>
       </c>
       <c r="D257">
@@ -9037,10 +8790,10 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="57" t="s">
+      <c r="A258" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B258" s="36" t="s">
+      <c r="B258" s="56" t="s">
         <v>432</v>
       </c>
       <c r="D258">
@@ -9048,16 +8801,16 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="57"/>
-      <c r="B259" s="36" t="s">
+      <c r="A259" s="39"/>
+      <c r="B259" s="56" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="57" t="s">
+      <c r="A260" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B260" s="36" t="s">
+      <c r="B260" s="56" t="s">
         <v>434</v>
       </c>
       <c r="D260">
@@ -9065,20 +8818,20 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="57"/>
-      <c r="B261" s="36" t="s">
+      <c r="A261" s="39"/>
+      <c r="B261" s="56" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="57"/>
-      <c r="B262" s="36" t="s">
+      <c r="A262" s="39"/>
+      <c r="B262" s="56" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="57"/>
-      <c r="B263" s="36" t="s">
+      <c r="A263" s="39"/>
+      <c r="B263" s="56" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9086,7 +8839,7 @@
       <c r="A264" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B264" s="36" t="s">
+      <c r="B264" s="56" t="s">
         <v>438</v>
       </c>
       <c r="D264">
@@ -9094,10 +8847,10 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="57" t="s">
+      <c r="A265" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B265" s="36" t="s">
+      <c r="B265" s="56" t="s">
         <v>439</v>
       </c>
       <c r="D265">
@@ -9105,14 +8858,14 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="57"/>
-      <c r="B266" s="36" t="s">
+      <c r="A266" s="39"/>
+      <c r="B266" s="56" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="57"/>
-      <c r="B267" s="36" t="s">
+      <c r="A267" s="39"/>
+      <c r="B267" s="56" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9120,7 +8873,7 @@
       <c r="A268" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B268" s="36" t="s">
+      <c r="B268" s="56" t="s">
         <v>440</v>
       </c>
       <c r="D268">
@@ -9131,7 +8884,7 @@
       <c r="A269" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B269" s="36" t="s">
+      <c r="B269" s="56" t="s">
         <v>441</v>
       </c>
       <c r="D269">
@@ -9139,10 +8892,10 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="57" t="s">
+      <c r="A270" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B270" s="36" t="s">
+      <c r="B270" s="56" t="s">
         <v>442</v>
       </c>
       <c r="D270">
@@ -9150,14 +8903,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="57"/>
-      <c r="B271" s="36" t="s">
+      <c r="A271" s="39"/>
+      <c r="B271" s="56" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="57"/>
-      <c r="B272" s="36" t="s">
+      <c r="A272" s="39"/>
+      <c r="B272" s="56" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9165,7 +8918,7 @@
       <c r="A273" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B273" s="36" t="s">
+      <c r="B273" s="56" t="s">
         <v>445</v>
       </c>
       <c r="D273">
@@ -9174,13 +8927,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="24"/>
-      <c r="B274" s="36"/>
+      <c r="B274" s="56"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B275" s="36" t="s">
+      <c r="B275" s="56" t="s">
         <v>446</v>
       </c>
       <c r="D275">
@@ -9191,7 +8944,7 @@
       <c r="A276" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B276" s="36" t="s">
+      <c r="B276" s="56" t="s">
         <v>447</v>
       </c>
       <c r="D276">
@@ -9199,10 +8952,10 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="57" t="s">
+      <c r="A277" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B277" s="36" t="s">
+      <c r="B277" s="56" t="s">
         <v>448</v>
       </c>
       <c r="D277">
@@ -9210,8 +8963,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="57"/>
-      <c r="B278" s="36" t="s">
+      <c r="A278" s="39"/>
+      <c r="B278" s="56" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9219,16 +8972,16 @@
       <c r="A279" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B279" s="36"/>
+      <c r="B279" s="56"/>
       <c r="D279">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="57" t="s">
+      <c r="A280" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B280" s="36" t="s">
+      <c r="B280" s="56" t="s">
         <v>450</v>
       </c>
       <c r="D280">
@@ -9236,16 +8989,16 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="57"/>
-      <c r="B281" s="36" t="s">
+      <c r="A281" s="39"/>
+      <c r="B281" s="56" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="57" t="s">
+      <c r="A282" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B282" s="36" t="s">
+      <c r="B282" s="56" t="s">
         <v>452</v>
       </c>
       <c r="D282">
@@ -9253,8 +9006,8 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="57"/>
-      <c r="B283" s="36" t="s">
+      <c r="A283" s="39"/>
+      <c r="B283" s="56" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9262,7 +9015,7 @@
       <c r="A284" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B284" s="36" t="s">
+      <c r="B284" s="56" t="s">
         <v>454</v>
       </c>
       <c r="D284">
@@ -9273,7 +9026,7 @@
       <c r="A285" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B285" s="36" t="s">
+      <c r="B285" s="56" t="s">
         <v>455</v>
       </c>
       <c r="D285">
@@ -9284,7 +9037,7 @@
       <c r="A286" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B286" s="36" t="s">
+      <c r="B286" s="56" t="s">
         <v>456</v>
       </c>
       <c r="D286">
@@ -9293,19 +9046,19 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="24"/>
-      <c r="B287" s="36"/>
+      <c r="B287" s="56"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B288" s="36"/>
+      <c r="B288" s="56"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B289" s="36" t="s">
+      <c r="B289" s="56" t="s">
         <v>457</v>
       </c>
       <c r="D289">
@@ -9316,7 +9069,7 @@
       <c r="A290" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B290" s="36" t="s">
+      <c r="B290" s="56" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9324,7 +9077,7 @@
       <c r="A291" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B291" s="36" t="s">
+      <c r="B291" s="56" t="s">
         <v>459</v>
       </c>
       <c r="D291">
@@ -9335,7 +9088,7 @@
       <c r="A292" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B292" s="36" t="s">
+      <c r="B292" s="56" t="s">
         <v>460</v>
       </c>
       <c r="D292">
@@ -9346,7 +9099,7 @@
       <c r="A293" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B293" s="36" t="s">
+      <c r="B293" s="56" t="s">
         <v>461</v>
       </c>
       <c r="D293">
@@ -9354,10 +9107,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="57" t="s">
+      <c r="A294" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B294" s="36" t="s">
+      <c r="B294" s="56" t="s">
         <v>462</v>
       </c>
       <c r="D294">
@@ -9365,16 +9118,16 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="57"/>
-      <c r="B295" s="36" t="s">
+      <c r="A295" s="39"/>
+      <c r="B295" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="57" t="s">
+      <c r="A296" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B296" s="36" t="s">
+      <c r="B296" s="56" t="s">
         <v>463</v>
       </c>
       <c r="D296">
@@ -9382,22 +9135,22 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="57"/>
-      <c r="B297" s="36" t="s">
+      <c r="A297" s="39"/>
+      <c r="B297" s="56" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="57"/>
-      <c r="B298" s="36" t="s">
+      <c r="A298" s="39"/>
+      <c r="B298" s="56" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="57" t="s">
+      <c r="A299" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B299" s="36" t="s">
+      <c r="B299" s="56" t="s">
         <v>466</v>
       </c>
       <c r="D299">
@@ -9405,30 +9158,30 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="57"/>
-      <c r="B300" s="36" t="s">
+      <c r="A300" s="39"/>
+      <c r="B300" s="56" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="24"/>
-      <c r="B301" s="36"/>
+      <c r="B301" s="56"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="24"/>
-      <c r="B302" s="36"/>
+      <c r="B302" s="56"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B303" s="36"/>
+      <c r="B303" s="56"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="57" t="s">
+      <c r="A304" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B304" s="36" t="s">
+      <c r="B304" s="56" t="s">
         <v>468</v>
       </c>
       <c r="D304">
@@ -9436,16 +9189,16 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="57"/>
-      <c r="B305" s="36" t="s">
+      <c r="A305" s="39"/>
+      <c r="B305" s="56" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="57" t="s">
+      <c r="A306" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B306" s="36" t="s">
+      <c r="B306" s="56" t="s">
         <v>470</v>
       </c>
       <c r="D306">
@@ -9453,34 +9206,34 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="57"/>
-      <c r="B307" s="36" t="s">
+      <c r="A307" s="39"/>
+      <c r="B307" s="56" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="57"/>
-      <c r="B308" s="36" t="s">
+      <c r="A308" s="39"/>
+      <c r="B308" s="56" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="57"/>
-      <c r="B309" s="36" t="s">
+      <c r="A309" s="39"/>
+      <c r="B309" s="56" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="57"/>
-      <c r="B310" s="36" t="s">
+      <c r="A310" s="39"/>
+      <c r="B310" s="56" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="57" t="s">
+      <c r="A311" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B311" s="36" t="s">
+      <c r="B311" s="56" t="s">
         <v>475</v>
       </c>
       <c r="D311">
@@ -9488,28 +9241,28 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="57"/>
-      <c r="B312" s="36" t="s">
+      <c r="A312" s="39"/>
+      <c r="B312" s="56" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="57"/>
-      <c r="B313" s="36" t="s">
+      <c r="A313" s="39"/>
+      <c r="B313" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="57"/>
-      <c r="B314" s="36" t="s">
+      <c r="A314" s="39"/>
+      <c r="B314" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="58" t="s">
+      <c r="A315" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="B315" s="38" t="s">
+      <c r="B315" s="58" t="s">
         <v>477</v>
       </c>
       <c r="C315" s="3"/>
@@ -9518,17 +9271,17 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="58"/>
-      <c r="B316" s="38" t="s">
+      <c r="A316" s="46"/>
+      <c r="B316" s="58" t="s">
         <v>284</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="57" t="s">
+      <c r="A317" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B317" s="36" t="s">
+      <c r="B317" s="56" t="s">
         <v>478</v>
       </c>
       <c r="D317">
@@ -9536,22 +9289,22 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="57"/>
-      <c r="B318" s="36" t="s">
+      <c r="A318" s="39"/>
+      <c r="B318" s="56" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="57"/>
-      <c r="B319" s="36" t="s">
+      <c r="A319" s="39"/>
+      <c r="B319" s="56" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="57" t="s">
+      <c r="A320" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B320" s="36" t="s">
+      <c r="B320" s="56" t="s">
         <v>481</v>
       </c>
       <c r="D320">
@@ -9559,8 +9312,8 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="57"/>
-      <c r="B321" s="36" t="s">
+      <c r="A321" s="39"/>
+      <c r="B321" s="56" t="s">
         <v>482</v>
       </c>
     </row>
@@ -9568,7 +9321,7 @@
       <c r="A322" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B322" s="36" t="s">
+      <c r="B322" s="56" t="s">
         <v>483</v>
       </c>
       <c r="D322">
@@ -9576,16 +9329,16 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="57" t="s">
+      <c r="A323" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B323" s="36" t="s">
+      <c r="B323" s="56" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="57"/>
-      <c r="B324" s="36" t="s">
+      <c r="A324" s="39"/>
+      <c r="B324" s="56" t="s">
         <v>485</v>
       </c>
       <c r="D324">
@@ -9593,28 +9346,28 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="57"/>
-      <c r="B325" s="36" t="s">
+      <c r="A325" s="39"/>
+      <c r="B325" s="56" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="57"/>
-      <c r="B326" s="36" t="s">
+      <c r="A326" s="39"/>
+      <c r="B326" s="56" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="57"/>
-      <c r="B327" s="36" t="s">
+      <c r="A327" s="39"/>
+      <c r="B327" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="57" t="s">
+      <c r="A328" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="B328" s="36" t="s">
+      <c r="B328" s="56" t="s">
         <v>488</v>
       </c>
       <c r="D328">
@@ -9622,16 +9375,16 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="57"/>
-      <c r="B329" s="36" t="s">
+      <c r="A329" s="39"/>
+      <c r="B329" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="57" t="s">
+      <c r="A330" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B330" s="36" t="s">
+      <c r="B330" s="56" t="s">
         <v>489</v>
       </c>
       <c r="D330">
@@ -9639,16 +9392,16 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="57"/>
-      <c r="B331" s="36" t="s">
+      <c r="A331" s="39"/>
+      <c r="B331" s="56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="57" t="s">
+      <c r="A332" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B332" s="36" t="s">
+      <c r="B332" s="56" t="s">
         <v>491</v>
       </c>
       <c r="D332">
@@ -9656,8 +9409,8 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="57"/>
-      <c r="B333" s="36" t="s">
+      <c r="A333" s="39"/>
+      <c r="B333" s="56" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9665,7 +9418,7 @@
       <c r="A334" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B334" s="36" t="s">
+      <c r="B334" s="56" t="s">
         <v>492</v>
       </c>
       <c r="D334">
@@ -9676,7 +9429,7 @@
       <c r="A335" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B335" s="36" t="s">
+      <c r="B335" s="56" t="s">
         <v>493</v>
       </c>
       <c r="D335">
@@ -9684,16 +9437,16 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="57" t="s">
+      <c r="A336" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B336" s="36" t="s">
+      <c r="B336" s="56" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="57"/>
-      <c r="B337" s="36" t="s">
+      <c r="A337" s="39"/>
+      <c r="B337" s="56" t="s">
         <v>284</v>
       </c>
       <c r="D337">
@@ -9701,16 +9454,16 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="57" t="s">
+      <c r="A338" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B338" s="36" t="s">
+      <c r="B338" s="56" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="57"/>
-      <c r="B339" s="36" t="s">
+      <c r="A339" s="39"/>
+      <c r="B339" s="56" t="s">
         <v>496</v>
       </c>
       <c r="D339">
@@ -9721,7 +9474,7 @@
       <c r="A340" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B340" s="36" t="s">
+      <c r="B340" s="56" t="s">
         <v>497</v>
       </c>
       <c r="D340">
@@ -9732,7 +9485,7 @@
       <c r="A341" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B341" s="36" t="s">
+      <c r="B341" s="56" t="s">
         <v>498</v>
       </c>
       <c r="D341">
@@ -9740,10 +9493,10 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="50" t="s">
+      <c r="A342" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="B342" s="51" t="s">
+      <c r="B342" s="59" t="s">
         <v>499</v>
       </c>
       <c r="C342" s="9" t="s">
@@ -9754,8 +9507,8 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="50"/>
-      <c r="B343" s="52"/>
+      <c r="A343" s="49"/>
+      <c r="B343" s="60"/>
       <c r="C343" s="10" t="s">
         <v>701</v>
       </c>
@@ -9764,10 +9517,10 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="50" t="s">
+      <c r="A344" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B344" s="51" t="s">
+      <c r="B344" s="59" t="s">
         <v>500</v>
       </c>
       <c r="C344" s="9" t="s">
@@ -9775,8 +9528,8 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="50"/>
-      <c r="B345" s="52"/>
+      <c r="A345" s="49"/>
+      <c r="B345" s="60"/>
       <c r="C345" s="10" t="s">
         <v>699</v>
       </c>
@@ -9785,10 +9538,10 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="50" t="s">
+      <c r="A346" s="49" t="s">
         <v>698</v>
       </c>
-      <c r="B346" s="51" t="s">
+      <c r="B346" s="59" t="s">
         <v>501</v>
       </c>
       <c r="C346" s="9" t="s">
@@ -9796,8 +9549,8 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="50"/>
-      <c r="B347" s="52"/>
+      <c r="A347" s="49"/>
+      <c r="B347" s="60"/>
       <c r="C347" s="10" t="s">
         <v>697</v>
       </c>
@@ -9806,10 +9559,10 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="50" t="s">
+      <c r="A348" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="B348" s="51" t="s">
+      <c r="B348" s="59" t="s">
         <v>502</v>
       </c>
       <c r="C348" s="9" t="s">
@@ -9817,8 +9570,8 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="50"/>
-      <c r="B349" s="52"/>
+      <c r="A349" s="49"/>
+      <c r="B349" s="60"/>
       <c r="C349" s="15" t="s">
         <v>696</v>
       </c>
@@ -9827,10 +9580,10 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="50" t="s">
+      <c r="A350" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="B350" s="51" t="s">
+      <c r="B350" s="59" t="s">
         <v>503</v>
       </c>
       <c r="C350" s="9" t="s">
@@ -9838,8 +9591,8 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="50"/>
-      <c r="B351" s="52"/>
+      <c r="A351" s="49"/>
+      <c r="B351" s="60"/>
       <c r="C351" s="10" t="s">
         <v>694</v>
       </c>
@@ -9848,10 +9601,10 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="50" t="s">
+      <c r="A352" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="B352" s="51" t="s">
+      <c r="B352" s="59" t="s">
         <v>504</v>
       </c>
       <c r="C352" s="9" t="s">
@@ -9862,17 +9615,17 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="50"/>
-      <c r="B353" s="52"/>
+      <c r="A353" s="49"/>
+      <c r="B353" s="60"/>
       <c r="C353" s="10" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="50" t="s">
+      <c r="A354" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="B354" s="51" t="s">
+      <c r="B354" s="59" t="s">
         <v>505</v>
       </c>
       <c r="C354" s="9" t="s">
@@ -9883,8 +9636,8 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="50"/>
-      <c r="B355" s="52"/>
+      <c r="A355" s="49"/>
+      <c r="B355" s="60"/>
       <c r="C355" s="10" t="s">
         <v>692</v>
       </c>
@@ -9893,10 +9646,10 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="50" t="s">
+      <c r="A356" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="B356" s="51" t="s">
+      <c r="B356" s="59" t="s">
         <v>506</v>
       </c>
       <c r="C356" s="20" t="s">
@@ -9904,8 +9657,8 @@
       </c>
     </row>
     <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="50"/>
-      <c r="B357" s="52"/>
+      <c r="A357" s="49"/>
+      <c r="B357" s="60"/>
       <c r="C357" s="15" t="s">
         <v>691</v>
       </c>
@@ -9914,10 +9667,10 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="50" t="s">
+      <c r="A358" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B358" s="56" t="s">
+      <c r="B358" s="61" t="s">
         <v>507</v>
       </c>
       <c r="C358" s="16" t="s">
@@ -9925,8 +9678,8 @@
       </c>
     </row>
     <row r="359" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="50"/>
-      <c r="B359" s="51"/>
+      <c r="A359" s="49"/>
+      <c r="B359" s="59"/>
       <c r="C359" s="18" t="s">
         <v>689</v>
       </c>
@@ -9935,10 +9688,10 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="50" t="s">
+      <c r="A360" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B360" s="39" t="s">
+      <c r="B360" s="62" t="s">
         <v>508</v>
       </c>
       <c r="C360" s="16" t="s">
@@ -9946,8 +9699,8 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="50"/>
-      <c r="B361" s="40" t="s">
+      <c r="A361" s="49"/>
+      <c r="B361" s="63" t="s">
         <v>509</v>
       </c>
       <c r="C361" s="17" t="s">
@@ -9958,8 +9711,8 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="50"/>
-      <c r="B362" s="40" t="s">
+      <c r="A362" s="49"/>
+      <c r="B362" s="63" t="s">
         <v>510</v>
       </c>
       <c r="C362" s="17" t="s">
@@ -9970,17 +9723,17 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="50"/>
-      <c r="B363" s="41"/>
+      <c r="A363" s="49"/>
+      <c r="B363" s="64"/>
       <c r="C363" s="18" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="50" t="s">
+      <c r="A364" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B364" s="61" t="s">
+      <c r="B364" s="65" t="s">
         <v>511</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -9991,17 +9744,17 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="50"/>
-      <c r="B365" s="52"/>
+      <c r="A365" s="49"/>
+      <c r="B365" s="60"/>
       <c r="C365" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="50" t="s">
+      <c r="A366" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B366" s="51" t="s">
+      <c r="B366" s="59" t="s">
         <v>512</v>
       </c>
       <c r="C366" s="9" t="s">
@@ -10012,8 +9765,8 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="50"/>
-      <c r="B367" s="61"/>
+      <c r="A367" s="49"/>
+      <c r="B367" s="65"/>
       <c r="C367" s="10" t="s">
         <v>687</v>
       </c>
@@ -10022,29 +9775,29 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="57" t="s">
+      <c r="A368" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B368" s="39" t="s">
+      <c r="B368" s="62" t="s">
         <v>513</v>
       </c>
-      <c r="C368" s="72"/>
+      <c r="C368" s="34"/>
       <c r="D368">
         <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="57"/>
-      <c r="B369" s="41" t="s">
+      <c r="A369" s="39"/>
+      <c r="B369" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="C369" s="73"/>
+      <c r="C369" s="35"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="50" t="s">
+      <c r="A370" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B370" s="61" t="s">
+      <c r="B370" s="65" t="s">
         <v>515</v>
       </c>
       <c r="C370" s="9" t="s">
@@ -10055,17 +9808,17 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="50"/>
-      <c r="B371" s="52"/>
+      <c r="A371" s="49"/>
+      <c r="B371" s="60"/>
       <c r="C371" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="50" t="s">
+      <c r="A372" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="B372" s="51" t="s">
+      <c r="B372" s="59" t="s">
         <v>516</v>
       </c>
       <c r="C372" s="9" t="s">
@@ -10076,17 +9829,17 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="50"/>
-      <c r="B373" s="52"/>
+      <c r="A373" s="49"/>
+      <c r="B373" s="60"/>
       <c r="C373" s="10" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="50" t="s">
+      <c r="A374" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B374" s="51" t="s">
+      <c r="B374" s="59" t="s">
         <v>517</v>
       </c>
       <c r="C374" s="9" t="s">
@@ -10097,8 +9850,8 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="50"/>
-      <c r="B375" s="52"/>
+      <c r="A375" s="49"/>
+      <c r="B375" s="60"/>
       <c r="C375" s="10" t="s">
         <v>683</v>
       </c>
@@ -10107,13 +9860,13 @@
       <c r="A376" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B376" s="36"/>
+      <c r="B376" s="56"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="50" t="s">
+      <c r="A377" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="B377" s="51" t="s">
+      <c r="B377" s="59" t="s">
         <v>518</v>
       </c>
       <c r="C377" s="9" t="s">
@@ -10124,17 +9877,17 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="50"/>
-      <c r="B378" s="52"/>
+      <c r="A378" s="49"/>
+      <c r="B378" s="60"/>
       <c r="C378" s="10" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="50" t="s">
+      <c r="A379" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B379" s="51" t="s">
+      <c r="B379" s="59" t="s">
         <v>519</v>
       </c>
       <c r="C379" s="9" t="s">
@@ -10142,8 +9895,8 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="50"/>
-      <c r="B380" s="52"/>
+      <c r="A380" s="49"/>
+      <c r="B380" s="60"/>
       <c r="C380" s="10" t="s">
         <v>681</v>
       </c>
@@ -10152,10 +9905,10 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="50" t="s">
+      <c r="A381" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B381" s="51" t="s">
+      <c r="B381" s="59" t="s">
         <v>520</v>
       </c>
       <c r="C381" s="9" t="s">
@@ -10163,8 +9916,8 @@
       </c>
     </row>
     <row r="382" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="50"/>
-      <c r="B382" s="52"/>
+      <c r="A382" s="49"/>
+      <c r="B382" s="60"/>
       <c r="C382" s="15" t="s">
         <v>680</v>
       </c>
@@ -10173,10 +9926,10 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="50" t="s">
+      <c r="A383" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B383" s="51" t="s">
+      <c r="B383" s="59" t="s">
         <v>521</v>
       </c>
       <c r="C383" s="9" t="s">
@@ -10184,8 +9937,8 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="50"/>
-      <c r="B384" s="52"/>
+      <c r="A384" s="49"/>
+      <c r="B384" s="60"/>
       <c r="C384" s="15" t="s">
         <v>679</v>
       </c>
@@ -10194,43 +9947,43 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="57" t="s">
+      <c r="A385" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B385" s="36" t="s">
+      <c r="B385" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="C385" s="59"/>
+      <c r="C385" s="36"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="57"/>
-      <c r="B386" s="36" t="s">
+      <c r="A386" s="39"/>
+      <c r="B386" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="C386" s="74"/>
+      <c r="C386" s="37"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="57"/>
-      <c r="B387" s="36" t="s">
+      <c r="A387" s="39"/>
+      <c r="B387" s="56" t="s">
         <v>524</v>
       </c>
-      <c r="C387" s="74"/>
+      <c r="C387" s="37"/>
       <c r="D387">
         <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A388" s="57"/>
-      <c r="B388" s="36" t="s">
+      <c r="A388" s="39"/>
+      <c r="B388" s="56" t="s">
         <v>525</v>
       </c>
-      <c r="C388" s="60"/>
+      <c r="C388" s="38"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="50" t="s">
+      <c r="A389" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="B389" s="51" t="s">
+      <c r="B389" s="59" t="s">
         <v>526</v>
       </c>
       <c r="C389" s="9" t="s">
@@ -10238,8 +9991,8 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="50"/>
-      <c r="B390" s="52"/>
+      <c r="A390" s="49"/>
+      <c r="B390" s="60"/>
       <c r="C390" s="10" t="s">
         <v>678</v>
       </c>
@@ -10248,10 +10001,10 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="50" t="s">
+      <c r="A391" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="B391" s="51" t="s">
+      <c r="B391" s="59" t="s">
         <v>527</v>
       </c>
       <c r="C391" s="9" t="s">
@@ -10262,17 +10015,17 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="50"/>
-      <c r="B392" s="52"/>
+      <c r="A392" s="49"/>
+      <c r="B392" s="60"/>
       <c r="C392" s="10" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="50" t="s">
+      <c r="A393" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B393" s="51" t="s">
+      <c r="B393" s="59" t="s">
         <v>528</v>
       </c>
       <c r="C393" s="9" t="s">
@@ -10283,17 +10036,17 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="50"/>
-      <c r="B394" s="52"/>
+      <c r="A394" s="49"/>
+      <c r="B394" s="60"/>
       <c r="C394" s="10" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="50" t="s">
+      <c r="A395" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B395" s="51" t="s">
+      <c r="B395" s="59" t="s">
         <v>529</v>
       </c>
       <c r="C395" s="9" t="s">
@@ -10304,17 +10057,17 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="50"/>
-      <c r="B396" s="52"/>
+      <c r="A396" s="49"/>
+      <c r="B396" s="60"/>
       <c r="C396" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="50" t="s">
+      <c r="A397" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B397" s="56" t="s">
+      <c r="B397" s="61" t="s">
         <v>530</v>
       </c>
       <c r="C397" s="9" t="s">
@@ -10325,76 +10078,76 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="50"/>
-      <c r="B398" s="56"/>
+      <c r="A398" s="49"/>
+      <c r="B398" s="61"/>
       <c r="C398" s="15" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="57" t="s">
+      <c r="A399" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B399" s="42" t="s">
+      <c r="B399" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="C399" s="65"/>
+      <c r="C399" s="43"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="57"/>
-      <c r="B400" s="40" t="s">
+      <c r="A400" s="39"/>
+      <c r="B400" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="C400" s="66"/>
+      <c r="C400" s="44"/>
       <c r="D400">
         <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="57"/>
-      <c r="B401" s="41" t="s">
+      <c r="A401" s="39"/>
+      <c r="B401" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C401" s="67"/>
+      <c r="C401" s="45"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="57" t="s">
+      <c r="A402" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B402" s="39" t="s">
+      <c r="B402" s="62" t="s">
         <v>534</v>
       </c>
-      <c r="C402" s="62"/>
+      <c r="C402" s="40"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="57"/>
-      <c r="B403" s="40" t="s">
+      <c r="A403" s="39"/>
+      <c r="B403" s="63" t="s">
         <v>535</v>
       </c>
-      <c r="C403" s="63"/>
+      <c r="C403" s="41"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="57"/>
-      <c r="B404" s="40" t="s">
+      <c r="A404" s="39"/>
+      <c r="B404" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="C404" s="63"/>
+      <c r="C404" s="41"/>
       <c r="D404">
         <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="57"/>
-      <c r="B405" s="41" t="s">
+      <c r="A405" s="39"/>
+      <c r="B405" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="C405" s="64"/>
+      <c r="C405" s="42"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="50" t="s">
+      <c r="A406" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B406" s="61" t="s">
+      <c r="B406" s="65" t="s">
         <v>538</v>
       </c>
       <c r="C406" s="9" t="s">
@@ -10402,8 +10155,8 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="50"/>
-      <c r="B407" s="52"/>
+      <c r="A407" s="49"/>
+      <c r="B407" s="60"/>
       <c r="C407" s="10" t="s">
         <v>672</v>
       </c>
@@ -10412,10 +10165,10 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="50" t="s">
+      <c r="A408" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B408" s="56" t="s">
+      <c r="B408" s="61" t="s">
         <v>539</v>
       </c>
       <c r="C408" s="16" t="s">
@@ -10423,17 +10176,17 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="50"/>
-      <c r="B409" s="56"/>
+      <c r="A409" s="49"/>
+      <c r="B409" s="61"/>
       <c r="C409" s="18" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="50" t="s">
+      <c r="A410" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B410" s="56" t="s">
+      <c r="B410" s="61" t="s">
         <v>540</v>
       </c>
       <c r="C410" s="16" t="s">
@@ -10441,17 +10194,17 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="50"/>
-      <c r="B411" s="56"/>
+      <c r="A411" s="49"/>
+      <c r="B411" s="61"/>
       <c r="C411" s="18" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="50" t="s">
+      <c r="A412" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B412" s="42" t="s">
+      <c r="B412" s="66" t="s">
         <v>541</v>
       </c>
       <c r="C412" s="16" t="s">
@@ -10459,8 +10212,8 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="50"/>
-      <c r="B413" s="40" t="s">
+      <c r="A413" s="49"/>
+      <c r="B413" s="63" t="s">
         <v>542</v>
       </c>
       <c r="C413" s="17" t="s">
@@ -10468,8 +10221,8 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="50"/>
-      <c r="B414" s="40" t="s">
+      <c r="A414" s="49"/>
+      <c r="B414" s="63" t="s">
         <v>543</v>
       </c>
       <c r="C414" s="17" t="s">
@@ -10477,8 +10230,8 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="50"/>
-      <c r="B415" s="68" t="s">
+      <c r="A415" s="49"/>
+      <c r="B415" s="67" t="s">
         <v>544</v>
       </c>
       <c r="C415" s="17" t="s">
@@ -10489,8 +10242,8 @@
       </c>
     </row>
     <row r="416" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="50"/>
-      <c r="B416" s="69"/>
+      <c r="A416" s="49"/>
+      <c r="B416" s="68"/>
       <c r="C416" s="19" t="s">
         <v>668</v>
       </c>
@@ -10499,13 +10252,13 @@
       <c r="A417" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B417" s="43"/>
+      <c r="B417" s="69"/>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="50" t="s">
+      <c r="A418" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B418" s="51" t="s">
+      <c r="B418" s="59" t="s">
         <v>545</v>
       </c>
       <c r="C418" s="9" t="s">
@@ -10513,8 +10266,8 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="50"/>
-      <c r="B419" s="52"/>
+      <c r="A419" s="49"/>
+      <c r="B419" s="60"/>
       <c r="C419" s="10" t="s">
         <v>666</v>
       </c>
@@ -10523,10 +10276,10 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="50" t="s">
+      <c r="A420" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B420" s="51" t="s">
+      <c r="B420" s="59" t="s">
         <v>546</v>
       </c>
       <c r="C420" s="9" t="s">
@@ -10534,8 +10287,8 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="50"/>
-      <c r="B421" s="52"/>
+      <c r="A421" s="49"/>
+      <c r="B421" s="60"/>
       <c r="C421" s="10" t="s">
         <v>663</v>
       </c>
@@ -10544,10 +10297,10 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="50" t="s">
+      <c r="A422" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="B422" s="51" t="s">
+      <c r="B422" s="59" t="s">
         <v>547</v>
       </c>
       <c r="C422" s="9" t="s">
@@ -10555,8 +10308,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="50"/>
-      <c r="B423" s="52"/>
+      <c r="A423" s="49"/>
+      <c r="B423" s="60"/>
       <c r="C423" s="10" t="s">
         <v>665</v>
       </c>
@@ -10565,10 +10318,10 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="50" t="s">
+      <c r="A424" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="B424" s="51" t="s">
+      <c r="B424" s="59" t="s">
         <v>548</v>
       </c>
       <c r="C424" s="9" t="s">
@@ -10576,8 +10329,8 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="50"/>
-      <c r="B425" s="52"/>
+      <c r="A425" s="49"/>
+      <c r="B425" s="60"/>
       <c r="C425" s="10" t="s">
         <v>662</v>
       </c>
@@ -10586,10 +10339,10 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="50" t="s">
+      <c r="A426" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="B426" s="51" t="s">
+      <c r="B426" s="59" t="s">
         <v>549</v>
       </c>
       <c r="C426" s="9" t="s">
@@ -10597,8 +10350,8 @@
       </c>
     </row>
     <row r="427" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="50"/>
-      <c r="B427" s="52"/>
+      <c r="A427" s="49"/>
+      <c r="B427" s="60"/>
       <c r="C427" s="15" t="s">
         <v>660</v>
       </c>
@@ -10610,13 +10363,13 @@
       <c r="A428" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B428" s="36"/>
+      <c r="B428" s="56"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="50" t="s">
+      <c r="A429" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B429" s="51" t="s">
+      <c r="B429" s="59" t="s">
         <v>550</v>
       </c>
       <c r="C429" s="9" t="s">
@@ -10627,17 +10380,17 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="50"/>
-      <c r="B430" s="52"/>
+      <c r="A430" s="49"/>
+      <c r="B430" s="60"/>
       <c r="C430" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="50" t="s">
+      <c r="A431" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B431" s="51" t="s">
+      <c r="B431" s="59" t="s">
         <v>551</v>
       </c>
       <c r="C431" s="9" t="s">
@@ -10645,8 +10398,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="50"/>
-      <c r="B432" s="52"/>
+      <c r="A432" s="49"/>
+      <c r="B432" s="60"/>
       <c r="C432" s="10" t="s">
         <v>658</v>
       </c>
@@ -10655,10 +10408,10 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="50" t="s">
+      <c r="A433" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B433" s="51" t="s">
+      <c r="B433" s="59" t="s">
         <v>552</v>
       </c>
       <c r="C433" s="9" t="s">
@@ -10666,8 +10419,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="50"/>
-      <c r="B434" s="52"/>
+      <c r="A434" s="49"/>
+      <c r="B434" s="60"/>
       <c r="C434" s="10" t="s">
         <v>657</v>
       </c>
@@ -10676,10 +10429,10 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="50" t="s">
+      <c r="A435" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="B435" s="51" t="s">
+      <c r="B435" s="59" t="s">
         <v>553</v>
       </c>
       <c r="C435" s="9" t="s">
@@ -10687,8 +10440,8 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="50"/>
-      <c r="B436" s="52"/>
+      <c r="A436" s="49"/>
+      <c r="B436" s="60"/>
       <c r="C436" s="10" t="s">
         <v>655</v>
       </c>
@@ -10697,10 +10450,10 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="50" t="s">
+      <c r="A437" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B437" s="51" t="s">
+      <c r="B437" s="59" t="s">
         <v>554</v>
       </c>
       <c r="C437" s="9" t="s">
@@ -10708,8 +10461,8 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="50"/>
-      <c r="B438" s="52"/>
+      <c r="A438" s="49"/>
+      <c r="B438" s="60"/>
       <c r="C438" s="10" t="s">
         <v>654</v>
       </c>
@@ -10721,13 +10474,13 @@
       <c r="A439" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B439" s="36"/>
+      <c r="B439" s="56"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="50" t="s">
+      <c r="A440" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="B440" s="51" t="s">
+      <c r="B440" s="59" t="s">
         <v>555</v>
       </c>
       <c r="C440" s="9" t="s">
@@ -10735,8 +10488,8 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="50"/>
-      <c r="B441" s="52"/>
+      <c r="A441" s="49"/>
+      <c r="B441" s="60"/>
       <c r="C441" s="10" t="s">
         <v>653</v>
       </c>
@@ -10745,10 +10498,10 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="57" t="s">
+      <c r="A442" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="B442" s="36" t="s">
+      <c r="B442" s="56" t="s">
         <v>556</v>
       </c>
       <c r="C442" s="9" t="s">
@@ -10756,8 +10509,8 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="57"/>
-      <c r="B443" s="36" t="s">
+      <c r="A443" s="39"/>
+      <c r="B443" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C443" s="10" t="s">
@@ -10768,10 +10521,10 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="50" t="s">
+      <c r="A444" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="B444" s="36" t="s">
+      <c r="B444" s="56" t="s">
         <v>557</v>
       </c>
       <c r="C444" s="9" t="s">
@@ -10779,8 +10532,8 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="50"/>
-      <c r="B445" s="36" t="s">
+      <c r="A445" s="49"/>
+      <c r="B445" s="56" t="s">
         <v>284</v>
       </c>
       <c r="C445" s="15" t="s">
@@ -10791,10 +10544,10 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="50" t="s">
+      <c r="A446" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="B446" s="51" t="s">
+      <c r="B446" s="59" t="s">
         <v>558</v>
       </c>
       <c r="C446" s="9" t="s">
@@ -10802,8 +10555,8 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="50"/>
-      <c r="B447" s="52"/>
+      <c r="A447" s="49"/>
+      <c r="B447" s="60"/>
       <c r="C447" s="10" t="s">
         <v>649</v>
       </c>
@@ -10812,10 +10565,10 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="50" t="s">
+      <c r="A448" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="B448" s="51" t="s">
+      <c r="B448" s="59" t="s">
         <v>559</v>
       </c>
       <c r="C448" s="9" t="s">
@@ -10823,8 +10576,8 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="50"/>
-      <c r="B449" s="52"/>
+      <c r="A449" s="49"/>
+      <c r="B449" s="60"/>
       <c r="C449" s="10" t="s">
         <v>648</v>
       </c>
@@ -10833,10 +10586,10 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="50" t="s">
+      <c r="A450" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="B450" s="51" t="s">
+      <c r="B450" s="59" t="s">
         <v>560</v>
       </c>
       <c r="C450" s="9" t="s">
@@ -10844,8 +10597,8 @@
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="50"/>
-      <c r="B451" s="52"/>
+      <c r="A451" s="49"/>
+      <c r="B451" s="60"/>
       <c r="C451" s="10" t="s">
         <v>647</v>
       </c>
@@ -10854,27 +10607,27 @@
       </c>
     </row>
     <row r="452" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="50" t="s">
+      <c r="A452" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="B452" s="51" t="s">
+      <c r="B452" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="C452" s="59"/>
+      <c r="C452" s="36"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="50"/>
-      <c r="B453" s="52"/>
-      <c r="C453" s="60"/>
+      <c r="A453" s="49"/>
+      <c r="B453" s="60"/>
+      <c r="C453" s="38"/>
       <c r="D453">
         <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="50" t="s">
+      <c r="A454" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="B454" s="51" t="s">
+      <c r="B454" s="59" t="s">
         <v>562</v>
       </c>
       <c r="C454" s="9" t="s">
@@ -10882,8 +10635,8 @@
       </c>
     </row>
     <row r="455" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A455" s="50"/>
-      <c r="B455" s="52"/>
+      <c r="A455" s="49"/>
+      <c r="B455" s="60"/>
       <c r="C455" s="15" t="s">
         <v>646</v>
       </c>
@@ -10895,13 +10648,13 @@
       <c r="A456" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B456" s="36"/>
+      <c r="B456" s="56"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="50" t="s">
+      <c r="A457" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B457" s="51" t="s">
+      <c r="B457" s="59" t="s">
         <v>563</v>
       </c>
       <c r="C457" s="9" t="s">
@@ -10909,8 +10662,8 @@
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="50"/>
-      <c r="B458" s="52"/>
+      <c r="A458" s="49"/>
+      <c r="B458" s="60"/>
       <c r="C458" s="10" t="s">
         <v>645</v>
       </c>
@@ -10919,10 +10672,10 @@
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="50" t="s">
+      <c r="A459" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="B459" s="51" t="s">
+      <c r="B459" s="59" t="s">
         <v>564</v>
       </c>
       <c r="C459" s="9" t="s">
@@ -10930,8 +10683,8 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="50"/>
-      <c r="B460" s="52"/>
+      <c r="A460" s="49"/>
+      <c r="B460" s="60"/>
       <c r="C460" s="10" t="s">
         <v>644</v>
       </c>
@@ -10943,13 +10696,13 @@
       <c r="A461" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B461" s="36"/>
+      <c r="B461" s="56"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="50" t="s">
+      <c r="A462" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="B462" s="51" t="s">
+      <c r="B462" s="59" t="s">
         <v>565</v>
       </c>
       <c r="C462" s="9" t="s">
@@ -10957,8 +10710,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="50"/>
-      <c r="B463" s="52"/>
+      <c r="A463" s="49"/>
+      <c r="B463" s="60"/>
       <c r="C463" s="10" t="s">
         <v>642</v>
       </c>
@@ -10970,13 +10723,13 @@
       <c r="A464" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B464" s="36"/>
+      <c r="B464" s="56"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="50" t="s">
+      <c r="A465" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="B465" s="51" t="s">
+      <c r="B465" s="59" t="s">
         <v>566</v>
       </c>
       <c r="C465" s="9" t="s">
@@ -10984,8 +10737,8 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="50"/>
-      <c r="B466" s="52"/>
+      <c r="A466" s="49"/>
+      <c r="B466" s="60"/>
       <c r="C466" s="10" t="s">
         <v>641</v>
       </c>
@@ -10994,10 +10747,10 @@
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="50" t="s">
+      <c r="A467" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="B467" s="51" t="s">
+      <c r="B467" s="59" t="s">
         <v>567</v>
       </c>
       <c r="C467" s="9" t="s">
@@ -11005,8 +10758,8 @@
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="50"/>
-      <c r="B468" s="52"/>
+      <c r="A468" s="49"/>
+      <c r="B468" s="60"/>
       <c r="C468" s="10" t="s">
         <v>640</v>
       </c>
@@ -11018,13 +10771,13 @@
       <c r="A469" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B469" s="36"/>
+      <c r="B469" s="56"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="50" t="s">
+      <c r="A470" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="B470" s="51" t="s">
+      <c r="B470" s="59" t="s">
         <v>568</v>
       </c>
       <c r="C470" s="9" t="s">
@@ -11032,8 +10785,8 @@
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="50"/>
-      <c r="B471" s="52"/>
+      <c r="A471" s="49"/>
+      <c r="B471" s="60"/>
       <c r="C471" s="10" t="s">
         <v>639</v>
       </c>
@@ -11045,13 +10798,13 @@
       <c r="A472" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B472" s="36"/>
+      <c r="B472" s="56"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="50" t="s">
+      <c r="A473" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="B473" s="51" t="s">
+      <c r="B473" s="59" t="s">
         <v>569</v>
       </c>
       <c r="C473" s="9" t="s">
@@ -11059,8 +10812,8 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="50"/>
-      <c r="B474" s="52"/>
+      <c r="A474" s="49"/>
+      <c r="B474" s="60"/>
       <c r="C474" s="10" t="s">
         <v>638</v>
       </c>
@@ -11072,13 +10825,13 @@
       <c r="A475" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B475" s="36"/>
+      <c r="B475" s="56"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="50" t="s">
+      <c r="A476" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="B476" s="51" t="s">
+      <c r="B476" s="59" t="s">
         <v>570</v>
       </c>
       <c r="C476" s="9" t="s">
@@ -11086,8 +10839,8 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="50"/>
-      <c r="B477" s="52"/>
+      <c r="A477" s="49"/>
+      <c r="B477" s="60"/>
       <c r="C477" s="10" t="s">
         <v>637</v>
       </c>
@@ -11096,10 +10849,10 @@
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="50" t="s">
+      <c r="A478" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="B478" s="51" t="s">
+      <c r="B478" s="59" t="s">
         <v>571</v>
       </c>
       <c r="C478" s="9" t="s">
@@ -11107,8 +10860,8 @@
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="50"/>
-      <c r="B479" s="52"/>
+      <c r="A479" s="49"/>
+      <c r="B479" s="60"/>
       <c r="C479" s="10" t="s">
         <v>636</v>
       </c>
@@ -11117,10 +10870,10 @@
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="57" t="s">
+      <c r="A480" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B480" s="36" t="s">
+      <c r="B480" s="56" t="s">
         <v>572</v>
       </c>
       <c r="C480" s="9" t="s">
@@ -11128,8 +10881,8 @@
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="57"/>
-      <c r="B481" s="36" t="s">
+      <c r="A481" s="39"/>
+      <c r="B481" s="56" t="s">
         <v>573</v>
       </c>
       <c r="C481" s="10" t="s">
@@ -11140,10 +10893,10 @@
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="50" t="s">
+      <c r="A482" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B482" s="51" t="s">
+      <c r="B482" s="59" t="s">
         <v>574</v>
       </c>
       <c r="C482" s="9" t="s">
@@ -11151,8 +10904,8 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="50"/>
-      <c r="B483" s="52"/>
+      <c r="A483" s="49"/>
+      <c r="B483" s="60"/>
       <c r="C483" s="10" t="s">
         <v>634</v>
       </c>
@@ -11161,10 +10914,10 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="50" t="s">
+      <c r="A484" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B484" s="51" t="s">
+      <c r="B484" s="59" t="s">
         <v>575</v>
       </c>
       <c r="C484" s="9" t="s">
@@ -11175,17 +10928,17 @@
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="50"/>
-      <c r="B485" s="52"/>
+      <c r="A485" s="49"/>
+      <c r="B485" s="60"/>
       <c r="C485" s="15" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="50" t="s">
+      <c r="A486" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B486" s="51" t="s">
+      <c r="B486" s="59" t="s">
         <v>576</v>
       </c>
       <c r="C486" s="9" t="s">
@@ -11196,8 +10949,8 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="50"/>
-      <c r="B487" s="52"/>
+      <c r="A487" s="49"/>
+      <c r="B487" s="60"/>
       <c r="C487" s="10" t="s">
         <v>632</v>
       </c>
@@ -11206,13 +10959,13 @@
       <c r="A488" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B488" s="36"/>
+      <c r="B488" s="56"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="50" t="s">
+      <c r="A489" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B489" s="51" t="s">
+      <c r="B489" s="59" t="s">
         <v>577</v>
       </c>
       <c r="C489" s="11" t="s">
@@ -11220,8 +10973,8 @@
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="50"/>
-      <c r="B490" s="52"/>
+      <c r="A490" s="49"/>
+      <c r="B490" s="60"/>
       <c r="C490" s="12" t="s">
         <v>631</v>
       </c>
@@ -11230,10 +10983,10 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="50" t="s">
+      <c r="A491" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B491" s="51" t="s">
+      <c r="B491" s="59" t="s">
         <v>578</v>
       </c>
       <c r="C491" s="9" t="s">
@@ -11241,8 +10994,8 @@
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="50"/>
-      <c r="B492" s="52"/>
+      <c r="A492" s="49"/>
+      <c r="B492" s="60"/>
       <c r="C492" s="10" t="s">
         <v>630</v>
       </c>
@@ -11251,10 +11004,10 @@
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="50" t="s">
+      <c r="A493" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B493" s="51" t="s">
+      <c r="B493" s="59" t="s">
         <v>579</v>
       </c>
       <c r="C493" s="9" t="s">
@@ -11262,8 +11015,8 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="50"/>
-      <c r="B494" s="52"/>
+      <c r="A494" s="49"/>
+      <c r="B494" s="60"/>
       <c r="C494" s="10" t="s">
         <v>627</v>
       </c>
@@ -11275,13 +11028,13 @@
       <c r="A495" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B495" s="36"/>
+      <c r="B495" s="56"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="50" t="s">
+      <c r="A496" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B496" s="51" t="s">
+      <c r="B496" s="59" t="s">
         <v>580</v>
       </c>
       <c r="C496" s="9" t="s">
@@ -11289,8 +11042,8 @@
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="50"/>
-      <c r="B497" s="52"/>
+      <c r="A497" s="49"/>
+      <c r="B497" s="60"/>
       <c r="C497" s="10" t="s">
         <v>629</v>
       </c>
@@ -11299,10 +11052,10 @@
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="50" t="s">
+      <c r="A498" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B498" s="51" t="s">
+      <c r="B498" s="59" t="s">
         <v>581</v>
       </c>
       <c r="C498" s="9" t="s">
@@ -11310,8 +11063,8 @@
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="50"/>
-      <c r="B499" s="52"/>
+      <c r="A499" s="49"/>
+      <c r="B499" s="60"/>
       <c r="C499" s="10" t="s">
         <v>626</v>
       </c>
@@ -11323,13 +11076,13 @@
       <c r="A500" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B500" s="36"/>
+      <c r="B500" s="56"/>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="50" t="s">
+      <c r="A501" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B501" s="51" t="s">
+      <c r="B501" s="59" t="s">
         <v>582</v>
       </c>
       <c r="C501" s="9" t="s">
@@ -11337,8 +11090,8 @@
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="50"/>
-      <c r="B502" s="52"/>
+      <c r="A502" s="49"/>
+      <c r="B502" s="60"/>
       <c r="C502" s="15" t="s">
         <v>625</v>
       </c>
@@ -11347,10 +11100,10 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="50" t="s">
+      <c r="A503" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B503" s="51" t="s">
+      <c r="B503" s="59" t="s">
         <v>583</v>
       </c>
       <c r="C503" s="9" t="s">
@@ -11358,8 +11111,8 @@
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="50"/>
-      <c r="B504" s="52"/>
+      <c r="A504" s="49"/>
+      <c r="B504" s="60"/>
       <c r="C504" s="10" t="s">
         <v>624</v>
       </c>
@@ -11371,13 +11124,13 @@
       <c r="A505" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B505" s="36"/>
+      <c r="B505" s="56"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="50" t="s">
+      <c r="A506" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B506" s="51" t="s">
+      <c r="B506" s="59" t="s">
         <v>584</v>
       </c>
       <c r="C506" s="9" t="s">
@@ -11385,8 +11138,8 @@
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="50"/>
-      <c r="B507" s="52"/>
+      <c r="A507" s="49"/>
+      <c r="B507" s="60"/>
       <c r="C507" s="10" t="s">
         <v>623</v>
       </c>
@@ -11398,13 +11151,13 @@
       <c r="A508" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B508" s="36"/>
+      <c r="B508" s="56"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="50" t="s">
+      <c r="A509" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B509" s="51" t="s">
+      <c r="B509" s="59" t="s">
         <v>585</v>
       </c>
       <c r="C509" s="9" t="s">
@@ -11412,8 +11165,8 @@
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="50"/>
-      <c r="B510" s="52"/>
+      <c r="A510" s="49"/>
+      <c r="B510" s="60"/>
       <c r="C510" s="10" t="s">
         <v>622</v>
       </c>
@@ -11425,13 +11178,13 @@
       <c r="A511" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B511" s="36"/>
+      <c r="B511" s="56"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="50" t="s">
+      <c r="A512" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B512" s="51" t="s">
+      <c r="B512" s="59" t="s">
         <v>586</v>
       </c>
       <c r="C512" s="9" t="s">
@@ -11442,17 +11195,17 @@
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="50"/>
-      <c r="B513" s="52"/>
+      <c r="A513" s="49"/>
+      <c r="B513" s="60"/>
       <c r="C513" s="10" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="50" t="s">
+      <c r="A514" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B514" s="51" t="s">
+      <c r="B514" s="59" t="s">
         <v>587</v>
       </c>
       <c r="C514" s="9" t="s">
@@ -11463,17 +11216,17 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="50"/>
-      <c r="B515" s="52"/>
+      <c r="A515" s="49"/>
+      <c r="B515" s="60"/>
       <c r="C515" s="10" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="50" t="s">
+      <c r="A516" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B516" s="51" t="s">
+      <c r="B516" s="59" t="s">
         <v>588</v>
       </c>
       <c r="C516" s="9" t="s">
@@ -11484,17 +11237,17 @@
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="50"/>
-      <c r="B517" s="52"/>
+      <c r="A517" s="49"/>
+      <c r="B517" s="60"/>
       <c r="C517" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="50" t="s">
+      <c r="A518" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B518" s="51" t="s">
+      <c r="B518" s="59" t="s">
         <v>589</v>
       </c>
       <c r="C518" s="9" t="s">
@@ -11505,17 +11258,17 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="50"/>
-      <c r="B519" s="52"/>
+      <c r="A519" s="49"/>
+      <c r="B519" s="60"/>
       <c r="C519" s="10" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="50" t="s">
+      <c r="A520" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B520" s="51" t="s">
+      <c r="B520" s="59" t="s">
         <v>590</v>
       </c>
       <c r="C520" s="9" t="s">
@@ -11526,8 +11279,8 @@
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="50"/>
-      <c r="B521" s="52"/>
+      <c r="A521" s="49"/>
+      <c r="B521" s="60"/>
       <c r="C521" s="10" t="s">
         <v>615</v>
       </c>
@@ -11536,13 +11289,13 @@
       <c r="A522" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B522" s="36"/>
+      <c r="B522" s="56"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="50" t="s">
+      <c r="A523" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B523" s="51" t="s">
+      <c r="B523" s="59" t="s">
         <v>591</v>
       </c>
       <c r="C523" s="9" t="s">
@@ -11550,8 +11303,8 @@
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="50"/>
-      <c r="B524" s="52"/>
+      <c r="A524" s="49"/>
+      <c r="B524" s="60"/>
       <c r="C524" s="10" t="s">
         <v>612</v>
       </c>
@@ -11563,13 +11316,13 @@
       <c r="A525" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B525" s="36"/>
+      <c r="B525" s="56"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="50" t="s">
+      <c r="A526" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B526" s="51" t="s">
+      <c r="B526" s="59" t="s">
         <v>592</v>
       </c>
       <c r="C526" s="9" t="s">
@@ -11577,8 +11330,8 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="50"/>
-      <c r="B527" s="52"/>
+      <c r="A527" s="49"/>
+      <c r="B527" s="60"/>
       <c r="C527" s="10" t="s">
         <v>613</v>
       </c>
@@ -11587,10 +11340,10 @@
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="50" t="s">
+      <c r="A528" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B528" s="51" t="s">
+      <c r="B528" s="59" t="s">
         <v>593</v>
       </c>
       <c r="C528" s="9" t="s">
@@ -11601,17 +11354,17 @@
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529" s="50"/>
-      <c r="B529" s="52"/>
+      <c r="A529" s="49"/>
+      <c r="B529" s="60"/>
       <c r="C529" s="10" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="50" t="s">
+      <c r="A530" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B530" s="51" t="s">
+      <c r="B530" s="59" t="s">
         <v>594</v>
       </c>
       <c r="C530" s="9" t="s">
@@ -11619,8 +11372,8 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" s="50"/>
-      <c r="B531" s="52"/>
+      <c r="A531" s="49"/>
+      <c r="B531" s="60"/>
       <c r="C531" s="10" t="s">
         <v>610</v>
       </c>
@@ -11629,10 +11382,10 @@
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="50" t="s">
+      <c r="A532" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B532" s="51" t="s">
+      <c r="B532" s="59" t="s">
         <v>595</v>
       </c>
       <c r="C532" s="9" t="s">
@@ -11640,8 +11393,8 @@
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="50"/>
-      <c r="B533" s="52"/>
+      <c r="A533" s="49"/>
+      <c r="B533" s="60"/>
       <c r="C533" s="10" t="s">
         <v>609</v>
       </c>
@@ -11650,10 +11403,10 @@
       </c>
     </row>
     <row r="534" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="50" t="s">
+      <c r="A534" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B534" s="51" t="s">
+      <c r="B534" s="59" t="s">
         <v>596</v>
       </c>
       <c r="C534" s="14" t="s">
@@ -11664,17 +11417,17 @@
       </c>
     </row>
     <row r="535" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A535" s="50"/>
-      <c r="B535" s="52"/>
+      <c r="A535" s="49"/>
+      <c r="B535" s="60"/>
       <c r="C535" s="13" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="50" t="s">
+      <c r="A536" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B536" s="51" t="s">
+      <c r="B536" s="59" t="s">
         <v>597</v>
       </c>
       <c r="C536" s="9" t="s">
@@ -11682,8 +11435,8 @@
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="50"/>
-      <c r="B537" s="52"/>
+      <c r="A537" s="49"/>
+      <c r="B537" s="60"/>
       <c r="C537" s="10" t="s">
         <v>607</v>
       </c>
@@ -11695,13 +11448,13 @@
       <c r="A538" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B538" s="36"/>
+      <c r="B538" s="56"/>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="50" t="s">
+      <c r="A539" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B539" s="51" t="s">
+      <c r="B539" s="59" t="s">
         <v>598</v>
       </c>
       <c r="C539" s="9" t="s">
@@ -11709,8 +11462,8 @@
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="50"/>
-      <c r="B540" s="52"/>
+      <c r="A540" s="49"/>
+      <c r="B540" s="60"/>
       <c r="C540" s="10" t="s">
         <v>606</v>
       </c>
@@ -11719,29 +11472,29 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="50" t="s">
+      <c r="A541" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B541" s="51" t="s">
+      <c r="B541" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="C541" s="53" t="s">
+      <c r="C541" s="47" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="50"/>
-      <c r="B542" s="52"/>
-      <c r="C542" s="54"/>
+      <c r="A542" s="49"/>
+      <c r="B542" s="60"/>
+      <c r="C542" s="48"/>
       <c r="D542">
         <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B543" s="55" t="s">
+      <c r="A543" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B543" s="70" t="s">
         <v>600</v>
       </c>
       <c r="C543" s="9" t="s">
@@ -11749,8 +11502,8 @@
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="50"/>
-      <c r="B544" s="56"/>
+      <c r="A544" s="49"/>
+      <c r="B544" s="61"/>
       <c r="C544" s="10" t="s">
         <v>604</v>
       </c>
@@ -11772,493 +11525,428 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B548" s="21"/>
-      <c r="C548" s="70" t="s">
+      <c r="C548" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="D548" s="71">
+      <c r="D548" s="33">
         <f>SUM(D2:D544)</f>
         <v>231</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B549" s="21"/>
-      <c r="C549" s="70"/>
-      <c r="D549" s="71"/>
+      <c r="C549" s="32"/>
+      <c r="D549" s="33"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B550" s="21"/>
-      <c r="C550" s="70"/>
-      <c r="D550" s="71"/>
-    </row>
-    <row r="552" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="32"/>
+      <c r="D550" s="33"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C552" s="82"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="75" t="s">
+      <c r="A553" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="B553" s="81"/>
-      <c r="C553" s="83" t="s">
-        <v>999</v>
-      </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="79"/>
-      <c r="B554" s="81"/>
-      <c r="C554" s="85" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="76"/>
-      <c r="B555" s="81"/>
-      <c r="C555" s="84" t="s">
-        <v>1012</v>
+      <c r="A554" s="28" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A555" s="29" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="75" t="s">
-        <v>706</v>
-      </c>
-      <c r="B556" s="81"/>
-      <c r="C556" s="87" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="76"/>
-      <c r="B557" s="81"/>
-      <c r="C557" s="88" t="s">
-        <v>1013</v>
+      <c r="A556" s="28" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="28" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="77" t="s">
-        <v>707</v>
-      </c>
-      <c r="B558" s="81"/>
-      <c r="C558" s="83" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559" s="80"/>
-      <c r="B559" s="81"/>
-      <c r="C559" s="85" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="78"/>
-      <c r="B560" s="81"/>
-      <c r="C560" s="86" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="75" t="s">
-        <v>708</v>
-      </c>
-      <c r="B561" s="81"/>
-      <c r="C561" s="87" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="76"/>
-      <c r="B562" s="81"/>
-      <c r="C562" s="88" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="75" t="s">
-        <v>709</v>
-      </c>
-      <c r="B563" s="81"/>
-      <c r="C563" s="83" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="76"/>
-      <c r="B564" s="81"/>
-      <c r="C564" s="84" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="75" t="s">
+      <c r="A558" s="28" t="s">
         <v>710</v>
       </c>
-      <c r="B565" s="81"/>
-      <c r="C565" s="83" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="79"/>
-      <c r="B566" s="81"/>
-      <c r="C566" s="85" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="76"/>
-      <c r="B567" s="81"/>
-      <c r="C567" s="84" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="77" t="s">
+    </row>
+    <row r="559" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A559" s="29" t="s">
         <v>711</v>
       </c>
-      <c r="B568" s="81"/>
-      <c r="C568" s="83" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="80"/>
-      <c r="B569" s="81"/>
-      <c r="C569" s="85" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" s="80"/>
-      <c r="B570" s="81"/>
-      <c r="C570" s="85" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="78"/>
-      <c r="B571" s="81"/>
-      <c r="C571" s="86" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" s="75" t="s">
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="28" t="s">
         <v>712</v>
       </c>
-      <c r="B572" s="81"/>
-      <c r="C572" s="83" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="76"/>
-      <c r="B573" s="81"/>
-      <c r="C573" s="84" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" s="75" t="s">
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="B574" s="81"/>
-      <c r="C574" s="83" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="76"/>
-      <c r="B575" s="81"/>
-      <c r="C575" s="84" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" s="75" t="s">
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="B576" s="81"/>
-      <c r="C576" s="83" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="76"/>
-      <c r="B577" s="81"/>
-      <c r="C577" s="84" t="s">
-        <v>1022</v>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A565" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A569" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A571" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A575" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="71" t="s">
+        <v>799</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="C578" s="30"/>
+      <c r="A578" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
     </row>
     <row r="579" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A579" s="29" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="D579">
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="28" t="s">
-        <v>717</v>
-      </c>
-      <c r="C580" s="82"/>
+        <v>802</v>
+      </c>
       <c r="D580">
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" s="77" t="s">
-        <v>718</v>
-      </c>
-      <c r="B581" s="81"/>
-      <c r="C581" s="83" t="s">
-        <v>1023</v>
+    <row r="581" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A581" s="29" t="s">
+        <v>803</v>
       </c>
       <c r="D581">
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="78"/>
-      <c r="B582" s="81"/>
-      <c r="C582" s="84" t="s">
-        <v>1024</v>
+    <row r="582" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A582" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="75" t="s">
-        <v>719</v>
-      </c>
-      <c r="B583" s="81"/>
-      <c r="C583" s="83" t="s">
-        <v>1025</v>
+      <c r="A583" s="28" t="s">
+        <v>805</v>
       </c>
       <c r="D583">
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="76"/>
-      <c r="B584" s="81"/>
-      <c r="C584" s="89" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A585" s="29" t="s">
-        <v>720</v>
-      </c>
-      <c r="C585" s="90"/>
+        <v>809</v>
+      </c>
       <c r="D585">
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586" s="75" t="s">
-        <v>721</v>
-      </c>
-      <c r="B586" s="81"/>
-      <c r="C586" s="83" t="s">
-        <v>1027</v>
+    <row r="586" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A586" s="29" t="s">
+        <v>810</v>
       </c>
       <c r="D586">
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="76"/>
-      <c r="B587" s="81"/>
-      <c r="C587" s="84" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A588" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="C588" s="30"/>
+    <row r="587" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A587" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="28" t="s">
+        <v>812</v>
+      </c>
       <c r="D588">
         <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="28" t="s">
+        <v>813</v>
+      </c>
       <c r="D589">
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="C590" s="82"/>
+    <row r="590" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A590" s="29" t="s">
+        <v>814</v>
+      </c>
       <c r="D590">
         <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="75" t="s">
-        <v>796</v>
-      </c>
-      <c r="B591" s="81"/>
-      <c r="C591" s="83" t="s">
-        <v>1030</v>
+      <c r="A591" s="28" t="s">
+        <v>815</v>
       </c>
       <c r="D591">
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592" s="79"/>
-      <c r="B592" s="81"/>
-      <c r="C592" s="85" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="76"/>
-      <c r="B593" s="81"/>
-      <c r="C593" s="84" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A594" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="C594" s="30"/>
+    <row r="592" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A592" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A593" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="28" t="s">
+        <v>818</v>
+      </c>
       <c r="D594">
         <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="28" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="D595">
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="44" t="s">
-        <v>799</v>
-      </c>
-      <c r="C596" s="82"/>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="28" t="s">
+        <v>820</v>
+      </c>
       <c r="D596">
         <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" s="75" t="s">
-        <v>800</v>
-      </c>
-      <c r="B597" s="81"/>
-      <c r="C597" s="83" t="s">
-        <v>1032</v>
+      <c r="A597" s="28" t="s">
+        <v>821</v>
       </c>
       <c r="D597">
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="76"/>
-      <c r="B598" s="81"/>
-      <c r="C598" s="84" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="29" t="s">
-        <v>801</v>
-      </c>
-      <c r="C599" s="90"/>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="28" t="s">
+        <v>823</v>
+      </c>
       <c r="D599">
         <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="75" t="s">
-        <v>802</v>
-      </c>
-      <c r="B600" s="81"/>
-      <c r="C600" s="83" t="s">
-        <v>1034</v>
+      <c r="A600" s="28" t="s">
+        <v>824</v>
       </c>
       <c r="D600">
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="76"/>
-      <c r="B601" s="81"/>
-      <c r="C601" s="84" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A602" s="29" t="s">
-        <v>803</v>
-      </c>
-      <c r="C602" s="30"/>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="71" t="s">
+        <v>825</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="28" t="s">
+        <v>826</v>
+      </c>
       <c r="D602">
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A603" s="29" t="s">
-        <v>804</v>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="28" t="s">
+        <v>827</v>
       </c>
       <c r="D603">
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="28" t="s">
-        <v>805</v>
-      </c>
-      <c r="C604" s="82"/>
+        <v>828</v>
+      </c>
       <c r="D604">
         <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="75" t="s">
-        <v>808</v>
-      </c>
-      <c r="B605" s="81"/>
-      <c r="C605" s="83" t="s">
-        <v>1036</v>
+      <c r="A605" s="28" t="s">
+        <v>829</v>
       </c>
       <c r="D605">
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="76"/>
-      <c r="B606" s="81"/>
-      <c r="C606" s="84" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A607" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="C607" s="30"/>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="28" t="s">
+        <v>831</v>
+      </c>
       <c r="D607">
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A608" s="29" t="s">
-        <v>810</v>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="28" t="s">
+        <v>832</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -12266,15 +11954,15 @@
     </row>
     <row r="609" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A609" s="29" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="D609">
         <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A610" s="28" t="s">
-        <v>812</v>
+      <c r="A610" s="29" t="s">
+        <v>834</v>
       </c>
       <c r="D610">
         <v>1</v>
@@ -12282,15 +11970,15 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="28" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="D611">
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A612" s="29" t="s">
-        <v>814</v>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="28" t="s">
+        <v>836</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -12298,15 +11986,15 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="28" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="D613">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A614" s="29" t="s">
-        <v>816</v>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="28" t="s">
+        <v>839</v>
       </c>
       <c r="D614">
         <v>1</v>
@@ -12314,78 +12002,71 @@
     </row>
     <row r="615" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A615" s="29" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="D615">
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="C616" s="82"/>
+    <row r="616" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A616" s="29" t="s">
+        <v>841</v>
+      </c>
       <c r="D616">
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" s="75" t="s">
-        <v>819</v>
-      </c>
-      <c r="B617" s="81"/>
-      <c r="C617" s="83" t="s">
-        <v>1038</v>
+    <row r="617" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A617" s="29" t="s">
+        <v>842</v>
       </c>
       <c r="D617">
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="76"/>
-      <c r="B618" s="81"/>
-      <c r="C618" s="84" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" s="91" t="s">
-        <v>820</v>
-      </c>
-      <c r="B619" s="81"/>
-      <c r="C619" s="83" t="s">
-        <v>1041</v>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A619" s="29" t="s">
+        <v>844</v>
       </c>
       <c r="D619">
         <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" s="92"/>
-      <c r="B620" s="81"/>
-      <c r="C620" s="94" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="93"/>
-      <c r="B621" s="81"/>
-      <c r="C621" s="89" t="s">
-        <v>1042</v>
+      <c r="A620" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A621" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="C622" s="30"/>
+        <v>847</v>
+      </c>
       <c r="D622">
         <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="28" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="D623">
         <v>1</v>
@@ -12393,7 +12074,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="28" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -12401,23 +12082,23 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="28" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="D625">
         <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626" s="44" t="s">
-        <v>825</v>
+      <c r="A626" s="28" t="s">
+        <v>851</v>
       </c>
       <c r="D626">
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A627" s="28" t="s">
-        <v>826</v>
+    <row r="627" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A627" s="29" t="s">
+        <v>852</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -12425,7 +12106,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="28" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="D628">
         <v>1</v>
@@ -12433,7 +12114,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="28" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="D629">
         <v>1</v>
@@ -12441,7 +12122,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="28" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="D630">
         <v>1</v>
@@ -12449,7 +12130,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="28" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="D631">
         <v>1</v>
@@ -12457,7 +12138,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="28" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -12465,23 +12146,23 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="28" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="D633">
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A634" s="29" t="s">
-        <v>833</v>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="28" t="s">
+        <v>859</v>
       </c>
       <c r="D634">
         <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A635" s="29" t="s">
-        <v>834</v>
+      <c r="A635" s="28" t="s">
+        <v>860</v>
       </c>
       <c r="D635">
         <v>1</v>
@@ -12489,7 +12170,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="28" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="D636">
         <v>1</v>
@@ -12497,7 +12178,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="28" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -12505,7 +12186,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="28" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="D638">
         <v>1</v>
@@ -12513,31 +12194,31 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="28" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
       <c r="D639">
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A640" s="29" t="s">
-        <v>840</v>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="28" t="s">
+        <v>865</v>
       </c>
       <c r="D640">
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A641" s="29" t="s">
-        <v>841</v>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="28" t="s">
+        <v>866</v>
       </c>
       <c r="D641">
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A642" s="29" t="s">
-        <v>842</v>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="28" t="s">
+        <v>868</v>
       </c>
       <c r="D642">
         <v>1</v>
@@ -12545,31 +12226,31 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="28" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="D643">
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A644" s="29" t="s">
-        <v>844</v>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="28" t="s">
+        <v>870</v>
       </c>
       <c r="D644">
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A645" s="28" t="s">
-        <v>845</v>
+    <row r="645" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A645" s="29" t="s">
+        <v>871</v>
       </c>
       <c r="D645">
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A646" s="29" t="s">
-        <v>846</v>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="28" t="s">
+        <v>872</v>
       </c>
       <c r="D646">
         <v>1</v>
@@ -12577,7 +12258,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="28" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="D647">
         <v>1</v>
@@ -12585,7 +12266,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="28" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="D648">
         <v>1</v>
@@ -12593,7 +12274,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="28" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -12601,7 +12282,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="28" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="D650">
         <v>1</v>
@@ -12609,15 +12290,15 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="28" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="D651">
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A652" s="29" t="s">
-        <v>852</v>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="28" t="s">
+        <v>878</v>
       </c>
       <c r="D652">
         <v>1</v>
@@ -12625,7 +12306,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="28" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -12633,7 +12314,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="28" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -12641,7 +12322,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="28" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="D655">
         <v>1</v>
@@ -12649,15 +12330,15 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="28" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="D656">
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A657" s="28" t="s">
-        <v>857</v>
+    <row r="657" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A657" s="29" t="s">
+        <v>883</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -12665,7 +12346,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="28" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="D658">
         <v>1</v>
@@ -12673,7 +12354,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="28" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="D659">
         <v>1</v>
@@ -12681,7 +12362,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="28" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -12689,7 +12370,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="28" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="D661">
         <v>1</v>
@@ -12697,7 +12378,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="28" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="D662">
         <v>1</v>
@@ -12705,7 +12386,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="28" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="D663">
         <v>1</v>
@@ -12713,7 +12394,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="28" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="D664">
         <v>1</v>
@@ -12721,7 +12402,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="28" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -12729,15 +12410,15 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="28" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="D666">
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A667" s="28" t="s">
-        <v>868</v>
+    <row r="667" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A667" s="29" t="s">
+        <v>895</v>
       </c>
       <c r="D667">
         <v>1</v>
@@ -12745,7 +12426,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="28" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="D668">
         <v>1</v>
@@ -12753,15 +12434,15 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="28" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="D669">
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A670" s="29" t="s">
-        <v>871</v>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="28" t="s">
+        <v>898</v>
       </c>
       <c r="D670">
         <v>1</v>
@@ -12769,7 +12450,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="28" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="D671">
         <v>1</v>
@@ -12777,7 +12458,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -12785,15 +12466,15 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="28" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="D673">
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A674" s="28" t="s">
-        <v>875</v>
+    <row r="674" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A674" s="29" t="s">
+        <v>905</v>
       </c>
       <c r="D674">
         <v>1</v>
@@ -12801,7 +12482,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="28" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="D675">
         <v>1</v>
@@ -12809,7 +12490,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="28" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="D676">
         <v>1</v>
@@ -12817,7 +12498,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="28" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="D677">
         <v>1</v>
@@ -12825,7 +12506,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="28" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="D678">
         <v>1</v>
@@ -12833,7 +12514,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="28" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="D679">
         <v>1</v>
@@ -12841,23 +12522,23 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="28" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="D680">
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A681" s="28" t="s">
-        <v>882</v>
+    <row r="681" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A681" s="29" t="s">
+        <v>912</v>
       </c>
       <c r="D681">
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A682" s="29" t="s">
-        <v>883</v>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="28" t="s">
+        <v>913</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -12865,7 +12546,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="28" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="D683">
         <v>1</v>
@@ -12873,15 +12554,15 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="28" t="s">
-        <v>885</v>
+        <v>915</v>
       </c>
       <c r="D684">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A685" s="28" t="s">
-        <v>886</v>
+    <row r="685" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A685" s="29" t="s">
+        <v>916</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -12889,7 +12570,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="28" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -12897,15 +12578,15 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="28" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="D687">
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A688" s="28" t="s">
-        <v>889</v>
+    <row r="688" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A688" s="29" t="s">
+        <v>919</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -12913,7 +12594,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="28" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="D689">
         <v>1</v>
@@ -12921,23 +12602,23 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="28" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="D690">
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A691" s="28" t="s">
-        <v>894</v>
+    <row r="691" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A691" s="29" t="s">
+        <v>923</v>
       </c>
       <c r="D691">
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A692" s="29" t="s">
-        <v>895</v>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" s="28" t="s">
+        <v>924</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -12945,7 +12626,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="28" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -12953,7 +12634,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="28" t="s">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -12961,7 +12642,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="28" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -12969,7 +12650,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="28" t="s">
-        <v>899</v>
+        <v>928</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -12977,7 +12658,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="28" t="s">
-        <v>872</v>
+        <v>929</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -12985,23 +12666,23 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="28" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="D698">
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A699" s="29" t="s">
-        <v>905</v>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" s="28" t="s">
+        <v>932</v>
       </c>
       <c r="D699">
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A700" s="28" t="s">
-        <v>906</v>
+    <row r="700" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A700" s="29" t="s">
+        <v>933</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -13009,7 +12690,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="28" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -13017,7 +12698,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="28" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -13025,7 +12706,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="28" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -13033,7 +12714,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="28" t="s">
-        <v>910</v>
+        <v>937</v>
       </c>
       <c r="D704">
         <v>1</v>
@@ -13041,15 +12722,15 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="28" t="s">
-        <v>911</v>
+        <v>938</v>
       </c>
       <c r="D705">
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A706" s="29" t="s">
-        <v>912</v>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706" s="28" t="s">
+        <v>939</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -13057,471 +12738,500 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="28" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="D707">
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A708" s="28" t="s">
-        <v>914</v>
+    <row r="708" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A708" s="29" t="s">
+        <v>941</v>
       </c>
       <c r="D708">
         <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A709" s="28" t="s">
-        <v>915</v>
+      <c r="A709" s="53" t="s">
+        <v>942</v>
       </c>
       <c r="D709">
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A710" s="29" t="s">
-        <v>916</v>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710" s="53" t="s">
+        <v>943</v>
       </c>
       <c r="D710">
         <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A711" s="28" t="s">
-        <v>917</v>
+      <c r="A711" s="53" t="s">
+        <v>944</v>
       </c>
       <c r="D711">
         <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A712" s="28" t="s">
-        <v>918</v>
+      <c r="A712" s="53" t="s">
+        <v>945</v>
       </c>
       <c r="D712">
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A713" s="29" t="s">
-        <v>919</v>
+    <row r="713" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="72" t="s">
+        <v>946</v>
       </c>
       <c r="D713">
         <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A714" s="28" t="s">
-        <v>920</v>
+      <c r="A714" s="53" t="s">
+        <v>947</v>
       </c>
       <c r="D714">
         <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A715" s="28" t="s">
-        <v>921</v>
+      <c r="A715" s="53" t="s">
+        <v>948</v>
       </c>
       <c r="D715">
         <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A716" s="29" t="s">
-        <v>923</v>
+      <c r="A716" s="54" t="s">
+        <v>949</v>
       </c>
       <c r="D716">
         <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A717" s="28" t="s">
-        <v>924</v>
+      <c r="A717" s="53" t="s">
+        <v>950</v>
       </c>
       <c r="D717">
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A718" s="28" t="s">
-        <v>925</v>
+    <row r="718" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A718" s="54" t="s">
+        <v>951</v>
       </c>
       <c r="D718">
         <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A719" s="28" t="s">
-        <v>926</v>
+      <c r="A719" s="53" t="s">
+        <v>954</v>
       </c>
       <c r="D719">
         <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A720" s="28" t="s">
-        <v>927</v>
+      <c r="A720" s="53" t="s">
+        <v>955</v>
       </c>
       <c r="D720">
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A721" s="28" t="s">
-        <v>928</v>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="53" t="s">
+        <v>956</v>
       </c>
       <c r="D721">
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A722" s="28" t="s">
-        <v>929</v>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" s="53" t="s">
+        <v>957</v>
       </c>
       <c r="D722">
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A723" s="28" t="s">
-        <v>931</v>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" s="53" t="s">
+        <v>958</v>
       </c>
       <c r="D723">
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A724" s="28" t="s">
-        <v>932</v>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" s="53" t="s">
+        <v>959</v>
       </c>
       <c r="D724">
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A725" s="29" t="s">
-        <v>933</v>
+    <row r="725" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A725" s="54" t="s">
+        <v>960</v>
       </c>
       <c r="D725">
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A726" s="28" t="s">
-        <v>934</v>
+    <row r="726" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A726" s="54" t="s">
+        <v>961</v>
       </c>
       <c r="D726">
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A727" s="28" t="s">
-        <v>935</v>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" s="53" t="s">
+        <v>962</v>
       </c>
       <c r="D727">
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A728" s="28" t="s">
-        <v>936</v>
+    <row r="728" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A728" s="54" t="s">
+        <v>963</v>
       </c>
       <c r="D728">
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A729" s="28" t="s">
-        <v>937</v>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" s="53" t="s">
+        <v>964</v>
       </c>
       <c r="D729">
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A730" s="28" t="s">
-        <v>938</v>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" s="53" t="s">
+        <v>965</v>
       </c>
       <c r="D730">
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A731" s="28" t="s">
-        <v>939</v>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" s="53" t="s">
+        <v>966</v>
       </c>
       <c r="D731">
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A732" s="28" t="s">
-        <v>940</v>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" s="53" t="s">
+        <v>967</v>
       </c>
       <c r="D732">
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A733" s="29" t="s">
-        <v>941</v>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" s="53" t="s">
+        <v>968</v>
       </c>
       <c r="D733">
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A734" s="33" t="s">
-        <v>942</v>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" s="53" t="s">
+        <v>969</v>
       </c>
       <c r="D734">
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A735" s="33" t="s">
-        <v>943</v>
+    <row r="735" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A735" s="54" t="s">
+        <v>970</v>
       </c>
       <c r="D735">
         <v>1</v>
       </c>
-    </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A736" s="33" t="s">
-        <v>944</v>
-      </c>
-      <c r="D736">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A737" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="D737">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="45" t="s">
-        <v>946</v>
-      </c>
-      <c r="D738">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A739" s="33" t="s">
-        <v>947</v>
-      </c>
-      <c r="D739">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A740" s="33" t="s">
-        <v>948</v>
-      </c>
-      <c r="D740">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A741" s="34" t="s">
-        <v>949</v>
-      </c>
-      <c r="D741">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A742" s="33" t="s">
-        <v>950</v>
-      </c>
-      <c r="D742">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A743" s="34" t="s">
-        <v>951</v>
-      </c>
-      <c r="D743">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A744" s="33" t="s">
-        <v>954</v>
-      </c>
-      <c r="D744">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A745" s="33" t="s">
-        <v>955</v>
-      </c>
-      <c r="D745">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A746" s="33" t="s">
-        <v>956</v>
-      </c>
-      <c r="D746">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A747" s="33" t="s">
-        <v>957</v>
-      </c>
-      <c r="D747">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A748" s="33" t="s">
-        <v>958</v>
-      </c>
-      <c r="D748">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A749" s="33" t="s">
-        <v>959</v>
-      </c>
-      <c r="D749">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="750" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A750" s="34" t="s">
-        <v>960</v>
-      </c>
-      <c r="D750">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A751" s="34" t="s">
-        <v>961</v>
-      </c>
-      <c r="D751">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A752" s="33" t="s">
-        <v>962</v>
-      </c>
-      <c r="D752">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A753" s="34" t="s">
-        <v>963</v>
-      </c>
-      <c r="D753">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="33" t="s">
-        <v>964</v>
-      </c>
-      <c r="D754">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="33" t="s">
-        <v>965</v>
-      </c>
-      <c r="D755">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="33" t="s">
-        <v>966</v>
-      </c>
-      <c r="D756">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="33" t="s">
-        <v>967</v>
-      </c>
-      <c r="D757">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="33" t="s">
-        <v>968</v>
-      </c>
-      <c r="D758">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="33" t="s">
-        <v>969</v>
-      </c>
-      <c r="D759">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="760" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A760" s="34" t="s">
-        <v>970</v>
-      </c>
-      <c r="D760">
-        <v>1</v>
-      </c>
-      <c r="E760">
-        <f>COUNT(D579:D760)</f>
+      <c r="E735">
+        <f>COUNT(D565:D735)</f>
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="311">
-    <mergeCell ref="A617:A618"/>
-    <mergeCell ref="A619:A621"/>
-    <mergeCell ref="A576:A577"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="A583:A584"/>
-    <mergeCell ref="A586:A587"/>
-    <mergeCell ref="A591:A593"/>
-    <mergeCell ref="A597:A598"/>
-    <mergeCell ref="A600:A601"/>
-    <mergeCell ref="A605:A606"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="A553:A555"/>
-    <mergeCell ref="A561:A562"/>
-    <mergeCell ref="A565:A567"/>
-    <mergeCell ref="A563:A564"/>
-    <mergeCell ref="A558:A560"/>
-    <mergeCell ref="A568:A571"/>
-    <mergeCell ref="A572:A573"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="A342:A343"/>
-    <mergeCell ref="B342:B343"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
+  <mergeCells count="292">
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B486:B487"/>
+    <mergeCell ref="A486:A487"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B491:B492"/>
+    <mergeCell ref="A491:A492"/>
+    <mergeCell ref="A489:A490"/>
+    <mergeCell ref="B489:B490"/>
+    <mergeCell ref="A498:A499"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="B503:B504"/>
+    <mergeCell ref="B501:B502"/>
+    <mergeCell ref="A501:A502"/>
+    <mergeCell ref="A509:A510"/>
+    <mergeCell ref="B509:B510"/>
+    <mergeCell ref="A506:A507"/>
+    <mergeCell ref="B506:B507"/>
+    <mergeCell ref="B512:B513"/>
+    <mergeCell ref="A512:A513"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B518:B519"/>
+    <mergeCell ref="A518:A519"/>
+    <mergeCell ref="B516:B517"/>
+    <mergeCell ref="A516:A517"/>
+    <mergeCell ref="B539:B540"/>
+    <mergeCell ref="A539:A540"/>
+    <mergeCell ref="B536:B537"/>
+    <mergeCell ref="A536:A537"/>
+    <mergeCell ref="B534:B535"/>
+    <mergeCell ref="A534:A535"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B530:B531"/>
+    <mergeCell ref="A530:A531"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="C541:C542"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="B543:B544"/>
+    <mergeCell ref="A543:A544"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="A444:A445"/>
+    <mergeCell ref="A480:A481"/>
+    <mergeCell ref="B462:B463"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="B459:B460"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B528:B529"/>
+    <mergeCell ref="A528:A529"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A298"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A310"/>
+    <mergeCell ref="A311:A314"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A462:A463"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B482:B483"/>
+    <mergeCell ref="A482:A483"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="B473:B474"/>
+    <mergeCell ref="A470:A471"/>
+    <mergeCell ref="B470:B471"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="A452:A453"/>
+    <mergeCell ref="B452:B453"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="A450:A451"/>
+    <mergeCell ref="B450:B451"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="A435:A436"/>
+    <mergeCell ref="B435:B436"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="A446:A447"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="B431:B432"/>
+    <mergeCell ref="A429:A430"/>
+    <mergeCell ref="B429:B430"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C399:C401"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="A412:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="A399:A401"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A383:A384"/>
     <mergeCell ref="B356:B357"/>
     <mergeCell ref="A360:A363"/>
     <mergeCell ref="A354:A355"/>
@@ -13546,264 +13256,16 @@
     <mergeCell ref="B381:B382"/>
     <mergeCell ref="C385:C388"/>
     <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C399:C401"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="A412:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="A399:A401"/>
-    <mergeCell ref="A420:A421"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="A431:A432"/>
-    <mergeCell ref="B431:B432"/>
-    <mergeCell ref="A429:A430"/>
-    <mergeCell ref="B429:B430"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="A408:A409"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="A450:A451"/>
-    <mergeCell ref="B450:B451"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="A435:A436"/>
-    <mergeCell ref="B435:B436"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="A446:A447"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B482:B483"/>
-    <mergeCell ref="A482:A483"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="B473:B474"/>
-    <mergeCell ref="A470:A471"/>
-    <mergeCell ref="B470:B471"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="B467:B468"/>
-    <mergeCell ref="B465:B466"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A462:A463"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="A452:A453"/>
-    <mergeCell ref="B452:B453"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A222:A226"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A298"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A310"/>
-    <mergeCell ref="A311:A314"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="A320:A321"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="A338:A339"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="C541:C542"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="B543:B544"/>
-    <mergeCell ref="A543:A544"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="A444:A445"/>
-    <mergeCell ref="A480:A481"/>
-    <mergeCell ref="B462:B463"/>
-    <mergeCell ref="A459:A460"/>
-    <mergeCell ref="B459:B460"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B528:B529"/>
-    <mergeCell ref="A528:A529"/>
-    <mergeCell ref="B539:B540"/>
-    <mergeCell ref="A539:A540"/>
-    <mergeCell ref="B536:B537"/>
-    <mergeCell ref="A536:A537"/>
-    <mergeCell ref="B534:B535"/>
-    <mergeCell ref="A534:A535"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B530:B531"/>
-    <mergeCell ref="A530:A531"/>
-    <mergeCell ref="B512:B513"/>
-    <mergeCell ref="A512:A513"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B518:B519"/>
-    <mergeCell ref="A518:A519"/>
-    <mergeCell ref="B516:B517"/>
-    <mergeCell ref="A516:A517"/>
-    <mergeCell ref="A498:A499"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="B503:B504"/>
-    <mergeCell ref="B501:B502"/>
-    <mergeCell ref="A501:A502"/>
-    <mergeCell ref="A509:A510"/>
-    <mergeCell ref="B509:B510"/>
-    <mergeCell ref="A506:A507"/>
-    <mergeCell ref="B506:B507"/>
-    <mergeCell ref="B486:B487"/>
-    <mergeCell ref="A486:A487"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B491:B492"/>
-    <mergeCell ref="A491:A492"/>
-    <mergeCell ref="A489:A490"/>
-    <mergeCell ref="B489:B490"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
